--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1312">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">1.27346646785736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28596580028534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611399650574</t>
+    <t xml:space="preserve">1.28596591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611411571503</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258322715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31169986724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32566964626312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33596348762512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32346403598785</t>
+    <t xml:space="preserve">1.31169974803925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32566976547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33596336841583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32346415519714</t>
   </si>
   <si>
     <t xml:space="preserve">1.30875885486603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26758432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25214397907257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302745819092</t>
+    <t xml:space="preserve">1.26758444309235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25214409828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302721977234</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729095935822</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">1.2955242395401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27493703365326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24111533164978</t>
+    <t xml:space="preserve">1.27493691444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24111521244049</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449802398682</t>
+    <t xml:space="preserve">1.23449778556824</t>
   </si>
   <si>
     <t xml:space="preserve">1.18008875846863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18376529216766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15729570388794</t>
+    <t xml:space="preserve">1.18376505374908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.13964951038361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06612372398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568228244781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07053554058075</t>
+    <t xml:space="preserve">1.06612384319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568216323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07053542137146</t>
   </si>
   <si>
     <t xml:space="preserve">1.05141866207123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07347655296326</t>
+    <t xml:space="preserve">1.07347643375397</t>
   </si>
   <si>
     <t xml:space="preserve">1.09479880332947</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">1.15067851543427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16832458972931</t>
+    <t xml:space="preserve">1.1683247089386</t>
   </si>
   <si>
     <t xml:space="preserve">1.16538369655609</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">1.17641246318817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18597078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317541599274</t>
+    <t xml:space="preserve">1.18597102165222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317529678345</t>
   </si>
   <si>
     <t xml:space="preserve">1.15435481071472</t>
@@ -161,13 +161,13 @@
     <t xml:space="preserve">1.16170728206635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18817663192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20582270622253</t>
+    <t xml:space="preserve">1.18817675113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347121238708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20582282543182</t>
   </si>
   <si>
     <t xml:space="preserve">1.23670363426208</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">1.22861588001251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22052776813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670120239258</t>
+    <t xml:space="preserve">1.22052800655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670144081116</t>
   </si>
   <si>
     <t xml:space="preserve">1.30655312538147</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">1.30214166641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26464343070984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24993824958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28743636608124</t>
+    <t xml:space="preserve">1.26464354991913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24993813037872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28743660449982</t>
   </si>
   <si>
     <t xml:space="preserve">1.28228962421417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30581796169281</t>
+    <t xml:space="preserve">1.30581784248352</t>
   </si>
   <si>
     <t xml:space="preserve">1.23008620738983</t>
@@ -218,16 +218,16 @@
     <t xml:space="preserve">1.25655555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26317310333252</t>
+    <t xml:space="preserve">1.26317298412323</t>
   </si>
   <si>
     <t xml:space="preserve">1.26243758201599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29920041561127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2940536737442</t>
+    <t xml:space="preserve">1.29920053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29405379295349</t>
   </si>
   <si>
     <t xml:space="preserve">1.25876140594482</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">1.27861320972443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27934837341309</t>
+    <t xml:space="preserve">1.27934861183167</t>
   </si>
   <si>
     <t xml:space="preserve">1.2896420955658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27199614048004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28302490711212</t>
+    <t xml:space="preserve">1.27199602127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28302502632141</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581541061401</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">1.36022686958313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33816933631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35066866874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34478676319122</t>
+    <t xml:space="preserve">1.33816921710968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35066854953766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34478664398193</t>
   </si>
   <si>
     <t xml:space="preserve">1.30949413776398</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">1.1925882101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20288169384003</t>
+    <t xml:space="preserve">1.20288181304932</t>
   </si>
   <si>
     <t xml:space="preserve">1.19847023487091</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11759197711945</t>
+    <t xml:space="preserve">1.11759185791016</t>
   </si>
   <si>
     <t xml:space="preserve">1.12347400188446</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">1.13597333431244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13229691982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023914813995</t>
+    <t xml:space="preserve">1.1322968006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023926734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.15582525730133</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">1.2139105796814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41169500350952</t>
+    <t xml:space="preserve">1.41169488430023</t>
   </si>
   <si>
     <t xml:space="preserve">1.5602171421051</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">1.561687707901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52345430850983</t>
+    <t xml:space="preserve">1.52345418930054</t>
   </si>
   <si>
     <t xml:space="preserve">1.48522078990936</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">1.52933609485626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47051572799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54257082939148</t>
+    <t xml:space="preserve">1.47051560878754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54257094860077</t>
   </si>
   <si>
     <t xml:space="preserve">1.50874900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49404394626617</t>
+    <t xml:space="preserve">1.49404382705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.5072785615921</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">1.4999258518219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48669123649597</t>
+    <t xml:space="preserve">1.48669135570526</t>
   </si>
   <si>
     <t xml:space="preserve">1.49257338047028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48816168308258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48080921173096</t>
+    <t xml:space="preserve">1.48816180229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48080933094025</t>
   </si>
   <si>
     <t xml:space="preserve">1.49845540523529</t>
@@ -392,40 +392,40 @@
     <t xml:space="preserve">1.55433511734009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785313129425</t>
+    <t xml:space="preserve">1.77785336971283</t>
   </si>
   <si>
     <t xml:space="preserve">1.74550211429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88961207866669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666911125183</t>
+    <t xml:space="preserve">1.88961255550385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666887283325</t>
   </si>
   <si>
     <t xml:space="preserve">1.88078951835632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87931907176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020219326019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81608700752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138170719147</t>
+    <t xml:space="preserve">1.87931895256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020255088806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.816086769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138146877289</t>
   </si>
   <si>
     <t xml:space="preserve">1.87490749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93372821807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9160817861557</t>
+    <t xml:space="preserve">1.9337283372879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608154773712</t>
   </si>
   <si>
     <t xml:space="preserve">1.91314077377319</t>
@@ -434,28 +434,28 @@
     <t xml:space="preserve">1.93078696727753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92931640148163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92049324512482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431773662567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902267932892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90137672424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9234344959259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961012363434</t>
+    <t xml:space="preserve">1.92931687831879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9204934835434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431785583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9190229177475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90137660503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92343425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961036205292</t>
   </si>
   <si>
     <t xml:space="preserve">1.96166777610779</t>
@@ -464,46 +464,46 @@
     <t xml:space="preserve">2.09401440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489266395569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12930655479431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19106841087341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1410710811615</t>
+    <t xml:space="preserve">2.17489242553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12930703163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19106817245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14107084274292</t>
   </si>
   <si>
     <t xml:space="preserve">2.09695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13077735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842610359192</t>
+    <t xml:space="preserve">2.13077688217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842586517334</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19695019721985</t>
+    <t xml:space="preserve">2.19694995880127</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782869338989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26606464385986</t>
+    <t xml:space="preserve">2.26606440544128</t>
   </si>
   <si>
     <t xml:space="preserve">2.08813214302063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97637283802032</t>
+    <t xml:space="preserve">1.9763730764389</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901526451111</t>
@@ -512,25 +512,25 @@
     <t xml:space="preserve">2.04989886283875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1160717010498</t>
+    <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.10136675834656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08225011825562</t>
+    <t xml:space="preserve">2.08225035667419</t>
   </si>
   <si>
     <t xml:space="preserve">2.07636785507202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03519368171692</t>
+    <t xml:space="preserve">2.03519344329834</t>
   </si>
   <si>
     <t xml:space="preserve">2.01460647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578587055206</t>
+    <t xml:space="preserve">1.95578610897064</t>
   </si>
   <si>
     <t xml:space="preserve">1.96019721031189</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">1.99696016311646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99254870414734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00431275367737</t>
+    <t xml:space="preserve">1.99254846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00431299209595</t>
   </si>
   <si>
     <t xml:space="preserve">2.09548497200012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08666157722473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08372068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05431008338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05872201919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06019234657288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06754517555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313371658325</t>
+    <t xml:space="preserve">2.08666205406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08372092247009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813481330872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05431056022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05872178077698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06019258499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06754493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313323974609</t>
   </si>
   <si>
     <t xml:space="preserve">2.10283732414246</t>
@@ -602,82 +602,82 @@
     <t xml:space="preserve">2.16606974601746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989132881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047829627991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19842076301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21753716468811</t>
+    <t xml:space="preserve">2.19989156723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19842100143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21753764152527</t>
   </si>
   <si>
     <t xml:space="preserve">2.24988889694214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23518395423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25430059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23959517478943</t>
+    <t xml:space="preserve">2.23518371582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25430035591125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23959541320801</t>
   </si>
   <si>
     <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25871229171753</t>
+    <t xml:space="preserve">2.25871205329895</t>
   </si>
   <si>
     <t xml:space="preserve">2.24253630638123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21606683731079</t>
+    <t xml:space="preserve">2.21606731414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.20136189460754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22341966629028</t>
+    <t xml:space="preserve">2.2234194278717</t>
   </si>
   <si>
     <t xml:space="preserve">2.20577359199524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22194910049438</t>
+    <t xml:space="preserve">2.22194886207581</t>
   </si>
   <si>
     <t xml:space="preserve">2.35282492637634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61163592338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61016511917114</t>
+    <t xml:space="preserve">2.61163568496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61016535758972</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60575342178345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5866367816925</t>
+    <t xml:space="preserve">2.60575389862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58663702011108</t>
   </si>
   <si>
     <t xml:space="preserve">2.52193427085876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64545798301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60281229019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5881073474884</t>
+    <t xml:space="preserve">2.64545774459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60281252861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58810758590698</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457924842834</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">2.56016778945923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59840083122253</t>
+    <t xml:space="preserve">2.59840106964111</t>
   </si>
   <si>
     <t xml:space="preserve">2.57634353637695</t>
@@ -698,70 +698,70 @@
     <t xml:space="preserve">2.5954601764679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78662705421448</t>
+    <t xml:space="preserve">2.7866268157959</t>
   </si>
   <si>
     <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83809518814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808789253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632603645325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454448699951</t>
+    <t xml:space="preserve">2.83809471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454472541809</t>
   </si>
   <si>
     <t xml:space="preserve">3.39983224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55129528045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217401504517</t>
+    <t xml:space="preserve">3.55129504203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217353820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.89319062232971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75716733932495</t>
+    <t xml:space="preserve">3.75716781616211</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480854988098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.841721534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14685392379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40051889419556</t>
+    <t xml:space="preserve">3.84172201156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848520278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039175033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14685440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449537277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4005184173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.37478399276733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31596374511719</t>
+    <t xml:space="preserve">4.31596326828003</t>
   </si>
   <si>
     <t xml:space="preserve">4.23140859603882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5218358039856</t>
+    <t xml:space="preserve">4.52183532714844</t>
   </si>
   <si>
     <t xml:space="preserve">4.51815938949585</t>
@@ -770,67 +770,67 @@
     <t xml:space="preserve">4.77917623519897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92990350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177333831787</t>
+    <t xml:space="preserve">4.92990398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177381515503</t>
   </si>
   <si>
     <t xml:space="preserve">5.02916383743286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35267734527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26444625854492</t>
+    <t xml:space="preserve">5.35267686843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26444578170776</t>
   </si>
   <si>
     <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71295261383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0585241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71290397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523725509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584167480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389867782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310342788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926603317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67006587982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85503053665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66629028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37185621261597</t>
+    <t xml:space="preserve">5.71295309066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05852460861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71290349960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376935958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310438156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67006540298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85502958297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66628980636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37185573577881</t>
   </si>
   <si>
     <t xml:space="preserve">6.63609218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75688505172729</t>
+    <t xml:space="preserve">6.75688552856445</t>
   </si>
   <si>
     <t xml:space="preserve">6.83238077163696</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">6.71913719177246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46245145797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397443771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68893957138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085779190063</t>
+    <t xml:space="preserve">6.46245193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68893814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085874557495</t>
   </si>
   <si>
     <t xml:space="preserve">6.63986682891846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490169525146</t>
+    <t xml:space="preserve">6.45490217208862</t>
   </si>
   <si>
     <t xml:space="preserve">6.41337871551514</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25483751296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159345626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1982159614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18689155578613</t>
+    <t xml:space="preserve">6.25483798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19821548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
     <t xml:space="preserve">6.03589916229248</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">5.435706615448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22431802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20921897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465051651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862421035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259647369385</t>
+    <t xml:space="preserve">5.22431898117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20921945571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259742736816</t>
   </si>
   <si>
     <t xml:space="preserve">4.93365859985352</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">5.00537967681885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92233419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836145401001</t>
+    <t xml:space="preserve">4.92233467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855955123901</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">4.77511739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73359489440918</t>
+    <t xml:space="preserve">4.73359441757202</t>
   </si>
   <si>
     <t xml:space="preserve">4.71472072601318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6580982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59770250320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60147666931152</t>
+    <t xml:space="preserve">4.65809917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59770154953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60147714614868</t>
   </si>
   <si>
     <t xml:space="preserve">4.68452215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2847146987915</t>
+    <t xml:space="preserve">5.28471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">5.09597492218018</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">5.04690265655518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00160503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723514556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83173942565918</t>
+    <t xml:space="preserve">5.00160551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478490829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83173990249634</t>
   </si>
   <si>
     <t xml:space="preserve">4.81664037704468</t>
@@ -980,22 +980,22 @@
     <t xml:space="preserve">4.89213609695435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90346097946167</t>
+    <t xml:space="preserve">4.90346050262451</t>
   </si>
   <si>
     <t xml:space="preserve">4.98273134231567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99405527114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19789457321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06955099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491279602051</t>
+    <t xml:space="preserve">4.99405574798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19789505004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06955146789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
     <t xml:space="preserve">5.39795923233032</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">5.367760181427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45080614089966</t>
+    <t xml:space="preserve">5.45080518722534</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021089553833</t>
@@ -1013,22 +1013,22 @@
     <t xml:space="preserve">5.17902040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99028015136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24319219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882230758667</t>
+    <t xml:space="preserve">4.99028062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24319267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882183074951</t>
   </si>
   <si>
     <t xml:space="preserve">5.16392135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05822706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372373580933</t>
+    <t xml:space="preserve">5.0582275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372278213501</t>
   </si>
   <si>
     <t xml:space="preserve">5.30358934402466</t>
@@ -1037,28 +1037,28 @@
     <t xml:space="preserve">5.33001232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26584100723267</t>
+    <t xml:space="preserve">5.26584053039551</t>
   </si>
   <si>
     <t xml:space="preserve">5.20166921615601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19034481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305828094482</t>
+    <t xml:space="preserve">5.190345287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305875778198</t>
   </si>
   <si>
     <t xml:space="preserve">5.49232912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88490724563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19066524505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06232261657715</t>
+    <t xml:space="preserve">5.88490772247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19066572189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06232213973999</t>
   </si>
   <si>
     <t xml:space="preserve">6.33410835266113</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">6.24351358413696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48510026931763</t>
+    <t xml:space="preserve">6.48510074615479</t>
   </si>
   <si>
     <t xml:space="preserve">6.51529836654663</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">6.84747982025146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38350105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23628377914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46654653549194</t>
+    <t xml:space="preserve">7.3835015296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2362847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4665470123291</t>
   </si>
   <si>
     <t xml:space="preserve">7.48919582366943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07806301116943</t>
+    <t xml:space="preserve">8.07806396484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.53104019165039</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">8.85567092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39924430847168</t>
+    <t xml:space="preserve">9.39924240112305</t>
   </si>
   <si>
     <t xml:space="preserve">9.75407409667969</t>
@@ -1106,31 +1106,31 @@
     <t xml:space="preserve">10.7204217910767</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84057331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04441070556641</t>
+    <t xml:space="preserve">8.84057235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04441165924072</t>
   </si>
   <si>
     <t xml:space="preserve">8.62918472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41024684906006</t>
+    <t xml:space="preserve">8.41024589538574</t>
   </si>
   <si>
     <t xml:space="preserve">8.19130802154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73487854003906</t>
+    <t xml:space="preserve">8.73487758636475</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5008430480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38004779815674</t>
+    <t xml:space="preserve">8.50084114074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38004684448242</t>
   </si>
   <si>
     <t xml:space="preserve">8.27435398101807</t>
@@ -1148,28 +1148,28 @@
     <t xml:space="preserve">7.84402656555176</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82137870788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343179702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428424835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2290563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34984874725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23660659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44044494628906</t>
+    <t xml:space="preserve">7.82137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7534327507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22905540466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34984970092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23660469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44044399261475</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
@@ -1181,79 +1181,79 @@
     <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94971990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79117918014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5495924949646</t>
+    <t xml:space="preserve">7.9497218132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117822647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54959392547607</t>
   </si>
   <si>
     <t xml:space="preserve">7.30800580978394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57224130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31932973861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5646915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714321136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92707347869873</t>
+    <t xml:space="preserve">7.57224178314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3193302154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469249725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92707252502441</t>
   </si>
   <si>
     <t xml:space="preserve">8.03276634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60998964309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243940353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54204273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522260665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3533034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2400598526001</t>
+    <t xml:space="preserve">7.60999059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60243892669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54204225540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522165298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
   </si>
   <si>
     <t xml:space="preserve">7.29668140411377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51184558868408</t>
+    <t xml:space="preserve">7.51184415817261</t>
   </si>
   <si>
     <t xml:space="preserve">7.25893354415894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19476222991943</t>
+    <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
     <t xml:space="preserve">7.23250961303711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12304067611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780771255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32687997817993</t>
+    <t xml:space="preserve">7.12304019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045604705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32688093185425</t>
   </si>
   <si>
     <t xml:space="preserve">7.51562023162842</t>
@@ -1262,67 +1262,67 @@
     <t xml:space="preserve">7.49297046661377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3684024810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058345794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21395587921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123828887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30455303192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945159912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1988582611084</t>
+    <t xml:space="preserve">7.36840200424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693019866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30455207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945064544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19885635375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.04786586761475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15355968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766872406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16865921020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85157680511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681484222412</t>
+    <t xml:space="preserve">8.15356063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766777038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16865825653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85157585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681579589844</t>
   </si>
   <si>
     <t xml:space="preserve">7.08151769638062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89277839660645</t>
+    <t xml:space="preserve">6.89277791976929</t>
   </si>
   <si>
     <t xml:space="preserve">6.96827459335327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80973243713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317506790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88522815704346</t>
+    <t xml:space="preserve">6.80973339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8852276802063</t>
   </si>
   <si>
     <t xml:space="preserve">6.93052673339844</t>
@@ -1331,28 +1331,28 @@
     <t xml:space="preserve">6.87767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59834432601929</t>
+    <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
     <t xml:space="preserve">6.50019884109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900978088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801691055298</t>
+    <t xml:space="preserve">6.31900930404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801786422729</t>
   </si>
   <si>
     <t xml:space="preserve">6.15291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56814575195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5756950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76443529129028</t>
+    <t xml:space="preserve">6.56814479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57569551467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
     <t xml:space="preserve">6.78708362579346</t>
@@ -1367,37 +1367,37 @@
     <t xml:space="preserve">6.77953338623047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205430984497</t>
+    <t xml:space="preserve">6.60589361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205478668213</t>
   </si>
   <si>
     <t xml:space="preserve">6.4398021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22086381912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22841310501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18311643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08497190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616191864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31145906448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28881072998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4775505065918</t>
+    <t xml:space="preserve">6.22086429595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22841358184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18311595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0849723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616144180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28881025314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47755002975464</t>
   </si>
   <si>
     <t xml:space="preserve">6.4926495552063</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">6.56059598922729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53039693832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470407485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324480056763</t>
+    <t xml:space="preserve">6.53039741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42470359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324432373047</t>
   </si>
   <si>
     <t xml:space="preserve">6.62099313735962</t>
@@ -1427,31 +1427,31 @@
     <t xml:space="preserve">6.91063451766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69836282730103</t>
+    <t xml:space="preserve">6.69836330413818</t>
   </si>
   <si>
     <t xml:space="preserve">6.78484392166138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66691446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974382400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849613189697</t>
+    <t xml:space="preserve">6.66691493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974334716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849660873413</t>
   </si>
   <si>
     <t xml:space="preserve">6.72981071472168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4782280921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39961004257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519901275635</t>
+    <t xml:space="preserve">6.47822856903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960956573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519948959351</t>
   </si>
   <si>
     <t xml:space="preserve">6.2502326965332</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">6.23450899124146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15588998794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24237155914307</t>
+    <t xml:space="preserve">6.15588903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24237108230591</t>
   </si>
   <si>
     <t xml:space="preserve">6.1323037147522</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">5.87285995483398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75493097305298</t>
+    <t xml:space="preserve">5.75493144989014</t>
   </si>
   <si>
     <t xml:space="preserve">5.88072204589844</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">6.09299421310425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92003202438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0772705078125</t>
+    <t xml:space="preserve">5.9200325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07727003097534</t>
   </si>
   <si>
     <t xml:space="preserve">6.04582262039185</t>
@@ -1502,22 +1502,22 @@
     <t xml:space="preserve">6.21878528594971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64332866668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119123458862</t>
+    <t xml:space="preserve">6.64332962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918710708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119075775146</t>
   </si>
   <si>
     <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43105697631836</t>
+    <t xml:space="preserve">6.43105745315552</t>
   </si>
   <si>
     <t xml:space="preserve">6.36029958724976</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">6.06154632568359</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05368375778198</t>
+    <t xml:space="preserve">6.05368423461914</t>
   </si>
   <si>
     <t xml:space="preserve">5.9829273223877</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">5.94361734390259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84927463531494</t>
+    <t xml:space="preserve">5.84927415847778</t>
   </si>
   <si>
     <t xml:space="preserve">6.03796052932739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06940793991089</t>
+    <t xml:space="preserve">6.06940746307373</t>
   </si>
   <si>
     <t xml:space="preserve">5.95934104919434</t>
@@ -1553,16 +1553,16 @@
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575620651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85713624954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851724624634</t>
+    <t xml:space="preserve">5.93575572967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85713672637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996513366699</t>
@@ -1571,52 +1571,52 @@
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920774459839</t>
+    <t xml:space="preserve">5.73920726776123</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54265928268433</t>
+    <t xml:space="preserve">5.54265880584717</t>
   </si>
   <si>
     <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279258728027</t>
+    <t xml:space="preserve">5.76279306411743</t>
   </si>
   <si>
     <t xml:space="preserve">5.78637886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62914037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53479671478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44045400619507</t>
+    <t xml:space="preserve">5.62913990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53479719161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44045448303223</t>
   </si>
   <si>
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499881744385</t>
+    <t xml:space="preserve">5.86499834060669</t>
   </si>
   <si>
     <t xml:space="preserve">6.0300989151001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74706888198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47190237045288</t>
+    <t xml:space="preserve">5.74706983566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
     <t xml:space="preserve">5.39328289031982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611129760742</t>
+    <t xml:space="preserve">5.34611082077026</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183452606201</t>
@@ -1628,40 +1628,40 @@
     <t xml:space="preserve">5.30680084228516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321504592896</t>
+    <t xml:space="preserve">5.26749229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321552276611</t>
   </si>
   <si>
     <t xml:space="preserve">5.17314863204956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11811494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025285720825</t>
+    <t xml:space="preserve">5.11811542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025381088257</t>
   </si>
   <si>
     <t xml:space="preserve">4.9687385559082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00804805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06308221817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99232387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10239124298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15742444992065</t>
+    <t xml:space="preserve">5.00804853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06308174133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12597703933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9923243522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1023907661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15742492675781</t>
   </si>
   <si>
     <t xml:space="preserve">5.14170074462891</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">5.09452962875366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1967339515686</t>
+    <t xml:space="preserve">5.19673442840576</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824920654297</t>
+    <t xml:space="preserve">5.33824872970581</t>
   </si>
   <si>
     <t xml:space="preserve">5.38542079925537</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">6.52540016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56470966339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31312799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40747117996216</t>
+    <t xml:space="preserve">6.56470918655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3131275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.407470703125</t>
   </si>
   <si>
     <t xml:space="preserve">6.28954267501831</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">5.18887233734131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24390554428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27535390853882</t>
+    <t xml:space="preserve">5.24390602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27535343170166</t>
   </si>
   <si>
     <t xml:space="preserve">5.13383913040161</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">5.20459651947021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05521965026855</t>
+    <t xml:space="preserve">5.0552191734314</t>
   </si>
   <si>
     <t xml:space="preserve">5.03163433074951</t>
@@ -1733,19 +1733,19 @@
     <t xml:space="preserve">5.0709433555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22032022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14956331253052</t>
+    <t xml:space="preserve">5.22032070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956283569336</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69357061386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48129844665527</t>
+    <t xml:space="preserve">4.6935715675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48129892349243</t>
   </si>
   <si>
     <t xml:space="preserve">4.59922790527344</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">4.53633213043213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38695573806763</t>
+    <t xml:space="preserve">4.38695621490479</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123203277588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51274633407593</t>
+    <t xml:space="preserve">4.51274585723877</t>
   </si>
   <si>
     <t xml:space="preserve">4.52847003936768</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">4.94515228271484</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35397291183472</t>
+    <t xml:space="preserve">5.35397243499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.33038759231567</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">5.18101072311401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25962972640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334978103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976398468018</t>
+    <t xml:space="preserve">5.25962924957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50335025787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976350784302</t>
   </si>
   <si>
     <t xml:space="preserve">5.51907348632812</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">5.68417406082153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63700246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71562099456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66058731079102</t>
+    <t xml:space="preserve">5.63700294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71562147140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66058778762817</t>
   </si>
   <si>
     <t xml:space="preserve">5.72348356246948</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">6.14802742004395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42319488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53326225280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10085678100586</t>
+    <t xml:space="preserve">6.42319536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53326272964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1008563041687</t>
   </si>
   <si>
     <t xml:space="preserve">6.29740476608276</t>
@@ -1856,46 +1856,46 @@
     <t xml:space="preserve">6.2030611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32885217666626</t>
+    <t xml:space="preserve">6.3288516998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.30526638031006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2109227180481</t>
+    <t xml:space="preserve">6.21092319488525</t>
   </si>
   <si>
     <t xml:space="preserve">6.12444162368774</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16375160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753854751587</t>
+    <t xml:space="preserve">6.16375207901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595640182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753807067871</t>
   </si>
   <si>
     <t xml:space="preserve">6.39174747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678020477295</t>
+    <t xml:space="preserve">6.45464277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678068161011</t>
   </si>
   <si>
     <t xml:space="preserve">6.34457540512085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32098960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671426773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437425613403</t>
+    <t xml:space="preserve">6.32099008560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671474456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437520980835</t>
   </si>
   <si>
     <t xml:space="preserve">6.27381896972656</t>
@@ -1904,22 +1904,22 @@
     <t xml:space="preserve">5.97506523132324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00651264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078941345215</t>
+    <t xml:space="preserve">6.0065131187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078893661499</t>
   </si>
   <si>
     <t xml:space="preserve">5.77065515518188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73134469985962</t>
+    <t xml:space="preserve">5.73134517669678</t>
   </si>
   <si>
     <t xml:space="preserve">6.02223634719849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82568883895874</t>
+    <t xml:space="preserve">5.82568836212158</t>
   </si>
   <si>
     <t xml:space="preserve">5.74286460876465</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">5.56185674667358</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59476757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73463678359985</t>
+    <t xml:space="preserve">5.59476709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7346363067627</t>
   </si>
   <si>
     <t xml:space="preserve">5.61944961547852</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">5.66058826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50426387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52894592285156</t>
+    <t xml:space="preserve">5.50426340103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52894639968872</t>
   </si>
   <si>
     <t xml:space="preserve">5.54540109634399</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51249122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39730453491211</t>
+    <t xml:space="preserve">5.51249170303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39730501174927</t>
   </si>
   <si>
     <t xml:space="preserve">5.31502914428711</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">5.42198801040649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46312570571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60299491882324</t>
+    <t xml:space="preserve">5.46312618255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299444198608</t>
   </si>
   <si>
     <t xml:space="preserve">5.55362892150879</t>
@@ -1982,16 +1982,16 @@
     <t xml:space="preserve">5.3726224899292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38907766342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34793901443481</t>
+    <t xml:space="preserve">5.38907718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34793996810913</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36439418792725</t>
+    <t xml:space="preserve">5.3643946647644</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72640943527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89096069335938</t>
+    <t xml:space="preserve">5.72640895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89096021652222</t>
   </si>
   <si>
     <t xml:space="preserve">5.98969221115112</t>
@@ -2012,31 +2012,31 @@
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91564416885376</t>
+    <t xml:space="preserve">5.9156436920166</t>
   </si>
   <si>
     <t xml:space="preserve">5.83336782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78400278091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75931930541992</t>
+    <t xml:space="preserve">5.78400230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75931978225708</t>
   </si>
   <si>
     <t xml:space="preserve">5.75109148025513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62767744064331</t>
+    <t xml:space="preserve">5.62767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58653974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45489835739136</t>
+    <t xml:space="preserve">5.58653926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4548978805542</t>
   </si>
   <si>
     <t xml:space="preserve">5.03529024124146</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">4.93655967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95301485061646</t>
+    <t xml:space="preserve">4.9530143737793</t>
   </si>
   <si>
     <t xml:space="preserve">4.73909664154053</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">5.05997323989868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87073850631714</t>
+    <t xml:space="preserve">4.8707389831543</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478750228882</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">4.903648853302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86251068115234</t>
+    <t xml:space="preserve">4.8625111579895</t>
   </si>
   <si>
     <t xml:space="preserve">4.87896633148193</t>
@@ -2075,28 +2075,28 @@
     <t xml:space="preserve">4.821373462677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85428380966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91187620162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14224910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48780822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27389097213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29034614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4055323600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47958040237427</t>
+    <t xml:space="preserve">4.85428333282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91187715530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.142249584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48780870437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27389049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29034566879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40553283691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47958087921143</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
@@ -2117,19 +2117,19 @@
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971166610718</t>
+    <t xml:space="preserve">5.33971118927002</t>
   </si>
   <si>
     <t xml:space="preserve">5.44667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43844270706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80045747756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79222917556763</t>
+    <t xml:space="preserve">5.43844318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80045700073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79222965240479</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">5.6852707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6934986114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12956094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04728555679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387056350708</t>
+    <t xml:space="preserve">5.69349908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04728507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92387104034424</t>
   </si>
   <si>
     <t xml:space="preserve">5.70995378494263</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">5.67704343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6523609161377</t>
+    <t xml:space="preserve">5.65236043930054</t>
   </si>
   <si>
     <t xml:space="preserve">5.61122226715088</t>
@@ -2177,25 +2177,25 @@
     <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4960355758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.224524974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07642841339111</t>
+    <t xml:space="preserve">5.49603605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22452545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07642889022827</t>
   </si>
   <si>
     <t xml:space="preserve">5.13402128219604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10933923721313</t>
+    <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
     <t xml:space="preserve">5.16693210601807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11756658554077</t>
+    <t xml:space="preserve">5.11756610870361</t>
   </si>
   <si>
     <t xml:space="preserve">5.23275327682495</t>
@@ -2207,25 +2207,25 @@
     <t xml:space="preserve">4.77200698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80491828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60745477676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3606276512146</t>
+    <t xml:space="preserve">4.80491781234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60745525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36062717437744</t>
   </si>
   <si>
     <t xml:space="preserve">4.43467617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3194899559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03152370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81760549545288</t>
+    <t xml:space="preserve">4.31948947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03152322769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81760573387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.42268109321594</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">3.45559144020081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48850178718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421186447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24990153312683</t>
+    <t xml:space="preserve">3.48850202560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24990177154541</t>
   </si>
   <si>
     <t xml:space="preserve">3.20876359939575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09357738494873</t>
+    <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117025375366</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">3.29103970527649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17996716499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37331533432007</t>
+    <t xml:space="preserve">3.17996692657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37331557273865</t>
   </si>
   <si>
     <t xml:space="preserve">3.41445350646973</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">3.40211224555969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40622568130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39799833297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495719909668</t>
+    <t xml:space="preserve">3.40622591972351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39799857139587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5337541103363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495743751526</t>
   </si>
   <si>
     <t xml:space="preserve">3.62837100028992</t>
@@ -2291,25 +2291,25 @@
     <t xml:space="preserve">3.53786754608154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69419169425964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71887493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810990333557</t>
+    <t xml:space="preserve">3.69419145584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71887469291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810942649841</t>
   </si>
   <si>
     <t xml:space="preserve">3.99861311912537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11379957199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54986190795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54163503646851</t>
+    <t xml:space="preserve">4.11380004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54986238479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54163455963135</t>
   </si>
   <si>
     <t xml:space="preserve">4.53340721130371</t>
@@ -2324,19 +2324,19 @@
     <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42644834518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41822004318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46758651733398</t>
+    <t xml:space="preserve">4.42644882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41822099685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46758556365967</t>
   </si>
   <si>
     <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91633725166321</t>
+    <t xml:space="preserve">3.91633677482605</t>
   </si>
   <si>
     <t xml:space="preserve">3.98215794563293</t>
@@ -2348,37 +2348,37 @@
     <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88342642784119</t>
+    <t xml:space="preserve">3.88342690467834</t>
   </si>
   <si>
     <t xml:space="preserve">4.0191822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06443357467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99038481712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0109543800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05209255218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93690586090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9286789894104</t>
+    <t xml:space="preserve">4.06443405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99038529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01095485687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0520920753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93690538406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92867851257324</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872468948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30303430557251</t>
+    <t xml:space="preserve">4.50872421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30303382873535</t>
   </si>
   <si>
     <t xml:space="preserve">4.10968542098999</t>
@@ -2390,49 +2390,49 @@
     <t xml:space="preserve">4.23721313476562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34417200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3523998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2125301361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14670991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13848209381104</t>
+    <t xml:space="preserve">4.34417247772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35239934921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21253061294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14671039581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13848257064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.0808892250061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25366830825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27012348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22898626327515</t>
+    <t xml:space="preserve">4.25366878509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27012395858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22898578643799</t>
   </si>
   <si>
     <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1220269203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10557126998901</t>
+    <t xml:space="preserve">4.12202739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10557174682617</t>
   </si>
   <si>
     <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05620670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506853103638</t>
+    <t xml:space="preserve">4.05620622634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
     <t xml:space="preserve">4.07266139984131</t>
@@ -2444,25 +2444,25 @@
     <t xml:space="preserve">4.10145807266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96570324897766</t>
+    <t xml:space="preserve">3.96570229530334</t>
   </si>
   <si>
     <t xml:space="preserve">3.94101977348328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93279194831848</t>
+    <t xml:space="preserve">3.93279242515564</t>
   </si>
   <si>
     <t xml:space="preserve">3.99449920654297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07677507400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16316509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22075843811035</t>
+    <t xml:space="preserve">4.07677555084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16316556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22075796127319</t>
   </si>
   <si>
     <t xml:space="preserve">4.1302547454834</t>
@@ -2471,52 +2471,52 @@
     <t xml:space="preserve">3.94924759864807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94513416290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8505163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640264511108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80937814712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7394437789917</t>
+    <t xml:space="preserve">3.94513368606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82583379745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85051584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84640312194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80937838554382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73944401741028</t>
   </si>
   <si>
     <t xml:space="preserve">3.7435576915741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76823997497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128158569336</t>
+    <t xml:space="preserve">3.76824021339417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66128134727478</t>
   </si>
   <si>
     <t xml:space="preserve">3.65305399894714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61191558837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432271957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027443885803</t>
+    <t xml:space="preserve">3.61191582679749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432295799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027420043945</t>
   </si>
   <si>
     <t xml:space="preserve">3.49672961235046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57077836990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59134697914124</t>
+    <t xml:space="preserve">3.57077789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59134674072266</t>
   </si>
   <si>
     <t xml:space="preserve">3.60780239105225</t>
@@ -2525,25 +2525,25 @@
     <t xml:space="preserve">3.63659834861755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66539573669434</t>
+    <t xml:space="preserve">3.6653950214386</t>
   </si>
   <si>
     <t xml:space="preserve">3.72710275650024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73121571540833</t>
+    <t xml:space="preserve">3.7312159538269</t>
   </si>
   <si>
     <t xml:space="preserve">3.67362284660339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68596458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609489440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368847846985</t>
+    <t xml:space="preserve">3.68596410751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609537124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368871688843</t>
   </si>
   <si>
     <t xml:space="preserve">3.59546065330505</t>
@@ -2552,52 +2552,52 @@
     <t xml:space="preserve">3.63248467445374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6201434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30749464035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36508798599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33217787742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7024199962616</t>
+    <t xml:space="preserve">3.62014365196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30749487876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36508822441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33217763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241951942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.70653343200684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71064734458923</t>
+    <t xml:space="preserve">3.71064758300781</t>
   </si>
   <si>
     <t xml:space="preserve">4.31126165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19607496261597</t>
+    <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
     <t xml:space="preserve">4.40999364852905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33594465255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29480600357056</t>
+    <t xml:space="preserve">4.33594417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
     <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50049686431885</t>
+    <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
     <t xml:space="preserve">4.45935869216919</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45113134384155</t>
+    <t xml:space="preserve">4.45113039016724</t>
   </si>
   <si>
     <t xml:space="preserve">4.61568307876587</t>
@@ -2606,31 +2606,31 @@
     <t xml:space="preserve">4.57454490661621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92833137512207</t>
+    <t xml:space="preserve">4.92833185195923</t>
   </si>
   <si>
     <t xml:space="preserve">4.99415254592896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06820058822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96124219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97769784927368</t>
+    <t xml:space="preserve">5.06820011138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96124267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97769737243652</t>
   </si>
   <si>
     <t xml:space="preserve">5.00237989425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01060819625854</t>
+    <t xml:space="preserve">5.01060771942139</t>
   </si>
   <si>
     <t xml:space="preserve">4.96947002410889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92010402679443</t>
+    <t xml:space="preserve">4.92010450363159</t>
   </si>
   <si>
     <t xml:space="preserve">5.04351806640625</t>
@@ -2639,25 +2639,25 @@
     <t xml:space="preserve">5.25743579864502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24098062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10111141204834</t>
+    <t xml:space="preserve">5.24098110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161510467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10111093521118</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15870475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1833872795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29857444763184</t>
+    <t xml:space="preserve">5.15870428085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18338680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29857397079468</t>
   </si>
   <si>
     <t xml:space="preserve">5.85805034637451</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">5.90741586685181</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9979190826416</t>
+    <t xml:space="preserve">5.99791955947876</t>
   </si>
   <si>
     <t xml:space="preserve">5.97323703765869</t>
@@ -2681,37 +2681,37 @@
     <t xml:space="preserve">5.94855403900146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00614738464355</t>
+    <t xml:space="preserve">5.94032573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0061469078064</t>
   </si>
   <si>
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3846173286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45043754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35170602798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26943063735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33525037765503</t>
+    <t xml:space="preserve">6.38461685180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48334836959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45043802261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35170555114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26943016052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33525085449219</t>
   </si>
   <si>
     <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3011908531189</t>
+    <t xml:space="preserve">6.30119037628174</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
@@ -2726,52 +2726,52 @@
     <t xml:space="preserve">6.74397754669189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57367420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72694635391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70991611480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76100778579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30597496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49330759048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7998514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22560691833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25966739654541</t>
+    <t xml:space="preserve">6.57367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72694683074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70991659164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76100730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30597448348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49330806732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79985189437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591026306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25966835021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075954437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34482002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29372978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02603054046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06860446929932</t>
+    <t xml:space="preserve">8.31075859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34481906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29372882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02602958679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06860542297363</t>
   </si>
   <si>
     <t xml:space="preserve">8.98345470428467</t>
@@ -2783,22 +2783,22 @@
     <t xml:space="preserve">8.60027408599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64284801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41294002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46403121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36185073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76579141616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251878738403</t>
+    <t xml:space="preserve">8.64284896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41294097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46403217315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36184978485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76579093933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251831054688</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
@@ -2813,22 +2813,22 @@
     <t xml:space="preserve">8.0723352432251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10639667510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.140456199646</t>
+    <t xml:space="preserve">8.10639572143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
     <t xml:space="preserve">8.00421524047852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83391141891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66361093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57845878601074</t>
+    <t xml:space="preserve">7.83391237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66360998153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57845830917358</t>
   </si>
   <si>
     <t xml:space="preserve">7.15270233154297</t>
@@ -2837,49 +2837,49 @@
     <t xml:space="preserve">7.51033782958984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59548950195312</t>
+    <t xml:space="preserve">7.59548902511597</t>
   </si>
   <si>
     <t xml:space="preserve">7.74876165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0893669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98718452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03827476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203285217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342739105225</t>
+    <t xml:space="preserve">8.08936595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98718500137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03827571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203332901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342643737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40921115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28148365020752</t>
+    <t xml:space="preserve">8.55769824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40921020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2814826965332</t>
   </si>
   <si>
     <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94087982177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81315231323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89830303192139</t>
+    <t xml:space="preserve">8.94087886810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81315135955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89830207824707</t>
   </si>
   <si>
     <t xml:space="preserve">8.72799968719482</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">8.48106288909912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51512241363525</t>
+    <t xml:space="preserve">8.51512336730957</t>
   </si>
   <si>
     <t xml:space="preserve">8.42997074127197</t>
@@ -2906,25 +2906,25 @@
     <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91154003143311</t>
+    <t xml:space="preserve">9.91154098510742</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95539665222168</t>
+    <t xml:space="preserve">9.69225788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.955397605896</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0869665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0431098937988</t>
+    <t xml:space="preserve">10.0869655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0431089401245</t>
   </si>
   <si>
     <t xml:space="preserve">9.99925327301025</t>
@@ -2933,19 +2933,19 @@
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185354232788</t>
+    <t xml:space="preserve">10.2185344696045</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939599990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73611545562744</t>
+    <t xml:space="preserve">10.3939609527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7799711227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73611450195312</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2975,40 +2975,40 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382678985596</t>
+    <t xml:space="preserve">9.82382774353027</t>
   </si>
   <si>
     <t xml:space="preserve">9.51683330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38526439666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34140777587891</t>
+    <t xml:space="preserve">9.38526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34140682220459</t>
   </si>
   <si>
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055671691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94669914245605</t>
+    <t xml:space="preserve">8.99055576324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94670009613037</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61339092254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71864604949951</t>
+    <t xml:space="preserve">8.6133918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71864700317383</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03448677062988</t>
+    <t xml:space="preserve">8.0344877243042</t>
   </si>
   <si>
     <t xml:space="preserve">8.20991230010986</t>
@@ -3017,19 +3017,19 @@
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47312593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42049884796143</t>
+    <t xml:space="preserve">7.47312641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42049789428711</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82397747039795</t>
+    <t xml:space="preserve">8.06957244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82397651672363</t>
   </si>
   <si>
     <t xml:space="preserve">8.28008365631104</t>
@@ -3038,16 +3038,16 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940252304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533782958984</t>
+    <t xml:space="preserve">7.99940204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533878326416</t>
   </si>
   <si>
     <t xml:space="preserve">8.49059391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43796634674072</t>
+    <t xml:space="preserve">8.43796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3056,13 +3056,13 @@
     <t xml:space="preserve">8.81513118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50813674926758</t>
+    <t xml:space="preserve">8.50813579559326</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70987510681152</t>
+    <t xml:space="preserve">8.70987606048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3071,16 +3071,16 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07834339141846</t>
+    <t xml:space="preserve">8.26254177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114135742188</t>
+    <t xml:space="preserve">8.20114231109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
@@ -3092,13 +3092,13 @@
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98186016082764</t>
+    <t xml:space="preserve">7.98185968399048</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1835994720459</t>
+    <t xml:space="preserve">8.18359851837158</t>
   </si>
   <si>
     <t xml:space="preserve">8.17482757568359</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">8.21868419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01694488525391</t>
+    <t xml:space="preserve">8.01694583892822</t>
   </si>
   <si>
     <t xml:space="preserve">7.77899932861328</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417572021484</t>
+    <t xml:space="preserve">8.62096214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417476654053</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265731811523</t>
+    <t xml:space="preserve">8.60265827178955</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3143,16 +3143,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872901916504</t>
+    <t xml:space="preserve">8.96872806549072</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939697265625</t>
+    <t xml:space="preserve">9.01448726654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939792633057</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944278717041</t>
+    <t xml:space="preserve">8.57520294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944374084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524780273438</t>
+    <t xml:space="preserve">8.03524875640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9711856842041</t>
+    <t xml:space="preserve">7.97118616104126</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3221,28 +3221,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051725387573</t>
+    <t xml:space="preserve">8.11761379241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051677703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560564041138</t>
+    <t xml:space="preserve">7.92542743682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560611724854</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8888201713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966775894165</t>
+    <t xml:space="preserve">7.88882064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966823577881</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466594696045</t>
+    <t xml:space="preserve">8.90466499328613</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569412231445</t>
+    <t xml:space="preserve">8.78569316864014</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663286209106</t>
+    <t xml:space="preserve">7.69663333892822</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3311,10 +3311,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292905807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172315597534</t>
+    <t xml:space="preserve">7.41292858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172267913818</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3338,40 +3338,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591861724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645418167114</t>
+    <t xml:space="preserve">8.13591766357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645370483398</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136484146118</t>
+    <t xml:space="preserve">7.86136531829834</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76069498062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154447555542</t>
+    <t xml:space="preserve">7.7606954574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154399871826</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67832946777344</t>
+    <t xml:space="preserve">7.6783299446106</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748140335083</t>
+    <t xml:space="preserve">7.65087366104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748092651367</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475805282593</t>
+    <t xml:space="preserve">7.82475852966309</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24573993682861</t>
+    <t xml:space="preserve">8.2457389831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55689907073975</t>
+    <t xml:space="preserve">8.55690002441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3404,16 +3404,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131855010986</t>
+    <t xml:space="preserve">8.40131950378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51113986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.474534034729</t>
+    <t xml:space="preserve">8.51114082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47453308105469</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3455,19 +3455,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649589538574</t>
+    <t xml:space="preserve">9.31649494171143</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07855033874512</t>
+    <t xml:space="preserve">9.0785493850708</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497749328613</t>
+    <t xml:space="preserve">9.22497844696045</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3479,10 +3479,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109405517578</t>
+    <t xml:space="preserve">9.37140560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3491,10 +3491,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515617370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935115814209</t>
+    <t xml:space="preserve">9.11515712738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935211181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3512,19 +3512,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44462013244629</t>
+    <t xml:space="preserve">9.44461917877197</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685230255127</t>
+    <t xml:space="preserve">9.27988815307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685325622559</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -3945,6 +3945,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.46000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5</t>
   </si>
 </sst>
 </file>
@@ -60004,7 +60007,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6495486111</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>3689</v>
@@ -60025,6 +60028,32 @@
         <v>1310</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6494097222</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>10990</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>8.52000045776367</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>8.39999961853027</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>8.46000003814697</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1314">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25140869617462</t>
+    <t xml:space="preserve">1.2514089345932</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
@@ -53,25 +53,25 @@
     <t xml:space="preserve">1.26611399650574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2925831079483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31169998645782</t>
+    <t xml:space="preserve">1.29258334636688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31169986724854</t>
   </si>
   <si>
     <t xml:space="preserve">1.3256698846817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33596348762512</t>
+    <t xml:space="preserve">1.33596336841583</t>
   </si>
   <si>
     <t xml:space="preserve">1.32346403598785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30875885486603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758444309235</t>
+    <t xml:space="preserve">1.30875873565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758432388306</t>
   </si>
   <si>
     <t xml:space="preserve">1.25214397907257</t>
@@ -92,34 +92,34 @@
     <t xml:space="preserve">1.27493691444397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411150932312</t>
+    <t xml:space="preserve">1.24111521244049</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449778556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18008875846863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376517295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15729594230652</t>
+    <t xml:space="preserve">1.23449802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18008887767792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376493453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15729570388794</t>
   </si>
   <si>
     <t xml:space="preserve">1.1396496295929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06612372398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568216323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07053530216217</t>
+    <t xml:space="preserve">1.06612396240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568228244781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07053542137146</t>
   </si>
   <si>
     <t xml:space="preserve">1.05141866207123</t>
@@ -128,40 +128,40 @@
     <t xml:space="preserve">1.07347655296326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09479880332947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15067839622498</t>
+    <t xml:space="preserve">1.09479892253876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15067851543427</t>
   </si>
   <si>
     <t xml:space="preserve">1.16832458972931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1653835773468</t>
+    <t xml:space="preserve">1.16538369655609</t>
   </si>
   <si>
     <t xml:space="preserve">1.14700222015381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17641258239746</t>
+    <t xml:space="preserve">1.17641270160675</t>
   </si>
   <si>
     <t xml:space="preserve">1.18597090244293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21317541599274</t>
+    <t xml:space="preserve">1.21317553520203</t>
   </si>
   <si>
     <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18744122982025</t>
+    <t xml:space="preserve">1.18744146823883</t>
   </si>
   <si>
     <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18817675113678</t>
+    <t xml:space="preserve">1.18817663192749</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347133159637</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">1.20582282543182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23670339584351</t>
+    <t xml:space="preserve">1.23670363426208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">1.22861588001251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22052800655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670120239258</t>
+    <t xml:space="preserve">1.22052776813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670132160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.30655312538147</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">1.28743648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28228962421417</t>
+    <t xml:space="preserve">1.28228950500488</t>
   </si>
   <si>
     <t xml:space="preserve">1.30581784248352</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">1.23008620738983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25067353248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25655567646027</t>
+    <t xml:space="preserve">1.25067341327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25655555725098</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317298412323</t>
@@ -224,28 +224,28 @@
     <t xml:space="preserve">1.26243758201599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29920041561127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29405379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876140594482</t>
+    <t xml:space="preserve">1.29920053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2940536737442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876152515411</t>
   </si>
   <si>
     <t xml:space="preserve">1.28523063659668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27861344814301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934873104095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28964221477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27199590206146</t>
+    <t xml:space="preserve">1.27861332893372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934861183167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2896420955658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27199602127075</t>
   </si>
   <si>
     <t xml:space="preserve">1.28302478790283</t>
@@ -254,19 +254,19 @@
     <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36022686958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33816933631897</t>
+    <t xml:space="preserve">1.36022698879242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33816921710968</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34478640556335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949401855469</t>
+    <t xml:space="preserve">1.34478664398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949413776398</t>
   </si>
   <si>
     <t xml:space="preserve">1.2984653711319</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">1.2683197259903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21170485019684</t>
+    <t xml:space="preserve">1.21170496940613</t>
   </si>
   <si>
     <t xml:space="preserve">1.19773483276367</t>
@@ -284,43 +284,43 @@
     <t xml:space="preserve">1.17420673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17567718029022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258832931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288169384003</t>
+    <t xml:space="preserve">1.17567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19258809089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288193225861</t>
   </si>
   <si>
     <t xml:space="preserve">1.19847011566162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12494432926178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.138179063797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11759185791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12347388267517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13597321510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023938655853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15582549571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15803110599518</t>
+    <t xml:space="preserve">1.12494444847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13817918300629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11759197711945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12347400188446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13597345352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13229691982269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023926734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15582537651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15803098678589</t>
   </si>
   <si>
     <t xml:space="preserve">1.14920794963837</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">1.17494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15361952781677</t>
+    <t xml:space="preserve">1.15361940860748</t>
   </si>
   <si>
     <t xml:space="preserve">1.16758930683136</t>
@@ -341,16 +341,16 @@
     <t xml:space="preserve">1.41169500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5602171421051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168758869171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52345430850983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48522090911865</t>
+    <t xml:space="preserve">1.56021702289581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52345418930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48522078990936</t>
   </si>
   <si>
     <t xml:space="preserve">1.52933621406555</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">1.508749127388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49404382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5072785615921</t>
+    <t xml:space="preserve">1.49404394626617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
     <t xml:space="preserve">1.4999258518219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48669135570526</t>
+    <t xml:space="preserve">1.48669123649597</t>
   </si>
   <si>
     <t xml:space="preserve">1.49257326126099</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">1.48816180229187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48080909252167</t>
+    <t xml:space="preserve">1.48080921173096</t>
   </si>
   <si>
     <t xml:space="preserve">1.49845552444458</t>
@@ -395,70 +395,70 @@
     <t xml:space="preserve">1.77785336971283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74550199508667</t>
+    <t xml:space="preserve">1.74550211429596</t>
   </si>
   <si>
     <t xml:space="preserve">1.88961243629456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93666899204254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078963756561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.879319190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020231246948</t>
+    <t xml:space="preserve">1.93666887283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078951835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931895256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020243167877</t>
   </si>
   <si>
     <t xml:space="preserve">1.816086769104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80138158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9337283372879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608202457428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314089298248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92931687831879</t>
+    <t xml:space="preserve">1.80138170719147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490725517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9160817861557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91314125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078672885895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931663990021</t>
   </si>
   <si>
     <t xml:space="preserve">1.93519854545593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92049360275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431773662567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90137648582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92343413829803</t>
+    <t xml:space="preserve">1.9204934835434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431761741638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91902267932892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90137672424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92343425750732</t>
   </si>
   <si>
     <t xml:space="preserve">1.93961012363434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96166777610779</t>
+    <t xml:space="preserve">1.96166801452637</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401440620422</t>
@@ -467,31 +467,31 @@
     <t xml:space="preserve">2.17489242553711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12930655479431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19106817245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14107060432434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09695506095886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077688217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11901307106018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842610359192</t>
+    <t xml:space="preserve">2.12930679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19106793403625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14107084274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077712059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1190128326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842586517334</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19695067405701</t>
+    <t xml:space="preserve">2.19695043563843</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782869338989</t>
@@ -506,61 +506,61 @@
     <t xml:space="preserve">1.97637283802032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06901550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04989910125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11607193946838</t>
+    <t xml:space="preserve">2.06901526451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04989886283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1160717010498</t>
   </si>
   <si>
     <t xml:space="preserve">2.10136699676514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08225011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07636833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03519344329834</t>
+    <t xml:space="preserve">2.08225035667419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07636761665344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03519368171692</t>
   </si>
   <si>
     <t xml:space="preserve">2.01460647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9601970911026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196161746979</t>
+    <t xml:space="preserve">1.95578587055206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019721031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9719614982605</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843316078186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784838676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549493789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696040153503</t>
+    <t xml:space="preserve">1.87784814834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549469947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696016311646</t>
   </si>
   <si>
     <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431275367737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09548473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08666157722473</t>
+    <t xml:space="preserve">2.00431299209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09548497200012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08666181564331</t>
   </si>
   <si>
     <t xml:space="preserve">2.08372068405151</t>
@@ -569,16 +569,16 @@
     <t xml:space="preserve">2.03813481330872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05431008338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05872178077698</t>
+    <t xml:space="preserve">2.05431032180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05872201919556</t>
   </si>
   <si>
     <t xml:space="preserve">2.06019258499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06754541397095</t>
+    <t xml:space="preserve">2.06754493713379</t>
   </si>
   <si>
     <t xml:space="preserve">2.06313347816467</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">2.17636322975159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29694533348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2719464302063</t>
+    <t xml:space="preserve">2.29694557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27194690704346</t>
   </si>
   <si>
     <t xml:space="preserve">2.23812484741211</t>
@@ -602,163 +602,163 @@
     <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989109039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047877311707</t>
+    <t xml:space="preserve">2.19989156723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047853469849</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988865852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23518371582031</t>
+    <t xml:space="preserve">2.21753764152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23518395423889</t>
   </si>
   <si>
     <t xml:space="preserve">2.25430035591125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23959565162659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24694776535034</t>
+    <t xml:space="preserve">2.23959517478943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
     <t xml:space="preserve">2.25871181488037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2425365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606707572937</t>
+    <t xml:space="preserve">2.24253606796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606731414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.20136189460754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2234194278717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20577359199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22194933891296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35282516479492</t>
+    <t xml:space="preserve">2.22341990470886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20577335357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22194910049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3528254032135</t>
   </si>
   <si>
     <t xml:space="preserve">2.61163568496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61016535758972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61604714393616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60575389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58663702011108</t>
+    <t xml:space="preserve">2.61016511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61604738235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60575366020203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5866367816925</t>
   </si>
   <si>
     <t xml:space="preserve">2.52193427085876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64545726776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60281252861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58810758590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56457924842834</t>
+    <t xml:space="preserve">2.64545774459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60281276702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5881073474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56457901000977</t>
   </si>
   <si>
     <t xml:space="preserve">2.56016778945923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59840083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634329795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61751770973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59545993804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7866268157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8528003692627</t>
+    <t xml:space="preserve">2.59840106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634305953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61751747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5954601764679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78662705421448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
     <t xml:space="preserve">2.83809494972229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98808765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632603645325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983201026917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129528045654</t>
+    <t xml:space="preserve">2.98808789253235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454520225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3998327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129480361938</t>
   </si>
   <si>
     <t xml:space="preserve">3.63217353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89319038391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716805458069</t>
+    <t xml:space="preserve">3.89319014549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716757774353</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480902671814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84172248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039198875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14685440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40051794052124</t>
+    <t xml:space="preserve">3.84172201156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848520278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14685392379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449584960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4005184173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.37478399276733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31596326828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140954971313</t>
+    <t xml:space="preserve">4.31596374511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140859603882</t>
   </si>
   <si>
     <t xml:space="preserve">4.52183532714844</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">4.51815891265869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177381515503</t>
+    <t xml:space="preserve">4.7791748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990350723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177429199219</t>
   </si>
   <si>
     <t xml:space="preserve">5.0291633605957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35267734527588</t>
+    <t xml:space="preserve">5.35267686843872</t>
   </si>
   <si>
     <t xml:space="preserve">5.26444578170776</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71295404434204</t>
+    <t xml:space="preserve">5.71295309066772</t>
   </si>
   <si>
     <t xml:space="preserve">6.0585241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71290397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523773193359</t>
+    <t xml:space="preserve">6.71290445327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523916244507</t>
   </si>
   <si>
     <t xml:space="preserve">6.81583976745605</t>
@@ -806,22 +806,22 @@
     <t xml:space="preserve">7.04376983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44389677047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310438156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926651000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67006540298462</t>
+    <t xml:space="preserve">7.44389915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310390472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926603317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67006492614746</t>
   </si>
   <si>
     <t xml:space="preserve">6.85503005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66628980636597</t>
+    <t xml:space="preserve">6.66629028320312</t>
   </si>
   <si>
     <t xml:space="preserve">6.37185525894165</t>
@@ -833,16 +833,16 @@
     <t xml:space="preserve">6.75688552856445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83238077163696</t>
+    <t xml:space="preserve">6.83238124847412</t>
   </si>
   <si>
     <t xml:space="preserve">6.7191367149353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46245145797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397396087646</t>
+    <t xml:space="preserve">6.46245241165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397348403931</t>
   </si>
   <si>
     <t xml:space="preserve">6.6889386177063</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">6.79085874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63986682891846</t>
+    <t xml:space="preserve">6.6398663520813</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490217208862</t>
@@ -866,28 +866,28 @@
     <t xml:space="preserve">6.25483751296997</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14159440994263</t>
+    <t xml:space="preserve">6.14159345626831</t>
   </si>
   <si>
     <t xml:space="preserve">6.19821548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18689060211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03589916229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97550249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9830527305603</t>
+    <t xml:space="preserve">6.18689107894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03589963912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98305225372314</t>
   </si>
   <si>
     <t xml:space="preserve">5.63199615478516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11484909057617</t>
+    <t xml:space="preserve">5.11484861373901</t>
   </si>
   <si>
     <t xml:space="preserve">5.435706615448</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">5.2243185043335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20921850204468</t>
+    <t xml:space="preserve">5.20921897888184</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11862421035767</t>
+    <t xml:space="preserve">5.11862373352051</t>
   </si>
   <si>
     <t xml:space="preserve">5.15259695053101</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">5.16769599914551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00538015365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836193084717</t>
+    <t xml:space="preserve">5.00537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233371734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836050033569</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855955123901</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">4.65809869766235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59770202636719</t>
+    <t xml:space="preserve">4.5977029800415</t>
   </si>
   <si>
     <t xml:space="preserve">4.60147666931152</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">4.68452215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2847146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09597444534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04690217971802</t>
+    <t xml:space="preserve">5.28471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09597539901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04690265655518</t>
   </si>
   <si>
     <t xml:space="preserve">5.00160503387451</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">4.83173942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81664085388184</t>
+    <t xml:space="preserve">4.81664037704468</t>
   </si>
   <si>
     <t xml:space="preserve">4.85816287994385</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">4.89213609695435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90346002578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98273086547852</t>
+    <t xml:space="preserve">4.90346050262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98273134231567</t>
   </si>
   <si>
     <t xml:space="preserve">4.99405527114868</t>
@@ -992,40 +992,40 @@
     <t xml:space="preserve">5.19789457321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06955099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491374969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39795827865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36776065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45080518722534</t>
+    <t xml:space="preserve">5.06955194473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39795923233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.367760181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45080614089966</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17902088165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24319219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0582275390625</t>
+    <t xml:space="preserve">5.17902040481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99028062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24319267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882230758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822706222534</t>
   </si>
   <si>
     <t xml:space="preserve">5.13372373580933</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">5.3035888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33001279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584053039551</t>
+    <t xml:space="preserve">5.33001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584005355835</t>
   </si>
   <si>
     <t xml:space="preserve">5.20166921615601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19034481048584</t>
+    <t xml:space="preserve">5.190345287323</t>
   </si>
   <si>
     <t xml:space="preserve">5.41305780410767</t>
@@ -1052,46 +1052,46 @@
     <t xml:space="preserve">5.49232912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88490676879883</t>
+    <t xml:space="preserve">5.88490772247314</t>
   </si>
   <si>
     <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06232309341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410882949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2435131072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48509979248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529836654663</t>
+    <t xml:space="preserve">6.06232261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24351358413696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48510026931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529884338379</t>
   </si>
   <si>
     <t xml:space="preserve">6.84748029708862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38350057601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23628520965576</t>
+    <t xml:space="preserve">7.38350105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23628568649292</t>
   </si>
   <si>
     <t xml:space="preserve">7.46654748916626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48919486999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53104019165039</t>
+    <t xml:space="preserve">7.48919630050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806301116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53103923797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.85567092895508</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">9.39924335479736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75407409667969</t>
+    <t xml:space="preserve">9.75407314300537</t>
   </si>
   <si>
     <t xml:space="preserve">10.7204217910767</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">8.84057331085205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04441165924072</t>
+    <t xml:space="preserve">9.04441070556641</t>
   </si>
   <si>
     <t xml:space="preserve">8.62918376922607</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">8.41024684906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19130897521973</t>
+    <t xml:space="preserve">8.19130802154541</t>
   </si>
   <si>
     <t xml:space="preserve">8.73487758636475</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">8.38759708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50084018707275</t>
+    <t xml:space="preserve">8.50084209442139</t>
   </si>
   <si>
     <t xml:space="preserve">8.38004779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27435302734375</t>
+    <t xml:space="preserve">8.27435398101807</t>
   </si>
   <si>
     <t xml:space="preserve">8.11581230163574</t>
@@ -1142,25 +1142,25 @@
     <t xml:space="preserve">7.77608013153076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91952323913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137870788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687204360962</t>
+    <t xml:space="preserve">7.91952228546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84402656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687442779541</t>
   </si>
   <si>
     <t xml:space="preserve">7.7534327507019</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64428329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2290563583374</t>
+    <t xml:space="preserve">8.64428424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22905540466309</t>
   </si>
   <si>
     <t xml:space="preserve">8.34985065460205</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">8.23660564422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31965255737305</t>
+    <t xml:space="preserve">8.44044589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31965160369873</t>
   </si>
   <si>
     <t xml:space="preserve">8.24415493011475</t>
@@ -1181,67 +1181,67 @@
     <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94972085952759</t>
+    <t xml:space="preserve">7.94971990585327</t>
   </si>
   <si>
     <t xml:space="preserve">7.79117822647095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5495924949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30800724029541</t>
+    <t xml:space="preserve">7.54959344863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30800676345825</t>
   </si>
   <si>
     <t xml:space="preserve">7.57224130630493</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31932973861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469202041626</t>
+    <t xml:space="preserve">7.31933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5646915435791</t>
   </si>
   <si>
     <t xml:space="preserve">7.55714321136475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9270715713501</t>
+    <t xml:space="preserve">7.92707252502441</t>
   </si>
   <si>
     <t xml:space="preserve">8.03276634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60998916625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243892669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54204225540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3533034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24005889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668140411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51184463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25893306732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19476079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23251056671143</t>
+    <t xml:space="preserve">7.60999011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60244035720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522260665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668045043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51184511184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25893354415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19476222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23250961303711</t>
   </si>
   <si>
     <t xml:space="preserve">7.1230411529541</t>
@@ -1250,82 +1250,82 @@
     <t xml:space="preserve">7.30045604705811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27780818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32688045501709</t>
+    <t xml:space="preserve">7.27780866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32687950134277</t>
   </si>
   <si>
     <t xml:space="preserve">7.51561880111694</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49297046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36840295791626</t>
+    <t xml:space="preserve">7.49296998977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840200424194</t>
   </si>
   <si>
     <t xml:space="preserve">7.70058441162109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693115234375</t>
+    <t xml:space="preserve">8.21395587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693210601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123733520508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30455017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945159912109</t>
+    <t xml:space="preserve">8.30455207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04786491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15355968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766586303711</t>
+    <t xml:space="preserve">8.04786586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15356063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766777038574</t>
   </si>
   <si>
     <t xml:space="preserve">8.16865921020508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85157632827759</t>
+    <t xml:space="preserve">7.85157585144043</t>
   </si>
   <si>
     <t xml:space="preserve">7.12681484222412</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277791976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9682731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973339080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9607253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317506790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88522863388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9305272102356</t>
+    <t xml:space="preserve">7.08151721954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96827363967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973291397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8852276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93052625656128</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767839431763</t>
@@ -1334,34 +1334,34 @@
     <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50019884109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900882720947</t>
+    <t xml:space="preserve">6.50019931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900930404663</t>
   </si>
   <si>
     <t xml:space="preserve">6.16801691055298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15291786193848</t>
+    <t xml:space="preserve">6.15291738510132</t>
   </si>
   <si>
     <t xml:space="preserve">6.56814575195312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57569599151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76443576812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7870831489563</t>
+    <t xml:space="preserve">6.5756950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76443529129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78708410263062</t>
   </si>
   <si>
     <t xml:space="preserve">7.00602197647095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993148803711</t>
+    <t xml:space="preserve">6.83993196487427</t>
   </si>
   <si>
     <t xml:space="preserve">6.77953338623047</t>
@@ -1370,55 +1370,55 @@
     <t xml:space="preserve">6.6058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40205430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4398021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086429595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2284140586853</t>
+    <t xml:space="preserve">6.40205383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43980169296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22841310501099</t>
   </si>
   <si>
     <t xml:space="preserve">6.18311595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0849723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616191864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31145906448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28881025314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47755002975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4926495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059598922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039693832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470264434814</t>
+    <t xml:space="preserve">6.08497190475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616144180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3114595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28881072998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47754955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265003204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42470407485962</t>
   </si>
   <si>
     <t xml:space="preserve">6.58324480056763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62099266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61344337463379</t>
+    <t xml:space="preserve">6.62099313735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61344289779663</t>
   </si>
   <si>
     <t xml:space="preserve">6.65119171142578</t>
@@ -1430,91 +1430,91 @@
     <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974287033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822856903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519948959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2502326965332</t>
+    <t xml:space="preserve">6.78484392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974334716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981119155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822761535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961004257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519853591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">6.2345085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1558895111084</t>
+    <t xml:space="preserve">6.15588998794556</t>
   </si>
   <si>
     <t xml:space="preserve">6.24237108230591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1323037147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87285947799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75493144989014</t>
+    <t xml:space="preserve">6.13230419158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87285995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75493097305298</t>
   </si>
   <si>
     <t xml:space="preserve">5.88072204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83354997634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17947578430176</t>
+    <t xml:space="preserve">5.83355093002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
   </si>
   <si>
     <t xml:space="preserve">6.09299421310425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92003154754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07727098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17161321640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878480911255</t>
+    <t xml:space="preserve">5.92003202438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07727003097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.045823097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17161417007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878528594971</t>
   </si>
   <si>
     <t xml:space="preserve">6.64332914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87918663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61188173294067</t>
+    <t xml:space="preserve">6.87918710708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698183059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119123458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
     <t xml:space="preserve">6.43105697631836</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">6.06154680252075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536847114563</t>
+    <t xml:space="preserve">6.05368423461914</t>
   </si>
   <si>
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361734390259</t>
+    <t xml:space="preserve">5.94361782073975</t>
   </si>
   <si>
     <t xml:space="preserve">5.84927463531494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03796052932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934104919434</t>
+    <t xml:space="preserve">6.03796005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934152603149</t>
   </si>
   <si>
     <t xml:space="preserve">5.9043083190918</t>
@@ -1553,16 +1553,16 @@
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782674789429</t>
+    <t xml:space="preserve">5.93575572967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782722473145</t>
   </si>
   <si>
     <t xml:space="preserve">5.85713624954224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77851676940918</t>
+    <t xml:space="preserve">5.77851724624634</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920679092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58196926116943</t>
+    <t xml:space="preserve">5.73920774459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
     <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69203567504883</t>
+    <t xml:space="preserve">5.69203615188599</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279306411743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78637838363647</t>
+    <t xml:space="preserve">5.78637886047363</t>
   </si>
   <si>
     <t xml:space="preserve">5.62914037704468</t>
@@ -1601,394 +1601,394 @@
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03009939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74706935882568</t>
+    <t xml:space="preserve">5.86499834060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0300989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74706983566284</t>
   </si>
   <si>
     <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39328241348267</t>
+    <t xml:space="preserve">5.39328289031982</t>
   </si>
   <si>
     <t xml:space="preserve">5.34611129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36183500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32252550125122</t>
+    <t xml:space="preserve">5.36183452606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32252502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30680084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26749181747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17314863204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9687385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00804758071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06308174133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99232387542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10239124298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15742492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14170074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0945291519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1967339515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42473030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33824968338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38542127609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52540016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56470966339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31312799453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.407470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28954267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29107713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22818231582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18887233734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24390602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27535390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13383865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29893922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20459604263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05521965026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03163433074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0237717628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0709433555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22032022476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00018644332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69357061386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48129844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59922695159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37123155593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51274633407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52847003936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67784738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94515323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35397291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33038711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18101072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25962972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50334978103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51907348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45617818832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36969614028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55052137374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41686820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57410717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68417358398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63700246810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71562147140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66058826446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72348356246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631196975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733739852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14802742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42319488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53326225280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10085678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740476608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08513212203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.108717918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2030611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32885265350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30526638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2109227180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12444162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16375160217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678068161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32098960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671426773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437520980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27381896972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0065131187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77065515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02223634719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82568836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74286365509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56185722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7346363067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61944961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008409500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6441330909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50426387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52894639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54540157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249122619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39730501174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31502866744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24920845031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42198801040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46312570571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299491882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55362892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37262201309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34793949127197</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321599960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17314863204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9687385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00804758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06308174133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12597703933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99232387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1023907661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15742492675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14170074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09452867507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19673490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42473030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33824920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38542032241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52540016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56470966339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31312799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.407470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28954267501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29107761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22818231582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18887233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24390602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27535390853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13383960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29893922805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20459604263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05521869659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03163385391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0237717628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0709433555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22032022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14956331253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0001859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69357109069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48129892349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633260726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695573806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37123203277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51274681091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52847051620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570947647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67784738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94515228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35397243499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33038759231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18101072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25962972640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51907300949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45617818832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36969661712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55052137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41686820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57410717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68417406082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63700246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71562147140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66058778762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72348356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42319488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53326225280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1008563041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10871839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2030611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32885265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21092319488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1244421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16375255584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678068161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32099008560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671426773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2738184928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0065131187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77065515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134565353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02223682403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82568788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74286413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56185674667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7346363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6441330909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66058826446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50426387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52894687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54540157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249170303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39730453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31502866744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24920797348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42198801040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46312570571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60299444198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55362939834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3726224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907718658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34793949127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3643946647644</t>
+    <t xml:space="preserve">5.36439418792725</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
@@ -2000,85 +2000,85 @@
     <t xml:space="preserve">5.72640895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89096021652222</t>
+    <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
     <t xml:space="preserve">5.98969221115112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9567813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91564321517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8333683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78400230407715</t>
+    <t xml:space="preserve">5.95678186416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9156436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83336782455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78400182723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75109148025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62767791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57831239700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58653974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4548978805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03529024124146</t>
+    <t xml:space="preserve">5.75109195709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62767744064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57831192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58654022216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45489835739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0352897644043</t>
   </si>
   <si>
     <t xml:space="preserve">4.93655920028687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95301389694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909711837769</t>
+    <t xml:space="preserve">4.95301485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909664154053</t>
   </si>
   <si>
     <t xml:space="preserve">5.21629762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05997276306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87073945999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9447865486145</t>
+    <t xml:space="preserve">5.05997371673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87073802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94478702545166</t>
   </si>
   <si>
     <t xml:space="preserve">4.903648853302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86251163482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87896680831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.821373462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85428380966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9118766784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.142249584198</t>
+    <t xml:space="preserve">4.86251068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87896633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82137298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85428333282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91187620162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14224910736084</t>
   </si>
   <si>
     <t xml:space="preserve">5.48780870437622</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">5.27389049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29034566879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40553283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47958087921143</t>
+    <t xml:space="preserve">5.29034614562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4055323600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47958040237427</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
@@ -2105,34 +2105,34 @@
     <t xml:space="preserve">5.33148384094238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38084936141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26566314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32325601577759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33971118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44667053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43844318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80045795440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79223012924194</t>
+    <t xml:space="preserve">5.38084983825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26566362380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32325649261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33971166610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4466700553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43844270706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80045747756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79222965240479</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84159564971924</t>
+    <t xml:space="preserve">5.84159517288208</t>
   </si>
   <si>
     <t xml:space="preserve">5.70172595977783</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">5.80868530273438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68527126312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69349908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0472846031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387056350708</t>
+    <t xml:space="preserve">5.68527030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6934986114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12956094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04728555679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9238715171814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70995378494263</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">5.61122226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63590526580811</t>
+    <t xml:space="preserve">5.63590574264526</t>
   </si>
   <si>
     <t xml:space="preserve">5.49603605270386</t>
@@ -2186,37 +2186,37 @@
     <t xml:space="preserve">5.1340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10933876037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16693258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11756610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23275279998779</t>
+    <t xml:space="preserve">5.10933828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16693210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11756658554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23275327682495</t>
   </si>
   <si>
     <t xml:space="preserve">4.79668998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77200746536255</t>
+    <t xml:space="preserve">4.77200794219971</t>
   </si>
   <si>
     <t xml:space="preserve">4.80491828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60745525360107</t>
+    <t xml:space="preserve">4.60745573043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.36062717437744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43467569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31948900222778</t>
+    <t xml:space="preserve">4.43467617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31948947906494</t>
   </si>
   <si>
     <t xml:space="preserve">4.03152370452881</t>
@@ -2225,28 +2225,28 @@
     <t xml:space="preserve">3.81760597229004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42268085479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45559120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48850202560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421162605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24990153312683</t>
+    <t xml:space="preserve">3.42268109321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45559144020081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48850154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24990129470825</t>
   </si>
   <si>
     <t xml:space="preserve">3.20876383781433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09357714653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15117049217224</t>
+    <t xml:space="preserve">3.09357690811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15117025375366</t>
   </si>
   <si>
     <t xml:space="preserve">3.29103970527649</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">3.17996692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37331533432007</t>
+    <t xml:space="preserve">3.37331557273865</t>
   </si>
   <si>
     <t xml:space="preserve">3.41445350646973</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39799857139587</t>
+    <t xml:space="preserve">3.39799833297729</t>
   </si>
   <si>
     <t xml:space="preserve">3.53375387191772</t>
@@ -2279,37 +2279,37 @@
     <t xml:space="preserve">3.50495719909668</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62837100028992</t>
+    <t xml:space="preserve">3.6283712387085</t>
   </si>
   <si>
     <t xml:space="preserve">3.77646803855896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53786754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419169425964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71887493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810942649841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99861335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11379909515381</t>
+    <t xml:space="preserve">3.53786778450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419145584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71887445449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99861311912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
     <t xml:space="preserve">4.5498628616333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54163503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53340768814087</t>
+    <t xml:space="preserve">4.54163455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53340721130371</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">4.41822052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46758556365967</t>
+    <t xml:space="preserve">4.46758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91633725166321</t>
+    <t xml:space="preserve">3.91633701324463</t>
   </si>
   <si>
     <t xml:space="preserve">3.98215818405151</t>
@@ -2345,19 +2345,19 @@
     <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88342714309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0191822052002</t>
+    <t xml:space="preserve">3.88342642784119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01918268203735</t>
   </si>
   <si>
     <t xml:space="preserve">4.06443357467651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99038553237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01095485687256</t>
+    <t xml:space="preserve">3.99038505554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0109543800354</t>
   </si>
   <si>
     <t xml:space="preserve">4.05209255218506</t>
@@ -2366,31 +2366,31 @@
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92867851257324</t>
+    <t xml:space="preserve">3.92867875099182</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30303382873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10968589782715</t>
+    <t xml:space="preserve">4.50872468948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30303430557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10968542098999</t>
   </si>
   <si>
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721361160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34417200088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35239934921265</t>
+    <t xml:space="preserve">4.23721313476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34417247772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3523998260498</t>
   </si>
   <si>
     <t xml:space="preserve">4.21253061294556</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08088874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25366878509521</t>
+    <t xml:space="preserve">4.13848257064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0808892250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25366926193237</t>
   </si>
   <si>
     <t xml:space="preserve">4.27012395858765</t>
@@ -2414,133 +2414,133 @@
     <t xml:space="preserve">4.22898578643799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08500337600708</t>
+    <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
     <t xml:space="preserve">4.1220269203186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10557126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04797840118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506853103638</t>
+    <t xml:space="preserve">4.10557174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04797887802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05620622634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
     <t xml:space="preserve">4.07266092300415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09734392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10145854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9657027721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94102025032043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9327929019928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449896812439</t>
+    <t xml:space="preserve">4.09734439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10145807266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94101977348328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279218673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449920654297</t>
   </si>
   <si>
     <t xml:space="preserve">4.07677555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16316509246826</t>
+    <t xml:space="preserve">4.1631646156311</t>
   </si>
   <si>
     <t xml:space="preserve">4.22075843811035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924807548523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513368606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583379745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8505163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640264511108</t>
+    <t xml:space="preserve">4.1302547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513344764709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8258330821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85051655769348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84640312194824</t>
   </si>
   <si>
     <t xml:space="preserve">3.80937838554382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73944354057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7435576915741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824021339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65305399894714</t>
+    <t xml:space="preserve">3.7394437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74355792999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76823997497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6612811088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305423736572</t>
   </si>
   <si>
     <t xml:space="preserve">3.61191582679749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55432319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027420043945</t>
+    <t xml:space="preserve">3.55432295799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027443885803</t>
   </si>
   <si>
     <t xml:space="preserve">3.49672961235046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57077789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59134674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780191421509</t>
+    <t xml:space="preserve">3.57077813148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59134697914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780262947083</t>
   </si>
   <si>
     <t xml:space="preserve">3.63659882545471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66539478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72710251808167</t>
+    <t xml:space="preserve">3.66539549827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72710275650024</t>
   </si>
   <si>
     <t xml:space="preserve">3.73121619224548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67362260818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68596434593201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609537124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368847846985</t>
+    <t xml:space="preserve">3.67362308502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68596458435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609513282776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368824005127</t>
   </si>
   <si>
     <t xml:space="preserve">3.59546065330505</t>
@@ -2549,25 +2549,25 @@
     <t xml:space="preserve">3.63248491287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62014365196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30749487876892</t>
+    <t xml:space="preserve">3.6201434135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30749464035034</t>
   </si>
   <si>
     <t xml:space="preserve">3.36508798599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33217763900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7024199962616</t>
+    <t xml:space="preserve">3.33217787742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241951942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.70653343200684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71064782142639</t>
+    <t xml:space="preserve">3.71064734458923</t>
   </si>
   <si>
     <t xml:space="preserve">4.31126165390015</t>
@@ -2576,10 +2576,10 @@
     <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40999317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33594417572021</t>
+    <t xml:space="preserve">4.40999269485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33594465255737</t>
   </si>
   <si>
     <t xml:space="preserve">4.29480648040771</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">4.45113086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61568260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57454490661621</t>
+    <t xml:space="preserve">4.61568307876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57454442977905</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
@@ -2609,28 +2609,28 @@
     <t xml:space="preserve">4.99415254592896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06820011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96124172210693</t>
+    <t xml:space="preserve">5.06820106506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96124219894409</t>
   </si>
   <si>
     <t xml:space="preserve">4.97769737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00237989425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01060771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96946954727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92010402679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04351806640625</t>
+    <t xml:space="preserve">5.00238037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0106086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947002410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92010450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04351854324341</t>
   </si>
   <si>
     <t xml:space="preserve">5.25743532180786</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">5.19161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10111093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465576171875</t>
+    <t xml:space="preserve">5.10111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465671539307</t>
   </si>
   <si>
     <t xml:space="preserve">5.15870475769043</t>
@@ -2657,19 +2657,19 @@
     <t xml:space="preserve">5.29857397079468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85805034637451</t>
+    <t xml:space="preserve">5.85804986953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87450551986694</t>
+    <t xml:space="preserve">5.8745059967041</t>
   </si>
   <si>
     <t xml:space="preserve">5.90741539001465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99791955947876</t>
+    <t xml:space="preserve">5.99792003631592</t>
   </si>
   <si>
     <t xml:space="preserve">5.97323703765869</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">5.94855356216431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032573699951</t>
+    <t xml:space="preserve">5.94032669067383</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2687,31 +2687,31 @@
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38461685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45043802261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35170602798462</t>
+    <t xml:space="preserve">6.3846173286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48334741592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45043754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35170555114746</t>
   </si>
   <si>
     <t xml:space="preserve">6.26943016052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33525133132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45446300506592</t>
+    <t xml:space="preserve">6.33525085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
     <t xml:space="preserve">6.30119037628174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42040252685547</t>
+    <t xml:space="preserve">6.42040205001831</t>
   </si>
   <si>
     <t xml:space="preserve">6.81209754943848</t>
@@ -2720,43 +2720,43 @@
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397659301758</t>
+    <t xml:space="preserve">6.74397754669189</t>
   </si>
   <si>
     <t xml:space="preserve">6.57367420196533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72694683074951</t>
+    <t xml:space="preserve">6.72694635391235</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7610068321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30597448348999</t>
+    <t xml:space="preserve">6.76100778579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30597496032715</t>
   </si>
   <si>
     <t xml:space="preserve">7.49330759048462</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79985237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591026306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22560691833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25966930389404</t>
+    <t xml:space="preserve">7.7998514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25966835021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075859069824</t>
+    <t xml:space="preserve">8.31075954437256</t>
   </si>
   <si>
     <t xml:space="preserve">8.34482002258301</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">8.29372882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02602863311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06860446929932</t>
+    <t xml:space="preserve">9.02603054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.068603515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.98345470428467</t>
@@ -2780,28 +2780,28 @@
     <t xml:space="preserve">8.60027408599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64284992218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41294097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46403217315674</t>
+    <t xml:space="preserve">8.64284801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46403121948242</t>
   </si>
   <si>
     <t xml:space="preserve">8.36185073852539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76579093933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251926422119</t>
+    <t xml:space="preserve">7.76579189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251878738403</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0212459564209</t>
+    <t xml:space="preserve">8.02124500274658</t>
   </si>
   <si>
     <t xml:space="preserve">7.93609380722046</t>
@@ -2813,43 +2813,43 @@
     <t xml:space="preserve">8.10639667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14045810699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00421619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391237258911</t>
+    <t xml:space="preserve">8.14045715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00421524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391189575195</t>
   </si>
   <si>
     <t xml:space="preserve">7.66361045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5784592628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033735275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59548950195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7487621307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08936595916748</t>
+    <t xml:space="preserve">7.57845878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270280838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.510338306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59548902511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74876165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0893669128418</t>
   </si>
   <si>
     <t xml:space="preserve">7.98718452453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03827476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203380584717</t>
+    <t xml:space="preserve">8.03827571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203332901001</t>
   </si>
   <si>
     <t xml:space="preserve">8.12342739105225</t>
@@ -2858,31 +2858,31 @@
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40920925140381</t>
+    <t xml:space="preserve">8.55769920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40921115875244</t>
   </si>
   <si>
     <t xml:space="preserve">9.28148365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19633197784424</t>
+    <t xml:space="preserve">9.19633293151855</t>
   </si>
   <si>
     <t xml:space="preserve">8.94087886810303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81315135955811</t>
+    <t xml:space="preserve">8.81315231323242</t>
   </si>
   <si>
     <t xml:space="preserve">8.89830303192139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72799968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4810619354248</t>
+    <t xml:space="preserve">8.72800064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2894,13 +2894,13 @@
     <t xml:space="preserve">8.44700145721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49436187744141</t>
+    <t xml:space="preserve">9.49436092376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754249572754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62208938598633</t>
+    <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
     <t xml:space="preserve">9.91154098510742</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225788116455</t>
+    <t xml:space="preserve">9.69225883483887</t>
   </si>
   <si>
     <t xml:space="preserve">9.95539665222168</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0431089401245</t>
+    <t xml:space="preserve">10.0431098937988</t>
   </si>
   <si>
     <t xml:space="preserve">9.99925231933594</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185344696045</t>
+    <t xml:space="preserve">10.2185354232788</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">9.7799711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73611450195312</t>
+    <t xml:space="preserve">9.73611545562744</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">9.60454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29755020141602</t>
+    <t xml:space="preserve">9.29755115509033</t>
   </si>
   <si>
     <t xml:space="preserve">9.2098388671875</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">8.77127456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0344123840332</t>
+    <t xml:space="preserve">9.03441333770752</t>
   </si>
   <si>
     <t xml:space="preserve">9.64840126037598</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">9.42912006378174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56068992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82382774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51683330535889</t>
+    <t xml:space="preserve">9.56068897247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82382678985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5168342590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2987,16 +2987,16 @@
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055576324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94670009613037</t>
+    <t xml:space="preserve">8.99055671691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94669914245605</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6133918762207</t>
+    <t xml:space="preserve">8.61339092254639</t>
   </si>
   <si>
     <t xml:space="preserve">8.71864700317383</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">7.47312641143799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42049789428711</t>
+    <t xml:space="preserve">7.42049837112427</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
@@ -3026,25 +3026,25 @@
     <t xml:space="preserve">8.06957244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82397747039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28008270263672</t>
+    <t xml:space="preserve">7.82397651672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28008365631104</t>
   </si>
   <si>
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533973693848</t>
+    <t xml:space="preserve">7.99940252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533878326416</t>
   </si>
   <si>
     <t xml:space="preserve">8.4905948638916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43796539306641</t>
+    <t xml:space="preserve">8.43796634674072</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90284442901611</t>
+    <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
     <t xml:space="preserve">8.70987606048584</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">8.26254177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07834434509277</t>
+    <t xml:space="preserve">8.07834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">7.98186063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28885364532471</t>
+    <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
     <t xml:space="preserve">8.1835994720459</t>
@@ -3951,6 +3951,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.80000019073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77999973297119</t>
   </si>
 </sst>
 </file>
@@ -26670,7 +26673,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26696,7 +26699,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G862" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26722,7 +26725,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G863" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26748,7 +26751,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26774,7 +26777,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G865" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26800,7 +26803,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G866" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26826,7 +26829,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G867" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26852,7 +26855,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26878,7 +26881,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G869" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26904,7 +26907,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G870" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26930,7 +26933,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G871" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26956,7 +26959,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G872" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26982,7 +26985,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27034,7 +27037,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G875" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27060,7 +27063,7 @@
         <v>6.75</v>
       </c>
       <c r="G876" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27086,7 +27089,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G877" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27112,7 +27115,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G878" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27138,7 +27141,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G879" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27164,7 +27167,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G880" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27190,7 +27193,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G881" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27216,7 +27219,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G882" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27242,7 +27245,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27268,7 +27271,7 @@
         <v>6.5</v>
       </c>
       <c r="G884" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27294,7 +27297,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>537</v>
+        <v>657</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27346,7 +27349,7 @@
         <v>6.5</v>
       </c>
       <c r="G887" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27762,7 +27765,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G903" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27840,7 +27843,7 @@
         <v>6.75</v>
       </c>
       <c r="G906" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27944,7 +27947,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G910" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28022,7 +28025,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G913" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28048,7 +28051,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G914" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28776,7 +28779,7 @@
         <v>6.75</v>
       </c>
       <c r="G942" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28828,7 +28831,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G944" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29010,7 +29013,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G951" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29036,7 +29039,7 @@
         <v>6.5</v>
       </c>
       <c r="G952" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29244,7 +29247,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G960" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29322,7 +29325,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G963" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29374,7 +29377,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G965" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30414,7 +30417,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30570,7 +30573,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1011" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30596,7 +30599,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1012" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30778,7 +30781,7 @@
         <v>6.75</v>
       </c>
       <c r="G1019" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30804,7 +30807,7 @@
         <v>6.75</v>
       </c>
       <c r="G1020" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30830,7 +30833,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30934,7 +30937,7 @@
         <v>6.75</v>
       </c>
       <c r="G1025" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30960,7 +30963,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1026" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30986,7 +30989,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1027" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31012,7 +31015,7 @@
         <v>6.75</v>
       </c>
       <c r="G1028" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31090,7 +31093,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1031" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31116,7 +31119,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1032" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31194,7 +31197,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1035" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31506,7 +31509,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31610,7 +31613,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1051" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -38058,7 +38061,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1299" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38084,7 +38087,7 @@
         <v>6.5</v>
       </c>
       <c r="G1300" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38110,7 +38113,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1301" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38136,7 +38139,7 @@
         <v>6.5</v>
       </c>
       <c r="G1302" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38604,7 +38607,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1320" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38630,7 +38633,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1321" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -60088,7 +60091,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6495717593</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>22766</v>
@@ -60109,6 +60112,32 @@
         <v>1312</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6493518519</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>16712</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>8.97999954223633</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>8.61999988555908</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>8.68000030517578</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2514089345932</t>
+    <t xml:space="preserve">1.25140881538391</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
@@ -47,40 +47,40 @@
     <t xml:space="preserve">1.27346646785736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28596580028534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611399650574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29258334636688</t>
+    <t xml:space="preserve">1.28596591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611387729645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29258322715759</t>
   </si>
   <si>
     <t xml:space="preserve">1.31169986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3256698846817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33596336841583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32346403598785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30875873565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758432388306</t>
+    <t xml:space="preserve">1.32566964626312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33596348762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32346415519714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30875897407532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758420467377</t>
   </si>
   <si>
     <t xml:space="preserve">1.25214397907257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729084014893</t>
+    <t xml:space="preserve">1.23302733898163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2572910785675</t>
   </si>
   <si>
     <t xml:space="preserve">1.30728828907013</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">1.2955242395401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27493691444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24111521244049</t>
+    <t xml:space="preserve">1.27493715286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2411150932312</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18008887767792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376493453979</t>
+    <t xml:space="preserve">1.23449790477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18008875846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376505374908</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729570388794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1396496295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612396240234</t>
+    <t xml:space="preserve">1.13964951038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612384319305</t>
   </si>
   <si>
     <t xml:space="preserve">1.07568228244781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07053542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05141866207123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07347655296326</t>
+    <t xml:space="preserve">1.07053530216217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05141854286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07347643375397</t>
   </si>
   <si>
     <t xml:space="preserve">1.09479892253876</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">1.15067851543427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16832458972931</t>
+    <t xml:space="preserve">1.16832447052002</t>
   </si>
   <si>
     <t xml:space="preserve">1.16538369655609</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">1.14700222015381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17641270160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317553520203</t>
+    <t xml:space="preserve">1.17641246318817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317541599274</t>
   </si>
   <si>
     <t xml:space="preserve">1.15435481071472</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">1.18744146823883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16170740127563</t>
+    <t xml:space="preserve">1.16170728206635</t>
   </si>
   <si>
     <t xml:space="preserve">1.18817663192749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347133159637</t>
+    <t xml:space="preserve">1.17347121238708</t>
   </si>
   <si>
     <t xml:space="preserve">1.20582282543182</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">1.23670363426208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22788047790527</t>
+    <t xml:space="preserve">1.22788059711456</t>
   </si>
   <si>
     <t xml:space="preserve">1.24258577823639</t>
@@ -182,34 +182,34 @@
     <t xml:space="preserve">1.22861588001251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22052776813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670132160187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30655312538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30214166641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26464354991913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2499383687973</t>
+    <t xml:space="preserve">1.22052788734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670108318329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30655300617218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30214142799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26464343070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24993824958801</t>
   </si>
   <si>
     <t xml:space="preserve">1.28743648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28228950500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30581784248352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23008620738983</t>
+    <t xml:space="preserve">1.28228962421417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30581796169281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23008632659912</t>
   </si>
   <si>
     <t xml:space="preserve">1.25067341327667</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.26243758201599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29920053482056</t>
+    <t xml:space="preserve">1.29920041561127</t>
   </si>
   <si>
     <t xml:space="preserve">1.2940536737442</t>
@@ -233,40 +233,40 @@
     <t xml:space="preserve">1.25876152515411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28523063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861332893372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934861183167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2896420955658</t>
+    <t xml:space="preserve">1.28523075580597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861320972443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934849262238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28964221477509</t>
   </si>
   <si>
     <t xml:space="preserve">1.27199602127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28302478790283</t>
+    <t xml:space="preserve">1.28302490711212</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36022698879242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33816921710968</t>
+    <t xml:space="preserve">1.36022686958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33816909790039</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34478664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949413776398</t>
+    <t xml:space="preserve">1.34478652477264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949425697327</t>
   </si>
   <si>
     <t xml:space="preserve">1.2984653711319</t>
@@ -275,31 +275,31 @@
     <t xml:space="preserve">1.2683197259903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21170496940613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19773483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17420673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17567729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258809089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288193225861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19847011566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12494444847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13817918300629</t>
+    <t xml:space="preserve">1.21170485019684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19773495197296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17420649528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1756774187088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1925882101059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288181304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19847023487091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12494432926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759197711945</t>
@@ -308,52 +308,52 @@
     <t xml:space="preserve">1.12347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13597345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229691982269</t>
+    <t xml:space="preserve">1.13597333431244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13229703903198</t>
   </si>
   <si>
     <t xml:space="preserve">1.11023926734924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15582537651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15803098678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920794963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17494213581085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15361940860748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16758930683136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21391069889069</t>
+    <t xml:space="preserve">1.15582525730133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15803110599518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920783042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17494189739227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15361952781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16758954524994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2139105796814</t>
   </si>
   <si>
     <t xml:space="preserve">1.41169500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56021702289581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168746948242</t>
+    <t xml:space="preserve">1.5602171421051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.561687707901</t>
   </si>
   <si>
     <t xml:space="preserve">1.52345418930054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48522078990936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52933621406555</t>
+    <t xml:space="preserve">1.48522090911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52933597564697</t>
   </si>
   <si>
     <t xml:space="preserve">1.47051572799683</t>
@@ -374,10 +374,10 @@
     <t xml:space="preserve">1.4999258518219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48669123649597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49257326126099</t>
+    <t xml:space="preserve">1.48669147491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49257349967957</t>
   </si>
   <si>
     <t xml:space="preserve">1.48816180229187</t>
@@ -386,52 +386,52 @@
     <t xml:space="preserve">1.48080921173096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49845552444458</t>
+    <t xml:space="preserve">1.49845540523529</t>
   </si>
   <si>
     <t xml:space="preserve">1.55433511734009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785336971283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550211429596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961243629456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666887283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078951835632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931895256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020243167877</t>
+    <t xml:space="preserve">1.7778537273407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550223350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961255550385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078939914703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931871414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020231246948</t>
   </si>
   <si>
     <t xml:space="preserve">1.816086769104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80138170719147</t>
+    <t xml:space="preserve">1.80138194561005</t>
   </si>
   <si>
     <t xml:space="preserve">1.87490725517273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93372821807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9160817861557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078672885895</t>
+    <t xml:space="preserve">1.9337283372879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608202457428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91314053535461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078696727753</t>
   </si>
   <si>
     <t xml:space="preserve">1.92931663990021</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">1.93519854545593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9204934835434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431761741638</t>
+    <t xml:space="preserve">1.92049324512482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431749820709</t>
   </si>
   <si>
     <t xml:space="preserve">1.91902267932892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90137672424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92343425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961012363434</t>
+    <t xml:space="preserve">1.90137660503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9234344959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961048126221</t>
   </si>
   <si>
     <t xml:space="preserve">1.96166801452637</t>
@@ -464,49 +464,49 @@
     <t xml:space="preserve">2.09401440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489242553711</t>
+    <t xml:space="preserve">2.17489266395569</t>
   </si>
   <si>
     <t xml:space="preserve">2.12930679321289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19106793403625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14107084274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077712059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11166048049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19695043563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27782869338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26606464385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08813214302063</t>
+    <t xml:space="preserve">2.19106841087341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14107060432434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0969557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842610359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11166000366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19695067405701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27782845497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26606440544128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08813166618347</t>
   </si>
   <si>
     <t xml:space="preserve">1.97637283802032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06901526451111</t>
+    <t xml:space="preserve">2.06901550292969</t>
   </si>
   <si>
     <t xml:space="preserve">2.04989886283875</t>
@@ -515,34 +515,34 @@
     <t xml:space="preserve">2.1160717010498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136699676514</t>
+    <t xml:space="preserve">2.10136675834656</t>
   </si>
   <si>
     <t xml:space="preserve">2.08225035667419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07636761665344</t>
+    <t xml:space="preserve">2.07636785507202</t>
   </si>
   <si>
     <t xml:space="preserve">2.03519368171692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01460647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95578587055206</t>
+    <t xml:space="preserve">2.01460671424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95578563213348</t>
   </si>
   <si>
     <t xml:space="preserve">1.96019721031189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9719614982605</t>
+    <t xml:space="preserve">1.97196125984192</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843316078186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784814834595</t>
+    <t xml:space="preserve">1.87784838676453</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549469947815</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431299209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09548497200012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08666181564331</t>
+    <t xml:space="preserve">2.00431275367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09548473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08666133880615</t>
   </si>
   <si>
     <t xml:space="preserve">2.08372068405151</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">2.03813481330872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05431032180786</t>
+    <t xml:space="preserve">2.0543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">2.05872201919556</t>
@@ -581,40 +581,40 @@
     <t xml:space="preserve">2.06754493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06313347816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10283732414246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17636322975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27194690704346</t>
+    <t xml:space="preserve">2.06313323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10283708572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17636346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694533348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27194666862488</t>
   </si>
   <si>
     <t xml:space="preserve">2.23812484741211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16606950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19989156723022</t>
+    <t xml:space="preserve">2.16606974601746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1998918056488</t>
   </si>
   <si>
     <t xml:space="preserve">2.22047853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19842076301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21753764152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988889694214</t>
+    <t xml:space="preserve">2.19842100143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21753740310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988865852356</t>
   </si>
   <si>
     <t xml:space="preserve">2.23518395423889</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25871181488037</t>
+    <t xml:space="preserve">2.25871229171753</t>
   </si>
   <si>
     <t xml:space="preserve">2.24253606796265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21606731414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136189460754</t>
+    <t xml:space="preserve">2.21606683731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136213302612</t>
   </si>
   <si>
     <t xml:space="preserve">2.22341990470886</t>
@@ -647,25 +647,25 @@
     <t xml:space="preserve">2.20577335357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22194910049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3528254032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61163568496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61016511917114</t>
+    <t xml:space="preserve">2.22194957733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35282492637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61163592338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61016535758972</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60575366020203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5866367816925</t>
+    <t xml:space="preserve">2.60575318336487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58663725852966</t>
   </si>
   <si>
     <t xml:space="preserve">2.52193427085876</t>
@@ -674,25 +674,25 @@
     <t xml:space="preserve">2.64545774459839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60281276702881</t>
+    <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
     <t xml:space="preserve">2.5881073474884</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56457901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56016778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59840106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634305953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61751747131348</t>
+    <t xml:space="preserve">2.56457924842834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56016755104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59840083122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634329795837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61751794815063</t>
   </si>
   <si>
     <t xml:space="preserve">2.5954601764679</t>
@@ -701,34 +701,34 @@
     <t xml:space="preserve">2.78662705421448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85280060768127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83809494972229</t>
+    <t xml:space="preserve">2.8528003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83809518814087</t>
   </si>
   <si>
     <t xml:space="preserve">2.98808789253235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92632627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3998327255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129480361938</t>
+    <t xml:space="preserve">2.92632603645325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129504203796</t>
   </si>
   <si>
     <t xml:space="preserve">3.63217353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89319014549255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716757774353</t>
+    <t xml:space="preserve">3.8931896686554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716733932495</t>
   </si>
   <si>
     <t xml:space="preserve">3.87480902671814</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">4.14685392379761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26449584960938</t>
+    <t xml:space="preserve">4.26449537277222</t>
   </si>
   <si>
     <t xml:space="preserve">4.4005184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37478399276733</t>
+    <t xml:space="preserve">4.37478351593018</t>
   </si>
   <si>
     <t xml:space="preserve">4.31596374511719</t>
@@ -767,58 +767,58 @@
     <t xml:space="preserve">4.51815891265869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7791748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990350723267</t>
+    <t xml:space="preserve">4.77917623519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990398406982</t>
   </si>
   <si>
     <t xml:space="preserve">5.77177429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35267686843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26444578170776</t>
+    <t xml:space="preserve">5.02916431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35267639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26444625854492</t>
   </si>
   <si>
     <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71295309066772</t>
+    <t xml:space="preserve">5.71295356750488</t>
   </si>
   <si>
     <t xml:space="preserve">6.0585241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71290445327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523916244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81583976745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389915466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310390472412</t>
+    <t xml:space="preserve">6.71290302276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584119796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0437707901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389772415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310485839844</t>
   </si>
   <si>
     <t xml:space="preserve">7.11926603317261</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67006492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85503005981445</t>
+    <t xml:space="preserve">6.67006540298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85502958297729</t>
   </si>
   <si>
     <t xml:space="preserve">6.66629028320312</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">6.7191367149353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46245241165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397348403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6889386177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085874557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6398663520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490217208862</t>
+    <t xml:space="preserve">6.46245193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397443771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68893909454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085779190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63986682891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490169525146</t>
   </si>
   <si>
     <t xml:space="preserve">6.41337919235229</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25483751296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159345626831</t>
+    <t xml:space="preserve">6.25483703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159393310547</t>
   </si>
   <si>
     <t xml:space="preserve">6.19821548461914</t>
@@ -878,52 +878,52 @@
     <t xml:space="preserve">6.03589963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97550296783447</t>
+    <t xml:space="preserve">5.97550249099731</t>
   </si>
   <si>
     <t xml:space="preserve">5.98305225372314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63199615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11484861373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.435706615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2243185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20921897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862373352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259695053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93365859985352</t>
+    <t xml:space="preserve">5.631995677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11484909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43570709228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22431802749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20921945571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465051651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862421035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259647369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93365812301636</t>
   </si>
   <si>
     <t xml:space="preserve">5.16769599914551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836050033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91855955123901</t>
+    <t xml:space="preserve">5.00538015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91855907440186</t>
   </si>
   <si>
     <t xml:space="preserve">5.06200170516968</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">4.73359489440918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71472072601318</t>
+    <t xml:space="preserve">4.71472024917603</t>
   </si>
   <si>
     <t xml:space="preserve">4.65809869766235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5977029800415</t>
+    <t xml:space="preserve">4.59770202636719</t>
   </si>
   <si>
     <t xml:space="preserve">4.60147666931152</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">4.68452215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28471517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09597539901733</t>
+    <t xml:space="preserve">5.2847146987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
     <t xml:space="preserve">5.04690265655518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00160503387451</t>
+    <t xml:space="preserve">5.00160551071167</t>
   </si>
   <si>
     <t xml:space="preserve">4.91478490829468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90723514556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83173942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81664037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85816287994385</t>
+    <t xml:space="preserve">4.90723562240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83173894882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81663990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85816240310669</t>
   </si>
   <si>
     <t xml:space="preserve">4.89213609695435</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">4.99405527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19789457321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06955194473267</t>
+    <t xml:space="preserve">5.19789409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06955146789551</t>
   </si>
   <si>
     <t xml:space="preserve">5.31491279602051</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">5.367760181427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45080614089966</t>
+    <t xml:space="preserve">5.4508056640625</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021089553833</t>
@@ -1019,31 +1019,31 @@
     <t xml:space="preserve">5.24319267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14882230758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05822706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372373580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3035888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33001232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584005355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20166921615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.190345287323</t>
+    <t xml:space="preserve">5.14882183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372325897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30358934402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33001279830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584148406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20166969299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19034433364868</t>
   </si>
   <si>
     <t xml:space="preserve">5.41305780410767</t>
@@ -1061,67 +1061,67 @@
     <t xml:space="preserve">6.06232261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33410787582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24351358413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48510026931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84748029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38350105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23628568649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46654748916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919630050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806301116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53103923797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85567092895508</t>
+    <t xml:space="preserve">6.33410835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24351406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48509979248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84747982025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38350009918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23628425598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4665470123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53104019165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85567188262939</t>
   </si>
   <si>
     <t xml:space="preserve">9.39924335479736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75407314300537</t>
+    <t xml:space="preserve">9.75407409667969</t>
   </si>
   <si>
     <t xml:space="preserve">10.7204217910767</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84057331085205</t>
+    <t xml:space="preserve">8.84057235717773</t>
   </si>
   <si>
     <t xml:space="preserve">9.04441070556641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62918376922607</t>
+    <t xml:space="preserve">8.62918472290039</t>
   </si>
   <si>
     <t xml:space="preserve">8.41024684906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19130802154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487758636475</t>
+    <t xml:space="preserve">8.19130897521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487854003906</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">8.50084209442139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38004779815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581230163574</t>
+    <t xml:space="preserve">8.38004875183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27435493469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581039428711</t>
   </si>
   <si>
     <t xml:space="preserve">7.77608013153076</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137775421143</t>
+    <t xml:space="preserve">7.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137680053711</t>
   </si>
   <si>
     <t xml:space="preserve">7.89687442779541</t>
@@ -1157,43 +1157,43 @@
     <t xml:space="preserve">7.7534327507019</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64428424835205</t>
+    <t xml:space="preserve">8.64428329467773</t>
   </si>
   <si>
     <t xml:space="preserve">8.22905540466309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34985065460205</t>
+    <t xml:space="preserve">8.34984874725342</t>
   </si>
   <si>
     <t xml:space="preserve">8.23660564422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31965160369873</t>
+    <t xml:space="preserve">8.44044399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31965065002441</t>
   </si>
   <si>
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1309118270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94971990585327</t>
+    <t xml:space="preserve">8.13091087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94972085952759</t>
   </si>
   <si>
     <t xml:space="preserve">7.79117822647095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54959344863892</t>
+    <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
     <t xml:space="preserve">7.30800676345825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57224130630493</t>
+    <t xml:space="preserve">7.57224082946777</t>
   </si>
   <si>
     <t xml:space="preserve">7.31933069229126</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">7.5646915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55714321136475</t>
+    <t xml:space="preserve">7.55714225769043</t>
   </si>
   <si>
     <t xml:space="preserve">7.92707252502441</t>
@@ -1211,70 +1211,70 @@
     <t xml:space="preserve">8.03276634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60999011993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60244035720825</t>
+    <t xml:space="preserve">7.60998964309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60243892669678</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204273223877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522260665894</t>
+    <t xml:space="preserve">7.45522308349609</t>
   </si>
   <si>
     <t xml:space="preserve">7.35330295562744</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24005937576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668045043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51184511184692</t>
+    <t xml:space="preserve">7.24005889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668140411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51184463500977</t>
   </si>
   <si>
     <t xml:space="preserve">7.25893354415894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19476222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23250961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230411529541</t>
+    <t xml:space="preserve">7.19476270675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23251056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304067611694</t>
   </si>
   <si>
     <t xml:space="preserve">7.30045604705811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27780866622925</t>
+    <t xml:space="preserve">7.27780675888062</t>
   </si>
   <si>
     <t xml:space="preserve">7.32687950134277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51561880111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49296998977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36840200424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21395587921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123733520508</t>
+    <t xml:space="preserve">7.51562023162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49297046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840295791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058345794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123828887939</t>
   </si>
   <si>
     <t xml:space="preserve">8.30455207824707</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04786586761475</t>
+    <t xml:space="preserve">8.04786682128906</t>
   </si>
   <si>
     <t xml:space="preserve">8.15356063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766777038574</t>
+    <t xml:space="preserve">8.01766872406006</t>
   </si>
   <si>
     <t xml:space="preserve">8.16865921020508</t>
@@ -1301,49 +1301,49 @@
     <t xml:space="preserve">7.85157585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12681484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151721954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96827363967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973291397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8852276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93052625656128</t>
+    <t xml:space="preserve">7.12681531906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96827411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973243713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317459106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88522815704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93052577972412</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767839431763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59834384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50019931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900930404663</t>
+    <t xml:space="preserve">6.59834432601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50019836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900978088379</t>
   </si>
   <si>
     <t xml:space="preserve">6.16801691055298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15291738510132</t>
+    <t xml:space="preserve">6.15291690826416</t>
   </si>
   <si>
     <t xml:space="preserve">6.56814575195312</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">6.5756950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76443529129028</t>
+    <t xml:space="preserve">6.76443576812744</t>
   </si>
   <si>
     <t xml:space="preserve">6.78708410263062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00602197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83993196487427</t>
+    <t xml:space="preserve">7.00602149963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83993101119995</t>
   </si>
   <si>
     <t xml:space="preserve">6.77953338623047</t>
@@ -1370,91 +1370,91 @@
     <t xml:space="preserve">6.6058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40205383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43980169296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22841310501099</t>
+    <t xml:space="preserve">6.40205430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4398021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086429595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22841358184814</t>
   </si>
   <si>
     <t xml:space="preserve">6.18311595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08497190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616144180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3114595413208</t>
+    <t xml:space="preserve">6.0849723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616191864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
     <t xml:space="preserve">6.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47754955291748</t>
+    <t xml:space="preserve">6.47755002975464</t>
   </si>
   <si>
     <t xml:space="preserve">6.49265003204346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56059551239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470407485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62099313735962</t>
+    <t xml:space="preserve">6.56059598922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4247031211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62099266052246</t>
   </si>
   <si>
     <t xml:space="preserve">6.61344289779663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65119171142578</t>
+    <t xml:space="preserve">6.65119123458862</t>
   </si>
   <si>
     <t xml:space="preserve">6.91063451766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69836282730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78484392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974334716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981119155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822761535645</t>
+    <t xml:space="preserve">6.69836330413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78484296798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974382400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849708557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822904586792</t>
   </si>
   <si>
     <t xml:space="preserve">6.39961004257202</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19519853591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25023221969604</t>
+    <t xml:space="preserve">6.19519901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2502326965332</t>
   </si>
   <si>
     <t xml:space="preserve">6.2345085144043</t>
@@ -1466,16 +1466,16 @@
     <t xml:space="preserve">6.24237108230591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13230419158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87285995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75493097305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88072204589844</t>
+    <t xml:space="preserve">6.1323037147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87286043167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75493144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8807225227356</t>
   </si>
   <si>
     <t xml:space="preserve">5.83355093002319</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">6.045823097229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17161417007446</t>
+    <t xml:space="preserve">6.1716136932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.21878528594971</t>
@@ -1505,49 +1505,49 @@
     <t xml:space="preserve">6.64332914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87918710708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698183059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119123458862</t>
+    <t xml:space="preserve">6.87918663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119028091431</t>
   </si>
   <si>
     <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43105697631836</t>
+    <t xml:space="preserve">6.43105745315552</t>
   </si>
   <si>
     <t xml:space="preserve">6.36029958724976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06154680252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05368423461914</t>
+    <t xml:space="preserve">6.06154632568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0536847114563</t>
   </si>
   <si>
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361782073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84927463531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03796005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9043083190918</t>
+    <t xml:space="preserve">5.94361734390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84927415847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03796052932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940841674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90430736541748</t>
   </si>
   <si>
     <t xml:space="preserve">5.89644575119019</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">5.93575572967529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81782722473145</t>
+    <t xml:space="preserve">5.81782627105713</t>
   </si>
   <si>
     <t xml:space="preserve">5.85713624954224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77851724624634</t>
+    <t xml:space="preserve">5.77851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69203615188599</t>
+    <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279306411743</t>
@@ -1601,43 +1601,43 @@
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0300989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74706983566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47190189361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39328289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34611129760742</t>
+    <t xml:space="preserve">5.86499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03009843826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74706935882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47190141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39328241348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34611082077026</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183452606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32252502441406</t>
+    <t xml:space="preserve">5.32252550125122</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680084228516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749181747437</t>
+    <t xml:space="preserve">5.26749134063721</t>
   </si>
   <si>
     <t xml:space="preserve">5.28321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17314863204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
+    <t xml:space="preserve">5.1731481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811494827271</t>
   </si>
   <si>
     <t xml:space="preserve">5.11025333404541</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">4.9687385559082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00804758071899</t>
+    <t xml:space="preserve">5.00804805755615</t>
   </si>
   <si>
     <t xml:space="preserve">5.06308174133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99232387542725</t>
+    <t xml:space="preserve">5.12597703933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9923243522644</t>
   </si>
   <si>
     <t xml:space="preserve">5.10239124298096</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">5.14170074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0945291519165</t>
+    <t xml:space="preserve">5.09452962875366</t>
   </si>
   <si>
     <t xml:space="preserve">5.1967339515686</t>
@@ -1679,16 +1679,16 @@
     <t xml:space="preserve">5.33824968338013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38542127609253</t>
+    <t xml:space="preserve">5.38542079925537</t>
   </si>
   <si>
     <t xml:space="preserve">6.52540016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56470966339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31312799453735</t>
+    <t xml:space="preserve">6.56471014022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3131275177002</t>
   </si>
   <si>
     <t xml:space="preserve">6.407470703125</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">6.28954267501831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29107713699341</t>
+    <t xml:space="preserve">5.29107761383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.22818231582642</t>
@@ -1712,76 +1712,76 @@
     <t xml:space="preserve">5.27535390853882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13383865356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29893922805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20459604263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05521965026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03163433074951</t>
+    <t xml:space="preserve">5.13383817672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2989387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20459651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0552191734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03163385391235</t>
   </si>
   <si>
     <t xml:space="preserve">5.0237717628479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0709433555603</t>
+    <t xml:space="preserve">5.07094287872314</t>
   </si>
   <si>
     <t xml:space="preserve">5.22032022476196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14956283569336</t>
+    <t xml:space="preserve">5.14956331253052</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69357061386108</t>
+    <t xml:space="preserve">4.69357109069824</t>
   </si>
   <si>
     <t xml:space="preserve">4.48129844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59922695159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633213043213</t>
+    <t xml:space="preserve">4.59922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633260726929</t>
   </si>
   <si>
     <t xml:space="preserve">4.38695573806763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37123155593872</t>
+    <t xml:space="preserve">4.37123203277588</t>
   </si>
   <si>
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847003936768</t>
+    <t xml:space="preserve">4.52847051620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.68570899963379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67784738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94515323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35397291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18101072311401</t>
+    <t xml:space="preserve">4.67784690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.945152759552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35397243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33038759231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18101024627686</t>
   </si>
   <si>
     <t xml:space="preserve">5.25962972640991</t>
@@ -1799,13 +1799,13 @@
     <t xml:space="preserve">5.45617818832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36969614028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55052137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41686820983887</t>
+    <t xml:space="preserve">5.36969709396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55052089691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41686868667603</t>
   </si>
   <si>
     <t xml:space="preserve">5.57410717010498</t>
@@ -1814,22 +1814,22 @@
     <t xml:space="preserve">5.68417358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63700246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71562147140503</t>
+    <t xml:space="preserve">5.63700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71562194824219</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72348356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631196975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733739852905</t>
+    <t xml:space="preserve">5.72348308563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733692169189</t>
   </si>
   <si>
     <t xml:space="preserve">6.14802742004395</t>
@@ -1841,37 +1841,37 @@
     <t xml:space="preserve">6.53326225280762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10085678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740476608276</t>
+    <t xml:space="preserve">6.10085582733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740428924561</t>
   </si>
   <si>
     <t xml:space="preserve">6.08513212203979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.108717918396</t>
+    <t xml:space="preserve">6.10871839523315</t>
   </si>
   <si>
     <t xml:space="preserve">6.2030611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32885265350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526638031006</t>
+    <t xml:space="preserve">6.3288516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30526685714722</t>
   </si>
   <si>
     <t xml:space="preserve">6.2109227180481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12444162368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16375160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595592498779</t>
+    <t xml:space="preserve">6.1244421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16375207901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595640182495</t>
   </si>
   <si>
     <t xml:space="preserve">6.51753854751587</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">6.39174747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45464324951172</t>
+    <t xml:space="preserve">6.45464277267456</t>
   </si>
   <si>
     <t xml:space="preserve">6.44678068161011</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">6.32098960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33671426773071</t>
+    <t xml:space="preserve">6.33671474456787</t>
   </si>
   <si>
     <t xml:space="preserve">6.01437520980835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27381896972656</t>
+    <t xml:space="preserve">6.2738184928894</t>
   </si>
   <si>
     <t xml:space="preserve">5.97506523132324</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">6.0065131187439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99078893661499</t>
+    <t xml:space="preserve">5.99078941345215</t>
   </si>
   <si>
     <t xml:space="preserve">5.77065515518188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73134565353394</t>
+    <t xml:space="preserve">5.73134517669678</t>
   </si>
   <si>
     <t xml:space="preserve">6.02223634719849</t>
@@ -1922,25 +1922,28 @@
     <t xml:space="preserve">5.82568836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74286365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56185722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476757049561</t>
+    <t xml:space="preserve">5.74286413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56185674667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476709365845</t>
   </si>
   <si>
     <t xml:space="preserve">5.7346363067627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008409500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6441330909729</t>
+    <t xml:space="preserve">5.61945056915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008504867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64413261413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66058778762817</t>
   </si>
   <si>
     <t xml:space="preserve">5.50426387786865</t>
@@ -1949,10 +1952,10 @@
     <t xml:space="preserve">5.52894639968872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54540157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249122619629</t>
+    <t xml:space="preserve">5.54540109634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249074935913</t>
   </si>
   <si>
     <t xml:space="preserve">5.39730501174927</t>
@@ -1961,34 +1964,31 @@
     <t xml:space="preserve">5.31502866744995</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24920845031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42198801040649</t>
+    <t xml:space="preserve">5.24920797348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42198753356934</t>
   </si>
   <si>
     <t xml:space="preserve">5.46312570571899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60299491882324</t>
+    <t xml:space="preserve">5.60299444198608</t>
   </si>
   <si>
     <t xml:space="preserve">5.55362892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37262201309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907718658447</t>
+    <t xml:space="preserve">5.37262153625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907766342163</t>
   </si>
   <si>
     <t xml:space="preserve">5.34793949127197</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30680131912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36439418792725</t>
+    <t xml:space="preserve">5.3643946647644</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72640895843506</t>
+    <t xml:space="preserve">5.7264084815979</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98969221115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95678186416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9156436920166</t>
+    <t xml:space="preserve">5.98969173431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9567813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91564416885376</t>
   </si>
   <si>
     <t xml:space="preserve">5.83336782455444</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75109195709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62767744064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57831192016602</t>
+    <t xml:space="preserve">5.75109148025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62767839431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
     <t xml:space="preserve">5.58654022216797</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">5.45489835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0352897644043</t>
+    <t xml:space="preserve">5.03529071807861</t>
   </si>
   <si>
     <t xml:space="preserve">4.93655920028687</t>
@@ -2045,16 +2045,16 @@
     <t xml:space="preserve">4.95301485061646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73909664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21629762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05997371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87073802947998</t>
+    <t xml:space="preserve">4.73909711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21629810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05997323989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8707389831543</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
@@ -2066,58 +2066,58 @@
     <t xml:space="preserve">4.86251068115234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87896633148193</t>
+    <t xml:space="preserve">4.87896585464478</t>
   </si>
   <si>
     <t xml:space="preserve">4.82137298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85428333282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91187620162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14224910736084</t>
+    <t xml:space="preserve">4.85428380966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9118766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.142249584198</t>
   </si>
   <si>
     <t xml:space="preserve">5.48780870437622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27389049530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29034614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4055323600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47958040237427</t>
+    <t xml:space="preserve">5.27389097213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29034566879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40553283691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47958087921143</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4137601852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33148384094238</t>
+    <t xml:space="preserve">5.41375970840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33148431777954</t>
   </si>
   <si>
     <t xml:space="preserve">5.38084983825684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26566362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32325649261475</t>
+    <t xml:space="preserve">5.26566314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32325601577759</t>
   </si>
   <si>
     <t xml:space="preserve">5.33971166610718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4466700553894</t>
+    <t xml:space="preserve">5.44667100906372</t>
   </si>
   <si>
     <t xml:space="preserve">5.43844270706177</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">5.79222965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66881561279297</t>
+    <t xml:space="preserve">5.66881608963013</t>
   </si>
   <si>
     <t xml:space="preserve">5.84159517288208</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868530273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68527030944824</t>
+    <t xml:space="preserve">5.80868482589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6852707862854</t>
   </si>
   <si>
     <t xml:space="preserve">5.6934986114502</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04728555679321</t>
+    <t xml:space="preserve">6.04728507995605</t>
   </si>
   <si>
     <t xml:space="preserve">5.9238715171814</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">5.61122226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63590574264526</t>
+    <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
     <t xml:space="preserve">5.49603605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">5.224524974823</t>
+    <t xml:space="preserve">5.22452545166016</t>
   </si>
   <si>
     <t xml:space="preserve">5.07642841339111</t>
@@ -2186,22 +2186,22 @@
     <t xml:space="preserve">5.1340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10933828353882</t>
+    <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
     <t xml:space="preserve">5.16693210601807</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11756658554077</t>
+    <t xml:space="preserve">5.11756610870361</t>
   </si>
   <si>
     <t xml:space="preserve">5.23275327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79668998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77200794219971</t>
+    <t xml:space="preserve">4.79669046401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77200746536255</t>
   </si>
   <si>
     <t xml:space="preserve">4.80491828918457</t>
@@ -2213,37 +2213,37 @@
     <t xml:space="preserve">4.36062717437744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43467617034912</t>
+    <t xml:space="preserve">4.43467569351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.31948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03152370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81760597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42268109321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45559144020081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48850154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421186447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24990129470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20876383781433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09357690811157</t>
+    <t xml:space="preserve">4.03152418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81760573387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42268085479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48850178718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421138763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24990153312683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20876359939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117025375366</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">3.41445350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38154315948486</t>
+    <t xml:space="preserve">3.38154339790344</t>
   </si>
   <si>
     <t xml:space="preserve">3.40211248397827</t>
@@ -2270,19 +2270,19 @@
     <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39799833297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495719909668</t>
+    <t xml:space="preserve">3.39799857139587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375363349915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495743751526</t>
   </si>
   <si>
     <t xml:space="preserve">3.6283712387085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646803855896</t>
+    <t xml:space="preserve">3.7764675617218</t>
   </si>
   <si>
     <t xml:space="preserve">3.53786778450012</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">3.69419145584106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71887445449829</t>
+    <t xml:space="preserve">3.71887469291687</t>
   </si>
   <si>
     <t xml:space="preserve">3.90810966491699</t>
@@ -2303,13 +2303,13 @@
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5498628616333</t>
+    <t xml:space="preserve">4.54986190795898</t>
   </si>
   <si>
     <t xml:space="preserve">4.54163455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53340721130371</t>
+    <t xml:space="preserve">4.53340673446655</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
@@ -2333,34 +2333,34 @@
     <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91633701324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98215818405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02329587936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03563737869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88342642784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01918268203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06443357467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99038505554199</t>
+    <t xml:space="preserve">3.91633725166321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98215842247009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02329540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03563785552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88342666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0191822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06443405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99038553237915</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109543800354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05209255218506</t>
+    <t xml:space="preserve">4.05209302902222</t>
   </si>
   <si>
     <t xml:space="preserve">3.93690586090088</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721313476562</t>
+    <t xml:space="preserve">4.23721361160278</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417247772217</t>
@@ -2399,22 +2399,22 @@
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848257064819</t>
+    <t xml:space="preserve">4.13848209381104</t>
   </si>
   <si>
     <t xml:space="preserve">4.0808892250061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25366926193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27012395858765</t>
+    <t xml:space="preserve">4.25366878509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2701244354248</t>
   </si>
   <si>
     <t xml:space="preserve">4.22898578643799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08500289916992</t>
+    <t xml:space="preserve">4.08500242233276</t>
   </si>
   <si>
     <t xml:space="preserve">4.1220269203186</t>
@@ -2426,43 +2426,43 @@
     <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05620622634888</t>
+    <t xml:space="preserve">4.05620574951172</t>
   </si>
   <si>
     <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07266092300415</t>
+    <t xml:space="preserve">4.07266139984131</t>
   </si>
   <si>
     <t xml:space="preserve">4.09734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10145807266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96570348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94101977348328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279218673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677555084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1631646156311</t>
+    <t xml:space="preserve">4.10145854949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570253372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94102025032043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449896812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677507400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16316509246826</t>
   </si>
   <si>
     <t xml:space="preserve">4.22075843811035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1302547454834</t>
+    <t xml:space="preserve">4.13025522232056</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924783706665</t>
@@ -2471,40 +2471,40 @@
     <t xml:space="preserve">3.94513344764709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8258330821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85051655769348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640312194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80937838554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7394437789917</t>
+    <t xml:space="preserve">3.82583332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85051584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8464024066925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8093786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73944401741028</t>
   </si>
   <si>
     <t xml:space="preserve">3.74355792999268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76823997497559</t>
+    <t xml:space="preserve">3.76824021339417</t>
   </si>
   <si>
     <t xml:space="preserve">3.6612811088562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65305423736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191582679749</t>
+    <t xml:space="preserve">3.65305376052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191558837891</t>
   </si>
   <si>
     <t xml:space="preserve">3.55432295799255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48027443885803</t>
+    <t xml:space="preserve">3.48027396202087</t>
   </si>
   <si>
     <t xml:space="preserve">3.49672961235046</t>
@@ -2513,52 +2513,52 @@
     <t xml:space="preserve">3.57077813148499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59134697914124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780262947083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659882545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66539549827576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72710275650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73121619224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67362308502197</t>
+    <t xml:space="preserve">3.59134650230408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780239105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659906387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66539525985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72710227966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7312159538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67362260818481</t>
   </si>
   <si>
     <t xml:space="preserve">3.68596458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54609513282776</t>
+    <t xml:space="preserve">3.54609537124634</t>
   </si>
   <si>
     <t xml:space="preserve">3.60368824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59546065330505</t>
+    <t xml:space="preserve">3.59546089172363</t>
   </si>
   <si>
     <t xml:space="preserve">3.63248491287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6201434135437</t>
+    <t xml:space="preserve">3.62014389038086</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36508798599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33217787742615</t>
+    <t xml:space="preserve">3.36508822441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33217763900757</t>
   </si>
   <si>
     <t xml:space="preserve">3.70241951942444</t>
@@ -2570,46 +2570,46 @@
     <t xml:space="preserve">3.71064734458923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31126165390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19607543945312</t>
+    <t xml:space="preserve">4.31126117706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19607496261597</t>
   </si>
   <si>
     <t xml:space="preserve">4.40999269485474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33594465255737</t>
+    <t xml:space="preserve">4.33594512939453</t>
   </si>
   <si>
     <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26189613342285</t>
+    <t xml:space="preserve">4.26189565658569</t>
   </si>
   <si>
     <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45935869216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45113086700439</t>
+    <t xml:space="preserve">4.45935916900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45113039016724</t>
   </si>
   <si>
     <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454442977905</t>
+    <t xml:space="preserve">4.57454490661621</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99415254592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06820106506348</t>
+    <t xml:space="preserve">4.99415302276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06820058822632</t>
   </si>
   <si>
     <t xml:space="preserve">4.96124219894409</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">5.00238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0106086730957</t>
+    <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
     <t xml:space="preserve">4.96947002410889</t>
@@ -2633,31 +2633,31 @@
     <t xml:space="preserve">5.04351854324341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25743532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24098014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161510467529</t>
+    <t xml:space="preserve">5.25743579864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24098062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161462783813</t>
   </si>
   <si>
     <t xml:space="preserve">5.10111141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08465671539307</t>
+    <t xml:space="preserve">5.08465576171875</t>
   </si>
   <si>
     <t xml:space="preserve">5.15870475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1833872795105</t>
+    <t xml:space="preserve">5.18338775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85804986953735</t>
+    <t xml:space="preserve">5.85805082321167</t>
   </si>
   <si>
     <t xml:space="preserve">5.9650092124939</t>
@@ -2666,10 +2666,10 @@
     <t xml:space="preserve">5.8745059967041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90741539001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99792003631592</t>
+    <t xml:space="preserve">5.90741586685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99791955947876</t>
   </si>
   <si>
     <t xml:space="preserve">5.97323703765869</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">5.94855356216431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032669067383</t>
+    <t xml:space="preserve">5.94032621383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2687,40 +2687,40 @@
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3846173286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48334741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45043754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35170555114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26943016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33525085449219</t>
+    <t xml:space="preserve">6.38461637496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45043802261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35170650482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26943063735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33525133132935</t>
   </si>
   <si>
     <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30119037628174</t>
+    <t xml:space="preserve">6.3011908531189</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81209754943848</t>
+    <t xml:space="preserve">6.81209802627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397754669189</t>
+    <t xml:space="preserve">6.74397659301758</t>
   </si>
   <si>
     <t xml:space="preserve">6.57367420196533</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76100778579712</t>
+    <t xml:space="preserve">6.76100730895996</t>
   </si>
   <si>
     <t xml:space="preserve">7.30597496032715</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">7.49330759048462</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7998514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591121673584</t>
+    <t xml:space="preserve">7.79985237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591026306152</t>
   </si>
   <si>
     <t xml:space="preserve">8.22560787200928</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">8.31075954437256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34482002258301</t>
+    <t xml:space="preserve">8.34482097625732</t>
   </si>
   <si>
     <t xml:space="preserve">8.29372882843018</t>
@@ -2768,19 +2768,19 @@
     <t xml:space="preserve">9.02603054046631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.068603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98345470428467</t>
+    <t xml:space="preserve">9.06860446929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98345375061035</t>
   </si>
   <si>
     <t xml:space="preserve">8.85572719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60027408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64284801483154</t>
+    <t xml:space="preserve">8.60027313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64284896850586</t>
   </si>
   <si>
     <t xml:space="preserve">8.41294002532959</t>
@@ -2789,13 +2789,13 @@
     <t xml:space="preserve">8.46403121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36185073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76579189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251878738403</t>
+    <t xml:space="preserve">8.36184978485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76579141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251926422119</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
@@ -2816,25 +2816,25 @@
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00421524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66361045837402</t>
+    <t xml:space="preserve">8.0042142868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66360998153687</t>
   </si>
   <si>
     <t xml:space="preserve">7.57845878601074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15270280838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.510338306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59548902511597</t>
+    <t xml:space="preserve">7.15270233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033735275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59548950195312</t>
   </si>
   <si>
     <t xml:space="preserve">7.74876165390015</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">8.0893669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98718452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03827571868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203332901001</t>
+    <t xml:space="preserve">7.98718547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03827476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203380584717</t>
   </si>
   <si>
     <t xml:space="preserve">8.12342739105225</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769920349121</t>
+    <t xml:space="preserve">8.55769824981689</t>
   </si>
   <si>
     <t xml:space="preserve">9.40921115875244</t>
@@ -2867,22 +2867,22 @@
     <t xml:space="preserve">9.28148365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19633293151855</t>
+    <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
     <t xml:space="preserve">8.94087886810303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81315231323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89830303192139</t>
+    <t xml:space="preserve">8.81315135955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89830207824707</t>
   </si>
   <si>
     <t xml:space="preserve">8.72800064086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48106288909912</t>
+    <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2894,16 +2894,16 @@
     <t xml:space="preserve">8.44700145721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49436092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87754249572754</t>
+    <t xml:space="preserve">9.49436187744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87754154205322</t>
   </si>
   <si>
     <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91154098510742</t>
+    <t xml:space="preserve">9.91154003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">9.69225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95539665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623920440674</t>
+    <t xml:space="preserve">9.955397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
     <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0431098937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99925231933594</t>
+    <t xml:space="preserve">10.0431089401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99925327301025</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185354232788</t>
+    <t xml:space="preserve">10.2185344696045</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
@@ -2948,22 +2948,22 @@
     <t xml:space="preserve">9.47297668457031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60454559326172</t>
+    <t xml:space="preserve">9.60454654693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.29755115509033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2098388671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77127456665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03441333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64840126037598</t>
+    <t xml:space="preserve">9.20983791351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77127552032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64840221405029</t>
   </si>
   <si>
     <t xml:space="preserve">9.42912006378174</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5168342590332</t>
+    <t xml:space="preserve">9.82382774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51683235168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2984,22 +2984,22 @@
     <t xml:space="preserve">9.34140682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25369548797607</t>
+    <t xml:space="preserve">9.25369453430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.99055671691895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94669914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16598224639893</t>
+    <t xml:space="preserve">8.94670009613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16598129272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.61339092254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71864700317383</t>
+    <t xml:space="preserve">8.71864604949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
@@ -3008,10 +3008,10 @@
     <t xml:space="preserve">8.0344877243042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203056335449</t>
+    <t xml:space="preserve">8.20991325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05202960968018</t>
   </si>
   <si>
     <t xml:space="preserve">7.47312641143799</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82397651672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28008365631104</t>
+    <t xml:space="preserve">8.06957149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82397747039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28008270263672</t>
   </si>
   <si>
     <t xml:space="preserve">8.19237041473389</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">8.38533878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4905948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43796634674072</t>
+    <t xml:space="preserve">8.49059391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70987606048584</t>
+    <t xml:space="preserve">8.70987510681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3068,28 +3068,28 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07834339141846</t>
+    <t xml:space="preserve">8.26253986358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114231109619</t>
+    <t xml:space="preserve">8.20114135742188</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30639839172363</t>
+    <t xml:space="preserve">8.30639743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98186063766479</t>
+    <t xml:space="preserve">7.98186016082764</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417476654053</t>
+    <t xml:space="preserve">8.62096118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417572021484</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265827178955</t>
+    <t xml:space="preserve">8.60265731811523</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872806549072</t>
+    <t xml:space="preserve">8.96872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448726654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939792633057</t>
+    <t xml:space="preserve">9.01448822021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939697265625</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944374084473</t>
+    <t xml:space="preserve">8.57520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3197,19 +3197,22 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524875640869</t>
+    <t xml:space="preserve">8.03524780273438</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
   </si>
   <si>
+    <t xml:space="preserve">8.01694488525391</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.07185554504395</t>
   </si>
   <si>
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97118616104126</t>
+    <t xml:space="preserve">7.9711856842041</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3218,28 +3221,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051677703857</t>
+    <t xml:space="preserve">8.11761474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051725387573</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542743682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560611724854</t>
+    <t xml:space="preserve">7.92542695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560564041138</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88882064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966823577881</t>
+    <t xml:space="preserve">7.8888201713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966775894165</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3260,7 +3263,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466499328613</t>
+    <t xml:space="preserve">8.90466594696045</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3278,7 +3281,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569316864014</t>
+    <t xml:space="preserve">8.78569412231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3299,7 +3302,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663333892822</t>
+    <t xml:space="preserve">7.69663286209106</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3308,10 +3311,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172267913818</t>
+    <t xml:space="preserve">7.41292905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172315597534</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3335,40 +3338,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591766357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645370483398</t>
+    <t xml:space="preserve">8.13591861724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645418167114</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136531829834</t>
+    <t xml:space="preserve">7.86136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7606954574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
+    <t xml:space="preserve">7.76069498062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154447555542</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6783299446106</t>
+    <t xml:space="preserve">7.67832946777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087366104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748092651367</t>
+    <t xml:space="preserve">7.65087413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748140335083</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3377,13 +3380,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475852966309</t>
+    <t xml:space="preserve">7.82475805282593</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2457389831543</t>
+    <t xml:space="preserve">8.24573993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3392,7 +3395,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55690002441406</t>
+    <t xml:space="preserve">8.55689907073975</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3401,16 +3404,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131950378418</t>
+    <t xml:space="preserve">8.40131855010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51114082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47453308105469</t>
+    <t xml:space="preserve">8.51113986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.474534034729</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3452,19 +3455,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649494171143</t>
+    <t xml:space="preserve">9.31649589538574</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0785493850708</t>
+    <t xml:space="preserve">9.07855033874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497844696045</t>
+    <t xml:space="preserve">9.22497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3476,10 +3479,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140560150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0510950088501</t>
+    <t xml:space="preserve">9.37140655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05109405517578</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3488,10 +3491,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515712738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935211181641</t>
+    <t xml:space="preserve">9.11515617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3509,19 +3512,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44461917877197</t>
+    <t xml:space="preserve">9.44462013244629</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988815307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685325622559</t>
+    <t xml:space="preserve">9.27988910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685230255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -3954,6 +3957,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.77999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81999969482422</t>
   </si>
 </sst>
 </file>
@@ -26673,7 +26679,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26699,7 +26705,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G862" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26725,7 +26731,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G863" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26751,7 +26757,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26777,7 +26783,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G865" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26803,7 +26809,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G866" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26829,7 +26835,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G867" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26855,7 +26861,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26881,7 +26887,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G869" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26907,7 +26913,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G870" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26933,7 +26939,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G871" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26959,7 +26965,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G872" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26985,7 +26991,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27037,7 +27043,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G875" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27063,7 +27069,7 @@
         <v>6.75</v>
       </c>
       <c r="G876" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27089,7 +27095,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G877" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27115,7 +27121,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G878" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27141,7 +27147,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G879" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27167,7 +27173,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G880" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27193,7 +27199,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G881" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27219,7 +27225,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G882" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27245,7 +27251,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27271,7 +27277,7 @@
         <v>6.5</v>
       </c>
       <c r="G884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27297,7 +27303,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>657</v>
+        <v>537</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27349,7 +27355,7 @@
         <v>6.5</v>
       </c>
       <c r="G887" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27765,7 +27771,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G903" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27843,7 +27849,7 @@
         <v>6.75</v>
       </c>
       <c r="G906" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27947,7 +27953,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G910" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28025,7 +28031,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G913" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28051,7 +28057,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G914" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28779,7 +28785,7 @@
         <v>6.75</v>
       </c>
       <c r="G942" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28831,7 +28837,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G944" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29013,7 +29019,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G951" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29039,7 +29045,7 @@
         <v>6.5</v>
       </c>
       <c r="G952" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29247,7 +29253,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G960" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29325,7 +29331,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G963" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29377,7 +29383,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G965" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30417,7 +30423,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30573,7 +30579,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1011" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30599,7 +30605,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1012" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30781,7 +30787,7 @@
         <v>6.75</v>
       </c>
       <c r="G1019" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30807,7 +30813,7 @@
         <v>6.75</v>
       </c>
       <c r="G1020" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30833,7 +30839,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30937,7 +30943,7 @@
         <v>6.75</v>
       </c>
       <c r="G1025" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30963,7 +30969,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1026" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30989,7 +30995,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1027" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31015,7 +31021,7 @@
         <v>6.75</v>
       </c>
       <c r="G1028" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31093,7 +31099,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1031" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31119,7 +31125,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1032" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31197,7 +31203,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1035" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31509,7 +31515,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31613,7 +31619,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1051" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -38061,7 +38067,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1299" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38087,7 +38093,7 @@
         <v>6.5</v>
       </c>
       <c r="G1300" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38113,7 +38119,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1301" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38139,7 +38145,7 @@
         <v>6.5</v>
       </c>
       <c r="G1302" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38607,7 +38613,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1320" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38633,7 +38639,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1321" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -47265,7 +47271,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1653" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47291,7 +47297,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1654" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47317,7 +47323,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G1655" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47343,7 +47349,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1656" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47369,7 +47375,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1657" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47395,7 +47401,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1658" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47421,7 +47427,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1659" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47447,7 +47453,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1660" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47473,7 +47479,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1661" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47499,7 +47505,7 @@
         <v>8.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47525,7 +47531,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1663" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47551,7 +47557,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1664" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47577,7 +47583,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1665" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47603,7 +47609,7 @@
         <v>8.75</v>
       </c>
       <c r="G1666" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47629,7 +47635,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1667" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47655,7 +47661,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1668" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47681,7 +47687,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1669" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47707,7 +47713,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1670" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47733,7 +47739,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1671" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47759,7 +47765,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1672" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47785,7 +47791,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1673" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47811,7 +47817,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1674" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47837,7 +47843,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1675" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47889,7 +47895,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1677" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47915,7 +47921,7 @@
         <v>10</v>
       </c>
       <c r="G1678" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47941,7 +47947,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1679" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47967,7 +47973,7 @@
         <v>9.75</v>
       </c>
       <c r="G1680" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48019,7 +48025,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1682" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48097,7 +48103,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G1685" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48123,7 +48129,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1686" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48175,7 +48181,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G1688" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48201,7 +48207,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1689" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48227,7 +48233,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1690" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48279,7 +48285,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1692" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48331,7 +48337,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48357,7 +48363,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G1695" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48461,7 +48467,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1699" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48539,7 +48545,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1702" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48565,7 +48571,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48591,7 +48597,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G1704" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48617,7 +48623,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1705" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48643,7 +48649,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G1706" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48669,7 +48675,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48695,7 +48701,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1708" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48721,7 +48727,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1709" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48747,7 +48753,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1710" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48773,7 +48779,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1711" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48799,7 +48805,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1712" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48825,7 +48831,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1713" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48851,7 +48857,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1714" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48877,7 +48883,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48903,7 +48909,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1716" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48929,7 +48935,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1717" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48955,7 +48961,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1718" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48981,7 +48987,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1719" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49007,7 +49013,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1720" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49059,7 +49065,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G1722" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49085,7 +49091,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1723" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49111,7 +49117,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1724" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49137,7 +49143,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1725" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49163,7 +49169,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G1726" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49189,7 +49195,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1727" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49215,7 +49221,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G1728" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49241,7 +49247,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1729" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49267,7 +49273,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1730" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49293,7 +49299,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G1731" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49319,7 +49325,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G1732" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49345,7 +49351,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1733" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49371,7 +49377,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1734" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49423,7 +49429,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1736" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49475,7 +49481,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G1738" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49553,7 +49559,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1741" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49579,7 +49585,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1742" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49605,7 +49611,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1743" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49631,7 +49637,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1744" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49657,7 +49663,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49683,7 +49689,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1746" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49709,7 +49715,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1747" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49761,7 +49767,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1749" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49839,7 +49845,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1752" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49865,7 +49871,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49891,7 +49897,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1754" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49917,7 +49923,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1755" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49943,7 +49949,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1756" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49969,7 +49975,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1757" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49995,7 +50001,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1758" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50021,7 +50027,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1759" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50047,7 +50053,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1760" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50073,7 +50079,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1761" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50099,7 +50105,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1762" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50125,7 +50131,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G1763" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50151,7 +50157,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1764" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50177,7 +50183,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1765" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50203,7 +50209,7 @@
         <v>9</v>
       </c>
       <c r="G1766" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50281,7 +50287,7 @@
         <v>9</v>
       </c>
       <c r="G1769" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50307,7 +50313,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1770" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50359,7 +50365,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1772" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50385,7 +50391,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1773" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50411,7 +50417,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1774" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50437,7 +50443,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G1775" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50463,7 +50469,7 @@
         <v>9</v>
       </c>
       <c r="G1776" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50489,7 +50495,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1777" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50593,7 +50599,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1781" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50619,7 +50625,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50645,7 +50651,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1783" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50671,7 +50677,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1784" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50697,7 +50703,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G1785" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50749,7 +50755,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1787" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50775,7 +50781,7 @@
         <v>9.47000026702881</v>
       </c>
       <c r="G1788" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50801,7 +50807,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1789" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50827,7 +50833,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1790" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50853,7 +50859,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1791" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50879,7 +50885,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1792" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50905,7 +50911,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1793" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50931,7 +50937,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1794" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50957,7 +50963,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1795" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50983,7 +50989,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G1796" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51035,7 +51041,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G1798" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51061,7 +51067,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1799" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51113,7 +51119,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1801" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51139,7 +51145,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1802" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51165,7 +51171,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1803" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51243,7 +51249,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1806" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51269,7 +51275,7 @@
         <v>10</v>
       </c>
       <c r="G1807" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51295,7 +51301,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1808" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51321,7 +51327,7 @@
         <v>10</v>
       </c>
       <c r="G1809" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51347,7 +51353,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1810" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51373,7 +51379,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G1811" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51425,7 +51431,7 @@
         <v>10</v>
       </c>
       <c r="G1813" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51451,7 +51457,7 @@
         <v>10</v>
       </c>
       <c r="G1814" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51477,7 +51483,7 @@
         <v>10</v>
       </c>
       <c r="G1815" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51503,7 +51509,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1816" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51529,7 +51535,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1817" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51555,7 +51561,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51581,7 +51587,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1819" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51607,7 +51613,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1820" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51633,7 +51639,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51659,7 +51665,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51737,7 +51743,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1825" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51763,7 +51769,7 @@
         <v>9.75</v>
       </c>
       <c r="G1826" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51789,7 +51795,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51841,7 +51847,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51867,7 +51873,7 @@
         <v>10.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51893,7 +51899,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51919,7 +51925,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1832" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51945,7 +51951,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1833" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51971,7 +51977,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1834" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51997,7 +52003,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1835" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52023,7 +52029,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1836" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52049,7 +52055,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1837" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52075,7 +52081,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1838" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52101,7 +52107,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1839" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52127,7 +52133,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G1840" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52179,7 +52185,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1842" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52205,7 +52211,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1843" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52231,7 +52237,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1844" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52257,7 +52263,7 @@
         <v>10</v>
       </c>
       <c r="G1845" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52283,7 +52289,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52309,7 +52315,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52335,7 +52341,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1848" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52361,7 +52367,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1849" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52387,7 +52393,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52413,7 +52419,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52439,7 +52445,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1852" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52465,7 +52471,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1853" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52491,7 +52497,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52517,7 +52523,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1855" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52569,7 +52575,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1857" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52647,7 +52653,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52725,7 +52731,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G1863" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52751,7 +52757,7 @@
         <v>10</v>
       </c>
       <c r="G1864" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52777,7 +52783,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1865" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52803,7 +52809,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1866" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52907,7 +52913,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G1870" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52933,7 +52939,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1871" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52959,7 +52965,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1872" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52985,7 +52991,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1873" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53011,7 +53017,7 @@
         <v>9.75</v>
       </c>
       <c r="G1874" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53037,7 +53043,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1875" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53063,7 +53069,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1876" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53089,7 +53095,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53115,7 +53121,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1878" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53141,7 +53147,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1879" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53167,7 +53173,7 @@
         <v>9.5</v>
       </c>
       <c r="G1880" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53193,7 +53199,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1881" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53219,7 +53225,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1882" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53245,7 +53251,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1883" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53271,7 +53277,7 @@
         <v>9.5</v>
       </c>
       <c r="G1884" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53297,7 +53303,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1885" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53323,7 +53329,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53349,7 +53355,7 @@
         <v>9.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53375,7 +53381,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1888" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53401,7 +53407,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53427,7 +53433,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53453,7 +53459,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53479,7 +53485,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1892" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53505,7 +53511,7 @@
         <v>9.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53531,7 +53537,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1894" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53557,7 +53563,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1895" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53583,7 +53589,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1896" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53609,7 +53615,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1897" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53635,7 +53641,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53661,7 +53667,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1899" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53687,7 +53693,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1900" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53713,7 +53719,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1901" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53739,7 +53745,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1902" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53765,7 +53771,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G1903" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53791,7 +53797,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1904" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53817,7 +53823,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1905" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53843,7 +53849,7 @@
         <v>9</v>
       </c>
       <c r="G1906" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53869,7 +53875,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53895,7 +53901,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1908" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53921,7 +53927,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1909" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53947,7 +53953,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1910" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53973,7 +53979,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1911" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53999,7 +54005,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1912" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54025,7 +54031,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1913" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54051,7 +54057,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1914" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54077,7 +54083,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1915" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54103,7 +54109,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1916" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54129,7 +54135,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G1917" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54155,7 +54161,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1918" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54181,7 +54187,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54207,7 +54213,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1920" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54233,7 +54239,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54259,7 +54265,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1922" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54285,7 +54291,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54311,7 +54317,7 @@
         <v>9</v>
       </c>
       <c r="G1924" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54337,7 +54343,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1925" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54363,7 +54369,7 @@
         <v>9</v>
       </c>
       <c r="G1926" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54389,7 +54395,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1927" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54415,7 +54421,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1928" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54441,7 +54447,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1929" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54467,7 +54473,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1930" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54493,7 +54499,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1931" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54519,7 +54525,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1932" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54545,7 +54551,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G1933" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54571,7 +54577,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1934" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54597,7 +54603,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54623,7 +54629,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1936" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54649,7 +54655,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1937" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54675,7 +54681,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1938" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54701,7 +54707,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1939" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54727,7 +54733,7 @@
         <v>8.75</v>
       </c>
       <c r="G1940" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54753,7 +54759,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1941" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54779,7 +54785,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54805,7 +54811,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1943" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54831,7 +54837,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54857,7 +54863,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1945" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54883,7 +54889,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1946" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54909,7 +54915,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1947" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54935,7 +54941,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1948" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54961,7 +54967,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54987,7 +54993,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1950" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55013,7 +55019,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1951" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55039,7 +55045,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1952" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55065,7 +55071,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1953" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55091,7 +55097,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1954" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55117,7 +55123,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55143,7 +55149,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1956" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55169,7 +55175,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1957" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55195,7 +55201,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1958" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55221,7 +55227,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1959" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55247,7 +55253,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G1960" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55273,7 +55279,7 @@
         <v>8.5</v>
       </c>
       <c r="G1961" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55299,7 +55305,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55325,7 +55331,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1963" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55351,7 +55357,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55377,7 +55383,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1965" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55403,7 +55409,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55429,7 +55435,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1967" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55455,7 +55461,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55481,7 +55487,7 @@
         <v>8.5</v>
       </c>
       <c r="G1969" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55507,7 +55513,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55533,7 +55539,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1971" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55559,7 +55565,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55585,7 +55591,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1973" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55611,7 +55617,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1974" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55637,7 +55643,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G1975" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55663,7 +55669,7 @@
         <v>8.25</v>
       </c>
       <c r="G1976" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55689,7 +55695,7 @@
         <v>8.25</v>
       </c>
       <c r="G1977" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55715,7 +55721,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1978" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55741,7 +55747,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1979" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55767,7 +55773,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1980" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55793,7 +55799,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55819,7 +55825,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1982" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55845,7 +55851,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G1983" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55871,7 +55877,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1984" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55897,7 +55903,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G1985" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55923,7 +55929,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55949,7 +55955,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1987" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55975,7 +55981,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1988" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56001,7 +56007,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1989" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56027,7 +56033,7 @@
         <v>7.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56053,7 +56059,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1991" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56079,7 +56085,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1992" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56105,7 +56111,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1993" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56131,7 +56137,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56157,7 +56163,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56183,7 +56189,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1996" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56209,7 +56215,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56235,7 +56241,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1998" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56261,7 +56267,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56287,7 +56293,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56313,7 +56319,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2001" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56339,7 +56345,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2002" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56365,7 +56371,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2003" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56391,7 +56397,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56417,7 +56423,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G2005" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56443,7 +56449,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2006" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56469,7 +56475,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2007" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56495,7 +56501,7 @@
         <v>7.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56521,7 +56527,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G2009" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56547,7 +56553,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56573,7 +56579,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2011" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56599,7 +56605,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56625,7 +56631,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56651,7 +56657,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2014" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56677,7 +56683,7 @@
         <v>8.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56703,7 +56709,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2016" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56729,7 +56735,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56755,7 +56761,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2018" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56781,7 +56787,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2019" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56807,7 +56813,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2020" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56833,7 +56839,7 @@
         <v>8.75</v>
       </c>
       <c r="G2021" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56859,7 +56865,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2022" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56885,7 +56891,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2023" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56911,7 +56917,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2024" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56937,7 +56943,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2025" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56963,7 +56969,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2026" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56989,7 +56995,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2027" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57015,7 +57021,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2028" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57041,7 +57047,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2029" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57067,7 +57073,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2030" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57093,7 +57099,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2031" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57119,7 +57125,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2032" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57145,7 +57151,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2033" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57171,7 +57177,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57197,7 +57203,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2035" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57223,7 +57229,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2036" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57249,7 +57255,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2037" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57275,7 +57281,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2038" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57301,7 +57307,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2039" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57327,7 +57333,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2040" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57353,7 +57359,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57379,7 +57385,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2042" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57405,7 +57411,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2043" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57431,7 +57437,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2044" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57457,7 +57463,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2045" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57483,7 +57489,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2046" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57509,7 +57515,7 @@
         <v>8.5</v>
       </c>
       <c r="G2047" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57535,7 +57541,7 @@
         <v>8.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57561,7 +57567,7 @@
         <v>8.5</v>
       </c>
       <c r="G2049" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57587,7 +57593,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57613,7 +57619,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2051" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57639,7 +57645,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2052" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57665,7 +57671,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2053" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57691,7 +57697,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2054" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57717,7 +57723,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57743,7 +57749,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2056" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57769,7 +57775,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2057" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57795,7 +57801,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57821,7 +57827,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2059" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57847,7 +57853,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2060" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57873,7 +57879,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2061" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57899,7 +57905,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57925,7 +57931,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2063" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57951,7 +57957,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2064" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57977,7 +57983,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58003,7 +58009,7 @@
         <v>8.25</v>
       </c>
       <c r="G2066" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58029,7 +58035,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2067" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58055,7 +58061,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2068" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58081,7 +58087,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2069" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58107,7 +58113,7 @@
         <v>8.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58133,7 +58139,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58159,7 +58165,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2072" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58185,7 +58191,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2073" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58211,7 +58217,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2074" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58237,7 +58243,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58263,7 +58269,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2076" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58289,7 +58295,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2077" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58315,7 +58321,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2078" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58341,7 +58347,7 @@
         <v>8</v>
       </c>
       <c r="G2079" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58367,7 +58373,7 @@
         <v>8</v>
       </c>
       <c r="G2080" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58393,7 +58399,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58419,7 +58425,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58445,7 +58451,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G2083" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58471,7 +58477,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2084" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58497,7 +58503,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2085" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58523,7 +58529,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58549,7 +58555,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2087" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58575,7 +58581,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2088" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58601,7 +58607,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2089" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58627,7 +58633,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2090" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58653,7 +58659,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58679,7 +58685,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58705,7 +58711,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2093" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58731,7 +58737,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58757,7 +58763,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2095" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58783,7 +58789,7 @@
         <v>8.25</v>
       </c>
       <c r="G2096" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58809,7 +58815,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58835,7 +58841,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2098" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58861,7 +58867,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2099" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58887,7 +58893,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2100" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58913,7 +58919,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58939,7 +58945,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2102" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58965,7 +58971,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2103" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58991,7 +58997,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2104" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59017,7 +59023,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2105" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59043,7 +59049,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59069,7 +59075,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59095,7 +59101,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2108" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59121,7 +59127,7 @@
         <v>8</v>
       </c>
       <c r="G2109" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59147,7 +59153,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59173,7 +59179,7 @@
         <v>8</v>
       </c>
       <c r="G2111" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59199,7 +59205,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59225,7 +59231,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59251,7 +59257,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2114" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59277,7 +59283,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59303,7 +59309,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59329,7 +59335,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59355,7 +59361,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59381,7 +59387,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2119" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59407,7 +59413,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2120" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59433,7 +59439,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2121" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59459,7 +59465,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2122" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59485,7 +59491,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2123" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59511,7 +59517,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2124" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59537,7 +59543,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2125" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59563,7 +59569,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2126" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59589,7 +59595,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2127" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59615,7 +59621,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59641,7 +59647,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2129" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59667,7 +59673,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2130" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59693,7 +59699,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2131" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59719,7 +59725,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2132" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59745,7 +59751,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2133" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59771,7 +59777,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2134" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59797,7 +59803,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59823,7 +59829,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2136" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59849,7 +59855,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2137" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59875,7 +59881,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2138" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59901,7 +59907,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2139" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59927,7 +59933,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2140" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59953,7 +59959,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2141" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59979,7 +59985,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60005,7 +60011,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2143" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60031,7 +60037,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2144" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60057,7 +60063,7 @@
         <v>8.5</v>
       </c>
       <c r="G2145" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60083,7 +60089,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2146" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60109,7 +60115,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2147" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60117,7 +60123,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6493518519</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>16712</v>
@@ -60135,9 +60141,35 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2148" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6437962963</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>16531</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>8.88000011444092</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>8.69999980926514</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>8.81999969482422</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346646785736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596603870392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611399650574</t>
+    <t xml:space="preserve">1.27346658706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596568107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611387729645</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258322715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31169974803925</t>
+    <t xml:space="preserve">1.31169998645782</t>
   </si>
   <si>
     <t xml:space="preserve">1.32566976547241</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">1.33596336841583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32346403598785</t>
+    <t xml:space="preserve">1.32346391677856</t>
   </si>
   <si>
     <t xml:space="preserve">1.30875897407532</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">1.26758444309235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25214397907257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302721977234</t>
+    <t xml:space="preserve">1.25214409828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302757740021</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729084014893</t>
@@ -92,25 +92,25 @@
     <t xml:space="preserve">1.27493703365326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411150932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23817408084869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23449778556824</t>
+    <t xml:space="preserve">1.24111521244049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23817420005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23449790477753</t>
   </si>
   <si>
     <t xml:space="preserve">1.18008875846863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18376493453979</t>
+    <t xml:space="preserve">1.18376505374908</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1396496295929</t>
+    <t xml:space="preserve">1.13964951038361</t>
   </si>
   <si>
     <t xml:space="preserve">1.06612384319305</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">1.07347643375397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09479892253876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15067851543427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1683247089386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16538345813751</t>
+    <t xml:space="preserve">1.09479880332947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15067863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16832458972931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1653835773468</t>
   </si>
   <si>
     <t xml:space="preserve">1.14700222015381</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">1.17641246318817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18597090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317541599274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15435492992401</t>
+    <t xml:space="preserve">1.18597078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317529678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
     <t xml:space="preserve">1.18744146823883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16170752048492</t>
+    <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
     <t xml:space="preserve">1.18817663192749</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">1.20582282543182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23670375347137</t>
+    <t xml:space="preserve">1.23670363426208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24258553981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22861588001251</t>
+    <t xml:space="preserve">1.2425856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22861576080322</t>
   </si>
   <si>
     <t xml:space="preserve">1.22052800655365</t>
@@ -191,16 +191,16 @@
     <t xml:space="preserve">1.30655300617218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30214154720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26464331150055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24993824958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28743648529053</t>
+    <t xml:space="preserve">1.30214166641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26464354991913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2499383687973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28743636608124</t>
   </si>
   <si>
     <t xml:space="preserve">1.28228950500488</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">1.30581784248352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23008644580841</t>
+    <t xml:space="preserve">1.23008632659912</t>
   </si>
   <si>
     <t xml:space="preserve">1.25067353248596</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">1.26243758201599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29920053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29405391216278</t>
+    <t xml:space="preserve">1.29920041561127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2940536737442</t>
   </si>
   <si>
     <t xml:space="preserve">1.25876140594482</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">1.27861332893372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27934861183167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28964233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27199614048004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28302490711212</t>
+    <t xml:space="preserve">1.27934849262238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28964221477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27199602127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28302478790283</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581529140472</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">1.35066854953766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34478640556335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949401855469</t>
+    <t xml:space="preserve">1.34478652477264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949413776398</t>
   </si>
   <si>
     <t xml:space="preserve">1.2984653711319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2683197259903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21170485019684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19773483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17420673370361</t>
+    <t xml:space="preserve">1.26831984519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21170473098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19773495197296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17420661449432</t>
   </si>
   <si>
     <t xml:space="preserve">1.17567729949951</t>
@@ -290,40 +290,40 @@
     <t xml:space="preserve">1.1925882101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20288169384003</t>
+    <t xml:space="preserve">1.20288181304932</t>
   </si>
   <si>
     <t xml:space="preserve">1.19847023487091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12494444847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13817918300629</t>
+    <t xml:space="preserve">1.12494456768036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759185791016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12347400188446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13597321510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229691982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023938655853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15582525730133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15803110599518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920794963837</t>
+    <t xml:space="preserve">1.12347388267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13597309589386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13229703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023926734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15582537651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15803122520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920783042908</t>
   </si>
   <si>
     <t xml:space="preserve">1.17494189739227</t>
@@ -332,19 +332,19 @@
     <t xml:space="preserve">1.15361952781677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16758930683136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21391081809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169500350952</t>
+    <t xml:space="preserve">1.16758942604065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2139105796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169488430023</t>
   </si>
   <si>
     <t xml:space="preserve">1.5602171421051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56168758869171</t>
+    <t xml:space="preserve">1.561687707901</t>
   </si>
   <si>
     <t xml:space="preserve">1.52345430850983</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">1.48522078990936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52933633327484</t>
+    <t xml:space="preserve">1.52933621406555</t>
   </si>
   <si>
     <t xml:space="preserve">1.47051560878754</t>
@@ -362,25 +362,25 @@
     <t xml:space="preserve">1.54257094860077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50874888896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49404406547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50727832317352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49992597103119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48669135570526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49257338047028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48816192150116</t>
+    <t xml:space="preserve">1.50874900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49404382705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50727844238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4999258518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48669123649597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49257349967957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48816180229187</t>
   </si>
   <si>
     <t xml:space="preserve">1.48080909252167</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">1.55433511734009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785336971283</t>
+    <t xml:space="preserve">1.77785313129425</t>
   </si>
   <si>
     <t xml:space="preserve">1.74550211429596</t>
@@ -401,34 +401,34 @@
     <t xml:space="preserve">1.88961255550385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93666899204254</t>
+    <t xml:space="preserve">1.93666934967041</t>
   </si>
   <si>
     <t xml:space="preserve">1.88078963756561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87931883335114</t>
+    <t xml:space="preserve">1.87931895256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.8602020740509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81608664989471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8013813495636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372786045074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608190536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314077377319</t>
+    <t xml:space="preserve">1.816086769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138170719147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490737438202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372797966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9160817861557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91314053535461</t>
   </si>
   <si>
     <t xml:space="preserve">1.93078696727753</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">1.92931652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93519854545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9204934835434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431785583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902279853821</t>
+    <t xml:space="preserve">1.93519866466522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92049336433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431773662567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9190229177475</t>
   </si>
   <si>
     <t xml:space="preserve">1.90137684345245</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">1.92343437671661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93961024284363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96166777610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09401440620422</t>
+    <t xml:space="preserve">1.93961012363434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9616676568985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09401416778564</t>
   </si>
   <si>
     <t xml:space="preserve">2.17489266395569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12930655479431</t>
+    <t xml:space="preserve">2.12930631637573</t>
   </si>
   <si>
     <t xml:space="preserve">2.19106841087341</t>
@@ -476,82 +476,82 @@
     <t xml:space="preserve">2.14107060432434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077712059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11901330947876</t>
+    <t xml:space="preserve">2.09695553779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077688217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1190128326416</t>
   </si>
   <si>
     <t xml:space="preserve">2.09842586517334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11166071891785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19695043563843</t>
+    <t xml:space="preserve">2.11166048049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19694995880127</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782869338989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26606488227844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08813190460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97637259960175</t>
+    <t xml:space="preserve">2.26606464385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08813214302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97637295722961</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901550292969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04989886283875</t>
+    <t xml:space="preserve">2.04989910125732</t>
   </si>
   <si>
     <t xml:space="preserve">2.11607217788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136675834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08225035667419</t>
+    <t xml:space="preserve">2.10136723518372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08224987983704</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763680934906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01460647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95578575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019732952118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196125984192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94843316078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87784850597382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549493789673</t>
+    <t xml:space="preserve">2.03519368171692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0146062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95578587055206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019721031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9719614982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94843339920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87784826755524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549481868744</t>
   </si>
   <si>
     <t xml:space="preserve">1.99696028232574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99254882335663</t>
+    <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431275367737</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">2.08666181564331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08372044563293</t>
+    <t xml:space="preserve">2.08372068405151</t>
   </si>
   <si>
     <t xml:space="preserve">2.03813481330872</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">2.05431032180786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05872178077698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06019258499146</t>
+    <t xml:space="preserve">2.0587215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06019234657288</t>
   </si>
   <si>
     <t xml:space="preserve">2.06754493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06313371658325</t>
+    <t xml:space="preserve">2.06313347816467</t>
   </si>
   <si>
     <t xml:space="preserve">2.10283708572388</t>
@@ -590,31 +590,31 @@
     <t xml:space="preserve">2.17636322975159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29694533348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2719464302063</t>
+    <t xml:space="preserve">2.29694557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27194619178772</t>
   </si>
   <si>
     <t xml:space="preserve">2.23812484741211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16606950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19989132881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047877311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19842076301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21753740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988889694214</t>
+    <t xml:space="preserve">2.16606903076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19989156723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19842100143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21753764152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988913536072</t>
   </si>
   <si>
     <t xml:space="preserve">2.23518371582031</t>
@@ -626,28 +626,28 @@
     <t xml:space="preserve">2.23959541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24694800376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25871181488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24253630638123</t>
+    <t xml:space="preserve">2.24694776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25871205329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253606796265</t>
   </si>
   <si>
     <t xml:space="preserve">2.21606683731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20136189460754</t>
+    <t xml:space="preserve">2.20136165618896</t>
   </si>
   <si>
     <t xml:space="preserve">2.2234194278717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20577311515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22194886207581</t>
+    <t xml:space="preserve">2.20577359199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22194933891296</t>
   </si>
   <si>
     <t xml:space="preserve">2.35282492637634</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">2.61163568496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61016511917114</t>
+    <t xml:space="preserve">2.61016535758972</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604714393616</t>
@@ -665,19 +665,19 @@
     <t xml:space="preserve">2.60575366020203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58663725852966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52193403244019</t>
+    <t xml:space="preserve">2.5866367816925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52193427085876</t>
   </si>
   <si>
     <t xml:space="preserve">2.64545750617981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60281252861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58810782432556</t>
+    <t xml:space="preserve">2.60281300544739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5881073474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457901000977</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">2.56016755104065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59840106964111</t>
+    <t xml:space="preserve">2.59840083122253</t>
   </si>
   <si>
     <t xml:space="preserve">2.57634329795837</t>
@@ -698,49 +698,49 @@
     <t xml:space="preserve">2.59545993804932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78662729263306</t>
+    <t xml:space="preserve">2.78662705421448</t>
   </si>
   <si>
     <t xml:space="preserve">2.8528003692627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83809542655945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632603645325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983248710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129456520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217329978943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89319062232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716733932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480854988098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84172177314758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039222717285</t>
+    <t xml:space="preserve">2.83809494972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129504203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89318943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716757774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480902671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84172105789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848544120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039198875427</t>
   </si>
   <si>
     <t xml:space="preserve">4.14685392379761</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">4.26449537277222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40051794052124</t>
+    <t xml:space="preserve">4.40051746368408</t>
   </si>
   <si>
     <t xml:space="preserve">4.37478399276733</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">4.23140907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52183532714844</t>
+    <t xml:space="preserve">4.5218358039856</t>
   </si>
   <si>
     <t xml:space="preserve">4.51815938949585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177381515503</t>
+    <t xml:space="preserve">4.77917575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177333831787</t>
   </si>
   <si>
     <t xml:space="preserve">5.0291633605957</t>
@@ -782,100 +782,100 @@
     <t xml:space="preserve">5.35267734527588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26444578170776</t>
+    <t xml:space="preserve">5.26444530487061</t>
   </si>
   <si>
     <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71295309066772</t>
+    <t xml:space="preserve">5.71295261383057</t>
   </si>
   <si>
     <t xml:space="preserve">6.0585241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71290349960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523725509644</t>
+    <t xml:space="preserve">6.71290397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523677825928</t>
   </si>
   <si>
     <t xml:space="preserve">6.81584024429321</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04377031326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389724731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310485839844</t>
+    <t xml:space="preserve">7.04376935958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389867782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310438156128</t>
   </si>
   <si>
     <t xml:space="preserve">7.11926603317261</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67006540298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85503005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66629076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37185525894165</t>
+    <t xml:space="preserve">6.67006492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85502958297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66628980636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37185573577881</t>
   </si>
   <si>
     <t xml:space="preserve">6.63609170913696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75688505172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8323802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71913766860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245145797729</t>
+    <t xml:space="preserve">6.75688600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238172531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71913719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245193481445</t>
   </si>
   <si>
     <t xml:space="preserve">6.50397396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6889386177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085874557495</t>
+    <t xml:space="preserve">6.68893957138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085826873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.63986682891846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23218822479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25483751296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159440994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19821548461914</t>
+    <t xml:space="preserve">6.45490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337966918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2321891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25483703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1982159614563</t>
   </si>
   <si>
     <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03589868545532</t>
+    <t xml:space="preserve">6.03589963912964</t>
   </si>
   <si>
     <t xml:space="preserve">5.97550249099731</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">5.43570613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2243185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20921850204468</t>
+    <t xml:space="preserve">5.22431802749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20921945571899</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465099334717</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">5.11862421035767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15259695053101</t>
+    <t xml:space="preserve">5.15259647369385</t>
   </si>
   <si>
     <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16769599914551</t>
+    <t xml:space="preserve">5.16769647598267</t>
   </si>
   <si>
     <t xml:space="preserve">5.00538015365601</t>
@@ -920,31 +920,31 @@
     <t xml:space="preserve">4.92233467102051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88836145401001</t>
+    <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06200170516968</t>
+    <t xml:space="preserve">5.06200218200684</t>
   </si>
   <si>
     <t xml:space="preserve">4.77511692047119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73359441757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71472072601318</t>
+    <t xml:space="preserve">4.73359489440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71472024917603</t>
   </si>
   <si>
     <t xml:space="preserve">4.65809869766235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59770202636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60147619247437</t>
+    <t xml:space="preserve">4.59770154953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60147666931152</t>
   </si>
   <si>
     <t xml:space="preserve">4.68452215194702</t>
@@ -956,55 +956,55 @@
     <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04690265655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00160503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723562240601</t>
+    <t xml:space="preserve">5.04690313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00160551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723514556885</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81664037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85816287994385</t>
+    <t xml:space="preserve">4.81663942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85816335678101</t>
   </si>
   <si>
     <t xml:space="preserve">4.89213562011719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90346002578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98273134231567</t>
+    <t xml:space="preserve">4.90346050262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98273086547852</t>
   </si>
   <si>
     <t xml:space="preserve">4.99405527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19789505004883</t>
+    <t xml:space="preserve">5.19789457321167</t>
   </si>
   <si>
     <t xml:space="preserve">5.06955146789551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31491374969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39795827865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36776065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45080518722534</t>
+    <t xml:space="preserve">5.31491279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39795875549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36775970458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4508056640625</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021089553833</t>
@@ -1016,37 +1016,37 @@
     <t xml:space="preserve">4.99028015136719</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24319219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882230758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392183303833</t>
+    <t xml:space="preserve">5.24319267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882278442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">5.05822706222534</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13372278213501</t>
+    <t xml:space="preserve">5.13372325897217</t>
   </si>
   <si>
     <t xml:space="preserve">5.3035888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33001184463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584100723267</t>
+    <t xml:space="preserve">5.33001279830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584053039551</t>
   </si>
   <si>
     <t xml:space="preserve">5.20166921615601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.190345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305828094482</t>
+    <t xml:space="preserve">5.19034481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305780410767</t>
   </si>
   <si>
     <t xml:space="preserve">5.49232864379883</t>
@@ -1055,49 +1055,49 @@
     <t xml:space="preserve">5.88490724563599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19066524505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06232213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410787582397</t>
+    <t xml:space="preserve">6.19066572189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06232309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410882949829</t>
   </si>
   <si>
     <t xml:space="preserve">6.24351358413696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48510026931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529836654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8474817276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38350105285645</t>
+    <t xml:space="preserve">6.48509979248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529932022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84748029708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3835015296936</t>
   </si>
   <si>
     <t xml:space="preserve">7.23628520965576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46654748916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919486999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806491851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53104019165039</t>
+    <t xml:space="preserve">7.4665470123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919725418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53103923797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.85567092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39924335479736</t>
+    <t xml:space="preserve">9.39924144744873</t>
   </si>
   <si>
     <t xml:space="preserve">9.75407409667969</t>
@@ -1106,70 +1106,70 @@
     <t xml:space="preserve">10.7204217910767</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84057140350342</t>
+    <t xml:space="preserve">8.84057235717773</t>
   </si>
   <si>
     <t xml:space="preserve">9.04441165924072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62918376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19130802154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487758636475</t>
+    <t xml:space="preserve">8.62918472290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41024684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19130706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487663269043</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50084114074707</t>
+    <t xml:space="preserve">8.50084018707275</t>
   </si>
   <si>
     <t xml:space="preserve">8.38004779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27435302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581134796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77608013153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91952180862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84402656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8213791847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687395095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428424835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2290563583374</t>
+    <t xml:space="preserve">8.27435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581230163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77608108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91952133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137823104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687490463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7534327507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22905540466309</t>
   </si>
   <si>
     <t xml:space="preserve">8.34984970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23660373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44044494628906</t>
+    <t xml:space="preserve">8.23660564422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44044399261475</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
@@ -1178,22 +1178,22 @@
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1309118270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94971990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79117870330811</t>
+    <t xml:space="preserve">8.13091087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94972085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117965698242</t>
   </si>
   <si>
     <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30800676345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224082946777</t>
+    <t xml:space="preserve">7.30800628662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224130630493</t>
   </si>
   <si>
     <t xml:space="preserve">7.3193302154541</t>
@@ -1205,100 +1205,100 @@
     <t xml:space="preserve">7.55714273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92707252502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03276634216309</t>
+    <t xml:space="preserve">7.92707204818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0327672958374</t>
   </si>
   <si>
     <t xml:space="preserve">7.60998964309692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60244035720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54204320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3533034324646</t>
+    <t xml:space="preserve">7.60243892669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54204368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522260665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330247879028</t>
   </si>
   <si>
     <t xml:space="preserve">7.24005937576294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29668140411377</t>
+    <t xml:space="preserve">7.29668045043945</t>
   </si>
   <si>
     <t xml:space="preserve">7.51184415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25893306732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19476175308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23251008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045652389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780723571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32687997817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5156192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49297094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36840295791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058536529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123828887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30455112457275</t>
+    <t xml:space="preserve">7.25893259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19476127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23250913619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304067611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045604705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32687950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51561975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49297142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840200424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058393478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30455303192139</t>
   </si>
   <si>
     <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19885730743408</t>
+    <t xml:space="preserve">8.1988582611084</t>
   </si>
   <si>
     <t xml:space="preserve">8.04786491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15355968475342</t>
+    <t xml:space="preserve">8.1535587310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766777038574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16865921020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85157680511475</t>
+    <t xml:space="preserve">8.16865825653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85157585144043</t>
   </si>
   <si>
     <t xml:space="preserve">7.12681484222412</t>
@@ -1307,22 +1307,22 @@
     <t xml:space="preserve">7.08151817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89277791976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96827459335327</t>
+    <t xml:space="preserve">6.8927788734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9682731628418</t>
   </si>
   <si>
     <t xml:space="preserve">6.80973339080811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8852276802063</t>
+    <t xml:space="preserve">6.96072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317506790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88522863388062</t>
   </si>
   <si>
     <t xml:space="preserve">6.93052673339844</t>
@@ -1334,91 +1334,91 @@
     <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50019931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801738739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15291786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814527511597</t>
+    <t xml:space="preserve">6.50019884109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900930404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801691055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15291738510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814575195312</t>
   </si>
   <si>
     <t xml:space="preserve">6.5756950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76443433761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78708410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00602197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83993053436279</t>
+    <t xml:space="preserve">6.76443529129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78708362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00602149963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83993101119995</t>
   </si>
   <si>
     <t xml:space="preserve">6.77953386306763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43980169296265</t>
+    <t xml:space="preserve">6.60589408874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4398021697998</t>
   </si>
   <si>
     <t xml:space="preserve">6.22086381912231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22841453552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18311595916748</t>
+    <t xml:space="preserve">6.22841358184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18311548233032</t>
   </si>
   <si>
     <t xml:space="preserve">6.08497190475464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26616144180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3114595413208</t>
+    <t xml:space="preserve">6.26616239547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
     <t xml:space="preserve">6.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47755002975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4926495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039693832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470359802246</t>
+    <t xml:space="preserve">6.47755098342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265003204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059503555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039789199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42470407485962</t>
   </si>
   <si>
     <t xml:space="preserve">6.58324480056763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62099266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61344385147095</t>
+    <t xml:space="preserve">6.62099313735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61344289779663</t>
   </si>
   <si>
     <t xml:space="preserve">6.65119171142578</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974334716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849660873413</t>
+    <t xml:space="preserve">6.78484392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974382400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849613189697</t>
   </si>
   <si>
     <t xml:space="preserve">6.72981023788452</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">6.39960956573486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19519901275635</t>
+    <t xml:space="preserve">6.19519948959351</t>
   </si>
   <si>
     <t xml:space="preserve">6.2502326965332</t>
@@ -1466,46 +1466,46 @@
     <t xml:space="preserve">6.24237060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1323037147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87285995483398</t>
+    <t xml:space="preserve">6.13230419158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87286043167114</t>
   </si>
   <si>
     <t xml:space="preserve">5.75493144989014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88072204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83355045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17947578430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09299421310425</t>
+    <t xml:space="preserve">5.8807225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83355093002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09299468994141</t>
   </si>
   <si>
     <t xml:space="preserve">5.92003202438354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07727003097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04582214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1716136932373</t>
+    <t xml:space="preserve">6.07727098464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04582262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17161321640015</t>
   </si>
   <si>
     <t xml:space="preserve">6.21878528594971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64332914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918615341187</t>
+    <t xml:space="preserve">6.64332866668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918663024902</t>
   </si>
   <si>
     <t xml:space="preserve">6.77698230743408</t>
@@ -1517,10 +1517,10 @@
     <t xml:space="preserve">6.61188173294067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43105745315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36029958724976</t>
+    <t xml:space="preserve">6.43105697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36030006408691</t>
   </si>
   <si>
     <t xml:space="preserve">6.06154680252075</t>
@@ -1535,34 +1535,34 @@
     <t xml:space="preserve">5.94361734390259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84927463531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03796100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90430879592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89644575119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93575525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782722473145</t>
+    <t xml:space="preserve">5.84927415847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03796052932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940793991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90430784225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89644527435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93575620651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782674789429</t>
   </si>
   <si>
     <t xml:space="preserve">5.85713624954224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77851629257202</t>
+    <t xml:space="preserve">5.77851724624634</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
@@ -1571,34 +1571,34 @@
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920726776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58196878433228</t>
+    <t xml:space="preserve">5.73920679092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58196830749512</t>
   </si>
   <si>
     <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69203567504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76279306411743</t>
+    <t xml:space="preserve">5.69203519821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76279354095459</t>
   </si>
   <si>
     <t xml:space="preserve">5.78637933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62914037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53479719161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44045448303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46403932571411</t>
+    <t xml:space="preserve">5.62914085388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53479671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44045352935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46404027938843</t>
   </si>
   <si>
     <t xml:space="preserve">5.86499834060669</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">5.74706935882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47190141677856</t>
+    <t xml:space="preserve">5.47190237045288</t>
   </si>
   <si>
     <t xml:space="preserve">5.39328241348267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611129760742</t>
+    <t xml:space="preserve">5.34611082077026</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183500289917</t>
@@ -1628,31 +1628,31 @@
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17314910888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96873903274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00804805755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06308174133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12597751617432</t>
+    <t xml:space="preserve">5.26749134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17314863204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9687385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00804758071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06308126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1259765625</t>
   </si>
   <si>
     <t xml:space="preserve">4.9923243522644</t>
@@ -1661,37 +1661,37 @@
     <t xml:space="preserve">5.10239124298096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15742444992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14170026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0945291519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1967339515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42473030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33824920654297</t>
+    <t xml:space="preserve">5.15742492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14170074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09452867507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19673442840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.424729347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33824872970581</t>
   </si>
   <si>
     <t xml:space="preserve">5.38542079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52539968490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56470966339111</t>
+    <t xml:space="preserve">6.52540016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56471061706543</t>
   </si>
   <si>
     <t xml:space="preserve">6.3131275177002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.407470703125</t>
+    <t xml:space="preserve">6.40747117996216</t>
   </si>
   <si>
     <t xml:space="preserve">6.28954219818115</t>
@@ -1700,79 +1700,79 @@
     <t xml:space="preserve">5.29107761383057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22818183898926</t>
+    <t xml:space="preserve">5.22818231582642</t>
   </si>
   <si>
     <t xml:space="preserve">5.18887233734131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24390602111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27535343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13383960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2989387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20459651947021</t>
+    <t xml:space="preserve">5.24390649795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27535390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13383913040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29893970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20459604263306</t>
   </si>
   <si>
     <t xml:space="preserve">5.05521965026855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0316333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02377223968506</t>
+    <t xml:space="preserve">5.03163385391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0237717628479</t>
   </si>
   <si>
     <t xml:space="preserve">5.0709433555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22032022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1495623588562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00018548965454</t>
+    <t xml:space="preserve">5.2203197479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
     <t xml:space="preserve">4.69357061386108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48129892349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633260726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695621490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37123155593872</t>
+    <t xml:space="preserve">4.48129844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5992283821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633165359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695526123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37123203277588</t>
   </si>
   <si>
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570899963379</t>
+    <t xml:space="preserve">4.52847051620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570947647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.67784690856934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.945152759552</t>
+    <t xml:space="preserve">4.94515323638916</t>
   </si>
   <si>
     <t xml:space="preserve">5.35397291183472</t>
@@ -1781,43 +1781,43 @@
     <t xml:space="preserve">5.33038711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18101024627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25962972640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51907348632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45617771148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36969661712646</t>
+    <t xml:space="preserve">5.18101072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25963020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50334978103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51907396316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45617818832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36969614028931</t>
   </si>
   <si>
     <t xml:space="preserve">5.55052089691162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41686820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57410669326782</t>
+    <t xml:space="preserve">5.41686868667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57410764694214</t>
   </si>
   <si>
     <t xml:space="preserve">5.68417358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63700294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71562147140503</t>
+    <t xml:space="preserve">5.63700246810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71562194824219</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058778762817</t>
@@ -1826,22 +1826,22 @@
     <t xml:space="preserve">5.72348356246948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67631196975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14802742004395</t>
+    <t xml:space="preserve">5.67631149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733739852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1480278968811</t>
   </si>
   <si>
     <t xml:space="preserve">6.42319536209106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53326320648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1008563041687</t>
+    <t xml:space="preserve">6.53326272964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10085582733154</t>
   </si>
   <si>
     <t xml:space="preserve">6.29740428924561</t>
@@ -1853,13 +1853,13 @@
     <t xml:space="preserve">6.10871839523315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20306062698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3288516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526638031006</t>
+    <t xml:space="preserve">6.20306158065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32885217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30526685714722</t>
   </si>
   <si>
     <t xml:space="preserve">6.2109227180481</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">6.16375160217285</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26595687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174747467041</t>
+    <t xml:space="preserve">6.26595592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174795150757</t>
   </si>
   <si>
     <t xml:space="preserve">6.45464324951172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44678020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32099056243896</t>
+    <t xml:space="preserve">6.44678115844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32098960876465</t>
   </si>
   <si>
     <t xml:space="preserve">6.33671426773071</t>
@@ -1898,28 +1898,28 @@
     <t xml:space="preserve">6.01437425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27381896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00651264190674</t>
+    <t xml:space="preserve">6.2738184928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00651216506958</t>
   </si>
   <si>
     <t xml:space="preserve">5.99078893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77065563201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134469985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02223682403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82568836212158</t>
+    <t xml:space="preserve">5.77065515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02223634719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82568883895874</t>
   </si>
   <si>
     <t xml:space="preserve">5.74286413192749</t>
@@ -1928,19 +1928,19 @@
     <t xml:space="preserve">5.56185722351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59476709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73463678359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61944961547852</t>
+    <t xml:space="preserve">5.59476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7346363067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61945009231567</t>
   </si>
   <si>
     <t xml:space="preserve">5.57008457183838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6441330909729</t>
+    <t xml:space="preserve">5.64413261413574</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058826446533</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52894687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54540157318115</t>
+    <t xml:space="preserve">5.52894639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54540205001831</t>
   </si>
   <si>
     <t xml:space="preserve">5.51249122619629</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">5.39730501174927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31502866744995</t>
+    <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
     <t xml:space="preserve">5.24920845031738</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">5.60299444198608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55362892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3726224899292</t>
+    <t xml:space="preserve">5.55362939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37262201309204</t>
   </si>
   <si>
     <t xml:space="preserve">5.38907718658447</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">5.34793901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3643946647644</t>
+    <t xml:space="preserve">5.36439418792725</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
@@ -1997,28 +1997,28 @@
     <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7264084815979</t>
+    <t xml:space="preserve">5.72640895843506</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98969221115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9567813873291</t>
+    <t xml:space="preserve">5.98969173431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95678186416626</t>
   </si>
   <si>
     <t xml:space="preserve">5.9156436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83336782455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78400230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75931882858276</t>
+    <t xml:space="preserve">5.8333683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78400182723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
     <t xml:space="preserve">5.75109195709229</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">5.62767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57831239700317</t>
+    <t xml:space="preserve">5.57831192016602</t>
   </si>
   <si>
     <t xml:space="preserve">5.58653974533081</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">5.03529071807861</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93655967712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9530143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21629762649536</t>
+    <t xml:space="preserve">4.93655920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95301389694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21629810333252</t>
   </si>
   <si>
     <t xml:space="preserve">5.05997323989868</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">4.94478702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.903648853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8625111579895</t>
+    <t xml:space="preserve">4.90364933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86251068115234</t>
   </si>
   <si>
     <t xml:space="preserve">4.87896633148193</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">4.82137250900269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85428285598755</t>
+    <t xml:space="preserve">4.85428333282471</t>
   </si>
   <si>
     <t xml:space="preserve">4.91187620162964</t>
@@ -2081,40 +2081,40 @@
     <t xml:space="preserve">5.142249584198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48780870437622</t>
+    <t xml:space="preserve">5.48780918121338</t>
   </si>
   <si>
     <t xml:space="preserve">5.27389049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29034566879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40553283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47958087921143</t>
+    <t xml:space="preserve">5.29034614562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4055323600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47958040237427</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41376066207886</t>
+    <t xml:space="preserve">5.4137601852417</t>
   </si>
   <si>
     <t xml:space="preserve">5.33148384094238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38084936141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26566314697266</t>
+    <t xml:space="preserve">5.38085031509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26566362380981</t>
   </si>
   <si>
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971166610718</t>
+    <t xml:space="preserve">5.33971214294434</t>
   </si>
   <si>
     <t xml:space="preserve">5.44667053222656</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">5.80045747756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79222965240479</t>
+    <t xml:space="preserve">5.79223012924194</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">5.84159469604492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70172643661499</t>
+    <t xml:space="preserve">5.70172595977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.77577447891235</t>
@@ -2150,19 +2150,19 @@
     <t xml:space="preserve">5.6934986114502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12956094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0472846031189</t>
+    <t xml:space="preserve">6.12956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04728555679321</t>
   </si>
   <si>
     <t xml:space="preserve">5.9238715171814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70995330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67704296112061</t>
+    <t xml:space="preserve">5.70995378494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67704343795776</t>
   </si>
   <si>
     <t xml:space="preserve">5.65236043930054</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49603605270386</t>
+    <t xml:space="preserve">5.4960355758667</t>
   </si>
   <si>
     <t xml:space="preserve">5.22452545166016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07642841339111</t>
+    <t xml:space="preserve">5.07642889022827</t>
   </si>
   <si>
     <t xml:space="preserve">5.1340217590332</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16693258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11756658554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23275232315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79668998718262</t>
+    <t xml:space="preserve">5.16693210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11756610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23275279998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">4.77200746536255</t>
@@ -2207,31 +2207,31 @@
     <t xml:space="preserve">4.80491828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60745525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36062717437744</t>
+    <t xml:space="preserve">4.60745477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3606276512146</t>
   </si>
   <si>
     <t xml:space="preserve">4.43467569351196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31948947906494</t>
+    <t xml:space="preserve">4.3194899559021</t>
   </si>
   <si>
     <t xml:space="preserve">4.03152370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81760597229004</t>
+    <t xml:space="preserve">3.81760573387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.42268085479736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45559144020081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48850202560425</t>
+    <t xml:space="preserve">3.45559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48850178718567</t>
   </si>
   <si>
     <t xml:space="preserve">3.04421162605286</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">3.24990153312683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20876359939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09357738494873</t>
+    <t xml:space="preserve">3.20876383781433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117049217224</t>
@@ -2252,85 +2252,85 @@
     <t xml:space="preserve">3.29103946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17996716499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37331533432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41445326805115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38154315948486</t>
+    <t xml:space="preserve">3.17996692657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37331557273865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41445350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38154339790344</t>
   </si>
   <si>
     <t xml:space="preserve">3.40211248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40622591972351</t>
+    <t xml:space="preserve">3.40622615814209</t>
   </si>
   <si>
     <t xml:space="preserve">3.39799857139587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53375363349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495743751526</t>
+    <t xml:space="preserve">3.53375387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495719909668</t>
   </si>
   <si>
     <t xml:space="preserve">3.62837100028992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646851539612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53786754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419169425964</t>
+    <t xml:space="preserve">3.77646827697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53786730766296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419121742249</t>
   </si>
   <si>
     <t xml:space="preserve">3.71887469291687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90810918807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99861335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11379957199097</t>
+    <t xml:space="preserve">3.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99861311912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11379909515381</t>
   </si>
   <si>
     <t xml:space="preserve">4.54986238479614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53340721130371</t>
+    <t xml:space="preserve">4.54163503646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53340673446655</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36885547637939</t>
+    <t xml:space="preserve">4.36885452270508</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42644882202148</t>
+    <t xml:space="preserve">4.42644834518433</t>
   </si>
   <si>
     <t xml:space="preserve">4.41822052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46758604049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40176486968994</t>
+    <t xml:space="preserve">4.46758651733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
     <t xml:space="preserve">3.91633725166321</t>
@@ -2342,37 +2342,37 @@
     <t xml:space="preserve">4.02329540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03563785552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88342642784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01918315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06443452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99038577079773</t>
+    <t xml:space="preserve">4.03563737869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88342714309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0191822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06443405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99038553237915</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109543800354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0520920753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93690609931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92867851257324</t>
+    <t xml:space="preserve">4.05209255218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93690586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92867875099182</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872468948364</t>
+    <t xml:space="preserve">4.50872421264648</t>
   </si>
   <si>
     <t xml:space="preserve">4.30303430557251</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">4.10968494415283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15493774414062</t>
+    <t xml:space="preserve">4.15493726730347</t>
   </si>
   <si>
     <t xml:space="preserve">4.23721361160278</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">4.3523998260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2125301361084</t>
+    <t xml:space="preserve">4.21253108978271</t>
   </si>
   <si>
     <t xml:space="preserve">4.14671039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848209381104</t>
+    <t xml:space="preserve">4.13848257064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.08088874816895</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">4.27012395858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22898578643799</t>
+    <t xml:space="preserve">4.22898626327515</t>
   </si>
   <si>
     <t xml:space="preserve">4.08500289916992</t>
@@ -2423,16 +2423,16 @@
     <t xml:space="preserve">4.10557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04797887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07266092300415</t>
+    <t xml:space="preserve">4.0479793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05620622634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506853103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07266139984131</t>
   </si>
   <si>
     <t xml:space="preserve">4.09734392166138</t>
@@ -2441,16 +2441,16 @@
     <t xml:space="preserve">4.10145854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96570253372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94102001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279242515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449920654297</t>
+    <t xml:space="preserve">3.96570301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94101977348328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279218673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449944496155</t>
   </si>
   <si>
     <t xml:space="preserve">4.07677555084229</t>
@@ -2459,67 +2459,67 @@
     <t xml:space="preserve">4.16316509246826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22075891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924759864807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513368606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583379745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85051560401917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640288352966</t>
+    <t xml:space="preserve">4.22075843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1302547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924736022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513392448425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82583332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85051584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8464024066925</t>
   </si>
   <si>
     <t xml:space="preserve">3.80937814712524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73944425582886</t>
+    <t xml:space="preserve">3.73944401741028</t>
   </si>
   <si>
     <t xml:space="preserve">3.7435576915741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76824021339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6530544757843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672985076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57077836990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59134674072266</t>
+    <t xml:space="preserve">3.76823997497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66128134727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305399894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191534996033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027443885803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672961235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57077813148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59134650230408</t>
   </si>
   <si>
     <t xml:space="preserve">3.60780215263367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63659858703613</t>
+    <t xml:space="preserve">3.63659906387329</t>
   </si>
   <si>
     <t xml:space="preserve">3.66539525985718</t>
@@ -2528,28 +2528,28 @@
     <t xml:space="preserve">3.72710251808167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73121643066406</t>
+    <t xml:space="preserve">3.73121619224548</t>
   </si>
   <si>
     <t xml:space="preserve">3.67362284660339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68596386909485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609513282776</t>
+    <t xml:space="preserve">3.68596434593201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609537124634</t>
   </si>
   <si>
     <t xml:space="preserve">3.60368824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59546089172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63248491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62014365196228</t>
+    <t xml:space="preserve">3.59546065330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63248467445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6201434135437</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749487876892</t>
@@ -2561,19 +2561,19 @@
     <t xml:space="preserve">3.33217763900757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7024199962616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70653343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71064734458923</t>
+    <t xml:space="preserve">3.70241951942444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70653319358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71064782142639</t>
   </si>
   <si>
     <t xml:space="preserve">4.3112621307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19607543945312</t>
+    <t xml:space="preserve">4.19607496261597</t>
   </si>
   <si>
     <t xml:space="preserve">4.40999317169189</t>
@@ -2582,16 +2582,16 @@
     <t xml:space="preserve">4.33594465255737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29480600357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26189613342285</t>
+    <t xml:space="preserve">4.29480695724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26189565658569</t>
   </si>
   <si>
     <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45935821533203</t>
+    <t xml:space="preserve">4.45935869216919</t>
   </si>
   <si>
     <t xml:space="preserve">4.45113086700439</t>
@@ -2600,34 +2600,34 @@
     <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454442977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92833137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99415254592896</t>
+    <t xml:space="preserve">4.57454490661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92833185195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99415302276611</t>
   </si>
   <si>
     <t xml:space="preserve">5.06820058822632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96124219894409</t>
+    <t xml:space="preserve">4.96124267578125</t>
   </si>
   <si>
     <t xml:space="preserve">4.97769784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01060724258423</t>
+    <t xml:space="preserve">5.00237989425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
     <t xml:space="preserve">4.96947002410889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92010498046875</t>
+    <t xml:space="preserve">4.92010450363159</t>
   </si>
   <si>
     <t xml:space="preserve">5.04351806640625</t>
@@ -2636,22 +2636,22 @@
     <t xml:space="preserve">5.25743579864502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24098110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161510467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10111093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465623855591</t>
+    <t xml:space="preserve">5.24098062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465576171875</t>
   </si>
   <si>
     <t xml:space="preserve">5.15870475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1833872795105</t>
+    <t xml:space="preserve">5.18338775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">5.85805034637451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9650092124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87450504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90741634368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99791955947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97323703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94855403900146</t>
+    <t xml:space="preserve">5.96500968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8745059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90741586685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99792003631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97323656082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94855356216431</t>
   </si>
   <si>
     <t xml:space="preserve">5.94032669067383</t>
@@ -2693,13 +2693,13 @@
     <t xml:space="preserve">6.48334789276123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45043802261353</t>
+    <t xml:space="preserve">6.45043754577637</t>
   </si>
   <si>
     <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26943016052246</t>
+    <t xml:space="preserve">6.26943063735962</t>
   </si>
   <si>
     <t xml:space="preserve">6.33525085449219</t>
@@ -2708,19 +2708,19 @@
     <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30119037628174</t>
+    <t xml:space="preserve">6.3011908531189</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81209754943848</t>
+    <t xml:space="preserve">6.81209802627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397754669189</t>
+    <t xml:space="preserve">6.74397659301758</t>
   </si>
   <si>
     <t xml:space="preserve">6.57367420196533</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">6.72694635391235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70991611480713</t>
+    <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
     <t xml:space="preserve">6.7610068321228</t>
@@ -2738,16 +2738,16 @@
     <t xml:space="preserve">7.30597448348999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49330806732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79985189437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39590930938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22560787200928</t>
+    <t xml:space="preserve">7.49330759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7998514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22560882568359</t>
   </si>
   <si>
     <t xml:space="preserve">8.25966835021973</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075859069824</t>
+    <t xml:space="preserve">8.31075954437256</t>
   </si>
   <si>
     <t xml:space="preserve">8.34482002258301</t>
@@ -2765,43 +2765,43 @@
     <t xml:space="preserve">8.29372882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02602958679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06860446929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98345375061035</t>
+    <t xml:space="preserve">9.02603054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06860542297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98345470428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.85572719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60027408599854</t>
+    <t xml:space="preserve">8.60027313232422</t>
   </si>
   <si>
     <t xml:space="preserve">8.64284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41294097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46403217315674</t>
+    <t xml:space="preserve">8.41294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46403121948242</t>
   </si>
   <si>
     <t xml:space="preserve">8.36184978485107</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76579093933105</t>
+    <t xml:space="preserve">7.76579141616821</t>
   </si>
   <si>
     <t xml:space="preserve">7.61251878738403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85094308853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02124500274658</t>
+    <t xml:space="preserve">7.85094404220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0212459564209</t>
   </si>
   <si>
     <t xml:space="preserve">7.93609380722046</t>
@@ -2813,22 +2813,22 @@
     <t xml:space="preserve">8.10639667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14045715332031</t>
+    <t xml:space="preserve">8.140456199646</t>
   </si>
   <si>
     <t xml:space="preserve">8.00421524047852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83391237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66361045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5784592628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270280838013</t>
+    <t xml:space="preserve">7.83391141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66360998153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57845878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270185470581</t>
   </si>
   <si>
     <t xml:space="preserve">7.51033735275269</t>
@@ -2843,16 +2843,16 @@
     <t xml:space="preserve">8.0893669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98718500137329</t>
+    <t xml:space="preserve">7.98718452453613</t>
   </si>
   <si>
     <t xml:space="preserve">8.03827571868896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90203332901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342643737793</t>
+    <t xml:space="preserve">7.90203380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342739105225</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">8.55769824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40920925140381</t>
+    <t xml:space="preserve">9.40921115875244</t>
   </si>
   <si>
     <t xml:space="preserve">9.28148365020752</t>
@@ -2870,31 +2870,31 @@
     <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94087886810303</t>
+    <t xml:space="preserve">8.94087982177734</t>
   </si>
   <si>
     <t xml:space="preserve">8.81315135955811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89830207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72799968719482</t>
+    <t xml:space="preserve">8.89830303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72800064086914</t>
   </si>
   <si>
     <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51512241363525</t>
+    <t xml:space="preserve">8.51512145996094</t>
   </si>
   <si>
     <t xml:space="preserve">8.42997074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44700050354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49436187744141</t>
+    <t xml:space="preserve">8.44700145721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49436092376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754154205322</t>
@@ -2903,25 +2903,25 @@
     <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91154098510742</t>
+    <t xml:space="preserve">9.91154003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.955397605896</t>
+    <t xml:space="preserve">9.69225883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95539665222168</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0869655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0431089401245</t>
+    <t xml:space="preserve">10.0869665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0431098937988</t>
   </si>
   <si>
     <t xml:space="preserve">9.99925327301025</t>
@@ -2930,19 +2930,19 @@
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185344696045</t>
+    <t xml:space="preserve">10.2185354232788</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939609527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7799711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73611450195312</t>
+    <t xml:space="preserve">10.3939599990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73611545562744</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2972,40 +2972,40 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382774353027</t>
+    <t xml:space="preserve">9.82382678985596</t>
   </si>
   <si>
     <t xml:space="preserve">9.51683330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38526344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34140682220459</t>
+    <t xml:space="preserve">9.38526439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34140777587891</t>
   </si>
   <si>
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055576324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94670009613037</t>
+    <t xml:space="preserve">8.99055671691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94669914245605</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6133918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71864700317383</t>
+    <t xml:space="preserve">8.61339092254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71864604949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0344877243042</t>
+    <t xml:space="preserve">8.03448677062988</t>
   </si>
   <si>
     <t xml:space="preserve">8.20991230010986</t>
@@ -3014,19 +3014,19 @@
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47312641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42049789428711</t>
+    <t xml:space="preserve">7.47312593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42049884796143</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82397651672363</t>
+    <t xml:space="preserve">8.06957149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82397747039795</t>
   </si>
   <si>
     <t xml:space="preserve">8.28008365631104</t>
@@ -3035,16 +3035,16 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940204620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533878326416</t>
+    <t xml:space="preserve">7.99940252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533782958984</t>
   </si>
   <si>
     <t xml:space="preserve">8.49059391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43796539306641</t>
+    <t xml:space="preserve">8.43796634674072</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">8.81513118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50813579559326</t>
+    <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70987606048584</t>
+    <t xml:space="preserve">8.70987510681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3068,16 +3068,16 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07834434509277</t>
+    <t xml:space="preserve">8.26254081726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114231109619</t>
+    <t xml:space="preserve">8.20114135742188</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
@@ -3089,13 +3089,13 @@
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98185968399048</t>
+    <t xml:space="preserve">7.98186016082764</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18359851837158</t>
+    <t xml:space="preserve">8.1835994720459</t>
   </si>
   <si>
     <t xml:space="preserve">8.17482757568359</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">8.21868419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01694583892822</t>
+    <t xml:space="preserve">8.01694488525391</t>
   </si>
   <si>
     <t xml:space="preserve">7.77899932861328</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417476654053</t>
+    <t xml:space="preserve">8.62096118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417572021484</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265827178955</t>
+    <t xml:space="preserve">8.60265731811523</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872806549072</t>
+    <t xml:space="preserve">8.96872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448726654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939792633057</t>
+    <t xml:space="preserve">9.01448822021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939697265625</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944374084473</t>
+    <t xml:space="preserve">8.57520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524875640869</t>
+    <t xml:space="preserve">8.03524780273438</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97118616104126</t>
+    <t xml:space="preserve">7.9711856842041</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3218,28 +3218,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051677703857</t>
+    <t xml:space="preserve">8.11761474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051725387573</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542743682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560611724854</t>
+    <t xml:space="preserve">7.92542695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560564041138</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88882064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966823577881</t>
+    <t xml:space="preserve">7.8888201713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966775894165</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466499328613</t>
+    <t xml:space="preserve">8.90466594696045</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569316864014</t>
+    <t xml:space="preserve">8.78569412231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663333892822</t>
+    <t xml:space="preserve">7.69663286209106</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172267913818</t>
+    <t xml:space="preserve">7.41292905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172315597534</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3335,40 +3335,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591766357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645370483398</t>
+    <t xml:space="preserve">8.13591861724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645418167114</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136531829834</t>
+    <t xml:space="preserve">7.86136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7606954574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
+    <t xml:space="preserve">7.76069498062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154447555542</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6783299446106</t>
+    <t xml:space="preserve">7.67832946777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087366104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748092651367</t>
+    <t xml:space="preserve">7.65087413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748140335083</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475852966309</t>
+    <t xml:space="preserve">7.82475805282593</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2457389831543</t>
+    <t xml:space="preserve">8.24573993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55690002441406</t>
+    <t xml:space="preserve">8.55689907073975</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3401,16 +3401,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131950378418</t>
+    <t xml:space="preserve">8.40131855010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51114082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47453308105469</t>
+    <t xml:space="preserve">8.51113986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.474534034729</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3452,19 +3452,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649494171143</t>
+    <t xml:space="preserve">9.31649589538574</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0785493850708</t>
+    <t xml:space="preserve">9.07855033874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497844696045</t>
+    <t xml:space="preserve">9.22497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3476,10 +3476,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140560150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0510950088501</t>
+    <t xml:space="preserve">9.37140655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05109405517578</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515712738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935211181641</t>
+    <t xml:space="preserve">9.11515617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44461917877197</t>
+    <t xml:space="preserve">9.44462013244629</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988815307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685325622559</t>
+    <t xml:space="preserve">9.27988910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685230255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -60204,7 +60204,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6494907407</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>10330</v>
@@ -60225,6 +60225,32 @@
         <v>1316</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6494791667</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>18263</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>8.73999977111816</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>8.76000022888184</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25140857696533</t>
+    <t xml:space="preserve">1.2514089345932</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596580028534</t>
+    <t xml:space="preserve">1.27346646785736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596591949463</t>
   </si>
   <si>
     <t xml:space="preserve">1.26611411571503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29258322715759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31169986724854</t>
+    <t xml:space="preserve">1.2925831079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31169998645782</t>
   </si>
   <si>
     <t xml:space="preserve">1.32566976547241</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">1.33596348762512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32346415519714</t>
+    <t xml:space="preserve">1.32346379756927</t>
   </si>
   <si>
     <t xml:space="preserve">1.30875897407532</t>
@@ -74,22 +74,22 @@
     <t xml:space="preserve">1.26758456230164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25214409828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302733898163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729095935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30728828907013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2955242395401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27493703365326</t>
+    <t xml:space="preserve">1.25214397907257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302757740021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30728840827942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29552435874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27493691444397</t>
   </si>
   <si>
     <t xml:space="preserve">1.2411150932312</t>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449778556824</t>
+    <t xml:space="preserve">1.23449802398682</t>
   </si>
   <si>
     <t xml:space="preserve">1.18008887767792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18376517295837</t>
+    <t xml:space="preserve">1.18376505374908</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13964951038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612396240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568216323853</t>
+    <t xml:space="preserve">1.1396496295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612384319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568228244781</t>
   </si>
   <si>
     <t xml:space="preserve">1.07053530216217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05141842365265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07347655296326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09479892253876</t>
+    <t xml:space="preserve">1.05141854286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07347643375397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09479880332947</t>
   </si>
   <si>
     <t xml:space="preserve">1.15067839622498</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">1.1653835773468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14700222015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17641246318817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597090244293</t>
+    <t xml:space="preserve">1.14700210094452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17641258239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597078323364</t>
   </si>
   <si>
     <t xml:space="preserve">1.21317541599274</t>
@@ -155,31 +155,31 @@
     <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18744122982025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16170752048492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18817687034607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20582282543182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23670375347137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22788059711456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24258577823639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22861588001251</t>
+    <t xml:space="preserve">1.18744134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16170740127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1881765127182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347157001495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20582270622253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23670363426208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22788047790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2425856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22861564159393</t>
   </si>
   <si>
     <t xml:space="preserve">1.22052788734436</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">1.28670108318329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30655324459076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30214154720306</t>
+    <t xml:space="preserve">1.30655312538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30214166641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.26464354991913</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">1.2499383687973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28743660449982</t>
+    <t xml:space="preserve">1.28743636608124</t>
   </si>
   <si>
     <t xml:space="preserve">1.28228950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30581784248352</t>
+    <t xml:space="preserve">1.30581772327423</t>
   </si>
   <si>
     <t xml:space="preserve">1.23008632659912</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">1.26317298412323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26243758201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29920041561127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29405379295349</t>
+    <t xml:space="preserve">1.26243770122528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29920065402985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2940536737442</t>
   </si>
   <si>
     <t xml:space="preserve">1.25876140594482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28523075580597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861332893372</t>
+    <t xml:space="preserve">1.28523063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861320972443</t>
   </si>
   <si>
     <t xml:space="preserve">1.27934861183167</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">1.27199602127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28302490711212</t>
+    <t xml:space="preserve">1.28302478790283</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581529140472</t>
@@ -263,43 +263,43 @@
     <t xml:space="preserve">1.35066854953766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34478640556335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949413776398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29846525192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26831960678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21170485019684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19773495197296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1742068529129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17567718029022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258832931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288181304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1984703540802</t>
+    <t xml:space="preserve">1.34478652477264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949425697327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29846549034119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26831984519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21170496940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19773507118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17420673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1925882101059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288193225861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19847023487091</t>
   </si>
   <si>
     <t xml:space="preserve">1.12494444847107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13817894458771</t>
+    <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759185791016</t>
@@ -311,31 +311,31 @@
     <t xml:space="preserve">1.13597333431244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13229703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023938655853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15582537651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15803098678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920806884766</t>
+    <t xml:space="preserve">1.13229691982269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023926734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15582525730133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15803110599518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920794963837</t>
   </si>
   <si>
     <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15361964702606</t>
+    <t xml:space="preserve">1.15361940860748</t>
   </si>
   <si>
     <t xml:space="preserve">1.16758930683136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21391069889069</t>
+    <t xml:space="preserve">1.21391081809998</t>
   </si>
   <si>
     <t xml:space="preserve">1.41169488430023</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">1.56021690368652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.561687707901</t>
+    <t xml:space="preserve">1.56168746948242</t>
   </si>
   <si>
     <t xml:space="preserve">1.52345430850983</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">1.52933609485626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47051548957825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54257094860077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50874900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49404406547546</t>
+    <t xml:space="preserve">1.47051560878754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54257082939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50874888896942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49404382705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49992573261261</t>
+    <t xml:space="preserve">1.49992609024048</t>
   </si>
   <si>
     <t xml:space="preserve">1.48669123649597</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">1.48816168308258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48080909252167</t>
+    <t xml:space="preserve">1.48080921173096</t>
   </si>
   <si>
     <t xml:space="preserve">1.49845552444458</t>
@@ -392,82 +392,82 @@
     <t xml:space="preserve">1.55433511734009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785348892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550211429596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961267471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666911125183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078963756561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931883335114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81608712673187</t>
+    <t xml:space="preserve">1.77785360813141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550223350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961291313171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666899204254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078939914703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931907176971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020219326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.816086769104</t>
   </si>
   <si>
     <t xml:space="preserve">1.80138158798218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87490737438202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372809886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608166694641</t>
+    <t xml:space="preserve">1.87490725517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372797966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9160817861557</t>
   </si>
   <si>
     <t xml:space="preserve">1.91314089298248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93078684806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9293167591095</t>
+    <t xml:space="preserve">1.93078696727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931640148163</t>
   </si>
   <si>
     <t xml:space="preserve">1.93519854545593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9204934835434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431785583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902279853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90137684345245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92343437671661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961036205292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9616676568985</t>
+    <t xml:space="preserve">1.92049324512482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431773662567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91902267932892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90137648582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92343425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961012363434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96166741847992</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489290237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12930655479431</t>
+    <t xml:space="preserve">2.17489242553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12930679321289</t>
   </si>
   <si>
     <t xml:space="preserve">2.19106817245483</t>
@@ -476,25 +476,25 @@
     <t xml:space="preserve">2.14107060432434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09695553779602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077712059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842610359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11166071891785</t>
+    <t xml:space="preserve">2.09695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077688217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11901330947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842586517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11166024208069</t>
   </si>
   <si>
     <t xml:space="preserve">2.19695019721985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27782869338989</t>
+    <t xml:space="preserve">2.27782893180847</t>
   </si>
   <si>
     <t xml:space="preserve">2.26606440544128</t>
@@ -503,70 +503,70 @@
     <t xml:space="preserve">2.08813238143921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9763730764389</t>
+    <t xml:space="preserve">1.97637319564819</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901526451111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04989886283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11607217788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10136699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08225011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0763680934906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03519344329834</t>
+    <t xml:space="preserve">2.04989910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11607193946838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10136675834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08225035667419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07636761665344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03519320487976</t>
   </si>
   <si>
     <t xml:space="preserve">2.01460671424866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578551292419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019756793976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9719614982605</t>
+    <t xml:space="preserve">1.95578587055206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019744873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97196137905121</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843327999115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784850597382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549469947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696040153503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99254834651947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00431275367737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09548497200012</t>
+    <t xml:space="preserve">1.87784826755524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549481868744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696028232574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99254846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00431323051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09548473358154</t>
   </si>
   <si>
     <t xml:space="preserve">2.08666181564331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08372044563293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813481330872</t>
+    <t xml:space="preserve">2.08372116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813433647156</t>
   </si>
   <si>
     <t xml:space="preserve">2.05431032180786</t>
@@ -575,40 +575,40 @@
     <t xml:space="preserve">2.05872178077698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06019234657288</t>
+    <t xml:space="preserve">2.06019258499146</t>
   </si>
   <si>
     <t xml:space="preserve">2.06754493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06313347816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1028368473053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694533348083</t>
+    <t xml:space="preserve">2.06313323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10283708572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17636322975159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694557189941</t>
   </si>
   <si>
     <t xml:space="preserve">2.27194666862488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23812484741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16606974601746</t>
+    <t xml:space="preserve">2.23812460899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
     <t xml:space="preserve">2.19989132881165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22047877311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19842100143433</t>
+    <t xml:space="preserve">2.22047853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
     <t xml:space="preserve">2.21753740310669</t>
@@ -629,37 +629,37 @@
     <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25871181488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24253630638123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606683731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136189460754</t>
+    <t xml:space="preserve">2.25871205329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253606796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606731414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136165618896</t>
   </si>
   <si>
     <t xml:space="preserve">2.22341966629028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20577359199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22194886207581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35282492637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61163568496704</t>
+    <t xml:space="preserve">2.20577335357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22194910049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35282516479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61163544654846</t>
   </si>
   <si>
     <t xml:space="preserve">2.61016511917114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61604714393616</t>
+    <t xml:space="preserve">2.61604738235474</t>
   </si>
   <si>
     <t xml:space="preserve">2.60575389862061</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">2.58663702011108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52193427085876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64545774459839</t>
+    <t xml:space="preserve">2.52193403244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64545750617981</t>
   </si>
   <si>
     <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58810758590698</t>
+    <t xml:space="preserve">2.5881073474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457901000977</t>
@@ -686,52 +686,52 @@
     <t xml:space="preserve">2.56016778945923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59840083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634305953979</t>
+    <t xml:space="preserve">2.59840130805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634329795837</t>
   </si>
   <si>
     <t xml:space="preserve">2.61751794815063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5954601764679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78662705421448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85280013084412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83809518814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632603645325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983201026917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129480361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217425346375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8931896686554</t>
+    <t xml:space="preserve">2.59545993804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7866268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85280084609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83809494972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632651329041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129551887512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89319062232971</t>
   </si>
   <si>
     <t xml:space="preserve">3.75716733932495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87480854988098</t>
+    <t xml:space="preserve">3.87480878829956</t>
   </si>
   <si>
     <t xml:space="preserve">3.84172201156616</t>
@@ -740,25 +740,25 @@
     <t xml:space="preserve">3.87848544120789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97039198875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14685440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449584960938</t>
+    <t xml:space="preserve">3.97039270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14685344696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449537277222</t>
   </si>
   <si>
     <t xml:space="preserve">4.40051794052124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37478399276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596279144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140859603882</t>
+    <t xml:space="preserve">4.37478351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596326828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140907287598</t>
   </si>
   <si>
     <t xml:space="preserve">4.52183532714844</t>
@@ -767,55 +767,55 @@
     <t xml:space="preserve">4.51815891265869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917528152466</t>
+    <t xml:space="preserve">4.77917575836182</t>
   </si>
   <si>
     <t xml:space="preserve">4.92990398406982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77177333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02916383743286</t>
+    <t xml:space="preserve">5.77177429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0291633605957</t>
   </si>
   <si>
     <t xml:space="preserve">5.35267686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26444625854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71662950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71295356750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05852460861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71290397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523725509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389772415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3231053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926555633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67006587982178</t>
+    <t xml:space="preserve">5.26444578170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71662902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71295309066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0585241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71290445327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523820877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04377031326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310390472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926651000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67006540298462</t>
   </si>
   <si>
     <t xml:space="preserve">6.85503005981445</t>
@@ -827,124 +827,124 @@
     <t xml:space="preserve">6.37185573577881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6360912322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83238077163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71913766860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397443771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68893814086914</t>
+    <t xml:space="preserve">6.63609218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238124847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71913719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245145797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68893909454346</t>
   </si>
   <si>
     <t xml:space="preserve">6.79085826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63986682891846</t>
+    <t xml:space="preserve">6.63986730575562</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490217208862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41337823867798</t>
+    <t xml:space="preserve">6.41337871551514</t>
   </si>
   <si>
     <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25483703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159393310547</t>
+    <t xml:space="preserve">6.25483798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159345626831</t>
   </si>
   <si>
     <t xml:space="preserve">6.1982159614563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18689060211182</t>
+    <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
     <t xml:space="preserve">6.03589868545532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97550249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9830527305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63199615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11484956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43570709228516</t>
+    <t xml:space="preserve">5.97550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98305225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63199663162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11484909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.435706615448</t>
   </si>
   <si>
     <t xml:space="preserve">5.22431802749634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20921897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465147018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862373352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259742736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93365907669067</t>
+    <t xml:space="preserve">5.20921850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862421035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259695053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
     <t xml:space="preserve">5.16769599914551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00537919998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233467102051</t>
+    <t xml:space="preserve">5.00538063049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233371734619</t>
   </si>
   <si>
     <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91855907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06200170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77511692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73359441757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71472024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6580982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59770154953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60147714614868</t>
+    <t xml:space="preserve">4.91856002807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06200122833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77511739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73359537124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71472072601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65809869766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59770250320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60147619247437</t>
   </si>
   <si>
     <t xml:space="preserve">4.68452215194702</t>
@@ -953,28 +953,28 @@
     <t xml:space="preserve">5.28471422195435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04690313339233</t>
+    <t xml:space="preserve">5.09597539901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04690265655518</t>
   </si>
   <si>
     <t xml:space="preserve">5.00160503387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91478490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723514556885</t>
+    <t xml:space="preserve">4.91478538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723562240601</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81664085388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85816287994385</t>
+    <t xml:space="preserve">4.81663990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85816240310669</t>
   </si>
   <si>
     <t xml:space="preserve">4.89213609695435</t>
@@ -986,19 +986,19 @@
     <t xml:space="preserve">4.98273086547852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99405527114868</t>
+    <t xml:space="preserve">4.99405479431152</t>
   </si>
   <si>
     <t xml:space="preserve">5.19789409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06955099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491327285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39795875549316</t>
+    <t xml:space="preserve">5.06955146789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39795923233032</t>
   </si>
   <si>
     <t xml:space="preserve">5.36776065826416</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">5.4508056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36021041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17902040481567</t>
+    <t xml:space="preserve">5.36021089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17901992797852</t>
   </si>
   <si>
     <t xml:space="preserve">4.99028062820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24319219589233</t>
+    <t xml:space="preserve">5.24319171905518</t>
   </si>
   <si>
     <t xml:space="preserve">5.14882230758667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16392183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05822658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372278213501</t>
+    <t xml:space="preserve">5.16392135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822706222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372325897217</t>
   </si>
   <si>
     <t xml:space="preserve">5.3035888671875</t>
@@ -1046,82 +1046,82 @@
     <t xml:space="preserve">5.190345287323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41305828094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49232912063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88490724563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19066524505615</t>
+    <t xml:space="preserve">5.41305780410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49232864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8849081993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
     <t xml:space="preserve">6.06232261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33410835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24351358413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48509979248047</t>
+    <t xml:space="preserve">6.33410787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2435131072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48510026931763</t>
   </si>
   <si>
     <t xml:space="preserve">6.51529836654663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84748125076294</t>
+    <t xml:space="preserve">6.84747982025146</t>
   </si>
   <si>
     <t xml:space="preserve">7.3835015296936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23628520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46654796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806301116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53103923797607</t>
+    <t xml:space="preserve">7.2362847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46654748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919534683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53104019165039</t>
   </si>
   <si>
     <t xml:space="preserve">8.85567188262939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39924335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75407409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7204208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84057331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04441070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62918472290039</t>
+    <t xml:space="preserve">9.39924240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75407314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7204217910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84057235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04441165924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62918376922607</t>
   </si>
   <si>
     <t xml:space="preserve">8.41024684906006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19130802154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487854003906</t>
+    <t xml:space="preserve">8.19130897521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487758636475</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">8.50084114074707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38004779815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581134796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77608060836792</t>
+    <t xml:space="preserve">8.38004875183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27435493469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581230163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77607917785645</t>
   </si>
   <si>
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402656555176</t>
+    <t xml:space="preserve">7.84402704238892</t>
   </si>
   <si>
     <t xml:space="preserve">7.82137823104858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89687395095825</t>
+    <t xml:space="preserve">7.89687538146973</t>
   </si>
   <si>
     <t xml:space="preserve">7.75343227386475</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">8.34984970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23660564422607</t>
+    <t xml:space="preserve">8.23660659790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.44044494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31965160369873</t>
+    <t xml:space="preserve">8.31965065002441</t>
   </si>
   <si>
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1309118270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94972038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79117918014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5495924949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30800628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224082946777</t>
+    <t xml:space="preserve">8.13091278076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94972085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54959344863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30800533294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224130630493</t>
   </si>
   <si>
     <t xml:space="preserve">7.31932973861694</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714273452759</t>
+    <t xml:space="preserve">7.56469249725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714225769043</t>
   </si>
   <si>
     <t xml:space="preserve">7.92707300186157</t>
@@ -1211,121 +1211,121 @@
     <t xml:space="preserve">8.03276634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60999059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243940353394</t>
+    <t xml:space="preserve">7.60998964309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60243988037109</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204177856445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522260665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24005937576294</t>
+    <t xml:space="preserve">7.45522308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2400598526001</t>
   </si>
   <si>
     <t xml:space="preserve">7.29668188095093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51184415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25893306732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19476079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23251008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045604705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780675888062</t>
+    <t xml:space="preserve">7.51184558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25893354415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19476175308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23250961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304067611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045652389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780818939209</t>
   </si>
   <si>
     <t xml:space="preserve">7.32687902450562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51561832427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49297046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36840200424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058488845825</t>
+    <t xml:space="preserve">7.51561975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49297094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840295791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058393478394</t>
   </si>
   <si>
     <t xml:space="preserve">8.21395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66693210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30455112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945159912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04786586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15355968475342</t>
+    <t xml:space="preserve">8.66693115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123828887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30455207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945255279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1988582611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04786491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15356063842773</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766777038574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16865921020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85157632827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96827459335327</t>
+    <t xml:space="preserve">8.16866016387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85157585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681436538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151721954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277791976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">6.80973291397095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96072435379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317554473877</t>
+    <t xml:space="preserve">6.96072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317411422729</t>
   </si>
   <si>
     <t xml:space="preserve">6.88522815704346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9305272102356</t>
+    <t xml:space="preserve">6.93052625656128</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767839431763</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50019884109497</t>
+    <t xml:space="preserve">6.50019931793213</t>
   </si>
   <si>
     <t xml:space="preserve">6.31900930404663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16801786422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15291690826416</t>
+    <t xml:space="preserve">6.16801691055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15291786193848</t>
   </si>
   <si>
     <t xml:space="preserve">6.56814527511597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57569551467896</t>
+    <t xml:space="preserve">6.5756950378418</t>
   </si>
   <si>
     <t xml:space="preserve">6.76443433761597</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">7.00602197647095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993101119995</t>
+    <t xml:space="preserve">6.83993148803711</t>
   </si>
   <si>
     <t xml:space="preserve">6.77953386306763</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">6.6058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40205478668213</t>
+    <t xml:space="preserve">6.40205335617065</t>
   </si>
   <si>
     <t xml:space="preserve">6.4398021697998</t>
@@ -1379,64 +1379,64 @@
     <t xml:space="preserve">6.22086429595947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22841358184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18311595916748</t>
+    <t xml:space="preserve">6.2284140586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1831169128418</t>
   </si>
   <si>
     <t xml:space="preserve">6.08497190475464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26616144180298</t>
+    <t xml:space="preserve">6.26616191864014</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28881072998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4775505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4926495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059598922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039646148682</t>
+    <t xml:space="preserve">6.28881120681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47755002975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265003204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039741516113</t>
   </si>
   <si>
     <t xml:space="preserve">6.42470359802246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58324432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62099266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61344289779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119218826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91063404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69836282730103</t>
+    <t xml:space="preserve">6.58324480056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62099361419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61344337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91063499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69836235046387</t>
   </si>
   <si>
     <t xml:space="preserve">6.78484392166138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66691493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974287033081</t>
+    <t xml:space="preserve">6.6669135093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974382400513</t>
   </si>
   <si>
     <t xml:space="preserve">6.91849660873413</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">6.19519901275635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25023221969604</t>
+    <t xml:space="preserve">6.2502326965332</t>
   </si>
   <si>
     <t xml:space="preserve">6.2345085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15588903427124</t>
+    <t xml:space="preserve">6.1558895111084</t>
   </si>
   <si>
     <t xml:space="preserve">6.24237108230591</t>
@@ -1469,40 +1469,40 @@
     <t xml:space="preserve">6.13230419158936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87285995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75493144989014</t>
+    <t xml:space="preserve">5.87285947799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75493097305298</t>
   </si>
   <si>
     <t xml:space="preserve">5.88072204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83355045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17947578430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09299373626709</t>
+    <t xml:space="preserve">5.83355093002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09299421310425</t>
   </si>
   <si>
     <t xml:space="preserve">5.92003202438354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0772705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04582214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17161321640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332914352417</t>
+    <t xml:space="preserve">6.07727003097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04582262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878480911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332866668701</t>
   </si>
   <si>
     <t xml:space="preserve">6.87918663024902</t>
@@ -1511,19 +1511,16 @@
     <t xml:space="preserve">6.77698183059692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65119075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61188220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43105745315552</t>
+    <t xml:space="preserve">6.61188125610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">6.36029958724976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06154680252075</t>
+    <t xml:space="preserve">6.06154632568359</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368423461914</t>
@@ -1532,7 +1529,7 @@
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361734390259</t>
+    <t xml:space="preserve">5.94361686706543</t>
   </si>
   <si>
     <t xml:space="preserve">5.84927463531494</t>
@@ -1541,7 +1538,7 @@
     <t xml:space="preserve">6.03796052932739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06940841674805</t>
+    <t xml:space="preserve">6.06940793991089</t>
   </si>
   <si>
     <t xml:space="preserve">5.95934152603149</t>
@@ -1553,16 +1550,16 @@
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575525283813</t>
+    <t xml:space="preserve">5.93575620651245</t>
   </si>
   <si>
     <t xml:space="preserve">5.81782674789429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85713624954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851676940918</t>
+    <t xml:space="preserve">5.85713577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851724624634</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
@@ -1571,73 +1568,73 @@
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920726776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58196830749512</t>
+    <t xml:space="preserve">5.73920774459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
     <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69203519821167</t>
+    <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279306411743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78637933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62914037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53479719161987</t>
+    <t xml:space="preserve">5.78637886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62913990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53479671478271</t>
   </si>
   <si>
     <t xml:space="preserve">5.44045400619507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46403980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86499834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0300989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74706888198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47190141677856</t>
+    <t xml:space="preserve">5.46403932571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86499881744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03009939193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74706983566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
     <t xml:space="preserve">5.39328241348267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611082077026</t>
+    <t xml:space="preserve">5.34611129760742</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183500289917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32252502441406</t>
+    <t xml:space="preserve">5.3225245475769</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749134063721</t>
+    <t xml:space="preserve">5.26749229431152</t>
   </si>
   <si>
     <t xml:space="preserve">5.28321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17314910888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
+    <t xml:space="preserve">5.17314863204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811494827271</t>
   </si>
   <si>
     <t xml:space="preserve">5.11025285720825</t>
@@ -1649,28 +1646,28 @@
     <t xml:space="preserve">5.00804853439331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06308221817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12597751617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9923243522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10239124298096</t>
+    <t xml:space="preserve">5.06308174133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99232387542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1023907661438</t>
   </si>
   <si>
     <t xml:space="preserve">5.15742444992065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14170074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0945291519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19673442840576</t>
+    <t xml:space="preserve">5.14170122146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09452962875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1967339515686</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
@@ -1679,34 +1676,34 @@
     <t xml:space="preserve">5.33824920654297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38542032241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52539968490601</t>
+    <t xml:space="preserve">5.38542127609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52540016174316</t>
   </si>
   <si>
     <t xml:space="preserve">6.56470966339111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31312799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40747022628784</t>
+    <t xml:space="preserve">6.31312847137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.407470703125</t>
   </si>
   <si>
     <t xml:space="preserve">6.28954219818115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29107713699341</t>
+    <t xml:space="preserve">5.29107761383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.22818231582642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18887233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24390649795532</t>
+    <t xml:space="preserve">5.18887186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24390554428101</t>
   </si>
   <si>
     <t xml:space="preserve">5.27535343170166</t>
@@ -1718,19 +1715,19 @@
     <t xml:space="preserve">5.29893922805786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20459604263306</t>
+    <t xml:space="preserve">5.20459651947021</t>
   </si>
   <si>
     <t xml:space="preserve">5.0552191734314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0316333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02377223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0709433555603</t>
+    <t xml:space="preserve">5.03163385391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0237717628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07094383239746</t>
   </si>
   <si>
     <t xml:space="preserve">5.2203197479248</t>
@@ -1739,19 +1736,19 @@
     <t xml:space="preserve">5.1495623588562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00018548965454</t>
+    <t xml:space="preserve">5.00018692016602</t>
   </si>
   <si>
     <t xml:space="preserve">4.69357061386108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48129940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633260726929</t>
+    <t xml:space="preserve">4.48129892349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59922695159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633213043213</t>
   </si>
   <si>
     <t xml:space="preserve">4.38695573806763</t>
@@ -1763,22 +1760,22 @@
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570852279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67784643173218</t>
+    <t xml:space="preserve">4.52847051620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570947647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67784690856934</t>
   </si>
   <si>
     <t xml:space="preserve">4.945152759552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35397291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33038711547852</t>
+    <t xml:space="preserve">5.35397338867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33038759231567</t>
   </si>
   <si>
     <t xml:space="preserve">5.18101072311401</t>
@@ -1787,7 +1784,7 @@
     <t xml:space="preserve">5.25963020324707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50334882736206</t>
+    <t xml:space="preserve">5.50334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.47976398468018</t>
@@ -1796,10 +1793,10 @@
     <t xml:space="preserve">5.51907348632812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45617771148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36969661712646</t>
+    <t xml:space="preserve">5.45617866516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36969614028931</t>
   </si>
   <si>
     <t xml:space="preserve">5.55052137374878</t>
@@ -1808,157 +1805,160 @@
     <t xml:space="preserve">5.41686820983887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57410669326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68417358398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63700246810913</t>
+    <t xml:space="preserve">5.57410717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68417406082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63700199127197</t>
   </si>
   <si>
     <t xml:space="preserve">5.71562147140503</t>
   </si>
   <si>
+    <t xml:space="preserve">5.66058778762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72348356246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14802742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42319488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53326177597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10085678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08513164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.108717918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20306158065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32885217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30526638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2109227180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12444162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16375160217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595640182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32098960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671379089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2738184928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00651359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77065515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134517669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02223634719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82568836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74286460876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56185674667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73463678359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61944961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008409500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6441330909729</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.66058826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72348356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631196975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733739852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42319583892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53326320648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1008563041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08513212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10871839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2030611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3288516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2109227180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12444162368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16375160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753759384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32099008560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671426773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2738184928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00651264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77065515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134565353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0222373008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82568836212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74286413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56185722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73463678359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6441330909729</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52894687652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54540157318115</t>
+    <t xml:space="preserve">5.52894592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54540109634399</t>
   </si>
   <si>
     <t xml:space="preserve">5.51249122619629</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39730501174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31502866744995</t>
+    <t xml:space="preserve">5.39730453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
     <t xml:space="preserve">5.24920845031738</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">5.46312570571899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60299444198608</t>
+    <t xml:space="preserve">5.60299491882324</t>
   </si>
   <si>
     <t xml:space="preserve">5.55362892150879</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">5.3726224899292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38907718658447</t>
+    <t xml:space="preserve">5.38907766342163</t>
   </si>
   <si>
     <t xml:space="preserve">5.34793901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3643946647644</t>
+    <t xml:space="preserve">5.36439418792725</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7264084815979</t>
+    <t xml:space="preserve">5.72640943527222</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
@@ -2006,22 +2006,22 @@
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9156436920166</t>
+    <t xml:space="preserve">5.91564416885376</t>
   </si>
   <si>
     <t xml:space="preserve">5.83336782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78400230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75931882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75109195709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62767791748047</t>
+    <t xml:space="preserve">5.78400278091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75931930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75109148025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62767744064331</t>
   </si>
   <si>
     <t xml:space="preserve">5.57831239700317</t>
@@ -2030,16 +2030,16 @@
     <t xml:space="preserve">5.58653974533081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4548978805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03529071807861</t>
+    <t xml:space="preserve">5.45489835739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03529024124146</t>
   </si>
   <si>
     <t xml:space="preserve">4.93655967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9530143737793</t>
+    <t xml:space="preserve">4.95301485061646</t>
   </si>
   <si>
     <t xml:space="preserve">4.73909664154053</t>
@@ -2054,58 +2054,58 @@
     <t xml:space="preserve">4.87073850631714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94478702545166</t>
+    <t xml:space="preserve">4.94478750228882</t>
   </si>
   <si>
     <t xml:space="preserve">4.903648853302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8625111579895</t>
+    <t xml:space="preserve">4.86251068115234</t>
   </si>
   <si>
     <t xml:space="preserve">4.87896633148193</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82137250900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85428285598755</t>
+    <t xml:space="preserve">4.821373462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85428380966187</t>
   </si>
   <si>
     <t xml:space="preserve">4.91187620162964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.142249584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48780870437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27389049530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29034566879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40553283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47958087921143</t>
+    <t xml:space="preserve">5.14224910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48780822753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27389097213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29034614562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4055323600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47958040237427</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41376066207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33148384094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38084936141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26566314697266</t>
+    <t xml:space="preserve">5.4137601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38084983825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26566362380981</t>
   </si>
   <si>
     <t xml:space="preserve">5.32325649261475</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">5.80045747756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79222965240479</t>
+    <t xml:space="preserve">5.79222917556763</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84159469604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70172643661499</t>
+    <t xml:space="preserve">5.84159517288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70172595977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.77577447891235</t>
@@ -2150,88 +2150,88 @@
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0472846031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9238715171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70995330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65236043930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61122274398804</t>
+    <t xml:space="preserve">6.04728555679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92387056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70995378494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67704343795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6523609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61122226715088</t>
   </si>
   <si>
     <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49603605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22452545166016</t>
+    <t xml:space="preserve">5.4960355758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.224524974823</t>
   </si>
   <si>
     <t xml:space="preserve">5.07642841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1340217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10933876037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16693258285522</t>
+    <t xml:space="preserve">5.13402128219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10933923721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16693210601807</t>
   </si>
   <si>
     <t xml:space="preserve">5.11756658554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23275232315063</t>
+    <t xml:space="preserve">5.23275327682495</t>
   </si>
   <si>
     <t xml:space="preserve">4.79668998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77200746536255</t>
+    <t xml:space="preserve">4.77200698852539</t>
   </si>
   <si>
     <t xml:space="preserve">4.80491828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60745525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36062717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31948947906494</t>
+    <t xml:space="preserve">4.60745477676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3606276512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3194899559021</t>
   </si>
   <si>
     <t xml:space="preserve">4.03152370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81760597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42268085479736</t>
+    <t xml:space="preserve">3.81760549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42268109321594</t>
   </si>
   <si>
     <t xml:space="preserve">3.45559144020081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48850202560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421162605286</t>
+    <t xml:space="preserve">3.48850178718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421186447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.24990153312683</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">3.09357738494873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15117049217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29103946685791</t>
+    <t xml:space="preserve">3.15117025375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29103970527649</t>
   </si>
   <si>
     <t xml:space="preserve">3.17996716499329</t>
@@ -2255,31 +2255,31 @@
     <t xml:space="preserve">3.37331533432007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41445326805115</t>
+    <t xml:space="preserve">3.41445350646973</t>
   </si>
   <si>
     <t xml:space="preserve">3.38154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40211248397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40622591972351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39799857139587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375363349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495743751526</t>
+    <t xml:space="preserve">3.40211224555969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40622568130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39799833297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495719909668</t>
   </si>
   <si>
     <t xml:space="preserve">3.62837100028992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646851539612</t>
+    <t xml:space="preserve">3.77646827697754</t>
   </si>
   <si>
     <t xml:space="preserve">3.53786754608154</t>
@@ -2288,22 +2288,22 @@
     <t xml:space="preserve">3.69419169425964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71887469291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810918807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99861335754395</t>
+    <t xml:space="preserve">3.71887493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810990333557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99861311912537</t>
   </si>
   <si>
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54986238479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54163455963135</t>
+    <t xml:space="preserve">4.54986190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54163503646851</t>
   </si>
   <si>
     <t xml:space="preserve">4.53340721130371</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">4.44290351867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36885547637939</t>
+    <t xml:space="preserve">4.36885499954224</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42644882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41822052001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46758604049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40176486968994</t>
+    <t xml:space="preserve">4.42644834518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41822004318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46758651733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
     <t xml:space="preserve">3.91633725166321</t>
@@ -2336,34 +2336,34 @@
     <t xml:space="preserve">3.98215794563293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02329540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03563785552979</t>
+    <t xml:space="preserve">4.02329587936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
     <t xml:space="preserve">3.88342642784119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01918315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06443452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99038577079773</t>
+    <t xml:space="preserve">4.0191822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06443357467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99038481712341</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109543800354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0520920753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93690609931946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92867851257324</t>
+    <t xml:space="preserve">4.05209255218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93690586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9286789894104</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10968494415283</t>
+    <t xml:space="preserve">4.10968542098999</t>
   </si>
   <si>
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721361160278</t>
+    <t xml:space="preserve">4.23721313476562</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417200088501</t>
@@ -2393,169 +2393,169 @@
     <t xml:space="preserve">4.2125301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14671039581299</t>
+    <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
     <t xml:space="preserve">4.13848209381104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08088874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25366878509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27012395858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22898578643799</t>
+    <t xml:space="preserve">4.0808892250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25366830825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27012348175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22898626327515</t>
   </si>
   <si>
     <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12202739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10557174682617</t>
+    <t xml:space="preserve">4.1220269203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10557126998901</t>
   </si>
   <si>
     <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07266092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09734392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10145854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96570253372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94102001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279242515564</t>
+    <t xml:space="preserve">4.05620670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506853103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07266139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09734487533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10145807266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570324897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94101977348328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279194831848</t>
   </si>
   <si>
     <t xml:space="preserve">3.99449920654297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07677555084229</t>
+    <t xml:space="preserve">4.07677507400513</t>
   </si>
   <si>
     <t xml:space="preserve">4.16316509246826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22075891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13025426864624</t>
+    <t xml:space="preserve">4.22075843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1302547454834</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924759864807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94513368606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583379745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85051560401917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640288352966</t>
+    <t xml:space="preserve">3.94513416290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82583332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8505163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84640264511108</t>
   </si>
   <si>
     <t xml:space="preserve">3.80937814712524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73944425582886</t>
+    <t xml:space="preserve">3.7394437789917</t>
   </si>
   <si>
     <t xml:space="preserve">3.7435576915741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76824021339417</t>
+    <t xml:space="preserve">3.76823997497559</t>
   </si>
   <si>
     <t xml:space="preserve">3.66128158569336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6530544757843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672985076904</t>
+    <t xml:space="preserve">3.65305399894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191558837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027443885803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672961235046</t>
   </si>
   <si>
     <t xml:space="preserve">3.57077836990356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59134674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780215263367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66539525985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72710251808167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73121643066406</t>
+    <t xml:space="preserve">3.59134697914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780239105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659834861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66539573669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72710275650024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73121571540833</t>
   </si>
   <si>
     <t xml:space="preserve">3.67362284660339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68596386909485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609513282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59546089172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63248491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62014365196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30749487876892</t>
+    <t xml:space="preserve">3.68596458435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609489440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368847846985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59546065330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63248467445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6201434135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30749464035034</t>
   </si>
   <si>
     <t xml:space="preserve">3.36508798599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33217763900757</t>
+    <t xml:space="preserve">3.33217787742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.7024199962616</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">3.71064734458923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3112621307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19607543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40999317169189</t>
+    <t xml:space="preserve">4.31126165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19607496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40999364852905</t>
   </si>
   <si>
     <t xml:space="preserve">4.33594465255737</t>
@@ -2585,19 +2585,19 @@
     <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50049638748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45935821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45113086700439</t>
+    <t xml:space="preserve">4.50049686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45935869216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45113134384155</t>
   </si>
   <si>
     <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454442977905</t>
+    <t xml:space="preserve">4.57454490661621</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
@@ -2615,16 +2615,16 @@
     <t xml:space="preserve">4.97769784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01060724258423</t>
+    <t xml:space="preserve">5.00237989425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
     <t xml:space="preserve">4.96947002410889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92010498046875</t>
+    <t xml:space="preserve">4.92010402679443</t>
   </si>
   <si>
     <t xml:space="preserve">5.04351806640625</t>
@@ -2633,16 +2633,16 @@
     <t xml:space="preserve">5.25743579864502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24098110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161510467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10111093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465623855591</t>
+    <t xml:space="preserve">5.24098062515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465576171875</t>
   </si>
   <si>
     <t xml:space="preserve">5.15870475769043</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">5.1833872795105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29857397079468</t>
+    <t xml:space="preserve">5.29857444763184</t>
   </si>
   <si>
     <t xml:space="preserve">5.85805034637451</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87450504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90741634368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99791955947876</t>
+    <t xml:space="preserve">5.87450551986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90741586685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9979190826416</t>
   </si>
   <si>
     <t xml:space="preserve">5.97323703765869</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">5.94855403900146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032669067383</t>
+    <t xml:space="preserve">5.94032621383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2684,34 +2684,34 @@
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38461685180664</t>
+    <t xml:space="preserve">6.3846173286438</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334789276123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45043802261353</t>
+    <t xml:space="preserve">6.45043754577637</t>
   </si>
   <si>
     <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26943016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33525085449219</t>
+    <t xml:space="preserve">6.26943063735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33525037765503</t>
   </si>
   <si>
     <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30119037628174</t>
+    <t xml:space="preserve">6.3011908531189</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81209754943848</t>
+    <t xml:space="preserve">6.81209802627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.77803754806519</t>
@@ -2729,46 +2729,46 @@
     <t xml:space="preserve">6.70991611480713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7610068321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30597448348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49330806732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79985189437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39590930938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25966835021973</t>
+    <t xml:space="preserve">6.76100778579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30597496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49330759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7998514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22560691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25966739654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075859069824</t>
+    <t xml:space="preserve">8.31075954437256</t>
   </si>
   <si>
     <t xml:space="preserve">8.34482002258301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29372882843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02602958679199</t>
+    <t xml:space="preserve">8.29372978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02603054046631</t>
   </si>
   <si>
     <t xml:space="preserve">9.06860446929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98345375061035</t>
+    <t xml:space="preserve">8.98345470428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.85572719573975</t>
@@ -2777,19 +2777,19 @@
     <t xml:space="preserve">8.60027408599854</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64284896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41294097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46403217315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36184978485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76579093933105</t>
+    <t xml:space="preserve">8.64284801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46403121948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36185073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76579141616821</t>
   </si>
   <si>
     <t xml:space="preserve">7.61251878738403</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">7.85094308853149</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02124500274658</t>
+    <t xml:space="preserve">8.0212459564209</t>
   </si>
   <si>
     <t xml:space="preserve">7.93609380722046</t>
@@ -2810,25 +2810,25 @@
     <t xml:space="preserve">8.10639667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14045715332031</t>
+    <t xml:space="preserve">8.140456199646</t>
   </si>
   <si>
     <t xml:space="preserve">8.00421524047852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83391237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66361045837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5784592628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270280838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033735275269</t>
+    <t xml:space="preserve">7.83391141891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66361093521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57845878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033782958984</t>
   </si>
   <si>
     <t xml:space="preserve">7.59548950195312</t>
@@ -2840,25 +2840,25 @@
     <t xml:space="preserve">8.0893669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98718500137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03827571868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203332901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342643737793</t>
+    <t xml:space="preserve">7.98718452453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03827476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203285217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342739105225</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40920925140381</t>
+    <t xml:space="preserve">8.55769920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40921115875244</t>
   </si>
   <si>
     <t xml:space="preserve">9.28148365020752</t>
@@ -2867,19 +2867,19 @@
     <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94087886810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81315135955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89830207824707</t>
+    <t xml:space="preserve">8.94087982177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81315231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89830303192139</t>
   </si>
   <si>
     <t xml:space="preserve">8.72799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4810619354248</t>
+    <t xml:space="preserve">8.48106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">8.42997074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44700050354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49436187744141</t>
+    <t xml:space="preserve">8.44700145721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49436092376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754154205322</t>
@@ -2900,25 +2900,25 @@
     <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91154098510742</t>
+    <t xml:space="preserve">9.91154003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.955397605896</t>
+    <t xml:space="preserve">9.69225883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95539665222168</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0869655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0431089401245</t>
+    <t xml:space="preserve">10.0869665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0431098937988</t>
   </si>
   <si>
     <t xml:space="preserve">9.99925327301025</t>
@@ -2927,19 +2927,19 @@
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185344696045</t>
+    <t xml:space="preserve">10.2185354232788</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939609527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7799711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73611450195312</t>
+    <t xml:space="preserve">10.3939599990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73611545562744</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2969,40 +2969,40 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382774353027</t>
+    <t xml:space="preserve">9.82382678985596</t>
   </si>
   <si>
     <t xml:space="preserve">9.51683330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38526344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34140682220459</t>
+    <t xml:space="preserve">9.38526439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34140777587891</t>
   </si>
   <si>
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055576324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94670009613037</t>
+    <t xml:space="preserve">8.99055671691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94669914245605</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6133918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71864700317383</t>
+    <t xml:space="preserve">8.61339092254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71864604949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0344877243042</t>
+    <t xml:space="preserve">8.03448677062988</t>
   </si>
   <si>
     <t xml:space="preserve">8.20991230010986</t>
@@ -3011,19 +3011,19 @@
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47312641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42049789428711</t>
+    <t xml:space="preserve">7.47312593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42049884796143</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82397651672363</t>
+    <t xml:space="preserve">8.06957149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82397747039795</t>
   </si>
   <si>
     <t xml:space="preserve">8.28008365631104</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940204620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533878326416</t>
+    <t xml:space="preserve">7.99940252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533782958984</t>
   </si>
   <si>
     <t xml:space="preserve">8.49059391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43796539306641</t>
+    <t xml:space="preserve">8.43796634674072</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">8.81513118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50813579559326</t>
+    <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70987606048584</t>
+    <t xml:space="preserve">8.70987510681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3065,16 +3065,16 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07834434509277</t>
+    <t xml:space="preserve">8.26254081726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114231109619</t>
+    <t xml:space="preserve">8.20114135742188</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
@@ -3086,13 +3086,13 @@
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98185968399048</t>
+    <t xml:space="preserve">7.98186016082764</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18359851837158</t>
+    <t xml:space="preserve">8.1835994720459</t>
   </si>
   <si>
     <t xml:space="preserve">8.17482757568359</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">8.21868419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01694583892822</t>
+    <t xml:space="preserve">8.01694488525391</t>
   </si>
   <si>
     <t xml:space="preserve">7.77899932861328</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417476654053</t>
+    <t xml:space="preserve">8.62096118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417572021484</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265827178955</t>
+    <t xml:space="preserve">8.60265731811523</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3137,16 +3137,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872806549072</t>
+    <t xml:space="preserve">8.96872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448726654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939792633057</t>
+    <t xml:space="preserve">9.01448822021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939697265625</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944374084473</t>
+    <t xml:space="preserve">8.57520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524875640869</t>
+    <t xml:space="preserve">8.03524780273438</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97118616104126</t>
+    <t xml:space="preserve">7.9711856842041</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3215,28 +3215,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051677703857</t>
+    <t xml:space="preserve">8.11761474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051725387573</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542743682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560611724854</t>
+    <t xml:space="preserve">7.92542695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560564041138</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88882064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966823577881</t>
+    <t xml:space="preserve">7.8888201713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966775894165</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466499328613</t>
+    <t xml:space="preserve">8.90466594696045</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569316864014</t>
+    <t xml:space="preserve">8.78569412231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663333892822</t>
+    <t xml:space="preserve">7.69663286209106</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3305,10 +3305,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172267913818</t>
+    <t xml:space="preserve">7.41292905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172315597534</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3332,40 +3332,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591766357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645370483398</t>
+    <t xml:space="preserve">8.13591861724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645418167114</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136531829834</t>
+    <t xml:space="preserve">7.86136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7606954574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
+    <t xml:space="preserve">7.76069498062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154447555542</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6783299446106</t>
+    <t xml:space="preserve">7.67832946777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087366104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748092651367</t>
+    <t xml:space="preserve">7.65087413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748140335083</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3374,13 +3374,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475852966309</t>
+    <t xml:space="preserve">7.82475805282593</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2457389831543</t>
+    <t xml:space="preserve">8.24573993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55690002441406</t>
+    <t xml:space="preserve">8.55689907073975</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131950378418</t>
+    <t xml:space="preserve">8.40131855010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51114082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47453308105469</t>
+    <t xml:space="preserve">8.51113986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.474534034729</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3449,19 +3449,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649494171143</t>
+    <t xml:space="preserve">9.31649589538574</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0785493850708</t>
+    <t xml:space="preserve">9.07855033874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497844696045</t>
+    <t xml:space="preserve">9.22497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3473,10 +3473,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140560150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0510950088501</t>
+    <t xml:space="preserve">9.37140655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05109405517578</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515712738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935211181641</t>
+    <t xml:space="preserve">9.11515617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44461917877197</t>
+    <t xml:space="preserve">9.44462013244629</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988815307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685325622559</t>
+    <t xml:space="preserve">9.27988910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685230255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -20650,7 +20650,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G630" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20702,7 +20702,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G631" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G632" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20754,7 +20754,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20780,7 +20780,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G634" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20806,7 +20806,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G635" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20858,7 +20858,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G637" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20884,7 +20884,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G638" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20910,7 +20910,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G639" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20936,7 +20936,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G640" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20962,7 +20962,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G641" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20988,7 +20988,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21014,7 +21014,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21040,7 +21040,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G644" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21066,7 +21066,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G645" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21092,7 +21092,7 @@
         <v>7.5</v>
       </c>
       <c r="G646" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21118,7 +21118,7 @@
         <v>7.5</v>
       </c>
       <c r="G647" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21144,7 +21144,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G648" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21170,7 +21170,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21196,7 +21196,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21222,7 +21222,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G651" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21248,7 +21248,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G652" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21274,7 +21274,7 @@
         <v>7.25</v>
       </c>
       <c r="G653" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21300,7 +21300,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21326,7 +21326,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21352,7 +21352,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21378,7 +21378,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G657" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21404,7 +21404,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21430,7 +21430,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G659" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21482,7 +21482,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G661" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21508,7 +21508,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G662" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21534,7 +21534,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G663" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21560,7 +21560,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G664" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21586,7 +21586,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21612,7 +21612,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G666" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21638,7 +21638,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G668" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21690,7 +21690,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G669" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21716,7 +21716,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G670" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21742,7 +21742,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G671" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21794,7 +21794,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G674" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21846,7 +21846,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G675" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21898,7 +21898,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>6.75</v>
       </c>
       <c r="G678" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21950,7 +21950,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G679" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21976,7 +21976,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G680" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22002,7 +22002,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22028,7 +22028,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G682" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>6.5</v>
       </c>
       <c r="G683" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22080,7 +22080,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G684" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22106,7 +22106,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G685" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22132,7 +22132,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G687" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22184,7 +22184,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G688" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22210,7 +22210,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G689" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22236,7 +22236,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G690" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22262,7 +22262,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G691" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22288,7 +22288,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22314,7 +22314,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G694" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22366,7 +22366,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G695" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22392,7 +22392,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G696" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G697" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22444,7 +22444,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G698" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22470,7 +22470,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22496,7 +22496,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G700" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G701" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G702" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G703" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22600,7 +22600,7 @@
         <v>8</v>
       </c>
       <c r="G704" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22652,7 +22652,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G706" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22678,7 +22678,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G707" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22730,7 +22730,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22756,7 +22756,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G710" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G711" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>6.75</v>
       </c>
       <c r="G713" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G714" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22886,7 +22886,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G715" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G716" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G717" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22964,7 +22964,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G718" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22990,7 +22990,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G719" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G720" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G721" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G722" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23094,7 +23094,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G723" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G724" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23146,7 +23146,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G725" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23172,7 +23172,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G726" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23198,7 +23198,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G727" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23224,7 +23224,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23250,7 +23250,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G729" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23328,7 +23328,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G732" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23354,7 +23354,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G733" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23380,7 +23380,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G734" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23406,7 +23406,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G735" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G736" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23458,7 +23458,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23484,7 +23484,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G738" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23510,7 +23510,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G739" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G740" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23562,7 +23562,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G741" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G743" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G744" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23666,7 +23666,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G746" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23718,7 +23718,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G747" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23744,7 +23744,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G748" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G749" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23796,7 +23796,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G750" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23822,7 +23822,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G752" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23874,7 +23874,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G753" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23900,7 +23900,7 @@
         <v>7</v>
       </c>
       <c r="G754" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23926,7 +23926,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G755" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23952,7 +23952,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23978,7 +23978,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G757" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24004,7 +24004,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G759" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24056,7 +24056,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G760" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24082,7 +24082,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G761" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24108,7 +24108,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G762" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24134,7 +24134,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24160,7 +24160,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G764" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24186,7 +24186,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G765" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24212,7 +24212,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24238,7 +24238,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G767" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24264,7 +24264,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G768" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24290,7 +24290,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24316,7 +24316,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24342,7 +24342,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G771" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24368,7 +24368,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24394,7 +24394,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G773" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24420,7 +24420,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G774" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24446,7 +24446,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G775" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24472,7 +24472,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G776" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24498,7 +24498,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G777" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24524,7 +24524,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G778" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24550,7 +24550,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24576,7 +24576,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G780" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24680,7 +24680,7 @@
         <v>8</v>
       </c>
       <c r="G784" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24732,7 +24732,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G786" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24758,7 +24758,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G787" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24784,7 +24784,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24810,7 +24810,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G789" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24862,7 +24862,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G791" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24888,7 +24888,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24914,7 +24914,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G793" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24966,7 +24966,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G795" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24992,7 +24992,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G796" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25018,7 +25018,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G797" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25070,7 +25070,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G799" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25148,7 +25148,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G802" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25174,7 +25174,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25226,7 +25226,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25252,7 +25252,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G806" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25278,7 +25278,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G807" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25304,7 +25304,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G808" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25356,7 +25356,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25382,7 +25382,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G811" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25408,7 +25408,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25434,7 +25434,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G813" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25460,7 +25460,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G814" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25512,7 +25512,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G816" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25538,7 +25538,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G817" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25564,7 +25564,7 @@
         <v>8</v>
       </c>
       <c r="G818" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25590,7 +25590,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G819" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25694,7 +25694,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G823" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25720,7 +25720,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25746,7 +25746,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25772,7 +25772,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G826" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25850,7 +25850,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25902,7 +25902,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G831" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25928,7 +25928,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25954,7 +25954,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G833" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25980,7 +25980,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G834" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26006,7 +26006,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G835" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26058,7 +26058,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26084,7 +26084,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G838" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26110,7 +26110,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G839" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26136,7 +26136,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26162,7 +26162,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26188,7 +26188,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G842" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26214,7 +26214,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G843" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26240,7 +26240,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G844" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26266,7 +26266,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G845" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26292,7 +26292,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G846" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26318,7 +26318,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G847" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26344,7 +26344,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G848" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26370,7 +26370,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G849" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26396,7 +26396,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26422,7 +26422,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26448,7 +26448,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G852" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26474,7 +26474,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G853" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26500,7 +26500,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26526,7 +26526,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G855" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26552,7 +26552,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G856" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26578,7 +26578,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G857" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26604,7 +26604,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G858" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26630,7 +26630,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G859" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26656,7 +26656,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G860" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26682,7 +26682,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27020,7 +27020,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G874" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27306,7 +27306,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27410,7 +27410,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27696,7 +27696,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27800,7 +27800,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G904" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27930,7 +27930,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G909" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28008,7 +28008,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G912" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -30426,7 +30426,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30504,7 +30504,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1008" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30738,7 +30738,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1017" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30842,7 +30842,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30894,7 +30894,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30920,7 +30920,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1024" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -39266,7 +39266,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1345" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -60308,7 +60308,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6493634259</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>7819</v>
@@ -60329,6 +60329,32 @@
         <v>1314</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6496180556</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>10808</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>8.76000022888184</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2514089345932</t>
+    <t xml:space="preserve">1.25140881538391</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
@@ -47,91 +47,91 @@
     <t xml:space="preserve">1.27346646785736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28596591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611411571503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2925831079483</t>
+    <t xml:space="preserve">1.28596580028534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611399650574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29258334636688</t>
   </si>
   <si>
     <t xml:space="preserve">1.31169998645782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32566976547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33596348762512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32346379756927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30875897407532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758456230164</t>
+    <t xml:space="preserve">1.3256698846817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33596360683441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32346403598785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30875885486603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758444309235</t>
   </si>
   <si>
     <t xml:space="preserve">1.25214397907257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23302757740021</t>
+    <t xml:space="preserve">1.23302721977234</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729084014893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30728840827942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29552435874939</t>
+    <t xml:space="preserve">1.30728828907013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2955242395401</t>
   </si>
   <si>
     <t xml:space="preserve">1.27493691444397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411150932312</t>
+    <t xml:space="preserve">1.24111497402191</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18008887767792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376505374908</t>
+    <t xml:space="preserve">1.23449790477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18008875846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376517295837</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1396496295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612384319305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568228244781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07053530216217</t>
+    <t xml:space="preserve">1.13964951038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612372398376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568204402924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07053542137146</t>
   </si>
   <si>
     <t xml:space="preserve">1.05141854286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07347643375397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09479880332947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15067839622498</t>
+    <t xml:space="preserve">1.07347631454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09479892253876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15067827701569</t>
   </si>
   <si>
     <t xml:space="preserve">1.1683247089386</t>
@@ -140,19 +140,19 @@
     <t xml:space="preserve">1.1653835773468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14700210094452</t>
+    <t xml:space="preserve">1.14700222015381</t>
   </si>
   <si>
     <t xml:space="preserve">1.17641258239746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18597078323364</t>
+    <t xml:space="preserve">1.18597090244293</t>
   </si>
   <si>
     <t xml:space="preserve">1.21317541599274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15435481071472</t>
+    <t xml:space="preserve">1.15435469150543</t>
   </si>
   <si>
     <t xml:space="preserve">1.18744134902954</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1881765127182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347157001495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20582270622253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23670363426208</t>
+    <t xml:space="preserve">1.18817663192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347145080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20582294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23670375347137</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
@@ -179,43 +179,43 @@
     <t xml:space="preserve">1.2425856590271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22861564159393</t>
+    <t xml:space="preserve">1.22861576080322</t>
   </si>
   <si>
     <t xml:space="preserve">1.22052788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28670108318329</t>
+    <t xml:space="preserve">1.28670120239258</t>
   </si>
   <si>
     <t xml:space="preserve">1.30655312538147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30214166641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26464354991913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2499383687973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28743636608124</t>
+    <t xml:space="preserve">1.30214178562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26464331150055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24993813037872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28743648529053</t>
   </si>
   <si>
     <t xml:space="preserve">1.28228950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30581772327423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23008632659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25067353248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25655555725098</t>
+    <t xml:space="preserve">1.30581784248352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23008620738983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25067341327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25655567646027</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317298412323</t>
@@ -224,19 +224,19 @@
     <t xml:space="preserve">1.26243770122528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29920065402985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2940536737442</t>
+    <t xml:space="preserve">1.29920041561127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29405355453491</t>
   </si>
   <si>
     <t xml:space="preserve">1.25876140594482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28523063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861320972443</t>
+    <t xml:space="preserve">1.28523051738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861344814301</t>
   </si>
   <si>
     <t xml:space="preserve">1.27934861183167</t>
@@ -251,37 +251,37 @@
     <t xml:space="preserve">1.28302478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35581529140472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36022686958313</t>
+    <t xml:space="preserve">1.35581541061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36022698879242</t>
   </si>
   <si>
     <t xml:space="preserve">1.33816921710968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35066854953766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34478652477264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949425697327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29846549034119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26831984519958</t>
+    <t xml:space="preserve">1.35066866874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34478640556335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949413776398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29846525192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2683197259903</t>
   </si>
   <si>
     <t xml:space="preserve">1.21170496940613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19773507118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17420673370361</t>
+    <t xml:space="preserve">1.19773495197296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17420661449432</t>
   </si>
   <si>
     <t xml:space="preserve">1.17567729949951</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">1.1925882101059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20288193225861</t>
+    <t xml:space="preserve">1.20288181304932</t>
   </si>
   <si>
     <t xml:space="preserve">1.19847023487091</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">1.12494444847107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.138179063797</t>
+    <t xml:space="preserve">1.13817894458771</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759185791016</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">1.12347400188446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13597333431244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229691982269</t>
+    <t xml:space="preserve">1.13597345352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13229703903198</t>
   </si>
   <si>
     <t xml:space="preserve">1.11023926734924</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">1.15582525730133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15803110599518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920794963837</t>
+    <t xml:space="preserve">1.15803122520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920806884766</t>
   </si>
   <si>
     <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15361940860748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16758930683136</t>
+    <t xml:space="preserve">1.15361952781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16758954524994</t>
   </si>
   <si>
     <t xml:space="preserve">1.21391081809998</t>
@@ -344,16 +344,16 @@
     <t xml:space="preserve">1.56021690368652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56168746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52345430850983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48522078990936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52933609485626</t>
+    <t xml:space="preserve">1.561687707901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52345407009125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48522090911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52933621406555</t>
   </si>
   <si>
     <t xml:space="preserve">1.47051560878754</t>
@@ -362,19 +362,19 @@
     <t xml:space="preserve">1.54257082939148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50874888896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49404382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50727844238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49992609024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48669123649597</t>
+    <t xml:space="preserve">1.508749127388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49404394626617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5072785615921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49992597103119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48669135570526</t>
   </si>
   <si>
     <t xml:space="preserve">1.49257326126099</t>
@@ -383,88 +383,88 @@
     <t xml:space="preserve">1.48816168308258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48080921173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49845552444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55433511734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77785360813141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550223350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961291313171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666899204254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078939914703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931907176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020219326019</t>
+    <t xml:space="preserve">1.48080909252167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49845540523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5543349981308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77785336971283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550187587738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961255550385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078951835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931895256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020243167877</t>
   </si>
   <si>
     <t xml:space="preserve">1.816086769104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80138158798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490725517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372797966003</t>
+    <t xml:space="preserve">1.80138146877289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372809886932</t>
   </si>
   <si>
     <t xml:space="preserve">1.9160817861557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91314089298248</t>
+    <t xml:space="preserve">1.91314077377319</t>
   </si>
   <si>
     <t xml:space="preserve">1.93078696727753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92931640148163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519854545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92049324512482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431773662567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902267932892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90137648582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92343425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961012363434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96166741847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09401440620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17489242553711</t>
+    <t xml:space="preserve">1.92931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519842624664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92049372196198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431797504425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91902279853821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90137660503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92343437671661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961000442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96166777610779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0940146446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17489266395569</t>
   </si>
   <si>
     <t xml:space="preserve">2.12930679321289</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">2.19106817245483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14107060432434</t>
+    <t xml:space="preserve">2.14107084274292</t>
   </si>
   <si>
     <t xml:space="preserve">2.09695529937744</t>
@@ -482,16 +482,16 @@
     <t xml:space="preserve">2.13077688217163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11901330947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11166024208069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19695019721985</t>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842610359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11166048049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19694995880127</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782893180847</t>
@@ -500,43 +500,43 @@
     <t xml:space="preserve">2.26606440544128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08813238143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97637319564819</t>
+    <t xml:space="preserve">2.08813214302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9763730764389</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901526451111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04989910125732</t>
+    <t xml:space="preserve">2.04989886283875</t>
   </si>
   <si>
     <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136675834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08225035667419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07636761665344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03519320487976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01460671424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95578587055206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019744873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196137905121</t>
+    <t xml:space="preserve">2.10136699676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08224987983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0763680934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03519344329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0146062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95578551292419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019732952118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97196125984192</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843327999115</t>
@@ -545,43 +545,43 @@
     <t xml:space="preserve">1.87784826755524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89549481868744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696028232574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99254846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00431323051453</t>
+    <t xml:space="preserve">1.89549469947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99695992469788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99254858493805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00431299209595</t>
   </si>
   <si>
     <t xml:space="preserve">2.09548473358154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08666181564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08372116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813433647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05431032180786</t>
+    <t xml:space="preserve">2.08666157722473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08372068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05431056022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.05872178077698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06019258499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06754493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313323974609</t>
+    <t xml:space="preserve">2.06019234657288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06754469871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313347816467</t>
   </si>
   <si>
     <t xml:space="preserve">2.10283708572388</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">2.29694557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27194666862488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23812460899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16606950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19989132881165</t>
+    <t xml:space="preserve">2.27194690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23812484741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16606974601746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19989156723022</t>
   </si>
   <si>
     <t xml:space="preserve">2.22047853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19842076301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21753740310669</t>
+    <t xml:space="preserve">2.19842100143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21753787994385</t>
   </si>
   <si>
     <t xml:space="preserve">2.24988889694214</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">2.23518371582031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25430035591125</t>
+    <t xml:space="preserve">2.25430083274841</t>
   </si>
   <si>
     <t xml:space="preserve">2.23959517478943</t>
@@ -629,22 +629,22 @@
     <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25871205329895</t>
+    <t xml:space="preserve">2.25871181488037</t>
   </si>
   <si>
     <t xml:space="preserve">2.24253606796265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21606731414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136165618896</t>
+    <t xml:space="preserve">2.21606683731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136213302612</t>
   </si>
   <si>
     <t xml:space="preserve">2.22341966629028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20577335357666</t>
+    <t xml:space="preserve">2.20577359199524</t>
   </si>
   <si>
     <t xml:space="preserve">2.22194910049438</t>
@@ -653,61 +653,61 @@
     <t xml:space="preserve">2.35282516479492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61163544654846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61016511917114</t>
+    <t xml:space="preserve">2.61163568496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61016488075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60575389862061</t>
+    <t xml:space="preserve">2.60575366020203</t>
   </si>
   <si>
     <t xml:space="preserve">2.58663702011108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52193403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64545750617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60281252861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5881073474884</t>
+    <t xml:space="preserve">2.52193427085876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64545798301697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60281276702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58810710906982</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457901000977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56016778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59840130805969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634329795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61751794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59545993804932</t>
+    <t xml:space="preserve">2.56016802787781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59840083122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61751770973206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5954601764679</t>
   </si>
   <si>
     <t xml:space="preserve">2.7866268157959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85280084609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83809494972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808765411377</t>
+    <t xml:space="preserve">2.8528003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83809518814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808789253235</t>
   </si>
   <si>
     <t xml:space="preserve">2.92632651329041</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">3.26454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39983224868774</t>
+    <t xml:space="preserve">3.39983177185059</t>
   </si>
   <si>
     <t xml:space="preserve">3.55129551887512</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">3.63217353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89319062232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716733932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480878829956</t>
+    <t xml:space="preserve">3.89319014549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716710090637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480854988098</t>
   </si>
   <si>
     <t xml:space="preserve">3.84172201156616</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">3.87848544120789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97039270401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14685344696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449537277222</t>
+    <t xml:space="preserve">3.97039246559143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14685392379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449489593506</t>
   </si>
   <si>
     <t xml:space="preserve">4.40051794052124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37478351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596326828003</t>
+    <t xml:space="preserve">4.37478399276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596279144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.23140907287598</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">4.51815891265869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990398406982</t>
+    <t xml:space="preserve">4.77917528152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990350723267</t>
   </si>
   <si>
     <t xml:space="preserve">5.77177429199219</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">5.26444578170776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71662902832031</t>
+    <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
     <t xml:space="preserve">5.71295309066772</t>
@@ -794,58 +794,58 @@
     <t xml:space="preserve">6.0585241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71290445327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523820877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04377031326294</t>
+    <t xml:space="preserve">6.71290349960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584024429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376888275146</t>
   </si>
   <si>
     <t xml:space="preserve">7.44389820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32310390472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926651000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67006540298462</t>
+    <t xml:space="preserve">7.32310438156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926603317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67006492614746</t>
   </si>
   <si>
     <t xml:space="preserve">6.85503005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66629028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37185573577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63609218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83238124847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71913719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245145797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397396087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68893909454346</t>
+    <t xml:space="preserve">6.66628980636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37185668945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63609170913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238172531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71913766860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397348403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68893814086914</t>
   </si>
   <si>
     <t xml:space="preserve">6.79085826873779</t>
@@ -854,52 +854,52 @@
     <t xml:space="preserve">6.63986730575562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337871551514</t>
+    <t xml:space="preserve">6.45490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337823867798</t>
   </si>
   <si>
     <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25483798980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159345626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1982159614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18689107894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03589868545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97550296783447</t>
+    <t xml:space="preserve">6.25483703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19821548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03589963912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97550201416016</t>
   </si>
   <si>
     <t xml:space="preserve">5.98305225372314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63199663162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11484909057617</t>
+    <t xml:space="preserve">5.631995677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11484956741333</t>
   </si>
   <si>
     <t xml:space="preserve">5.435706615448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22431802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20921850204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465099334717</t>
+    <t xml:space="preserve">5.2243185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20921897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465051651001</t>
   </si>
   <si>
     <t xml:space="preserve">5.11862421035767</t>
@@ -911,31 +911,31 @@
     <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16769599914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00538063049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836097717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91856002807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06200122833252</t>
+    <t xml:space="preserve">5.16769647598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836193084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91855955123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06200218200684</t>
   </si>
   <si>
     <t xml:space="preserve">4.77511739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73359537124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71472072601318</t>
+    <t xml:space="preserve">4.73359441757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71472024917603</t>
   </si>
   <si>
     <t xml:space="preserve">4.65809869766235</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">4.59770250320435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60147619247437</t>
+    <t xml:space="preserve">4.60147666931152</t>
   </si>
   <si>
     <t xml:space="preserve">4.68452215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28471422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09597539901733</t>
+    <t xml:space="preserve">5.28471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
     <t xml:space="preserve">5.04690265655518</t>
@@ -962,40 +962,40 @@
     <t xml:space="preserve">5.00160503387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91478538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723562240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83173894882202</t>
+    <t xml:space="preserve">4.91478490829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723514556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83173942565918</t>
   </si>
   <si>
     <t xml:space="preserve">4.81663990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85816240310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89213609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90346050262451</t>
+    <t xml:space="preserve">4.85816287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8921365737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90346002578735</t>
   </si>
   <si>
     <t xml:space="preserve">4.98273086547852</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99405479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19789409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06955146789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491279602051</t>
+    <t xml:space="preserve">4.99405527114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19789457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06955242156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
     <t xml:space="preserve">5.39795923233032</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">5.36776065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4508056640625</t>
+    <t xml:space="preserve">5.45080614089966</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17901992797852</t>
+    <t xml:space="preserve">5.17902088165283</t>
   </si>
   <si>
     <t xml:space="preserve">4.99028062820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24319171905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882230758667</t>
+    <t xml:space="preserve">5.24319219589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882278442383</t>
   </si>
   <si>
     <t xml:space="preserve">5.16392135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05822706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372325897217</t>
+    <t xml:space="preserve">5.0582275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372278213501</t>
   </si>
   <si>
     <t xml:space="preserve">5.3035888671875</t>
@@ -1043,49 +1043,49 @@
     <t xml:space="preserve">5.20166921615601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.190345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305780410767</t>
+    <t xml:space="preserve">5.19034481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305828094482</t>
   </si>
   <si>
     <t xml:space="preserve">5.49232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8849081993103</t>
+    <t xml:space="preserve">5.88490724563599</t>
   </si>
   <si>
     <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06232261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410787582397</t>
+    <t xml:space="preserve">6.06232213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410835266113</t>
   </si>
   <si>
     <t xml:space="preserve">6.2435131072998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48510026931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529836654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84747982025146</t>
+    <t xml:space="preserve">6.48509979248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84748029708862</t>
   </si>
   <si>
     <t xml:space="preserve">7.3835015296936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2362847328186</t>
+    <t xml:space="preserve">7.23628425598145</t>
   </si>
   <si>
     <t xml:space="preserve">7.46654748916626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48919534683228</t>
+    <t xml:space="preserve">7.48919630050659</t>
   </si>
   <si>
     <t xml:space="preserve">8.07806396484375</t>
@@ -1094,118 +1094,118 @@
     <t xml:space="preserve">8.53104019165039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85567188262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39924240112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75407314300537</t>
+    <t xml:space="preserve">8.85567283630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39924335479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.754075050354</t>
   </si>
   <si>
     <t xml:space="preserve">10.7204217910767</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84057235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04441165924072</t>
+    <t xml:space="preserve">8.84057331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04441070556641</t>
   </si>
   <si>
     <t xml:space="preserve">8.62918376922607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41024684906006</t>
+    <t xml:space="preserve">8.41024589538574</t>
   </si>
   <si>
     <t xml:space="preserve">8.19130897521973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73487758636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50084114074707</t>
+    <t xml:space="preserve">8.73487854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38759613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50084209442139</t>
   </si>
   <si>
     <t xml:space="preserve">8.38004875183105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27435493469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581230163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77607917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91952228546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687538146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428329467773</t>
+    <t xml:space="preserve">8.27435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581325531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77608156204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91952133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137727737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687395095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75343132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428234100342</t>
   </si>
   <si>
     <t xml:space="preserve">8.22905540466309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34984970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23660659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44044494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31965065002441</t>
+    <t xml:space="preserve">8.34985065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23660564422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44044399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31965160369873</t>
   </si>
   <si>
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13091278076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94972085952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79117965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54959344863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30800533294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31932973861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469249725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92707300186157</t>
+    <t xml:space="preserve">8.1309118270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94972038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117918014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54959297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30800628662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224082946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469106674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714273452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92707204818726</t>
   </si>
   <si>
     <t xml:space="preserve">8.03276634216309</t>
@@ -1214,55 +1214,55 @@
     <t xml:space="preserve">7.60998964309692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60243988037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54204177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330295562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2400598526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668188095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51184558868408</t>
+    <t xml:space="preserve">7.60243892669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522260665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330247879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668092727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51184415817261</t>
   </si>
   <si>
     <t xml:space="preserve">7.25893354415894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19476175308228</t>
+    <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
     <t xml:space="preserve">7.23250961303711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12304067611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045652389526</t>
+    <t xml:space="preserve">7.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045700073242</t>
   </si>
   <si>
     <t xml:space="preserve">7.27780818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32687902450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51561975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49297094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36840295791626</t>
+    <t xml:space="preserve">7.32687950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51561880111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49297142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3684024810791</t>
   </si>
   <si>
     <t xml:space="preserve">7.70058393478394</t>
@@ -1271,19 +1271,19 @@
     <t xml:space="preserve">8.21395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66693115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123828887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30455207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945255279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1988582611084</t>
+    <t xml:space="preserve">8.66693210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30455112457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945159912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.04786491394043</t>
@@ -1295,37 +1295,37 @@
     <t xml:space="preserve">8.01766777038574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16866016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85157585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681436538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151721954346</t>
+    <t xml:space="preserve">8.16865825653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85157632827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681484222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151817321777</t>
   </si>
   <si>
     <t xml:space="preserve">6.89277791976929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96827411651611</t>
+    <t xml:space="preserve">6.96827459335327</t>
   </si>
   <si>
     <t xml:space="preserve">6.80973291397095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317411422729</t>
+    <t xml:space="preserve">6.9607253074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317554473877</t>
   </si>
   <si>
     <t xml:space="preserve">6.88522815704346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93052625656128</t>
+    <t xml:space="preserve">6.9305272102356</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767839431763</t>
@@ -1334,70 +1334,70 @@
     <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50019931793213</t>
+    <t xml:space="preserve">6.50019884109497</t>
   </si>
   <si>
     <t xml:space="preserve">6.31900930404663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16801691055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15291786193848</t>
+    <t xml:space="preserve">6.16801738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15291738510132</t>
   </si>
   <si>
     <t xml:space="preserve">6.56814527511597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5756950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76443433761597</t>
+    <t xml:space="preserve">6.57569456100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76443529129028</t>
   </si>
   <si>
     <t xml:space="preserve">6.78708362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00602197647095</t>
+    <t xml:space="preserve">7.00602149963379</t>
   </si>
   <si>
     <t xml:space="preserve">6.83993148803711</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77953386306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4398021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086429595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2284140586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1831169128418</t>
+    <t xml:space="preserve">6.77953433990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60589361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43980264663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086477279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22841358184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18311643600464</t>
   </si>
   <si>
     <t xml:space="preserve">6.08497190475464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26616191864014</t>
+    <t xml:space="preserve">6.26616239547729</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28881120681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47755002975464</t>
+    <t xml:space="preserve">6.28881072998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4775505065918</t>
   </si>
   <si>
     <t xml:space="preserve">6.49265003204346</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">6.56059551239014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53039741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324480056763</t>
+    <t xml:space="preserve">6.53039693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4247031211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324527740479</t>
   </si>
   <si>
     <t xml:space="preserve">6.62099361419678</t>
@@ -1424,64 +1424,64 @@
     <t xml:space="preserve">6.65119171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91063499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69836235046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78484392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6669135093689</t>
+    <t xml:space="preserve">6.91063451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69836282730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78484344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691398620605</t>
   </si>
   <si>
     <t xml:space="preserve">6.61974382400513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91849660873413</t>
+    <t xml:space="preserve">6.91849708557129</t>
   </si>
   <si>
     <t xml:space="preserve">6.72981071472168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47822856903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2502326965332</t>
+    <t xml:space="preserve">6.47822904586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960908889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519948959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25023221969604</t>
   </si>
   <si>
     <t xml:space="preserve">6.2345085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1558895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24237108230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13230419158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87285947799683</t>
+    <t xml:space="preserve">6.15588998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24237060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1323037147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87285995483398</t>
   </si>
   <si>
     <t xml:space="preserve">5.75493097305298</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88072204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83355093002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1794753074646</t>
+    <t xml:space="preserve">5.8807225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83354997634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17947578430176</t>
   </si>
   <si>
     <t xml:space="preserve">6.09299421310425</t>
@@ -1493,22 +1493,25 @@
     <t xml:space="preserve">6.07727003097534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1716136932373</t>
+    <t xml:space="preserve">6.04582214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17161321640015</t>
   </si>
   <si>
     <t xml:space="preserve">6.21878480911255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64332866668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698183059692</t>
+    <t xml:space="preserve">6.64332962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918710708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119123458862</t>
   </si>
   <si>
     <t xml:space="preserve">6.61188125610352</t>
@@ -1517,49 +1520,49 @@
     <t xml:space="preserve">6.43105697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36029958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06154632568359</t>
+    <t xml:space="preserve">6.36030006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06154680252075</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368423461914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98292684555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94361686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84927463531494</t>
+    <t xml:space="preserve">5.9829273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94361782073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84927415847778</t>
   </si>
   <si>
     <t xml:space="preserve">6.03796052932739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06940793991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9043083190918</t>
+    <t xml:space="preserve">6.06940841674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90430784225464</t>
   </si>
   <si>
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575620651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85713577270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851724624634</t>
+    <t xml:space="preserve">5.93575572967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85713624954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
@@ -1586,40 +1589,40 @@
     <t xml:space="preserve">5.78637886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62913990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53479671478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44045400619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46403932571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86499881744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03009939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74706983566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47190189361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39328241348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34611129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36183500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3225245475769</t>
+    <t xml:space="preserve">5.62914037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53479719161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44045448303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46404027938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0300989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74706935882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47190141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39328289031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34611082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36183547973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32252550125122</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
@@ -1628,10 +1631,10 @@
     <t xml:space="preserve">5.26749229431152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17314863204956</t>
+    <t xml:space="preserve">5.28321504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1731481552124</t>
   </si>
   <si>
     <t xml:space="preserve">5.11811494827271</t>
@@ -1643,13 +1646,13 @@
     <t xml:space="preserve">4.9687385559082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00804853439331</t>
+    <t xml:space="preserve">5.00804805755615</t>
   </si>
   <si>
     <t xml:space="preserve">5.06308174133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1259765625</t>
+    <t xml:space="preserve">5.12597703933716</t>
   </si>
   <si>
     <t xml:space="preserve">4.99232387542725</t>
@@ -1661,61 +1664,61 @@
     <t xml:space="preserve">5.15742444992065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14170122146606</t>
+    <t xml:space="preserve">5.14170074462891</t>
   </si>
   <si>
     <t xml:space="preserve">5.09452962875366</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1967339515686</t>
+    <t xml:space="preserve">5.19673442840576</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38542127609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52540016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56470966339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31312847137451</t>
+    <t xml:space="preserve">5.33824968338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38542032241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52540063858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56471014022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3131275177002</t>
   </si>
   <si>
     <t xml:space="preserve">6.407470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28954219818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29107761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22818231582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18887186050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24390554428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27535343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13383960723877</t>
+    <t xml:space="preserve">6.28954267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29107713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22818183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18887233734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24390602111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27535390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13383913040161</t>
   </si>
   <si>
     <t xml:space="preserve">5.29893922805786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20459651947021</t>
+    <t xml:space="preserve">5.20459604263306</t>
   </si>
   <si>
     <t xml:space="preserve">5.0552191734314</t>
@@ -1730,13 +1733,13 @@
     <t xml:space="preserve">5.07094383239746</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2203197479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1495623588562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00018692016602</t>
+    <t xml:space="preserve">5.22032022476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956331253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
     <t xml:space="preserve">4.69357061386108</t>
@@ -1745,13 +1748,13 @@
     <t xml:space="preserve">4.48129892349243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59922695159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695573806763</t>
+    <t xml:space="preserve">4.59922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633260726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695526123047</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123155593872</t>
@@ -1760,43 +1763,43 @@
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847051620483</t>
+    <t xml:space="preserve">4.52847099304199</t>
   </si>
   <si>
     <t xml:space="preserve">4.68570947647095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67784690856934</t>
+    <t xml:space="preserve">4.67784643173218</t>
   </si>
   <si>
     <t xml:space="preserve">4.945152759552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35397338867188</t>
+    <t xml:space="preserve">5.35397243499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.33038759231567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18101072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25963020324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51907348632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45617866516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36969614028931</t>
+    <t xml:space="preserve">5.18101119995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25962972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50334978103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51907396316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45617818832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36969661712646</t>
   </si>
   <si>
     <t xml:space="preserve">5.55052137374878</t>
@@ -1805,13 +1808,13 @@
     <t xml:space="preserve">5.41686820983887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57410717010498</t>
+    <t xml:space="preserve">5.57410669326782</t>
   </si>
   <si>
     <t xml:space="preserve">5.68417406082153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63700199127197</t>
+    <t xml:space="preserve">5.63700246810913</t>
   </si>
   <si>
     <t xml:space="preserve">5.71562147140503</t>
@@ -1823,7 +1826,7 @@
     <t xml:space="preserve">5.72348356246948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67631149291992</t>
+    <t xml:space="preserve">5.67631244659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.18733692169189</t>
@@ -1832,28 +1835,28 @@
     <t xml:space="preserve">6.14802742004395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42319488525391</t>
+    <t xml:space="preserve">6.42319536209106</t>
   </si>
   <si>
     <t xml:space="preserve">6.53326177597046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10085678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08513164520264</t>
+    <t xml:space="preserve">6.1008563041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740476608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08513212203979</t>
   </si>
   <si>
     <t xml:space="preserve">6.108717918396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20306158065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32885217666626</t>
+    <t xml:space="preserve">6.2030611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3288516998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.30526638031006</t>
@@ -1862,7 +1865,7 @@
     <t xml:space="preserve">6.2109227180481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12444162368774</t>
+    <t xml:space="preserve">6.1244421005249</t>
   </si>
   <si>
     <t xml:space="preserve">6.16375160217285</t>
@@ -1874,97 +1877,94 @@
     <t xml:space="preserve">6.51753854751587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39174747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32098960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2738184928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506523132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00651359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77065515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134517669678</t>
+    <t xml:space="preserve">6.39174699783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678068161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457540512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32099008560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671426773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27381801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506475448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0065131187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078845977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77065467834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134565353394</t>
   </si>
   <si>
     <t xml:space="preserve">6.02223634719849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82568836212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74286460876465</t>
+    <t xml:space="preserve">5.82568883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74286365509033</t>
   </si>
   <si>
     <t xml:space="preserve">5.56185674667358</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59476757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73463678359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008409500122</t>
+    <t xml:space="preserve">5.59476709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7346363067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61945009231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008504867554</t>
   </si>
   <si>
     <t xml:space="preserve">5.6441330909729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66058826446533</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52894592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54540109634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39730453491211</t>
+    <t xml:space="preserve">5.52894639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54540157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249170303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39730501174927</t>
   </si>
   <si>
     <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24920845031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42198801040649</t>
+    <t xml:space="preserve">5.24920797348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42198848724365</t>
   </si>
   <si>
     <t xml:space="preserve">5.46312570571899</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">5.55362892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3726224899292</t>
+    <t xml:space="preserve">5.37262201309204</t>
   </si>
   <si>
     <t xml:space="preserve">5.38907766342163</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">5.34793901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36439418792725</t>
+    <t xml:space="preserve">5.3643946647644</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71818113327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72640943527222</t>
+    <t xml:space="preserve">5.71818161010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7264084815979</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
@@ -2006,19 +2006,19 @@
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91564416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83336782455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78400278091431</t>
+    <t xml:space="preserve">5.91564321517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83336734771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78400230407715</t>
   </si>
   <si>
     <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75109148025513</t>
+    <t xml:space="preserve">5.75109100341797</t>
   </si>
   <si>
     <t xml:space="preserve">5.62767744064331</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58653974533081</t>
+    <t xml:space="preserve">5.58654022216797</t>
   </si>
   <si>
     <t xml:space="preserve">5.45489835739136</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">4.93655967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95301485061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21629762649536</t>
+    <t xml:space="preserve">4.9530143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21629810333252</t>
   </si>
   <si>
     <t xml:space="preserve">5.05997323989868</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">4.94478750228882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.903648853302</t>
+    <t xml:space="preserve">4.90364933013916</t>
   </si>
   <si>
     <t xml:space="preserve">4.86251068115234</t>
@@ -2069,22 +2069,22 @@
     <t xml:space="preserve">4.821373462677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85428380966187</t>
+    <t xml:space="preserve">4.85428333282471</t>
   </si>
   <si>
     <t xml:space="preserve">4.91187620162964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14224910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48780822753906</t>
+    <t xml:space="preserve">5.142249584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48780870437622</t>
   </si>
   <si>
     <t xml:space="preserve">5.27389097213745</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29034614562988</t>
+    <t xml:space="preserve">5.29034566879272</t>
   </si>
   <si>
     <t xml:space="preserve">5.4055323600769</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">5.47958040237427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47135353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4137601852417</t>
+    <t xml:space="preserve">5.47135305404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41375970840454</t>
   </si>
   <si>
     <t xml:space="preserve">5.33148431777954</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971166610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44667053222656</t>
+    <t xml:space="preserve">5.33971118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4466700553894</t>
   </si>
   <si>
     <t xml:space="preserve">5.43844270706177</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">5.80045747756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79222917556763</t>
+    <t xml:space="preserve">5.79222965240479</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
@@ -2141,19 +2141,19 @@
     <t xml:space="preserve">5.80868482589722</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6852707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6934986114502</t>
+    <t xml:space="preserve">5.68527030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69349908828735</t>
   </si>
   <si>
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04728555679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387056350708</t>
+    <t xml:space="preserve">6.04728507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92387104034424</t>
   </si>
   <si>
     <t xml:space="preserve">5.70995378494263</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">5.67704343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6523609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61122226715088</t>
+    <t xml:space="preserve">5.65236043930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61122274398804</t>
   </si>
   <si>
     <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4960355758667</t>
+    <t xml:space="preserve">5.49603605270386</t>
   </si>
   <si>
     <t xml:space="preserve">5.224524974823</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">5.07642841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13402128219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10933923721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16693210601807</t>
+    <t xml:space="preserve">5.1340217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10933876037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16693162918091</t>
   </si>
   <si>
     <t xml:space="preserve">5.11756658554077</t>
@@ -2198,22 +2198,22 @@
     <t xml:space="preserve">4.79668998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77200698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80491828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60745477676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3606276512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3194899559021</t>
+    <t xml:space="preserve">4.77200746536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80491781234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60745573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36062812805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467569351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31948947906494</t>
   </si>
   <si>
     <t xml:space="preserve">4.03152370452881</t>
@@ -2222,25 +2222,25 @@
     <t xml:space="preserve">3.81760549545288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42268109321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45559144020081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48850178718567</t>
+    <t xml:space="preserve">3.42268085479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48850154876709</t>
   </si>
   <si>
     <t xml:space="preserve">3.04421186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24990153312683</t>
+    <t xml:space="preserve">3.24990129470825</t>
   </si>
   <si>
     <t xml:space="preserve">3.20876359939575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09357738494873</t>
+    <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117025375366</t>
@@ -2249,22 +2249,22 @@
     <t xml:space="preserve">3.29103970527649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17996716499329</t>
+    <t xml:space="preserve">3.17996692657471</t>
   </si>
   <si>
     <t xml:space="preserve">3.37331533432007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41445350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38154315948486</t>
+    <t xml:space="preserve">3.41445398330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38154339790344</t>
   </si>
   <si>
     <t xml:space="preserve">3.40211224555969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40622568130493</t>
+    <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
     <t xml:space="preserve">3.39799833297729</t>
@@ -2273,25 +2273,25 @@
     <t xml:space="preserve">3.53375387191772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50495719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62837100028992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77646827697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53786754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419169425964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71887493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810990333557</t>
+    <t xml:space="preserve">3.50495743751526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6283712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77646851539612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53786778450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71887469291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810918807983</t>
   </si>
   <si>
     <t xml:space="preserve">3.99861311912537</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54986190795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54163503646851</t>
+    <t xml:space="preserve">4.5498628616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54163455963135</t>
   </si>
   <si>
     <t xml:space="preserve">4.53340721130371</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">4.42644834518433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41822004318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46758651733398</t>
+    <t xml:space="preserve">4.41822099685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91633725166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98215794563293</t>
+    <t xml:space="preserve">3.91633749008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98215818405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
@@ -2348,130 +2348,130 @@
     <t xml:space="preserve">4.0191822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06443357467651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99038481712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0109543800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05209255218506</t>
+    <t xml:space="preserve">4.06443405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99038553237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01095390319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05209302902222</t>
   </si>
   <si>
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9286789894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17962026596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50872468948364</t>
+    <t xml:space="preserve">3.92867875099182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17962074279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50872421264648</t>
   </si>
   <si>
     <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10968542098999</t>
+    <t xml:space="preserve">4.10968589782715</t>
   </si>
   <si>
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721313476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34417200088501</t>
+    <t xml:space="preserve">4.23721361160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34417247772217</t>
   </si>
   <si>
     <t xml:space="preserve">4.3523998260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2125301361084</t>
+    <t xml:space="preserve">4.21253061294556</t>
   </si>
   <si>
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848209381104</t>
+    <t xml:space="preserve">4.13848257064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.0808892250061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25366830825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27012348175049</t>
+    <t xml:space="preserve">4.25366878509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27012395858765</t>
   </si>
   <si>
     <t xml:space="preserve">4.22898626327515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08500289916992</t>
+    <t xml:space="preserve">4.08500337600708</t>
   </si>
   <si>
     <t xml:space="preserve">4.1220269203186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10557126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04797887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05620670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506853103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07266139984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09734487533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10145807266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96570324897766</t>
+    <t xml:space="preserve">4.10557222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0479793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05620622634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506805419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07266092300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09734392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1014575958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570301055908</t>
   </si>
   <si>
     <t xml:space="preserve">3.94101977348328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93279194831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677507400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16316509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22075843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1302547454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924759864807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513416290283</t>
+    <t xml:space="preserve">3.93279218673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449872970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677555084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1631646156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22075796127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13025426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924736022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513344764709</t>
   </si>
   <si>
     <t xml:space="preserve">3.82583332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8505163192749</t>
+    <t xml:space="preserve">3.85051608085632</t>
   </si>
   <si>
     <t xml:space="preserve">3.84640264511108</t>
@@ -2486,55 +2486,55 @@
     <t xml:space="preserve">3.7435576915741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76823997497559</t>
+    <t xml:space="preserve">3.76824021339417</t>
   </si>
   <si>
     <t xml:space="preserve">3.66128158569336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65305399894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191558837891</t>
+    <t xml:space="preserve">3.65305423736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191534996033</t>
   </si>
   <si>
     <t xml:space="preserve">3.55432271957397</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48027443885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672961235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57077836990356</t>
+    <t xml:space="preserve">3.48027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672937393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57077813148499</t>
   </si>
   <si>
     <t xml:space="preserve">3.59134697914124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60780239105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659834861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66539573669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72710275650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73121571540833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67362284660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68596458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609489440918</t>
+    <t xml:space="preserve">3.60780262947083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66539549827576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72710251808167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7312159538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67362332344055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68596434593201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609513282776</t>
   </si>
   <si>
     <t xml:space="preserve">3.60368847846985</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">3.63248467445374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6201434135437</t>
+    <t xml:space="preserve">3.62014365196228</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749464035034</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">3.33217787742615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7024199962616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70653343200684</t>
+    <t xml:space="preserve">3.70241975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70653295516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.71064734458923</t>
@@ -2570,88 +2570,88 @@
     <t xml:space="preserve">4.31126165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19607496261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40999364852905</t>
+    <t xml:space="preserve">4.19607543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40999269485474</t>
   </si>
   <si>
     <t xml:space="preserve">4.33594465255737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29480600357056</t>
+    <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
     <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50049686431885</t>
+    <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
     <t xml:space="preserve">4.45935869216919</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45113134384155</t>
+    <t xml:space="preserve">4.45113086700439</t>
   </si>
   <si>
     <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454490661621</t>
+    <t xml:space="preserve">4.57454442977905</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99415254592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06820058822632</t>
+    <t xml:space="preserve">4.99415302276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06820106506348</t>
   </si>
   <si>
     <t xml:space="preserve">4.96124219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97769784927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00237989425659</t>
+    <t xml:space="preserve">4.97769737243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00238037109375</t>
   </si>
   <si>
     <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96947002410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92010402679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04351806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24098062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10111141204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15870475769043</t>
+    <t xml:space="preserve">4.96946954727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92010450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04351854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25743532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161510467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10111093521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15870428085327</t>
   </si>
   <si>
     <t xml:space="preserve">5.1833872795105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29857444763184</t>
+    <t xml:space="preserve">5.29857397079468</t>
   </si>
   <si>
     <t xml:space="preserve">5.85805034637451</t>
@@ -2663,22 +2663,22 @@
     <t xml:space="preserve">5.87450551986694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90741586685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9979190826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97323703765869</t>
+    <t xml:space="preserve">5.90741634368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99792003631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.94855403900146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00614738464355</t>
+    <t xml:space="preserve">5.94032669067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00614786148071</t>
   </si>
   <si>
     <t xml:space="preserve">6.07196807861328</t>
@@ -2696,22 +2696,22 @@
     <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26943063735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33525037765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45446252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3011908531189</t>
+    <t xml:space="preserve">6.26943016052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33525085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45446300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30119037628174</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81209802627563</t>
+    <t xml:space="preserve">6.81209754943848</t>
   </si>
   <si>
     <t xml:space="preserve">6.77803754806519</t>
@@ -2720,67 +2720,67 @@
     <t xml:space="preserve">6.74397754669189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57367420196533</t>
+    <t xml:space="preserve">6.57367467880249</t>
   </si>
   <si>
     <t xml:space="preserve">6.72694635391235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70991611480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76100778579712</t>
+    <t xml:space="preserve">6.70991659164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76100730895996</t>
   </si>
   <si>
     <t xml:space="preserve">7.30597496032715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49330759048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7998514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591121673584</t>
+    <t xml:space="preserve">7.49330806732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79985237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591026306152</t>
   </si>
   <si>
     <t xml:space="preserve">8.22560691833496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25966739654541</t>
+    <t xml:space="preserve">8.25966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075954437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34482002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29372978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02603054046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06860446929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98345470428467</t>
+    <t xml:space="preserve">8.31075859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34481906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29372882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02602958679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.068603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98345375061035</t>
   </si>
   <si>
     <t xml:space="preserve">8.85572719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60027408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64284801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41294002532959</t>
+    <t xml:space="preserve">8.60027503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64284896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41294097900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.46403121948242</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">8.36185073852539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76579141616821</t>
+    <t xml:space="preserve">7.76579093933105</t>
   </si>
   <si>
     <t xml:space="preserve">7.61251878738403</t>
@@ -2804,19 +2804,19 @@
     <t xml:space="preserve">7.93609380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0723352432251</t>
+    <t xml:space="preserve">8.07233619689941</t>
   </si>
   <si>
     <t xml:space="preserve">8.10639667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.140456199646</t>
+    <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
     <t xml:space="preserve">8.00421524047852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83391141891479</t>
+    <t xml:space="preserve">7.83391284942627</t>
   </si>
   <si>
     <t xml:space="preserve">7.66361093521118</t>
@@ -2825,10 +2825,10 @@
     <t xml:space="preserve">7.57845878601074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15270233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033782958984</t>
+    <t xml:space="preserve">7.15270280838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033735275269</t>
   </si>
   <si>
     <t xml:space="preserve">7.59548950195312</t>
@@ -2837,40 +2837,40 @@
     <t xml:space="preserve">7.74876165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0893669128418</t>
+    <t xml:space="preserve">8.08936595916748</t>
   </si>
   <si>
     <t xml:space="preserve">7.98718452453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03827476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203285217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342739105225</t>
+    <t xml:space="preserve">8.03827571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203332901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342643737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40921115875244</t>
+    <t xml:space="preserve">8.55769824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40920925140381</t>
   </si>
   <si>
     <t xml:space="preserve">9.28148365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19633197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94087982177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81315231323242</t>
+    <t xml:space="preserve">9.19633293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94087886810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81315135955811</t>
   </si>
   <si>
     <t xml:space="preserve">8.89830303192139</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">8.72799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48106288909912</t>
+    <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2888,46 +2888,46 @@
     <t xml:space="preserve">8.42997074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44700145721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49436092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87754154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62208843231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91154003143311</t>
+    <t xml:space="preserve">8.44700050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49436187744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87754249572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62208938598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91154098510742</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225883483887</t>
+    <t xml:space="preserve">9.69225788116455</t>
   </si>
   <si>
     <t xml:space="preserve">9.95539665222168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2623910903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0869665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0431098937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99925327301025</t>
+    <t xml:space="preserve">10.2623920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0869655609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0431089401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99925231933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185354232788</t>
+    <t xml:space="preserve">10.2185344696045</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">10.3939599990845</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73611545562744</t>
+    <t xml:space="preserve">9.7799711227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73611450195312</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">9.60454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29755115509033</t>
+    <t xml:space="preserve">9.29755020141602</t>
   </si>
   <si>
     <t xml:space="preserve">9.2098388671875</t>
@@ -2966,43 +2966,43 @@
     <t xml:space="preserve">9.42912006378174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56068897247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82382678985596</t>
+    <t xml:space="preserve">9.56068992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82382774353027</t>
   </si>
   <si>
     <t xml:space="preserve">9.51683330535889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38526439666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34140777587891</t>
+    <t xml:space="preserve">9.38526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34140682220459</t>
   </si>
   <si>
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055671691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94669914245605</t>
+    <t xml:space="preserve">8.99055576324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94670009613037</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61339092254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71864604949951</t>
+    <t xml:space="preserve">8.6133918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71864700317383</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03448677062988</t>
+    <t xml:space="preserve">8.0344877243042</t>
   </si>
   <si>
     <t xml:space="preserve">8.20991230010986</t>
@@ -3011,37 +3011,37 @@
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47312593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42049884796143</t>
+    <t xml:space="preserve">7.47312641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42049789428711</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957149505615</t>
+    <t xml:space="preserve">8.06957244873047</t>
   </si>
   <si>
     <t xml:space="preserve">7.82397747039795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28008365631104</t>
+    <t xml:space="preserve">8.28008270263672</t>
   </si>
   <si>
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940252304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43796634674072</t>
+    <t xml:space="preserve">7.99940156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4905948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70987510681152</t>
+    <t xml:space="preserve">8.90284442901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70987606048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3065,31 +3065,31 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254081726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07834339141846</t>
+    <t xml:space="preserve">8.26254177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114135742188</t>
+    <t xml:space="preserve">8.20114231109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30639743804932</t>
+    <t xml:space="preserve">8.30639839172363</t>
   </si>
   <si>
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98186016082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28885459899902</t>
+    <t xml:space="preserve">7.98186063766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28885364532471</t>
   </si>
   <si>
     <t xml:space="preserve">8.1835994720459</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">8.21868419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01694488525391</t>
+    <t xml:space="preserve">8.01694583892822</t>
   </si>
   <si>
     <t xml:space="preserve">7.77899932861328</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417572021484</t>
+    <t xml:space="preserve">8.62096214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417476654053</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265731811523</t>
+    <t xml:space="preserve">8.60265827178955</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3137,16 +3137,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872901916504</t>
+    <t xml:space="preserve">8.96872806549072</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939697265625</t>
+    <t xml:space="preserve">9.01448726654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939792633057</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944278717041</t>
+    <t xml:space="preserve">8.57520294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944374084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524780273438</t>
+    <t xml:space="preserve">8.03524875640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9711856842041</t>
+    <t xml:space="preserve">7.97118616104126</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3215,28 +3215,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051725387573</t>
+    <t xml:space="preserve">8.11761379241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051677703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560564041138</t>
+    <t xml:space="preserve">7.92542743682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560611724854</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8888201713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966775894165</t>
+    <t xml:space="preserve">7.88882064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966823577881</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466594696045</t>
+    <t xml:space="preserve">8.90466499328613</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569412231445</t>
+    <t xml:space="preserve">8.78569316864014</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663286209106</t>
+    <t xml:space="preserve">7.69663333892822</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3305,10 +3305,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292905807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172315597534</t>
+    <t xml:space="preserve">7.41292858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172267913818</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3332,40 +3332,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591861724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645418167114</t>
+    <t xml:space="preserve">8.13591766357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645370483398</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136484146118</t>
+    <t xml:space="preserve">7.86136531829834</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76069498062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154447555542</t>
+    <t xml:space="preserve">7.7606954574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154399871826</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67832946777344</t>
+    <t xml:space="preserve">7.6783299446106</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748140335083</t>
+    <t xml:space="preserve">7.65087366104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748092651367</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3374,13 +3374,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475805282593</t>
+    <t xml:space="preserve">7.82475852966309</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24573993682861</t>
+    <t xml:space="preserve">8.2457389831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55689907073975</t>
+    <t xml:space="preserve">8.55690002441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131855010986</t>
+    <t xml:space="preserve">8.40131950378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51113986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.474534034729</t>
+    <t xml:space="preserve">8.51114082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47453308105469</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3449,19 +3449,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649589538574</t>
+    <t xml:space="preserve">9.31649494171143</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07855033874512</t>
+    <t xml:space="preserve">9.0785493850708</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497749328613</t>
+    <t xml:space="preserve">9.22497844696045</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3473,10 +3473,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109405517578</t>
+    <t xml:space="preserve">9.37140560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515617370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935115814209</t>
+    <t xml:space="preserve">9.11515712738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935211181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44462013244629</t>
+    <t xml:space="preserve">9.44461917877197</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685230255127</t>
+    <t xml:space="preserve">9.27988815307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685325622559</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -3963,6 +3963,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.84000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9399995803833</t>
   </si>
 </sst>
 </file>
@@ -20650,7 +20653,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20676,7 +20679,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G630" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20702,7 +20705,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G631" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20728,7 +20731,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G632" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20754,7 +20757,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20780,7 +20783,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G634" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20806,7 +20809,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G635" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20858,7 +20861,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G637" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20884,7 +20887,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G638" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20910,7 +20913,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G639" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20936,7 +20939,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G640" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20962,7 +20965,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G641" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20988,7 +20991,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21014,7 +21017,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21040,7 +21043,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G644" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21066,7 +21069,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G645" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21092,7 +21095,7 @@
         <v>7.5</v>
       </c>
       <c r="G646" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21118,7 +21121,7 @@
         <v>7.5</v>
       </c>
       <c r="G647" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21144,7 +21147,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G648" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21170,7 +21173,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21196,7 +21199,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21222,7 +21225,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G651" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21248,7 +21251,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G652" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>7.25</v>
       </c>
       <c r="G653" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21300,7 +21303,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21326,7 +21329,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21352,7 +21355,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21378,7 +21381,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G657" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21404,7 +21407,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21430,7 +21433,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G659" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21482,7 +21485,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G661" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21508,7 +21511,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G662" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21534,7 +21537,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G663" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21560,7 +21563,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G664" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21586,7 +21589,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21612,7 +21615,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G666" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21638,7 +21641,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21664,7 +21667,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G668" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21690,7 +21693,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G669" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21716,7 +21719,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G670" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21742,7 +21745,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G671" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21768,7 +21771,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21794,7 +21797,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21820,7 +21823,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G674" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21846,7 +21849,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G675" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21872,7 +21875,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21898,7 +21901,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21924,7 +21927,7 @@
         <v>6.75</v>
       </c>
       <c r="G678" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21950,7 +21953,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G679" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21976,7 +21979,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G680" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22002,7 +22005,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22028,7 +22031,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G682" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22054,7 +22057,7 @@
         <v>6.5</v>
       </c>
       <c r="G683" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22080,7 +22083,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G684" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22106,7 +22109,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G685" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22132,7 +22135,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22158,7 +22161,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G687" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22184,7 +22187,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G688" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22210,7 +22213,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G689" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22236,7 +22239,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G690" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22262,7 +22265,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G691" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22288,7 +22291,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22314,7 +22317,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22340,7 +22343,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G694" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22366,7 +22369,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G695" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22392,7 +22395,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G696" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22418,7 +22421,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G697" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22444,7 +22447,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G698" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22470,7 +22473,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22496,7 +22499,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G700" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22522,7 +22525,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G701" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22548,7 +22551,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G702" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22574,7 +22577,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G703" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22600,7 +22603,7 @@
         <v>8</v>
       </c>
       <c r="G704" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22652,7 +22655,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G706" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22678,7 +22681,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G707" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22704,7 +22707,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22730,7 +22733,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22756,7 +22759,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G710" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22782,7 +22785,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G711" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22808,7 +22811,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22834,7 +22837,7 @@
         <v>6.75</v>
       </c>
       <c r="G713" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22860,7 +22863,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G714" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22886,7 +22889,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G715" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22912,7 +22915,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G716" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22938,7 +22941,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G717" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22964,7 +22967,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G718" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22990,7 +22993,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G719" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23016,7 +23019,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G720" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23042,7 +23045,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G721" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23068,7 +23071,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G722" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23094,7 +23097,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G723" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23120,7 +23123,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G724" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23146,7 +23149,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G725" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23172,7 +23175,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G726" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23198,7 +23201,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G727" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23224,7 +23227,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23250,7 +23253,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G729" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23276,7 +23279,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23302,7 +23305,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23328,7 +23331,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G732" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23354,7 +23357,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G733" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23380,7 +23383,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G734" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23406,7 +23409,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G735" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23432,7 +23435,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G736" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23458,7 +23461,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23484,7 +23487,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G738" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23510,7 +23513,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G739" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23536,7 +23539,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G740" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23562,7 +23565,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G741" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23588,7 +23591,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23614,7 +23617,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G743" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23640,7 +23643,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G744" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23666,7 +23669,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23692,7 +23695,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G746" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23718,7 +23721,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G747" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23744,7 +23747,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G748" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23770,7 +23773,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G749" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23796,7 +23799,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G750" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23822,7 +23825,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23848,7 +23851,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G752" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23874,7 +23877,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G753" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23900,7 +23903,7 @@
         <v>7</v>
       </c>
       <c r="G754" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23926,7 +23929,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G755" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23952,7 +23955,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23978,7 +23981,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G757" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24004,7 +24007,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24030,7 +24033,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G759" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24056,7 +24059,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G760" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24082,7 +24085,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G761" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24108,7 +24111,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G762" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24134,7 +24137,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24160,7 +24163,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G764" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24186,7 +24189,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G765" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24212,7 +24215,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24238,7 +24241,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G767" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24264,7 +24267,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G768" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24290,7 +24293,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24316,7 +24319,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24342,7 +24345,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G771" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24368,7 +24371,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24394,7 +24397,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G773" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24420,7 +24423,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G774" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24446,7 +24449,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G775" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24472,7 +24475,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G776" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24498,7 +24501,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G777" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24524,7 +24527,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G778" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24550,7 +24553,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24576,7 +24579,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G780" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24680,7 +24683,7 @@
         <v>8</v>
       </c>
       <c r="G784" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24732,7 +24735,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G786" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24758,7 +24761,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G787" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24784,7 +24787,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24810,7 +24813,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G789" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24862,7 +24865,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G791" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24888,7 +24891,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24914,7 +24917,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G793" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24966,7 +24969,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G795" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24992,7 +24995,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G796" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25018,7 +25021,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G797" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25070,7 +25073,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G799" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25148,7 +25151,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G802" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25174,7 +25177,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25226,7 +25229,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25252,7 +25255,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G806" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25278,7 +25281,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G807" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25304,7 +25307,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G808" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25356,7 +25359,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25382,7 +25385,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G811" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25408,7 +25411,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25434,7 +25437,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G813" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25460,7 +25463,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G814" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25512,7 +25515,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G816" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25538,7 +25541,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G817" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25564,7 +25567,7 @@
         <v>8</v>
       </c>
       <c r="G818" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25590,7 +25593,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G819" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25694,7 +25697,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G823" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25720,7 +25723,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25746,7 +25749,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25772,7 +25775,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G826" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25850,7 +25853,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25902,7 +25905,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G831" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25928,7 +25931,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25954,7 +25957,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G833" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25980,7 +25983,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G834" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26006,7 +26009,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G835" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26058,7 +26061,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26084,7 +26087,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G838" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26110,7 +26113,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G839" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26136,7 +26139,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26162,7 +26165,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26188,7 +26191,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G842" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26214,7 +26217,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G843" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26240,7 +26243,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G844" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26266,7 +26269,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G845" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26292,7 +26295,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G846" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26318,7 +26321,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G847" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26344,7 +26347,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G848" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26370,7 +26373,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G849" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26396,7 +26399,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26422,7 +26425,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26448,7 +26451,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G852" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26474,7 +26477,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G853" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26500,7 +26503,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26526,7 +26529,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G855" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26552,7 +26555,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G856" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26578,7 +26581,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G857" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26604,7 +26607,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G858" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26630,7 +26633,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G859" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26656,7 +26659,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G860" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26682,7 +26685,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27020,7 +27023,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G874" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27306,7 +27309,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27410,7 +27413,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27696,7 +27699,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27800,7 +27803,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G904" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27930,7 +27933,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G909" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28008,7 +28011,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G912" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -30426,7 +30429,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30504,7 +30507,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1008" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30738,7 +30741,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1017" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30842,7 +30845,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30894,7 +30897,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30920,7 +30923,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1024" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -39266,7 +39269,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1345" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -60334,7 +60337,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6496180556</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>10808</v>
@@ -60355,6 +60358,32 @@
         <v>1315</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494097222</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>5089</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>8.96000003814697</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>8.9399995803833</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>8.9399995803833</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,28 +44,28 @@
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346646785736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596580028534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611399650574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29258334636688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31169998645782</t>
+    <t xml:space="preserve">1.27346658706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611387729645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2925831079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31170010566711</t>
   </si>
   <si>
     <t xml:space="preserve">1.3256698846817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33596360683441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32346403598785</t>
+    <t xml:space="preserve">1.33596336841583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32346391677856</t>
   </si>
   <si>
     <t xml:space="preserve">1.30875885486603</t>
@@ -77,25 +77,25 @@
     <t xml:space="preserve">1.25214397907257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23302721977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729084014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30728828907013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2955242395401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27493691444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24111497402191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23817408084869</t>
+    <t xml:space="preserve">1.23302745819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729072093964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30728840827942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29552435874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27493703365326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2411150932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23817420005798</t>
   </si>
   <si>
     <t xml:space="preserve">1.23449790477753</t>
@@ -104,37 +104,37 @@
     <t xml:space="preserve">1.18008875846863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18376517295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15729582309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13964951038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612372398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568204402924</t>
+    <t xml:space="preserve">1.18376505374908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15729570388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1396496295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612384319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568228244781</t>
   </si>
   <si>
     <t xml:space="preserve">1.07053542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05141854286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07347631454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09479892253876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15067827701569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1683247089386</t>
+    <t xml:space="preserve">1.05141866207123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07347643375397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09479880332947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15067863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16832458972931</t>
   </si>
   <si>
     <t xml:space="preserve">1.1653835773468</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">1.21317541599274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15435469150543</t>
+    <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
     <t xml:space="preserve">1.18744134902954</t>
@@ -167,40 +167,40 @@
     <t xml:space="preserve">1.17347145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20582294464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23670375347137</t>
+    <t xml:space="preserve">1.20582270622253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23670363426208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2425856590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22861576080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22052788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670120239258</t>
+    <t xml:space="preserve">1.24258589744568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22861588001251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22052800655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670108318329</t>
   </si>
   <si>
     <t xml:space="preserve">1.30655312538147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30214178562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26464331150055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24993813037872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28743648529053</t>
+    <t xml:space="preserve">1.30214154720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26464343070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24993824958801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28743636608124</t>
   </si>
   <si>
     <t xml:space="preserve">1.28228950500488</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">1.26317298412323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26243770122528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29920041561127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29405355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28523051738739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861344814301</t>
+    <t xml:space="preserve">1.26243758201599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29920065402985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29405379295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876128673553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28523063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861320972443</t>
   </si>
   <si>
     <t xml:space="preserve">1.27934861183167</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">1.2896420955658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27199602127075</t>
+    <t xml:space="preserve">1.27199590206146</t>
   </si>
   <si>
     <t xml:space="preserve">1.28302478790283</t>
@@ -254,22 +254,22 @@
     <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36022698879242</t>
+    <t xml:space="preserve">1.36022686958313</t>
   </si>
   <si>
     <t xml:space="preserve">1.33816921710968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35066866874695</t>
+    <t xml:space="preserve">1.35066854953766</t>
   </si>
   <si>
     <t xml:space="preserve">1.34478640556335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30949413776398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29846525192261</t>
+    <t xml:space="preserve">1.30949425697327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2984653711319</t>
   </si>
   <si>
     <t xml:space="preserve">1.2683197259903</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">1.19773495197296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17420661449432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17567729949951</t>
+    <t xml:space="preserve">1.17420673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1756774187088</t>
   </si>
   <si>
     <t xml:space="preserve">1.1925882101059</t>
@@ -293,22 +293,22 @@
     <t xml:space="preserve">1.20288181304932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19847023487091</t>
+    <t xml:space="preserve">1.19847011566162</t>
   </si>
   <si>
     <t xml:space="preserve">1.12494444847107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13817894458771</t>
+    <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759185791016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12347400188446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13597345352173</t>
+    <t xml:space="preserve">1.12347388267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13597321510315</t>
   </si>
   <si>
     <t xml:space="preserve">1.13229703903198</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">1.15582525730133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15803122520447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920806884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17494201660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15361952781677</t>
+    <t xml:space="preserve">1.15803110599518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920794963837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17494189739227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15361940860748</t>
   </si>
   <si>
     <t xml:space="preserve">1.16758954524994</t>
@@ -341,28 +341,28 @@
     <t xml:space="preserve">1.41169488430023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56021690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.561687707901</t>
+    <t xml:space="preserve">1.56021726131439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168758869171</t>
   </si>
   <si>
     <t xml:space="preserve">1.52345407009125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48522090911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52933621406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47051560878754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54257082939148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.508749127388</t>
+    <t xml:space="preserve">1.48522078990936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52933609485626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47051572799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54257094860077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50874900817871</t>
   </si>
   <si>
     <t xml:space="preserve">1.49404394626617</t>
@@ -386,46 +386,46 @@
     <t xml:space="preserve">1.48080909252167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49845540523529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5543349981308</t>
+    <t xml:space="preserve">1.49845552444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55433511734009</t>
   </si>
   <si>
     <t xml:space="preserve">1.77785336971283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74550187587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961255550385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078951835632</t>
+    <t xml:space="preserve">1.74550199508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961243629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666911125183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078939914703</t>
   </si>
   <si>
     <t xml:space="preserve">1.87931895256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86020243167877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.816086769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138146877289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372809886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9160817861557</t>
+    <t xml:space="preserve">1.86020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81608688831329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138182640076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490725517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608154773712</t>
   </si>
   <si>
     <t xml:space="preserve">1.91314077377319</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">1.93078696727753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92931652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519842624664</t>
+    <t xml:space="preserve">1.9293167591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519866466522</t>
   </si>
   <si>
     <t xml:space="preserve">1.92049372196198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90431797504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902279853821</t>
+    <t xml:space="preserve">1.90431761741638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9190229177475</t>
   </si>
   <si>
     <t xml:space="preserve">1.90137660503387</t>
@@ -455,22 +455,22 @@
     <t xml:space="preserve">1.92343437671661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93961000442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96166777610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0940146446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17489266395569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12930679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19106817245483</t>
+    <t xml:space="preserve">1.93961012363434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96166801452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09401440620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17489242553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12930655479431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19106864929199</t>
   </si>
   <si>
     <t xml:space="preserve">2.14107084274292</t>
@@ -479,112 +479,112 @@
     <t xml:space="preserve">2.09695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13077688217163</t>
+    <t xml:space="preserve">2.13077712059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.11901307106018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09842610359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11166048049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19694995880127</t>
+    <t xml:space="preserve">2.09842586517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11166024208069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19695019721985</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782893180847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26606440544128</t>
+    <t xml:space="preserve">2.26606488227844</t>
   </si>
   <si>
     <t xml:space="preserve">2.08813214302063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9763730764389</t>
+    <t xml:space="preserve">1.97637319564819</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901526451111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04989886283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11607193946838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10136699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08224987983704</t>
+    <t xml:space="preserve">2.04989862442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11607217788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10136675834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08225011825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763680934906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03519344329834</t>
+    <t xml:space="preserve">2.03519368171692</t>
   </si>
   <si>
     <t xml:space="preserve">2.0146062374115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578551292419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019732952118</t>
+    <t xml:space="preserve">1.95578575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019744873047</t>
   </si>
   <si>
     <t xml:space="preserve">1.97196125984192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94843327999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87784826755524</t>
+    <t xml:space="preserve">1.94843363761902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87784850597382</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549469947815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99695992469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99254858493805</t>
+    <t xml:space="preserve">1.99696004390717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431299209595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09548473358154</t>
+    <t xml:space="preserve">2.09548497200012</t>
   </si>
   <si>
     <t xml:space="preserve">2.08666157722473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08372068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05431056022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05872178077698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06019234657288</t>
+    <t xml:space="preserve">2.08372044563293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813481330872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05431032180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0587215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0601921081543</t>
   </si>
   <si>
     <t xml:space="preserve">2.06754469871521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06313347816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10283708572388</t>
+    <t xml:space="preserve">2.06313371658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10283732414246</t>
   </si>
   <si>
     <t xml:space="preserve">2.17636322975159</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">2.29694557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27194690704346</t>
+    <t xml:space="preserve">2.2719464302063</t>
   </si>
   <si>
     <t xml:space="preserve">2.23812484741211</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">2.16606974601746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989156723022</t>
+    <t xml:space="preserve">2.19989132881165</t>
   </si>
   <si>
     <t xml:space="preserve">2.22047853469849</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">2.19842100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753787994385</t>
+    <t xml:space="preserve">2.21753740310669</t>
   </si>
   <si>
     <t xml:space="preserve">2.24988889694214</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">2.23518371582031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25430083274841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23959517478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24694800376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25871181488037</t>
+    <t xml:space="preserve">2.25430035591125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23959493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24694776535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25871205329895</t>
   </si>
   <si>
     <t xml:space="preserve">2.24253606796265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21606683731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136213302612</t>
+    <t xml:space="preserve">2.21606707572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136165618896</t>
   </si>
   <si>
     <t xml:space="preserve">2.22341966629028</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">2.61163568496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61016488075256</t>
+    <t xml:space="preserve">2.6101655960083</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
@@ -668,28 +668,28 @@
     <t xml:space="preserve">2.58663702011108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52193427085876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64545798301697</t>
+    <t xml:space="preserve">2.52193450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64545774459839</t>
   </si>
   <si>
     <t xml:space="preserve">2.60281276702881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58810710906982</t>
+    <t xml:space="preserve">2.58810758590698</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457901000977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56016802787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59840083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634353637695</t>
+    <t xml:space="preserve">2.56016778945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59840130805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634305953979</t>
   </si>
   <si>
     <t xml:space="preserve">2.61751770973206</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">2.5954601764679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7866268157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8528003692627</t>
+    <t xml:space="preserve">2.78662729263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
     <t xml:space="preserve">2.83809518814087</t>
@@ -710,22 +710,22 @@
     <t xml:space="preserve">2.98808789253235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92632651329041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983177185059</t>
+    <t xml:space="preserve">2.92632603645325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983248710632</t>
   </si>
   <si>
     <t xml:space="preserve">3.55129551887512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63217353820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89319014549255</t>
+    <t xml:space="preserve">3.63217377662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89318990707397</t>
   </si>
   <si>
     <t xml:space="preserve">3.75716710090637</t>
@@ -734,49 +734,49 @@
     <t xml:space="preserve">3.87480854988098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84172201156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848544120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039246559143</t>
+    <t xml:space="preserve">3.84172248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848496437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039222717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.14685392379761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26449489593506</t>
+    <t xml:space="preserve">4.26449537277222</t>
   </si>
   <si>
     <t xml:space="preserve">4.40051794052124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37478399276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596279144287</t>
+    <t xml:space="preserve">4.37478351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596374511719</t>
   </si>
   <si>
     <t xml:space="preserve">4.23140907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52183532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51815891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77917528152466</t>
+    <t xml:space="preserve">4.5218358039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51815938949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">4.92990350723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77177429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0291633605957</t>
+    <t xml:space="preserve">5.77177333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02916288375854</t>
   </si>
   <si>
     <t xml:space="preserve">5.35267686843872</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">5.26444578170776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71662950515747</t>
+    <t xml:space="preserve">5.71662998199463</t>
   </si>
   <si>
     <t xml:space="preserve">5.71295309066772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0585241317749</t>
+    <t xml:space="preserve">6.05852365493774</t>
   </si>
   <si>
     <t xml:space="preserve">6.71290349960327</t>
@@ -800,16 +800,16 @@
     <t xml:space="preserve">7.09523773193359</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81584024429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376888275146</t>
+    <t xml:space="preserve">6.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376983642578</t>
   </si>
   <si>
     <t xml:space="preserve">7.44389820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32310438156128</t>
+    <t xml:space="preserve">7.3231053352356</t>
   </si>
   <si>
     <t xml:space="preserve">7.11926603317261</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">6.66628980636597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37185668945312</t>
+    <t xml:space="preserve">6.37185621261597</t>
   </si>
   <si>
     <t xml:space="preserve">6.63609170913696</t>
@@ -833,31 +833,31 @@
     <t xml:space="preserve">6.75688552856445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83238172531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71913766860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397348403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68893814086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63986730575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337823867798</t>
+    <t xml:space="preserve">6.83238077163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71913719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245145797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68893909454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085874557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63986682891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337871551514</t>
   </si>
   <si>
     <t xml:space="preserve">6.23218870162964</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">6.25483703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14159393310547</t>
+    <t xml:space="preserve">6.14159345626831</t>
   </si>
   <si>
     <t xml:space="preserve">6.19821548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18689155578613</t>
+    <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
     <t xml:space="preserve">6.03589963912964</t>
@@ -881,31 +881,31 @@
     <t xml:space="preserve">5.97550201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98305225372314</t>
+    <t xml:space="preserve">5.98305177688599</t>
   </si>
   <si>
     <t xml:space="preserve">5.631995677948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11484956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.435706615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2243185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20921897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465051651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862421035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259695053101</t>
+    <t xml:space="preserve">5.11484909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43570613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22431755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20921850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465147018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862325668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259647369385</t>
   </si>
   <si>
     <t xml:space="preserve">4.93365859985352</t>
@@ -914,34 +914,34 @@
     <t xml:space="preserve">5.16769647598267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836193084717</t>
+    <t xml:space="preserve">5.00538015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855955123901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06200218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73359441757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71472024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65809869766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59770250320435</t>
+    <t xml:space="preserve">5.06200170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77511692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73359489440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71472072601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65809917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59770202636719</t>
   </si>
   <si>
     <t xml:space="preserve">4.60147666931152</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">4.68452215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28471517562866</t>
+    <t xml:space="preserve">5.2847146987915</t>
   </si>
   <si>
     <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04690265655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00160503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723514556885</t>
+    <t xml:space="preserve">5.04690313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00160551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723419189453</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173942565918</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">4.81663990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85816287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8921365737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90346002578735</t>
+    <t xml:space="preserve">4.85816335678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89213562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90346050262451</t>
   </si>
   <si>
     <t xml:space="preserve">4.98273086547852</t>
@@ -992,58 +992,58 @@
     <t xml:space="preserve">5.19789457321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06955242156982</t>
+    <t xml:space="preserve">5.06955194473267</t>
   </si>
   <si>
     <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39795923233032</t>
+    <t xml:space="preserve">5.39795875549316</t>
   </si>
   <si>
     <t xml:space="preserve">5.36776065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45080614089966</t>
+    <t xml:space="preserve">5.45080518722534</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17902088165283</t>
+    <t xml:space="preserve">5.17902040481567</t>
   </si>
   <si>
     <t xml:space="preserve">4.99028062820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24319219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882278442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0582275390625</t>
+    <t xml:space="preserve">5.24319171905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882230758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392087936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822706222534</t>
   </si>
   <si>
     <t xml:space="preserve">5.13372278213501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3035888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33001279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20166921615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19034481048584</t>
+    <t xml:space="preserve">5.30358934402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584100723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20166969299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.190345287323</t>
   </si>
   <si>
     <t xml:space="preserve">5.41305828094482</t>
@@ -1052,82 +1052,82 @@
     <t xml:space="preserve">5.49232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88490724563599</t>
+    <t xml:space="preserve">5.88490676879883</t>
   </si>
   <si>
     <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06232213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410835266113</t>
+    <t xml:space="preserve">6.06232309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410882949829</t>
   </si>
   <si>
     <t xml:space="preserve">6.2435131072998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48509979248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84748029708862</t>
+    <t xml:space="preserve">6.48510026931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84747934341431</t>
   </si>
   <si>
     <t xml:space="preserve">7.3835015296936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23628425598145</t>
+    <t xml:space="preserve">7.23628520965576</t>
   </si>
   <si>
     <t xml:space="preserve">7.46654748916626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48919630050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53104019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85567283630371</t>
+    <t xml:space="preserve">7.48919677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806301116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53103923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85567092895508</t>
   </si>
   <si>
     <t xml:space="preserve">9.39924335479736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.754075050354</t>
+    <t xml:space="preserve">9.75407314300537</t>
   </si>
   <si>
     <t xml:space="preserve">10.7204217910767</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84057331085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04441070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62918376922607</t>
+    <t xml:space="preserve">8.84057235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04441165924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62918472290039</t>
   </si>
   <si>
     <t xml:space="preserve">8.41024589538574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19130897521973</t>
+    <t xml:space="preserve">8.19130706787109</t>
   </si>
   <si>
     <t xml:space="preserve">8.73487854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38759613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50084209442139</t>
+    <t xml:space="preserve">8.38759708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50084018707275</t>
   </si>
   <si>
     <t xml:space="preserve">8.38004875183105</t>
@@ -1136,16 +1136,16 @@
     <t xml:space="preserve">8.27435398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11581325531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77608156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91952133178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84402751922607</t>
+    <t xml:space="preserve">8.11581230163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77608013153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91952323913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84402704238892</t>
   </si>
   <si>
     <t xml:space="preserve">7.82137727737427</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">7.89687395095825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75343132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428234100342</t>
+    <t xml:space="preserve">7.75343179702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428329467773</t>
   </si>
   <si>
     <t xml:space="preserve">8.22905540466309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34985065460205</t>
+    <t xml:space="preserve">8.34984970092773</t>
   </si>
   <si>
     <t xml:space="preserve">8.23660564422607</t>
@@ -1181,76 +1181,76 @@
     <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94972038269043</t>
+    <t xml:space="preserve">7.94971990585327</t>
   </si>
   <si>
     <t xml:space="preserve">7.79117918014526</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54959297180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30800628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224082946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933069229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469106674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714273452759</t>
+    <t xml:space="preserve">7.5495924949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30800580978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224035263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3193302154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469202041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714178085327</t>
   </si>
   <si>
     <t xml:space="preserve">7.92707204818726</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03276634216309</t>
+    <t xml:space="preserve">8.0327672958374</t>
   </si>
   <si>
     <t xml:space="preserve">7.60998964309692</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60243892669678</t>
+    <t xml:space="preserve">7.60243940353394</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204273223877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522260665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330247879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24005937576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668092727661</t>
+    <t xml:space="preserve">7.45522308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2400598526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668045043945</t>
   </si>
   <si>
     <t xml:space="preserve">7.51184415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25893354415894</t>
+    <t xml:space="preserve">7.25893402099609</t>
   </si>
   <si>
     <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23250961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045700073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780818939209</t>
+    <t xml:space="preserve">7.23251008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045604705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780771255493</t>
   </si>
   <si>
     <t xml:space="preserve">7.32687950134277</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">7.51561880111694</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49297142028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3684024810791</t>
+    <t xml:space="preserve">7.49296998977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840295791626</t>
   </si>
   <si>
     <t xml:space="preserve">7.70058393478394</t>
@@ -1271,22 +1271,22 @@
     <t xml:space="preserve">8.21395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66693210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30455112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945159912109</t>
+    <t xml:space="preserve">8.66693305969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123828887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30455207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04786491394043</t>
+    <t xml:space="preserve">8.04786586761475</t>
   </si>
   <si>
     <t xml:space="preserve">8.15356063842773</t>
@@ -1298,100 +1298,100 @@
     <t xml:space="preserve">8.16865825653076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85157632827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277791976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96827459335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973291397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9607253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317554473877</t>
+    <t xml:space="preserve">7.85157585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681436538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151769638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96827363967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317459106445</t>
   </si>
   <si>
     <t xml:space="preserve">6.88522815704346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9305272102356</t>
+    <t xml:space="preserve">6.93052625656128</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767839431763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59834384918213</t>
+    <t xml:space="preserve">6.59834432601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.50019884109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900930404663</t>
+    <t xml:space="preserve">6.31900835037231</t>
   </si>
   <si>
     <t xml:space="preserve">6.16801738739014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15291738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814527511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57569456100464</t>
+    <t xml:space="preserve">6.15291786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814622879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5756950378418</t>
   </si>
   <si>
     <t xml:space="preserve">6.76443529129028</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78708362579346</t>
+    <t xml:space="preserve">6.78708410263062</t>
   </si>
   <si>
     <t xml:space="preserve">7.00602149963379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993148803711</t>
+    <t xml:space="preserve">6.83993101119995</t>
   </si>
   <si>
     <t xml:space="preserve">6.77953433990479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60589361190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43980264663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086477279663</t>
+    <t xml:space="preserve">6.6058931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4398021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086334228516</t>
   </si>
   <si>
     <t xml:space="preserve">6.22841358184814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18311643600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08497190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616239547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31145906448364</t>
+    <t xml:space="preserve">6.18311595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0849723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616191864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3114595413208</t>
   </si>
   <si>
     <t xml:space="preserve">6.28881072998047</t>
@@ -1403,25 +1403,25 @@
     <t xml:space="preserve">6.49265003204346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56059551239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039693832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4247031211853</t>
+    <t xml:space="preserve">6.56059598922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42470359802246</t>
   </si>
   <si>
     <t xml:space="preserve">6.58324527740479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62099361419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61344337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119171142578</t>
+    <t xml:space="preserve">6.62099266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61344385147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119123458862</t>
   </si>
   <si>
     <t xml:space="preserve">6.91063451766968</t>
@@ -1430,58 +1430,58 @@
     <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691398620605</t>
+    <t xml:space="preserve">6.78484392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691446304321</t>
   </si>
   <si>
     <t xml:space="preserve">6.61974382400513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91849708557129</t>
+    <t xml:space="preserve">6.91849660873413</t>
   </si>
   <si>
     <t xml:space="preserve">6.72981071472168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47822904586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960908889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519948959351</t>
+    <t xml:space="preserve">6.4782280921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961004257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519901275635</t>
   </si>
   <si>
     <t xml:space="preserve">6.25023221969604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2345085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15588998794556</t>
+    <t xml:space="preserve">6.23450803756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1558895111084</t>
   </si>
   <si>
     <t xml:space="preserve">6.24237060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1323037147522</t>
+    <t xml:space="preserve">6.13230419158936</t>
   </si>
   <si>
     <t xml:space="preserve">5.87285995483398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75493097305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8807225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83354997634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17947578430176</t>
+    <t xml:space="preserve">5.75493144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88072204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83355093002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
   </si>
   <si>
     <t xml:space="preserve">6.09299421310425</t>
@@ -1490,34 +1490,34 @@
     <t xml:space="preserve">5.92003202438354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07727003097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04582214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17161321640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878480911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332962036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918710708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119123458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61188125610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43105697631836</t>
+    <t xml:space="preserve">6.0772705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04582262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17161273956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878433227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698183059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61188173294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43105745315552</t>
   </si>
   <si>
     <t xml:space="preserve">6.36030006408691</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">6.06154680252075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05368423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9829273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94361782073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84927415847778</t>
+    <t xml:space="preserve">6.0536847114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98292779922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94361734390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84927463531494</t>
   </si>
   <si>
     <t xml:space="preserve">6.03796052932739</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">6.06940841674805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95934104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90430784225464</t>
+    <t xml:space="preserve">5.95934152603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9043083190918</t>
   </si>
   <si>
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575572967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782722473145</t>
+    <t xml:space="preserve">5.93575620651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782627105713</t>
   </si>
   <si>
     <t xml:space="preserve">5.85713624954224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77851676940918</t>
+    <t xml:space="preserve">5.77851724624634</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920774459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58196878433228</t>
+    <t xml:space="preserve">5.73920726776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58196926116943</t>
   </si>
   <si>
     <t xml:space="preserve">5.54265928268433</t>
@@ -1583,64 +1583,64 @@
     <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279306411743</t>
+    <t xml:space="preserve">5.76279354095459</t>
   </si>
   <si>
     <t xml:space="preserve">5.78637886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62914037704468</t>
+    <t xml:space="preserve">5.62914085388184</t>
   </si>
   <si>
     <t xml:space="preserve">5.53479719161987</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44045448303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46404027938843</t>
+    <t xml:space="preserve">5.44045352935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46403932571411</t>
   </si>
   <si>
     <t xml:space="preserve">5.86499786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0300989151001</t>
+    <t xml:space="preserve">6.03009843826294</t>
   </si>
   <si>
     <t xml:space="preserve">5.74706935882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47190141677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39328289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34611082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36183547973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32252550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30680131912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26749229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321504592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1731481552124</t>
+    <t xml:space="preserve">5.47190189361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39328241348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34611129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36183500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32252502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30680084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26749181747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17314863204956</t>
   </si>
   <si>
     <t xml:space="preserve">5.11811494827271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11025285720825</t>
+    <t xml:space="preserve">5.11025238037109</t>
   </si>
   <si>
     <t xml:space="preserve">4.9687385559082</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">5.12597703933716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99232387542725</t>
+    <t xml:space="preserve">4.9923243522644</t>
   </si>
   <si>
     <t xml:space="preserve">5.1023907661438</t>
@@ -1667,40 +1667,40 @@
     <t xml:space="preserve">5.14170074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09452962875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19673442840576</t>
+    <t xml:space="preserve">5.0945291519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19673490524292</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824968338013</t>
+    <t xml:space="preserve">5.33824920654297</t>
   </si>
   <si>
     <t xml:space="preserve">5.38542032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52540063858032</t>
+    <t xml:space="preserve">6.52539968490601</t>
   </si>
   <si>
     <t xml:space="preserve">6.56471014022827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3131275177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.407470703125</t>
+    <t xml:space="preserve">6.31312799453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40747117996216</t>
   </si>
   <si>
     <t xml:space="preserve">6.28954267501831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22818183898926</t>
+    <t xml:space="preserve">5.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22818279266357</t>
   </si>
   <si>
     <t xml:space="preserve">5.18887233734131</t>
@@ -1709,19 +1709,19 @@
     <t xml:space="preserve">5.24390602111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27535390853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13383913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29893922805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20459604263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0552191734314</t>
+    <t xml:space="preserve">5.27535438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13383865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29893970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20459651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05521965026855</t>
   </si>
   <si>
     <t xml:space="preserve">5.03163385391235</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">5.0237717628479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07094383239746</t>
+    <t xml:space="preserve">5.0709433555603</t>
   </si>
   <si>
     <t xml:space="preserve">5.22032022476196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14956331253052</t>
+    <t xml:space="preserve">5.14956283569336</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">4.59922790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53633260726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695526123047</t>
+    <t xml:space="preserve">4.53633213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695573806763</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123155593872</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570947647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67784643173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.945152759552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35397243499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33038759231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18101119995117</t>
+    <t xml:space="preserve">4.52847051620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67784690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94515323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35397291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33038711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18101072311401</t>
   </si>
   <si>
     <t xml:space="preserve">5.25962972640991</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">5.50334978103638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47976350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51907396316528</t>
+    <t xml:space="preserve">5.47976398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51907348632812</t>
   </si>
   <si>
     <t xml:space="preserve">5.45617818832397</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">5.41686820983887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57410669326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68417406082153</t>
+    <t xml:space="preserve">5.57410717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68417358398438</t>
   </si>
   <si>
     <t xml:space="preserve">5.63700246810913</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">5.72348356246948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67631244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733692169189</t>
+    <t xml:space="preserve">5.67631149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733739852905</t>
   </si>
   <si>
     <t xml:space="preserve">6.14802742004395</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">6.42319536209106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53326177597046</t>
+    <t xml:space="preserve">6.53326225280762</t>
   </si>
   <si>
     <t xml:space="preserve">6.1008563041687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29740476608276</t>
+    <t xml:space="preserve">6.29740428924561</t>
   </si>
   <si>
     <t xml:space="preserve">6.08513212203979</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">6.2030611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3288516998291</t>
+    <t xml:space="preserve">6.32885217666626</t>
   </si>
   <si>
     <t xml:space="preserve">6.30526638031006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2109227180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1244421005249</t>
+    <t xml:space="preserve">6.21092319488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12444162368774</t>
   </si>
   <si>
     <t xml:space="preserve">6.16375160217285</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753854751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174699783325</t>
+    <t xml:space="preserve">6.26595687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174747467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.45464277267456</t>
@@ -1886,52 +1886,52 @@
     <t xml:space="preserve">6.44678068161011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34457540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32099008560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671426773071</t>
+    <t xml:space="preserve">6.34457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32098960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671474456787</t>
   </si>
   <si>
     <t xml:space="preserve">6.01437473297119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27381801605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0065131187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078845977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77065467834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134565353394</t>
+    <t xml:space="preserve">6.2738184928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00651264190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77065515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134517669678</t>
   </si>
   <si>
     <t xml:space="preserve">6.02223634719849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82568883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74286365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56185674667358</t>
+    <t xml:space="preserve">5.82568836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74286413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56185722351074</t>
   </si>
   <si>
     <t xml:space="preserve">5.59476709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7346363067627</t>
+    <t xml:space="preserve">5.73463678359985</t>
   </si>
   <si>
     <t xml:space="preserve">5.61945009231567</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.57008504867554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6441330909729</t>
+    <t xml:space="preserve">5.64413261413574</t>
   </si>
   <si>
     <t xml:space="preserve">5.50426387786865</t>
@@ -1949,28 +1949,28 @@
     <t xml:space="preserve">5.52894639968872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54540157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249170303345</t>
+    <t xml:space="preserve">5.54540109634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249122619629</t>
   </si>
   <si>
     <t xml:space="preserve">5.39730501174927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31502914428711</t>
+    <t xml:space="preserve">5.31502866744995</t>
   </si>
   <si>
     <t xml:space="preserve">5.24920797348022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42198848724365</t>
+    <t xml:space="preserve">5.42198801040649</t>
   </si>
   <si>
     <t xml:space="preserve">5.46312570571899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60299491882324</t>
+    <t xml:space="preserve">5.60299444198608</t>
   </si>
   <si>
     <t xml:space="preserve">5.55362892150879</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">5.3643946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43021535873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71818161010742</t>
+    <t xml:space="preserve">5.43021488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
     <t xml:space="preserve">5.7264084815979</t>
@@ -2006,46 +2006,46 @@
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91564321517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83336734771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78400230407715</t>
+    <t xml:space="preserve">5.91564416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83336782455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78400182723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75109100341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62767744064331</t>
+    <t xml:space="preserve">5.75109195709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62767839431763</t>
   </si>
   <si>
     <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58654022216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45489835739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03529024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93655967712402</t>
+    <t xml:space="preserve">5.58653974533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45489883422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03529071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93655920028687</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530143737793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73909711837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21629810333252</t>
+    <t xml:space="preserve">4.73909759521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21629858016968</t>
   </si>
   <si>
     <t xml:space="preserve">5.05997323989868</t>
@@ -2054,25 +2054,25 @@
     <t xml:space="preserve">4.87073850631714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94478750228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90364933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86251068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87896633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.821373462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85428333282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91187620162964</t>
+    <t xml:space="preserve">4.94478702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.903648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8625111579895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87896585464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82137298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85428380966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9118766784668</t>
   </si>
   <si>
     <t xml:space="preserve">5.142249584198</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">5.29034566879272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4055323600769</t>
+    <t xml:space="preserve">5.40553283691406</t>
   </si>
   <si>
     <t xml:space="preserve">5.47958040237427</t>
@@ -2105,22 +2105,22 @@
     <t xml:space="preserve">5.38084983825684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26566362380981</t>
+    <t xml:space="preserve">5.26566314697266</t>
   </si>
   <si>
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4466700553894</t>
+    <t xml:space="preserve">5.33971214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44667100906372</t>
   </si>
   <si>
     <t xml:space="preserve">5.43844270706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80045747756958</t>
+    <t xml:space="preserve">5.80045795440674</t>
   </si>
   <si>
     <t xml:space="preserve">5.79222965240479</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">5.84159517288208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70172595977783</t>
+    <t xml:space="preserve">5.70172548294067</t>
   </si>
   <si>
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868482589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68527030944824</t>
+    <t xml:space="preserve">5.80868530273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6852707862854</t>
   </si>
   <si>
     <t xml:space="preserve">5.69349908828735</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04728507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387104034424</t>
+    <t xml:space="preserve">6.04728555679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9238715171814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70995378494263</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">5.49603605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">5.224524974823</t>
+    <t xml:space="preserve">5.22452545166016</t>
   </si>
   <si>
     <t xml:space="preserve">5.07642841339111</t>
@@ -2183,16 +2183,16 @@
     <t xml:space="preserve">5.1340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10933876037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16693162918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11756658554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23275327682495</t>
+    <t xml:space="preserve">5.10933828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16693210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11756610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23275279998779</t>
   </si>
   <si>
     <t xml:space="preserve">4.79668998718262</t>
@@ -2201,40 +2201,40 @@
     <t xml:space="preserve">4.77200746536255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80491781234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60745573043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36062812805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31948947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03152370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81760549545288</t>
+    <t xml:space="preserve">4.80491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60745525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36062717437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31948900222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03152418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81760573387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.42268085479736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45559120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48850154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421186447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24990129470825</t>
+    <t xml:space="preserve">3.45559144020081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48850178718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24990153312683</t>
   </si>
   <si>
     <t xml:space="preserve">3.20876359939575</t>
@@ -2243,34 +2243,34 @@
     <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15117025375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29103970527649</t>
+    <t xml:space="preserve">3.15117001533508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29103946685791</t>
   </si>
   <si>
     <t xml:space="preserve">3.17996692657471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37331533432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41445398330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38154339790344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40211224555969</t>
+    <t xml:space="preserve">3.37331557273865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41445350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38154315948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40211248397827</t>
   </si>
   <si>
     <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39799833297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375387191772</t>
+    <t xml:space="preserve">3.39799857139587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375363349915</t>
   </si>
   <si>
     <t xml:space="preserve">3.50495743751526</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">3.6283712387085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646851539612</t>
+    <t xml:space="preserve">3.77646780014038</t>
   </si>
   <si>
     <t xml:space="preserve">3.53786778450012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69419193267822</t>
+    <t xml:space="preserve">3.69419145584106</t>
   </si>
   <si>
     <t xml:space="preserve">3.71887469291687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90810918807983</t>
+    <t xml:space="preserve">3.90810966491699</t>
   </si>
   <si>
     <t xml:space="preserve">3.99861311912537</t>
@@ -2300,49 +2300,49 @@
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5498628616333</t>
+    <t xml:space="preserve">4.54986238479614</t>
   </si>
   <si>
     <t xml:space="preserve">4.54163455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53340721130371</t>
+    <t xml:space="preserve">4.53340673446655</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36885499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27835130691528</t>
+    <t xml:space="preserve">4.36885452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27835178375244</t>
   </si>
   <si>
     <t xml:space="preserve">4.42644834518433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41822099685669</t>
+    <t xml:space="preserve">4.41822052001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.46758604049683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4017653465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91633749008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98215818405151</t>
+    <t xml:space="preserve">4.40176486968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91633772850037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98215842247009</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03563737869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88342642784119</t>
+    <t xml:space="preserve">4.03563785552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88342666625977</t>
   </si>
   <si>
     <t xml:space="preserve">4.0191822052002</t>
@@ -2354,10 +2354,10 @@
     <t xml:space="preserve">3.99038553237915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01095390319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05209302902222</t>
+    <t xml:space="preserve">4.0109543800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05209255218506</t>
   </si>
   <si>
     <t xml:space="preserve">3.93690586090088</t>
@@ -2366,19 +2366,19 @@
     <t xml:space="preserve">3.92867875099182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17962074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50872421264648</t>
+    <t xml:space="preserve">4.17961978912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50872468948364</t>
   </si>
   <si>
     <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10968589782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15493774414062</t>
+    <t xml:space="preserve">4.10968494415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15493822097778</t>
   </si>
   <si>
     <t xml:space="preserve">4.23721361160278</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">4.3523998260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21253061294556</t>
+    <t xml:space="preserve">4.21253108978271</t>
   </si>
   <si>
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848257064819</t>
+    <t xml:space="preserve">4.13848209381104</t>
   </si>
   <si>
     <t xml:space="preserve">4.0808892250061</t>
@@ -2405,40 +2405,40 @@
     <t xml:space="preserve">4.25366878509521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27012395858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22898626327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08500337600708</t>
+    <t xml:space="preserve">4.2701244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22898578643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
     <t xml:space="preserve">4.1220269203186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10557222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0479793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05620622634888</t>
+    <t xml:space="preserve">4.10557174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04797840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05620574951172</t>
   </si>
   <si>
     <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07266092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09734392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1014575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96570301055908</t>
+    <t xml:space="preserve">4.07266139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09734439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10145807266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570253372192</t>
   </si>
   <si>
     <t xml:space="preserve">3.94101977348328</t>
@@ -2447,10 +2447,10 @@
     <t xml:space="preserve">3.93279218673706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99449872970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677555084229</t>
+    <t xml:space="preserve">3.99449896812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677507400513</t>
   </si>
   <si>
     <t xml:space="preserve">4.1631646156311</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">4.22075796127319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924736022949</t>
+    <t xml:space="preserve">4.1302547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924783706665</t>
   </si>
   <si>
     <t xml:space="preserve">3.94513344764709</t>
@@ -2471,55 +2471,55 @@
     <t xml:space="preserve">3.82583332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85051608085632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640264511108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80937814712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7394437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7435576915741</t>
+    <t xml:space="preserve">3.85051584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8464024066925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80937838554382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73944425582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74355792999268</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824021339417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66128158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65305423736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191534996033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432271957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672937393188</t>
+    <t xml:space="preserve">3.6612811088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305376052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191558837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672985076904</t>
   </si>
   <si>
     <t xml:space="preserve">3.57077813148499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59134697914124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780262947083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66539549827576</t>
+    <t xml:space="preserve">3.59134650230408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780239105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659906387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.72710251808167</t>
@@ -2528,22 +2528,22 @@
     <t xml:space="preserve">3.7312159538269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67362332344055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68596434593201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609513282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368847846985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59546065330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63248467445374</t>
+    <t xml:space="preserve">3.67362284660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68596482276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609537124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368800163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59546089172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63248491287231</t>
   </si>
   <si>
     <t xml:space="preserve">3.62014365196228</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">3.36508798599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33217787742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70241975784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70653295516968</t>
+    <t xml:space="preserve">3.33217763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241928100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70653343200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.71064734458923</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">4.40999269485474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33594465255737</t>
+    <t xml:space="preserve">4.33594512939453</t>
   </si>
   <si>
     <t xml:space="preserve">4.29480648040771</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50049638748169</t>
+    <t xml:space="preserve">4.50049686431885</t>
   </si>
   <si>
     <t xml:space="preserve">4.45935869216919</t>
@@ -2597,31 +2597,31 @@
     <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454442977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92833137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99415302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06820106506348</t>
+    <t xml:space="preserve">4.57454490661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92833185195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99415254592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06820058822632</t>
   </si>
   <si>
     <t xml:space="preserve">4.96124219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97769737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00238037109375</t>
+    <t xml:space="preserve">4.97769784927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00237989425659</t>
   </si>
   <si>
     <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96946954727173</t>
+    <t xml:space="preserve">4.96947002410889</t>
   </si>
   <si>
     <t xml:space="preserve">4.92010450363159</t>
@@ -2630,25 +2630,25 @@
     <t xml:space="preserve">5.04351854324341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25743532180786</t>
+    <t xml:space="preserve">5.25743579864502</t>
   </si>
   <si>
     <t xml:space="preserve">5.24098014831543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19161510467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10111093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15870428085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1833872795105</t>
+    <t xml:space="preserve">5.19161415100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1011118888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15870475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18338775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
@@ -2663,67 +2663,67 @@
     <t xml:space="preserve">5.87450551986694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90741634368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99792003631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97323751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94855403900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94032669067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00614786148071</t>
+    <t xml:space="preserve">5.90741539001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99791955947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97323703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94855356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94032621383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00614738464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3846173286438</t>
+    <t xml:space="preserve">6.38461685180664</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334789276123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45043754577637</t>
+    <t xml:space="preserve">6.45043802261353</t>
   </si>
   <si>
     <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26943016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33525085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30119037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42040205001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81209754943848</t>
+    <t xml:space="preserve">6.26943063735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33525133132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45446252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3011908531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42040252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81209802627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397754669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57367467880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72694635391235</t>
+    <t xml:space="preserve">6.74397659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57367420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72694683074951</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991659164429</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">6.76100730895996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30597496032715</t>
+    <t xml:space="preserve">7.30597448348999</t>
   </si>
   <si>
     <t xml:space="preserve">7.49330806732178</t>
@@ -2744,19 +2744,19 @@
     <t xml:space="preserve">8.39591026306152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22560691833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25966930389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17451763153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31075859069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34481906890869</t>
+    <t xml:space="preserve">8.22560787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25966835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17451858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31075954437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34482002258301</t>
   </si>
   <si>
     <t xml:space="preserve">8.29372882843018</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">9.02602958679199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.068603515625</t>
+    <t xml:space="preserve">9.06860446929932</t>
   </si>
   <si>
     <t xml:space="preserve">8.98345375061035</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">8.85572719573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60027503967285</t>
+    <t xml:space="preserve">8.60027313232422</t>
   </si>
   <si>
     <t xml:space="preserve">8.64284896850586</t>
@@ -2786,19 +2786,19 @@
     <t xml:space="preserve">8.46403121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36185073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76579093933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251878738403</t>
+    <t xml:space="preserve">8.36184978485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76579141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251926422119</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0212459564209</t>
+    <t xml:space="preserve">8.02124500274658</t>
   </si>
   <si>
     <t xml:space="preserve">7.93609380722046</t>
@@ -2813,22 +2813,22 @@
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00421524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66361093521118</t>
+    <t xml:space="preserve">8.0042142868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66360998153687</t>
   </si>
   <si>
     <t xml:space="preserve">7.57845878601074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15270280838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033735275269</t>
+    <t xml:space="preserve">7.15270233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033782958984</t>
   </si>
   <si>
     <t xml:space="preserve">7.59548950195312</t>
@@ -2837,19 +2837,19 @@
     <t xml:space="preserve">7.74876165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08936595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98718452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03827571868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203332901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342643737793</t>
+    <t xml:space="preserve">8.0893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98718547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03827476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342739105225</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
@@ -2858,25 +2858,25 @@
     <t xml:space="preserve">8.55769824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40920925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28148365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19633293151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94087886810303</t>
+    <t xml:space="preserve">9.40921115875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2814826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19633197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94087791442871</t>
   </si>
   <si>
     <t xml:space="preserve">8.81315135955811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89830303192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72799968719482</t>
+    <t xml:space="preserve">8.89830207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72800064086914</t>
   </si>
   <si>
     <t xml:space="preserve">8.4810619354248</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">8.42997074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44700050354004</t>
+    <t xml:space="preserve">8.44700145721436</t>
   </si>
   <si>
     <t xml:space="preserve">9.49436187744141</t>
@@ -2897,22 +2897,22 @@
     <t xml:space="preserve">9.87754249572754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62208938598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91154098510742</t>
+    <t xml:space="preserve">9.62208843231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91154003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95539665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623920440674</t>
+    <t xml:space="preserve">9.69225883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.955397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
     <t xml:space="preserve">10.0869655609131</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.0431089401245</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99925231933594</t>
+    <t xml:space="preserve">9.99925327301025</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
@@ -2939,40 +2939,40 @@
     <t xml:space="preserve">9.7799711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73611450195312</t>
+    <t xml:space="preserve">9.73611545562744</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29755020141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2098388671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77127456665039</t>
+    <t xml:space="preserve">9.60454654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29755115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20983791351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77127552032471</t>
   </si>
   <si>
     <t xml:space="preserve">9.0344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64840126037598</t>
+    <t xml:space="preserve">9.64840221405029</t>
   </si>
   <si>
     <t xml:space="preserve">9.42912006378174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56068992614746</t>
+    <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
     <t xml:space="preserve">9.82382774353027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51683330535889</t>
+    <t xml:space="preserve">9.51683235168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2981,22 +2981,22 @@
     <t xml:space="preserve">9.34140682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25369548797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99055576324463</t>
+    <t xml:space="preserve">9.25369453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99055671691895</t>
   </si>
   <si>
     <t xml:space="preserve">8.94670009613037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16598224639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6133918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71864700317383</t>
+    <t xml:space="preserve">9.16598129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61339092254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71864604949951</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
@@ -3005,22 +3005,22 @@
     <t xml:space="preserve">8.0344877243042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991230010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05203056335449</t>
+    <t xml:space="preserve">8.20991325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05202960968018</t>
   </si>
   <si>
     <t xml:space="preserve">7.47312641143799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42049789428711</t>
+    <t xml:space="preserve">7.42049837112427</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957244873047</t>
+    <t xml:space="preserve">8.06957149505615</t>
   </si>
   <si>
     <t xml:space="preserve">7.82397747039795</t>
@@ -3032,13 +3032,13 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4905948638916</t>
+    <t xml:space="preserve">7.99940252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533878326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059391021729</t>
   </si>
   <si>
     <t xml:space="preserve">8.43796539306641</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90284442901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70987606048584</t>
+    <t xml:space="preserve">8.9028434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70987510681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254177093506</t>
+    <t xml:space="preserve">8.26253986358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.07834434509277</t>
@@ -3074,22 +3074,22 @@
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114231109619</t>
+    <t xml:space="preserve">8.20114135742188</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30639839172363</t>
+    <t xml:space="preserve">8.30639743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98186063766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28885364532471</t>
+    <t xml:space="preserve">7.98186016082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
     <t xml:space="preserve">8.1835994720459</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417476654053</t>
+    <t xml:space="preserve">8.62096118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417572021484</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265827178955</t>
+    <t xml:space="preserve">8.60265731811523</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3137,16 +3137,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872806549072</t>
+    <t xml:space="preserve">8.96872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448726654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939792633057</t>
+    <t xml:space="preserve">9.01448822021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939697265625</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944374084473</t>
+    <t xml:space="preserve">8.57520198822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3194,19 +3194,22 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524875640869</t>
+    <t xml:space="preserve">8.03524780273438</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
   </si>
   <si>
+    <t xml:space="preserve">8.01694488525391</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.07185554504395</t>
   </si>
   <si>
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97118616104126</t>
+    <t xml:space="preserve">7.9711856842041</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3215,28 +3218,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051677703857</t>
+    <t xml:space="preserve">8.11761474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051725387573</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542743682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560611724854</t>
+    <t xml:space="preserve">7.92542695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560564041138</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88882064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966823577881</t>
+    <t xml:space="preserve">7.8888201713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966775894165</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3257,7 +3260,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466499328613</t>
+    <t xml:space="preserve">8.90466594696045</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3275,7 +3278,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569316864014</t>
+    <t xml:space="preserve">8.78569412231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3296,7 +3299,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663333892822</t>
+    <t xml:space="preserve">7.69663286209106</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3305,10 +3308,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172267913818</t>
+    <t xml:space="preserve">7.41292905807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172315597534</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3332,40 +3335,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591766357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645370483398</t>
+    <t xml:space="preserve">8.13591861724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645418167114</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136531829834</t>
+    <t xml:space="preserve">7.86136484146118</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7606954574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
+    <t xml:space="preserve">7.76069498062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154447555542</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6783299446106</t>
+    <t xml:space="preserve">7.67832946777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087366104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748092651367</t>
+    <t xml:space="preserve">7.65087413787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748140335083</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3374,13 +3377,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475852966309</t>
+    <t xml:space="preserve">7.82475805282593</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2457389831543</t>
+    <t xml:space="preserve">8.24573993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3389,7 +3392,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55690002441406</t>
+    <t xml:space="preserve">8.55689907073975</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3398,16 +3401,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131950378418</t>
+    <t xml:space="preserve">8.40131855010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51114082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47453308105469</t>
+    <t xml:space="preserve">8.51113986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.474534034729</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3449,19 +3452,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649494171143</t>
+    <t xml:space="preserve">9.31649589538574</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0785493850708</t>
+    <t xml:space="preserve">9.07855033874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497844696045</t>
+    <t xml:space="preserve">9.22497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3473,10 +3476,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140560150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0510950088501</t>
+    <t xml:space="preserve">9.37140655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05109405517578</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3485,10 +3488,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515712738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935211181641</t>
+    <t xml:space="preserve">9.11515617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935115814209</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3506,19 +3509,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44461917877197</t>
+    <t xml:space="preserve">9.44462013244629</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988815307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685325622559</t>
+    <t xml:space="preserve">9.27988910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328136444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685230255127</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -47277,7 +47280,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1653" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47303,7 +47306,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1654" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47329,7 +47332,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G1655" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47355,7 +47358,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1656" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47381,7 +47384,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1657" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47407,7 +47410,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1658" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47433,7 +47436,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1659" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47459,7 +47462,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1660" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47485,7 +47488,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1661" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47511,7 +47514,7 @@
         <v>8.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47537,7 +47540,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1663" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47563,7 +47566,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1664" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47589,7 +47592,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1665" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47615,7 +47618,7 @@
         <v>8.75</v>
       </c>
       <c r="G1666" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47641,7 +47644,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1667" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47667,7 +47670,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1668" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47693,7 +47696,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1669" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47719,7 +47722,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1670" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47745,7 +47748,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1671" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47771,7 +47774,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1672" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47797,7 +47800,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1673" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47823,7 +47826,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1674" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47849,7 +47852,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1675" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47901,7 +47904,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1677" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47927,7 +47930,7 @@
         <v>10</v>
       </c>
       <c r="G1678" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47953,7 +47956,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1679" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47979,7 +47982,7 @@
         <v>9.75</v>
       </c>
       <c r="G1680" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48031,7 +48034,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1682" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48109,7 +48112,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G1685" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48135,7 +48138,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1686" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48187,7 +48190,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G1688" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48213,7 +48216,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1689" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48239,7 +48242,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1690" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48291,7 +48294,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1692" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48343,7 +48346,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48369,7 +48372,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G1695" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48473,7 +48476,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1699" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48551,7 +48554,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1702" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48577,7 +48580,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48603,7 +48606,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G1704" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48629,7 +48632,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1705" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48655,7 +48658,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G1706" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48681,7 +48684,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48707,7 +48710,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1708" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48733,7 +48736,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1709" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48759,7 +48762,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1710" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48785,7 +48788,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1711" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48811,7 +48814,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1712" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48837,7 +48840,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1713" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48863,7 +48866,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1714" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48889,7 +48892,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48915,7 +48918,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1716" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48941,7 +48944,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1717" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48967,7 +48970,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1718" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48993,7 +48996,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1719" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49019,7 +49022,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1720" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49071,7 +49074,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G1722" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49097,7 +49100,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1723" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49123,7 +49126,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1724" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49149,7 +49152,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1725" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49175,7 +49178,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G1726" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49201,7 +49204,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1727" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49227,7 +49230,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G1728" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49253,7 +49256,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1729" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49279,7 +49282,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1730" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49305,7 +49308,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G1731" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49331,7 +49334,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G1732" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49357,7 +49360,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1733" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49383,7 +49386,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1734" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49435,7 +49438,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1736" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49487,7 +49490,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G1738" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49565,7 +49568,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1741" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49591,7 +49594,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1742" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49617,7 +49620,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1743" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49643,7 +49646,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1744" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49669,7 +49672,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49695,7 +49698,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1746" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49721,7 +49724,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1747" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49773,7 +49776,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1749" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49851,7 +49854,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1752" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49877,7 +49880,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49903,7 +49906,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1754" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49929,7 +49932,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1755" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49955,7 +49958,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1756" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49981,7 +49984,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1757" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50007,7 +50010,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1758" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50033,7 +50036,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1759" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50059,7 +50062,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1760" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50085,7 +50088,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1761" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50111,7 +50114,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1762" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50137,7 +50140,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G1763" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50163,7 +50166,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1764" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50189,7 +50192,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1765" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50215,7 +50218,7 @@
         <v>9</v>
       </c>
       <c r="G1766" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50293,7 +50296,7 @@
         <v>9</v>
       </c>
       <c r="G1769" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50319,7 +50322,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1770" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50371,7 +50374,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1772" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50397,7 +50400,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1773" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50423,7 +50426,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1774" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50449,7 +50452,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G1775" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50475,7 +50478,7 @@
         <v>9</v>
       </c>
       <c r="G1776" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50501,7 +50504,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1777" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50605,7 +50608,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1781" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50631,7 +50634,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50657,7 +50660,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1783" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50683,7 +50686,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1784" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50709,7 +50712,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G1785" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50761,7 +50764,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1787" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50787,7 +50790,7 @@
         <v>9.47000026702881</v>
       </c>
       <c r="G1788" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50813,7 +50816,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1789" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50839,7 +50842,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1790" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50865,7 +50868,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1791" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50891,7 +50894,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1792" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50917,7 +50920,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1793" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50943,7 +50946,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1794" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50969,7 +50972,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1795" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50995,7 +50998,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G1796" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51047,7 +51050,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G1798" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51073,7 +51076,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1799" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51125,7 +51128,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1801" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51151,7 +51154,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1802" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51177,7 +51180,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1803" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51255,7 +51258,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1806" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51281,7 +51284,7 @@
         <v>10</v>
       </c>
       <c r="G1807" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51307,7 +51310,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1808" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51333,7 +51336,7 @@
         <v>10</v>
       </c>
       <c r="G1809" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51359,7 +51362,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1810" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51385,7 +51388,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G1811" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51437,7 +51440,7 @@
         <v>10</v>
       </c>
       <c r="G1813" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51463,7 +51466,7 @@
         <v>10</v>
       </c>
       <c r="G1814" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51489,7 +51492,7 @@
         <v>10</v>
       </c>
       <c r="G1815" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51515,7 +51518,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1816" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51541,7 +51544,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1817" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51567,7 +51570,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51593,7 +51596,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1819" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51619,7 +51622,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1820" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51645,7 +51648,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51671,7 +51674,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51749,7 +51752,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1825" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51775,7 +51778,7 @@
         <v>9.75</v>
       </c>
       <c r="G1826" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51801,7 +51804,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51853,7 +51856,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51879,7 +51882,7 @@
         <v>10.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51905,7 +51908,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51931,7 +51934,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1832" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51957,7 +51960,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1833" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51983,7 +51986,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1834" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52009,7 +52012,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1835" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52035,7 +52038,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1836" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52061,7 +52064,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1837" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52087,7 +52090,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1838" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52113,7 +52116,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1839" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52139,7 +52142,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G1840" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52191,7 +52194,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1842" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52217,7 +52220,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1843" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52243,7 +52246,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1844" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52269,7 +52272,7 @@
         <v>10</v>
       </c>
       <c r="G1845" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52295,7 +52298,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52321,7 +52324,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52347,7 +52350,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1848" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52373,7 +52376,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1849" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52399,7 +52402,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52425,7 +52428,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52451,7 +52454,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1852" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52477,7 +52480,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1853" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52503,7 +52506,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52529,7 +52532,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1855" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52581,7 +52584,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1857" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52659,7 +52662,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52737,7 +52740,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G1863" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52763,7 +52766,7 @@
         <v>10</v>
       </c>
       <c r="G1864" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52789,7 +52792,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1865" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52815,7 +52818,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1866" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52919,7 +52922,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G1870" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52945,7 +52948,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1871" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52971,7 +52974,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1872" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52997,7 +53000,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1873" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53023,7 +53026,7 @@
         <v>9.75</v>
       </c>
       <c r="G1874" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53049,7 +53052,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1875" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53075,7 +53078,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1876" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53101,7 +53104,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53127,7 +53130,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1878" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53153,7 +53156,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1879" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53179,7 +53182,7 @@
         <v>9.5</v>
       </c>
       <c r="G1880" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53205,7 +53208,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1881" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53231,7 +53234,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1882" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53257,7 +53260,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1883" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53283,7 +53286,7 @@
         <v>9.5</v>
       </c>
       <c r="G1884" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53309,7 +53312,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1885" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53335,7 +53338,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53361,7 +53364,7 @@
         <v>9.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53387,7 +53390,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1888" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53413,7 +53416,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53439,7 +53442,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53465,7 +53468,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53491,7 +53494,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1892" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53517,7 +53520,7 @@
         <v>9.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53543,7 +53546,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1894" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53569,7 +53572,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1895" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53595,7 +53598,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1896" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53621,7 +53624,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1897" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53647,7 +53650,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53673,7 +53676,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1899" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53699,7 +53702,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1900" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53725,7 +53728,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1901" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53751,7 +53754,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1902" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53777,7 +53780,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G1903" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53803,7 +53806,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1904" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53829,7 +53832,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1905" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53855,7 +53858,7 @@
         <v>9</v>
       </c>
       <c r="G1906" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53881,7 +53884,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53907,7 +53910,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1908" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53933,7 +53936,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1909" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53959,7 +53962,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1910" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53985,7 +53988,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1911" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54011,7 +54014,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1912" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54037,7 +54040,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1913" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54063,7 +54066,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1914" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54089,7 +54092,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1915" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54115,7 +54118,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1916" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54141,7 +54144,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G1917" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54167,7 +54170,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1918" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54193,7 +54196,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54219,7 +54222,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1920" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54245,7 +54248,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54271,7 +54274,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1922" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54297,7 +54300,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54323,7 +54326,7 @@
         <v>9</v>
       </c>
       <c r="G1924" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54349,7 +54352,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1925" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54375,7 +54378,7 @@
         <v>9</v>
       </c>
       <c r="G1926" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54401,7 +54404,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1927" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54427,7 +54430,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1928" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54453,7 +54456,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1929" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54479,7 +54482,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1930" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54505,7 +54508,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1931" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54531,7 +54534,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1932" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54557,7 +54560,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G1933" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54583,7 +54586,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1934" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54609,7 +54612,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54635,7 +54638,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1936" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54661,7 +54664,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1937" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54687,7 +54690,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1938" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54713,7 +54716,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1939" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54739,7 +54742,7 @@
         <v>8.75</v>
       </c>
       <c r="G1940" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54765,7 +54768,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1941" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54791,7 +54794,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54817,7 +54820,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1943" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54843,7 +54846,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54869,7 +54872,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1945" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54895,7 +54898,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1946" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54921,7 +54924,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1947" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54947,7 +54950,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1948" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54973,7 +54976,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54999,7 +55002,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1950" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55025,7 +55028,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1951" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55051,7 +55054,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1952" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55077,7 +55080,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1953" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55103,7 +55106,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1954" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55129,7 +55132,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55155,7 +55158,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1956" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55181,7 +55184,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1957" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55207,7 +55210,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1958" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55233,7 +55236,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1959" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55259,7 +55262,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G1960" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55285,7 +55288,7 @@
         <v>8.5</v>
       </c>
       <c r="G1961" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55311,7 +55314,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55337,7 +55340,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1963" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55363,7 +55366,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55389,7 +55392,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1965" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55415,7 +55418,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55441,7 +55444,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1967" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55467,7 +55470,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55493,7 +55496,7 @@
         <v>8.5</v>
       </c>
       <c r="G1969" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55519,7 +55522,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55545,7 +55548,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1971" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55571,7 +55574,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55597,7 +55600,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1973" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55623,7 +55626,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1974" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55649,7 +55652,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G1975" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55675,7 +55678,7 @@
         <v>8.25</v>
       </c>
       <c r="G1976" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55701,7 +55704,7 @@
         <v>8.25</v>
       </c>
       <c r="G1977" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55727,7 +55730,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1978" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55753,7 +55756,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1979" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55779,7 +55782,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1980" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55805,7 +55808,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55831,7 +55834,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1982" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55857,7 +55860,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G1983" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55883,7 +55886,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1984" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55909,7 +55912,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G1985" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55935,7 +55938,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55961,7 +55964,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1987" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55987,7 +55990,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1988" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56013,7 +56016,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1989" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56039,7 +56042,7 @@
         <v>7.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56065,7 +56068,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1991" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56091,7 +56094,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1992" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56117,7 +56120,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1993" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56143,7 +56146,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56169,7 +56172,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56195,7 +56198,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1996" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56221,7 +56224,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56247,7 +56250,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1998" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56273,7 +56276,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56299,7 +56302,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56325,7 +56328,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2001" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56351,7 +56354,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2002" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56377,7 +56380,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2003" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56403,7 +56406,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56429,7 +56432,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G2005" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56455,7 +56458,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2006" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56481,7 +56484,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2007" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56507,7 +56510,7 @@
         <v>7.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56533,7 +56536,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G2009" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56559,7 +56562,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56585,7 +56588,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2011" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56611,7 +56614,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56637,7 +56640,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56663,7 +56666,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2014" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56689,7 +56692,7 @@
         <v>8.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56715,7 +56718,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2016" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56741,7 +56744,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56767,7 +56770,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2018" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56793,7 +56796,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2019" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56819,7 +56822,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2020" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56845,7 +56848,7 @@
         <v>8.75</v>
       </c>
       <c r="G2021" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56871,7 +56874,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2022" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56897,7 +56900,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2023" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56923,7 +56926,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2024" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56949,7 +56952,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2025" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56975,7 +56978,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2026" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57001,7 +57004,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2027" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57027,7 +57030,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2028" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57053,7 +57056,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2029" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57079,7 +57082,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2030" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57105,7 +57108,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2031" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57131,7 +57134,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2032" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57157,7 +57160,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2033" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57183,7 +57186,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57209,7 +57212,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2035" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57235,7 +57238,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2036" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57261,7 +57264,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2037" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57287,7 +57290,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2038" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57313,7 +57316,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2039" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57339,7 +57342,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2040" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57365,7 +57368,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57391,7 +57394,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2042" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57417,7 +57420,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2043" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57443,7 +57446,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2044" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57469,7 +57472,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2045" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57495,7 +57498,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2046" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57521,7 +57524,7 @@
         <v>8.5</v>
       </c>
       <c r="G2047" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57547,7 +57550,7 @@
         <v>8.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57573,7 +57576,7 @@
         <v>8.5</v>
       </c>
       <c r="G2049" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57599,7 +57602,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57625,7 +57628,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2051" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57651,7 +57654,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2052" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57677,7 +57680,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2053" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57703,7 +57706,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2054" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57729,7 +57732,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57755,7 +57758,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2056" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57781,7 +57784,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2057" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57807,7 +57810,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57833,7 +57836,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2059" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57859,7 +57862,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2060" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57885,7 +57888,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2061" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57911,7 +57914,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57937,7 +57940,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2063" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57963,7 +57966,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2064" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57989,7 +57992,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58015,7 +58018,7 @@
         <v>8.25</v>
       </c>
       <c r="G2066" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58041,7 +58044,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2067" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58067,7 +58070,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2068" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58093,7 +58096,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2069" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58119,7 +58122,7 @@
         <v>8.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58145,7 +58148,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58171,7 +58174,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2072" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58197,7 +58200,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2073" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58223,7 +58226,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2074" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58249,7 +58252,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58275,7 +58278,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2076" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58301,7 +58304,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2077" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58327,7 +58330,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2078" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58353,7 +58356,7 @@
         <v>8</v>
       </c>
       <c r="G2079" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58379,7 +58382,7 @@
         <v>8</v>
       </c>
       <c r="G2080" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58405,7 +58408,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58431,7 +58434,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58457,7 +58460,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G2083" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58483,7 +58486,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2084" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58509,7 +58512,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2085" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58535,7 +58538,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58561,7 +58564,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2087" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58587,7 +58590,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2088" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58613,7 +58616,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2089" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58639,7 +58642,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2090" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58665,7 +58668,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58691,7 +58694,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58717,7 +58720,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2093" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58743,7 +58746,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58769,7 +58772,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2095" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58795,7 +58798,7 @@
         <v>8.25</v>
       </c>
       <c r="G2096" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58821,7 +58824,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58847,7 +58850,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2098" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58873,7 +58876,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2099" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58899,7 +58902,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2100" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58925,7 +58928,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58951,7 +58954,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2102" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58977,7 +58980,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2103" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59003,7 +59006,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2104" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59029,7 +59032,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2105" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59055,7 +59058,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59081,7 +59084,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59107,7 +59110,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2108" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59133,7 +59136,7 @@
         <v>8</v>
       </c>
       <c r="G2109" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59159,7 +59162,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59185,7 +59188,7 @@
         <v>8</v>
       </c>
       <c r="G2111" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59211,7 +59214,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59237,7 +59240,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59263,7 +59266,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2114" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59289,7 +59292,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59315,7 +59318,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59341,7 +59344,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59367,7 +59370,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59393,7 +59396,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2119" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59419,7 +59422,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2120" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59445,7 +59448,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2121" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59471,7 +59474,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2122" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59497,7 +59500,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2123" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59523,7 +59526,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2124" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59549,7 +59552,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2125" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59575,7 +59578,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2126" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59601,7 +59604,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2127" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59627,7 +59630,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59653,7 +59656,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2129" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59679,7 +59682,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2130" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59705,7 +59708,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2131" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59731,7 +59734,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2132" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59757,7 +59760,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2133" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59783,7 +59786,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2134" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59809,7 +59812,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59835,7 +59838,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2136" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59861,7 +59864,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2137" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59887,7 +59890,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2138" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59913,7 +59916,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2139" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59939,7 +59942,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2140" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59965,7 +59968,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2141" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59991,7 +59994,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60017,7 +60020,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2143" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60043,7 +60046,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2144" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60069,7 +60072,7 @@
         <v>8.5</v>
       </c>
       <c r="G2145" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60095,7 +60098,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2146" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60121,7 +60124,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2147" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60147,7 +60150,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2148" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60173,7 +60176,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2149" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60199,7 +60202,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2150" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60225,7 +60228,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2151" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60251,7 +60254,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2152" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60277,7 +60280,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2153" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60303,7 +60306,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60329,7 +60332,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2155" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60355,7 +60358,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2156" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60363,7 +60366,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494097222</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>5089</v>
@@ -60381,9 +60384,35 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2157" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493171296</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>12413</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>8.88000011444092</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>8.9399995803833</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596603870392</t>
+    <t xml:space="preserve">1.27346646785736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596580028534</t>
   </si>
   <si>
     <t xml:space="preserve">1.26611387729645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29258334636688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31170010566711</t>
+    <t xml:space="preserve">1.29258322715759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31169986724854</t>
   </si>
   <si>
     <t xml:space="preserve">1.32566976547241</t>
@@ -65,28 +65,28 @@
     <t xml:space="preserve">1.33596336841583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32346403598785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30875873565674</t>
+    <t xml:space="preserve">1.32346415519714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30875897407532</t>
   </si>
   <si>
     <t xml:space="preserve">1.26758444309235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25214409828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302733898163</t>
+    <t xml:space="preserve">1.25214397907257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302745819092</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729072093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30728840827942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2955242395401</t>
+    <t xml:space="preserve">1.30728828907013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29552435874939</t>
   </si>
   <si>
     <t xml:space="preserve">1.27493703365326</t>
@@ -107,16 +107,16 @@
     <t xml:space="preserve">1.18376505374908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15729558467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1396496295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612396240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568216323853</t>
+    <t xml:space="preserve">1.15729570388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13964951038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612384319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568228244781</t>
   </si>
   <si>
     <t xml:space="preserve">1.07053542137146</t>
@@ -125,49 +125,49 @@
     <t xml:space="preserve">1.05141854286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07347631454468</t>
+    <t xml:space="preserve">1.07347655296326</t>
   </si>
   <si>
     <t xml:space="preserve">1.09479880332947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15067839622498</t>
+    <t xml:space="preserve">1.15067851543427</t>
   </si>
   <si>
     <t xml:space="preserve">1.16832458972931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16538369655609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14700222015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17641246318817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317529678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15435492992401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18744146823883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16170752048492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1881765127182</t>
+    <t xml:space="preserve">1.1653835773468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14700210094452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17641258239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317541599274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15435481071472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18744158744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16170740127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18817675113678</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20582270622253</t>
+    <t xml:space="preserve">1.20582282543182</t>
   </si>
   <si>
     <t xml:space="preserve">1.23670375347137</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2425856590271</t>
+    <t xml:space="preserve">1.24258577823639</t>
   </si>
   <si>
     <t xml:space="preserve">1.22861588001251</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">1.28670120239258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30655312538147</t>
+    <t xml:space="preserve">1.30655300617218</t>
   </si>
   <si>
     <t xml:space="preserve">1.30214154720306</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">1.28228950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30581784248352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23008644580841</t>
+    <t xml:space="preserve">1.30581796169281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23008620738983</t>
   </si>
   <si>
     <t xml:space="preserve">1.25067341327667</t>
@@ -218,46 +218,46 @@
     <t xml:space="preserve">1.25655555725098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26317286491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26243758201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29920065402985</t>
+    <t xml:space="preserve">1.26317298412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26243770122528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29920053482056</t>
   </si>
   <si>
     <t xml:space="preserve">1.29405379295349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25876140594482</t>
+    <t xml:space="preserve">1.25876128673553</t>
   </si>
   <si>
     <t xml:space="preserve">1.28523063659668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27861320972443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934873104095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2896420955658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27199590206146</t>
+    <t xml:space="preserve">1.27861332893372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934861183167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28964221477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27199602127075</t>
   </si>
   <si>
     <t xml:space="preserve">1.28302490711212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35581529140472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36022686958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33816909790039</t>
+    <t xml:space="preserve">1.35581541061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36022698879242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33816921710968</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">1.30949425697327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29846525192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26831960678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21170496940613</t>
+    <t xml:space="preserve">1.2984653711319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26831984519958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21170485019684</t>
   </si>
   <si>
     <t xml:space="preserve">1.19773483276367</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">1.17420673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17567718029022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1925882101059</t>
+    <t xml:space="preserve">1.17567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19258809089661</t>
   </si>
   <si>
     <t xml:space="preserve">1.20288181304932</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11759197711945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12347400188446</t>
+    <t xml:space="preserve">1.11759185791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12347412109375</t>
   </si>
   <si>
     <t xml:space="preserve">1.13597321510315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13229691982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023938655853</t>
+    <t xml:space="preserve">1.13229703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023926734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.15582525730133</t>
@@ -323,37 +323,37 @@
     <t xml:space="preserve">1.15803122520447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14920794963837</t>
+    <t xml:space="preserve">1.14920783042908</t>
   </si>
   <si>
     <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15361940860748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16758954524994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21391069889069</t>
+    <t xml:space="preserve">1.15361952781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16758942604065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2139105796814</t>
   </si>
   <si>
     <t xml:space="preserve">1.41169500350952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5602171421051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.561687707901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52345418930054</t>
+    <t xml:space="preserve">1.56021702289581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168758869171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52345430850983</t>
   </si>
   <si>
     <t xml:space="preserve">1.48522078990936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52933621406555</t>
+    <t xml:space="preserve">1.52933597564697</t>
   </si>
   <si>
     <t xml:space="preserve">1.47051560878754</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">1.49404394626617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50727832317352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49992597103119</t>
+    <t xml:space="preserve">1.5072785615921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4999258518219</t>
   </si>
   <si>
     <t xml:space="preserve">1.48669147491455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49257326126099</t>
+    <t xml:space="preserve">1.49257338047028</t>
   </si>
   <si>
     <t xml:space="preserve">1.48816180229187</t>
@@ -386,58 +386,58 @@
     <t xml:space="preserve">1.48080909252167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49845552444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55433523654938</t>
+    <t xml:space="preserve">1.49845540523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55433511734009</t>
   </si>
   <si>
     <t xml:space="preserve">1.77785336971283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74550211429596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961243629456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666899204254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078927993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931907176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8602020740509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81608700752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138182640076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490713596344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372809886932</t>
+    <t xml:space="preserve">1.74550223350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961267471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666911125183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078904151917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931871414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020219326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.816086769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138194561005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490737438202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372774124146</t>
   </si>
   <si>
     <t xml:space="preserve">1.91608202457428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91314089298248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078720569611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92931628227234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519854545593</t>
+    <t xml:space="preserve">1.91314101219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078672885895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519842624664</t>
   </si>
   <si>
     <t xml:space="preserve">1.9204934835434</t>
@@ -446,19 +446,19 @@
     <t xml:space="preserve">1.90431761741638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91902256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90137672424316</t>
+    <t xml:space="preserve">1.91902315616608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90137660503387</t>
   </si>
   <si>
     <t xml:space="preserve">1.92343461513519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93961024284363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96166777610779</t>
+    <t xml:space="preserve">1.93961036205292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9616676568985</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401440620422</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">2.12930655479431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19106864929199</t>
+    <t xml:space="preserve">2.19106817245483</t>
   </si>
   <si>
     <t xml:space="preserve">2.14107084274292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09695529937744</t>
+    <t xml:space="preserve">2.09695553779602</t>
   </si>
   <si>
     <t xml:space="preserve">2.13077712059021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842610359192</t>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842562675476</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
@@ -494,16 +494,16 @@
     <t xml:space="preserve">2.19695043563843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27782869338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26606464385986</t>
+    <t xml:space="preserve">2.27782845497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26606440544128</t>
   </si>
   <si>
     <t xml:space="preserve">2.08813214302063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97637283802032</t>
+    <t xml:space="preserve">1.97637319564819</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901550292969</t>
@@ -521,22 +521,22 @@
     <t xml:space="preserve">2.08225011825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07636785507202</t>
+    <t xml:space="preserve">2.0763680934906</t>
   </si>
   <si>
     <t xml:space="preserve">2.03519368171692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0146062374115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95578598976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019756793976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196102142334</t>
+    <t xml:space="preserve">2.01460647583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95578587055206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019721031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97196125984192</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843339920044</t>
@@ -545,13 +545,13 @@
     <t xml:space="preserve">1.87784826755524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89549469947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696004390717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99254882335663</t>
+    <t xml:space="preserve">1.89549481868744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696028232574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99254846572876</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431275367737</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">2.09548473358154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08666157722473</t>
+    <t xml:space="preserve">2.08666181564331</t>
   </si>
   <si>
     <t xml:space="preserve">2.08372068405151</t>
@@ -569,28 +569,28 @@
     <t xml:space="preserve">2.03813481330872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05431032180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05872201919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06019234657288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06754493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313371658325</t>
+    <t xml:space="preserve">2.05431008338928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05872178077698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06019258499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06754469871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313323974609</t>
   </si>
   <si>
     <t xml:space="preserve">2.10283708572388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694533348083</t>
+    <t xml:space="preserve">2.17636346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694557189941</t>
   </si>
   <si>
     <t xml:space="preserve">2.2719464302063</t>
@@ -599,25 +599,25 @@
     <t xml:space="preserve">2.23812484741211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16606998443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19989132881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047877311707</t>
+    <t xml:space="preserve">2.16606950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19989156723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047853469849</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753764152527</t>
+    <t xml:space="preserve">2.21753740310669</t>
   </si>
   <si>
     <t xml:space="preserve">2.24988889694214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23518395423889</t>
+    <t xml:space="preserve">2.23518371582031</t>
   </si>
   <si>
     <t xml:space="preserve">2.25430011749268</t>
@@ -626,52 +626,52 @@
     <t xml:space="preserve">2.23959541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24694800376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25871205329895</t>
+    <t xml:space="preserve">2.2469482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25871229171753</t>
   </si>
   <si>
     <t xml:space="preserve">2.24253630638123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21606707572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136189460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22341990470886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20577335357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22194910049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35282492637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61163568496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61016511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61604762077332</t>
+    <t xml:space="preserve">2.21606683731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136213302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2234194278717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20577359199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22194933891296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35282516479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61163592338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61016535758972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61604738235474</t>
   </si>
   <si>
     <t xml:space="preserve">2.60575366020203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5866367816925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52193403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64545774459839</t>
+    <t xml:space="preserve">2.58663725852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52193427085876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64545798301697</t>
   </si>
   <si>
     <t xml:space="preserve">2.60281252861023</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">2.56457901000977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56016778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59840130805969</t>
+    <t xml:space="preserve">2.56016755104065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59840106964111</t>
   </si>
   <si>
     <t xml:space="preserve">2.57634329795837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61751747131348</t>
+    <t xml:space="preserve">2.61751794815063</t>
   </si>
   <si>
     <t xml:space="preserve">2.5954601764679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78662705421448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85280013084412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83809542655945</t>
+    <t xml:space="preserve">2.78662729263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8528003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83809494972229</t>
   </si>
   <si>
     <t xml:space="preserve">2.98808789253235</t>
@@ -719,46 +719,46 @@
     <t xml:space="preserve">3.39983224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55129528045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217401504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89319062232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716710090637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480902671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84172224998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848567962646</t>
+    <t xml:space="preserve">3.55129551887512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89318990707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716757774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480854988098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.841721534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848544120789</t>
   </si>
   <si>
     <t xml:space="preserve">3.97039222717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14685392379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449584960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4005184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37478399276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596326828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140907287598</t>
+    <t xml:space="preserve">4.14685440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449537277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40051746368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37478351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596374511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140811920166</t>
   </si>
   <si>
     <t xml:space="preserve">4.52183532714844</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">4.51815891265869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990446090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177333831787</t>
+    <t xml:space="preserve">4.77917528152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990350723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177429199219</t>
   </si>
   <si>
     <t xml:space="preserve">5.02916288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35267639160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26444625854492</t>
+    <t xml:space="preserve">5.35267686843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26444578170776</t>
   </si>
   <si>
     <t xml:space="preserve">5.71662998199463</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">6.71290349960327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09523820877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584024429321</t>
+    <t xml:space="preserve">7.09523725509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584072113037</t>
   </si>
   <si>
     <t xml:space="preserve">7.04377031326294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44389820098877</t>
+    <t xml:space="preserve">7.44389772415161</t>
   </si>
   <si>
     <t xml:space="preserve">7.32310485839844</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">7.11926651000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67006540298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85503005981445</t>
+    <t xml:space="preserve">6.6700644493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85502910614014</t>
   </si>
   <si>
     <t xml:space="preserve">6.66629028320312</t>
@@ -827,34 +827,34 @@
     <t xml:space="preserve">6.37185573577881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63609170913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83238124847412</t>
+    <t xml:space="preserve">6.63609266281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688505172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238172531128</t>
   </si>
   <si>
     <t xml:space="preserve">6.71913719177246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46245193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397348403931</t>
+    <t xml:space="preserve">6.46245145797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397443771362</t>
   </si>
   <si>
     <t xml:space="preserve">6.68893909454346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79085826873779</t>
+    <t xml:space="preserve">6.79085779190063</t>
   </si>
   <si>
     <t xml:space="preserve">6.63986682891846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490121841431</t>
+    <t xml:space="preserve">6.45490217208862</t>
   </si>
   <si>
     <t xml:space="preserve">6.41337871551514</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03589963912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97550296783447</t>
+    <t xml:space="preserve">6.0359001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97550249099731</t>
   </si>
   <si>
     <t xml:space="preserve">5.98305225372314</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">5.11484861373901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43570613861084</t>
+    <t xml:space="preserve">5.43570709228516</t>
   </si>
   <si>
     <t xml:space="preserve">5.22431802749634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20921850204468</t>
+    <t xml:space="preserve">5.20921945571899</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465099334717</t>
@@ -911,37 +911,37 @@
     <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16769647598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00538063049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233514785767</t>
+    <t xml:space="preserve">5.16769695281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00538015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233467102051</t>
   </si>
   <si>
     <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91855955123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06200265884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77511692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73359441757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71472024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65809917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59770154953003</t>
+    <t xml:space="preserve">4.91855907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06200170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77511739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73359489440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71472072601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65809869766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59770250320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.60147666931152</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">5.28471517562866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09597444534302</t>
+    <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
     <t xml:space="preserve">5.04690265655518</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">5.00160503387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91478490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723562240601</t>
+    <t xml:space="preserve">4.91478538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723466873169</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81664037704468</t>
+    <t xml:space="preserve">4.81663990020752</t>
   </si>
   <si>
     <t xml:space="preserve">4.85816287994385</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">4.89213562011719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90346050262451</t>
+    <t xml:space="preserve">4.90346097946167</t>
   </si>
   <si>
     <t xml:space="preserve">4.98273134231567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99405574798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19789457321167</t>
+    <t xml:space="preserve">4.99405527114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19789409637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.06955146789551</t>
@@ -998,67 +998,67 @@
     <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39795923233032</t>
+    <t xml:space="preserve">5.39795827865601</t>
   </si>
   <si>
     <t xml:space="preserve">5.36776065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4508056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36021089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17901992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9902811050415</t>
+    <t xml:space="preserve">5.45080614089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36021041870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17902040481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99028062820435</t>
   </si>
   <si>
     <t xml:space="preserve">5.24319219589233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14882278442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392183303833</t>
+    <t xml:space="preserve">5.14882230758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">5.05822658538818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13372278213501</t>
+    <t xml:space="preserve">5.13372325897217</t>
   </si>
   <si>
     <t xml:space="preserve">5.30358934402466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33001232147217</t>
+    <t xml:space="preserve">5.33001279830933</t>
   </si>
   <si>
     <t xml:space="preserve">5.26584100723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20166921615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19034481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305780410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88490724563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19066524505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06232213973999</t>
+    <t xml:space="preserve">5.20166969299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19034433364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49232912063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88490772247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19066572189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06232261657715</t>
   </si>
   <si>
     <t xml:space="preserve">6.33410835266113</t>
@@ -1073,37 +1073,37 @@
     <t xml:space="preserve">6.51529836654663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84748029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38350200653076</t>
+    <t xml:space="preserve">6.84748077392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38350105285645</t>
   </si>
   <si>
     <t xml:space="preserve">7.23628425598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46654748916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919630050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806301116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53104114532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85567188262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39924240112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75407409667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7204217910767</t>
+    <t xml:space="preserve">7.4665470123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919582366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53103923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85567092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39924335479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.754075050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7204208374023</t>
   </si>
   <si>
     <t xml:space="preserve">8.84057235717773</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">8.62918472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41024494171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19130897521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38759708404541</t>
+    <t xml:space="preserve">8.41024684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19130706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38759613037109</t>
   </si>
   <si>
     <t xml:space="preserve">8.50084114074707</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">8.38004875183105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27435302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581230163574</t>
+    <t xml:space="preserve">8.27435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581134796143</t>
   </si>
   <si>
     <t xml:space="preserve">7.77608013153076</t>
@@ -1145,73 +1145,73 @@
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687395095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428424835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22905540466309</t>
+    <t xml:space="preserve">7.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137727737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687490463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75343179702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2290563583374</t>
   </si>
   <si>
     <t xml:space="preserve">8.34984970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23660469055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44044399261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31965160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24415588378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1309118270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94971990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79117965698242</t>
+    <t xml:space="preserve">8.23660564422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44044494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31965065002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24415493011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13091087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94972085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117918014526</t>
   </si>
   <si>
     <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30800628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224178314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31932926177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714273452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9270715713501</t>
+    <t xml:space="preserve">7.30800580978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224082946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31932973861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469249725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92707204818726</t>
   </si>
   <si>
     <t xml:space="preserve">8.0327672958374</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60998868942261</t>
+    <t xml:space="preserve">7.60998964309692</t>
   </si>
   <si>
     <t xml:space="preserve">7.60243940353394</t>
@@ -1220,58 +1220,58 @@
     <t xml:space="preserve">7.54204225540161</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2400598526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668140411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51184558868408</t>
+    <t xml:space="preserve">7.45522260665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330247879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668188095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51184463500977</t>
   </si>
   <si>
     <t xml:space="preserve">7.25893306732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19476222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23250961303711</t>
+    <t xml:space="preserve">7.19476127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23251056671143</t>
   </si>
   <si>
     <t xml:space="preserve">7.12304019927979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30045557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780675888062</t>
+    <t xml:space="preserve">7.30045652389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780628204346</t>
   </si>
   <si>
     <t xml:space="preserve">7.32687950134277</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51562023162842</t>
+    <t xml:space="preserve">7.5156192779541</t>
   </si>
   <si>
     <t xml:space="preserve">7.49297094345093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36840295791626</t>
+    <t xml:space="preserve">7.3684024810791</t>
   </si>
   <si>
     <t xml:space="preserve">7.70058441162109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693115234375</t>
+    <t xml:space="preserve">8.21395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693305969238</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123828887939</t>
@@ -1280,46 +1280,46 @@
     <t xml:space="preserve">8.30455207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28945350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04786586761475</t>
+    <t xml:space="preserve">8.28945255279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1988582611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04786491394043</t>
   </si>
   <si>
     <t xml:space="preserve">8.15356063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766777038574</t>
+    <t xml:space="preserve">8.01766872406006</t>
   </si>
   <si>
     <t xml:space="preserve">8.16865825653076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85157680511475</t>
+    <t xml:space="preserve">7.85157585144043</t>
   </si>
   <si>
     <t xml:space="preserve">7.12681531906128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08151912689209</t>
+    <t xml:space="preserve">7.08151865005493</t>
   </si>
   <si>
     <t xml:space="preserve">6.89277791976929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96827363967896</t>
+    <t xml:space="preserve">6.96827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">6.80973243713379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317506790161</t>
+    <t xml:space="preserve">6.96072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317459106445</t>
   </si>
   <si>
     <t xml:space="preserve">6.88522815704346</t>
@@ -1331,64 +1331,64 @@
     <t xml:space="preserve">6.87767887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59834480285645</t>
+    <t xml:space="preserve">6.59834432601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.50019836425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801691055298</t>
+    <t xml:space="preserve">6.31900930404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801786422729</t>
   </si>
   <si>
     <t xml:space="preserve">6.15291786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56814432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5756950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76443529129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78708410263062</t>
+    <t xml:space="preserve">6.56814622879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57569456100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7644362449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78708362579346</t>
   </si>
   <si>
     <t xml:space="preserve">7.00602149963379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993196487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60589361190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205383300781</t>
+    <t xml:space="preserve">6.83993148803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953290939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60589408874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205430984497</t>
   </si>
   <si>
     <t xml:space="preserve">6.4398021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22086477279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2284140586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18311548233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08497142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616239547729</t>
+    <t xml:space="preserve">6.22086429595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22841358184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18311595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0849723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616191864014</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">6.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47755002975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49265003204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059551239014</t>
+    <t xml:space="preserve">6.4775505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4926495552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059598922729</t>
   </si>
   <si>
     <t xml:space="preserve">6.53039741516113</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">6.62099361419678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61344337463379</t>
+    <t xml:space="preserve">6.61344194412231</t>
   </si>
   <si>
     <t xml:space="preserve">6.65119171142578</t>
@@ -1430,22 +1430,22 @@
     <t xml:space="preserve">6.69836330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974334716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822856903076</t>
+    <t xml:space="preserve">6.78484344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974382400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822904586792</t>
   </si>
   <si>
     <t xml:space="preserve">6.39960956573486</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">6.19519901275635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25023221969604</t>
+    <t xml:space="preserve">6.2502326965332</t>
   </si>
   <si>
     <t xml:space="preserve">6.2345085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15588903427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24237108230591</t>
+    <t xml:space="preserve">6.1558895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24237060546875</t>
   </si>
   <si>
     <t xml:space="preserve">6.13230419158936</t>
@@ -1475,25 +1475,25 @@
     <t xml:space="preserve">5.75493144989014</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8807225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83355045318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17947626113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09299421310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92003202438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07727003097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04582214355469</t>
+    <t xml:space="preserve">5.88072204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83355093002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09299468994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9200325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07727098464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04582262039185</t>
   </si>
   <si>
     <t xml:space="preserve">6.1716136932373</t>
@@ -1505,25 +1505,25 @@
     <t xml:space="preserve">6.64332914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87918710708618</t>
+    <t xml:space="preserve">6.87918663024902</t>
   </si>
   <si>
     <t xml:space="preserve">6.77698183059692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65119075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61188125610352</t>
+    <t xml:space="preserve">6.65119123458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61188077926636</t>
   </si>
   <si>
     <t xml:space="preserve">6.43105745315552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36030006408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06154632568359</t>
+    <t xml:space="preserve">6.36029958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06154680252075</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368423461914</t>
@@ -1532,46 +1532,46 @@
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361734390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84927463531494</t>
+    <t xml:space="preserve">5.94361686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84927415847778</t>
   </si>
   <si>
     <t xml:space="preserve">6.03796052932739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06940841674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90430784225464</t>
+    <t xml:space="preserve">6.06940793991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934104919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9043083190918</t>
   </si>
   <si>
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575525283813</t>
+    <t xml:space="preserve">5.93575572967529</t>
   </si>
   <si>
     <t xml:space="preserve">5.81782674789429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85713577270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80996417999268</t>
+    <t xml:space="preserve">5.85713624954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851724624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80996465682983</t>
   </si>
   <si>
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920774459839</t>
+    <t xml:space="preserve">5.73920726776123</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
@@ -1580,19 +1580,19 @@
     <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69203567504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76279258728027</t>
+    <t xml:space="preserve">5.69203519821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76279354095459</t>
   </si>
   <si>
     <t xml:space="preserve">5.78637933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62914085388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53479719161987</t>
+    <t xml:space="preserve">5.62914037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53479766845703</t>
   </si>
   <si>
     <t xml:space="preserve">5.44045400619507</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0300989151001</t>
+    <t xml:space="preserve">5.86499834060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03009843826294</t>
   </si>
   <si>
     <t xml:space="preserve">5.74706935882568</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39328289031982</t>
+    <t xml:space="preserve">5.39328241348267</t>
   </si>
   <si>
     <t xml:space="preserve">5.34611129760742</t>
@@ -1622,376 +1622,376 @@
     <t xml:space="preserve">5.36183500289917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3225245475769</t>
+    <t xml:space="preserve">5.32252502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30680084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26749134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17314910888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9687385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00804805755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06308174133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12597703933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9923243522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1023907661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15742492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14170074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0945291519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19673442840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42473030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33824920654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38541984558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52540016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56471061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3131275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40747117996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28954172134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29107713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22818231582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18887281417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24390649795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27535343170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13383865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29893922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20459651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0552191734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03163433074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0237717628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0709433555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2203197479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1495623588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00018644332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69357061386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48129892349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5992283821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633260726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695526123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37123155593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51274633407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52847051620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67784690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.945152759552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35397243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33038759231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18101072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25962972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50335025787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51907348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45617818832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36969661712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55052137374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41686820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57410717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68417358398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71562194824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66058826446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72348308563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631196975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1480278968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42319583892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53326225280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10085582733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08513212203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.108717918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2030611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32885217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30526638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2109227180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12444162368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16375160217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595640182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174795150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678068161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457540512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32098960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671426773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27381801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506475448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0065131187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77065515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02223634719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82568883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74286413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56185722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7346363067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61945009231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008457183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64413261413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50426387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52894639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54540157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249074935913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39730501174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31502914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24920845031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42198801040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46312522888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60299444198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55362892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37262201309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34793901443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749134063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17314863204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025333404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9687385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00804758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06308221817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12597751617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9923243522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1023907661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15742492675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14170074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09452962875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19673442840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42473077774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33824920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38542032241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52540016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56471061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31312799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.407470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28954267501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29107761383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22818231582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18887233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24390649795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27535390853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13383913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29893922805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20459651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05521965026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03163433074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0237717628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07094287872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2203197479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14956283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00018692016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69357109069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48129892349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633260726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695573806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37123155593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51274633407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52847003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570899963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67784643173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.945152759552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35397291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33038759231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18101072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25962924957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334978103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976350784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51907348632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45617866516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36969614028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55052137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41686820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57410717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68417358398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63700246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71562147140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66058778762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72348356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733644485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42319536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53326272964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10085582733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08513212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10871744155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20306062698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3288516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526685714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21092319488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1244421005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16375112533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32099008560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2738184928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00651264190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77065515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134565353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02223682403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82568788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74286365509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5618577003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7346363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61945009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6441330909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66058826446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50426387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52894639968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54540157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39730501174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31502914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24920797348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42198753356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46312522888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60299444198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55362892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3726224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907718658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34793901443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36439418792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43021583557129</t>
+    <t xml:space="preserve">5.3643946647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43021535873413</t>
   </si>
   <si>
     <t xml:space="preserve">5.71818113327026</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98969221115112</t>
+    <t xml:space="preserve">5.98969173431396</t>
   </si>
   <si>
     <t xml:space="preserve">5.9567813873291</t>
@@ -2015,10 +2015,10 @@
     <t xml:space="preserve">5.8333683013916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78400230407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75931930541992</t>
+    <t xml:space="preserve">5.78400182723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75931978225708</t>
   </si>
   <si>
     <t xml:space="preserve">5.75109195709229</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">5.62767791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57831192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58653974533081</t>
+    <t xml:space="preserve">5.57831239700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58654022216797</t>
   </si>
   <si>
     <t xml:space="preserve">5.45489835739136</t>
@@ -2042,106 +2042,106 @@
     <t xml:space="preserve">4.93655920028687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95301485061646</t>
+    <t xml:space="preserve">4.9530143737793</t>
   </si>
   <si>
     <t xml:space="preserve">4.73909711837769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21629762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05997276306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87073850631714</t>
+    <t xml:space="preserve">5.21629810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05997323989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8707389831543</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90364933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8625111579895</t>
+    <t xml:space="preserve">4.903648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86251068115234</t>
   </si>
   <si>
     <t xml:space="preserve">4.87896633148193</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82137298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85428285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9118766784668</t>
+    <t xml:space="preserve">4.82137250900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85428333282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91187620162964</t>
   </si>
   <si>
     <t xml:space="preserve">5.142249584198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48780870437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27389097213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29034614562988</t>
+    <t xml:space="preserve">5.48780918121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27389049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29034566879272</t>
   </si>
   <si>
     <t xml:space="preserve">5.40553283691406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47958087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47135305404663</t>
+    <t xml:space="preserve">5.47958040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47135353088379</t>
   </si>
   <si>
     <t xml:space="preserve">5.4137601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33148336410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38084936141968</t>
+    <t xml:space="preserve">5.33148384094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38084983825684</t>
   </si>
   <si>
     <t xml:space="preserve">5.26566362380981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32325649261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33971118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44667100906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43844318389893</t>
+    <t xml:space="preserve">5.3232569694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33971166610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44667053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43844270706177</t>
   </si>
   <si>
     <t xml:space="preserve">5.80045747756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79222965240479</t>
+    <t xml:space="preserve">5.79223012924194</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881608963013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84159469604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70172643661499</t>
+    <t xml:space="preserve">5.84159517288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70172595977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868530273438</t>
+    <t xml:space="preserve">5.80868482589722</t>
   </si>
   <si>
     <t xml:space="preserve">5.6852707862854</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">5.6934986114502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12956047058105</t>
+    <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
     <t xml:space="preserve">6.04728507995605</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">5.9238715171814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70995330810547</t>
+    <t xml:space="preserve">5.70995378494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.67704343795776</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">5.65236043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61122226715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63590526580811</t>
+    <t xml:space="preserve">5.61122274398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63590478897095</t>
   </si>
   <si>
     <t xml:space="preserve">5.49603605270386</t>
@@ -2189,40 +2189,40 @@
     <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16693258285522</t>
+    <t xml:space="preserve">5.16693210601807</t>
   </si>
   <si>
     <t xml:space="preserve">5.11756610870361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23275279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79668951034546</t>
+    <t xml:space="preserve">5.23275327682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79668998718262</t>
   </si>
   <si>
     <t xml:space="preserve">4.77200746536255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80491781234741</t>
+    <t xml:space="preserve">4.80491828918457</t>
   </si>
   <si>
     <t xml:space="preserve">4.60745525360107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36062717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31948900222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03152370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81760621070862</t>
+    <t xml:space="preserve">4.3606276512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31948947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03152418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81760573387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.42268085479736</t>
@@ -2240,55 +2240,55 @@
     <t xml:space="preserve">3.24990153312683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20876359939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09357714653015</t>
+    <t xml:space="preserve">3.20876383781433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09357738494873</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117025375366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29103970527649</t>
+    <t xml:space="preserve">3.29103946685791</t>
   </si>
   <si>
     <t xml:space="preserve">3.17996716499329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37331557273865</t>
+    <t xml:space="preserve">3.37331533432007</t>
   </si>
   <si>
     <t xml:space="preserve">3.41445350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38154315948486</t>
+    <t xml:space="preserve">3.38154339790344</t>
   </si>
   <si>
     <t xml:space="preserve">3.40211248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40622568130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39799833297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375363349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495767593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6283712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7764675617218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53786778450012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419145584106</t>
+    <t xml:space="preserve">3.40622615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39799857139587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495743751526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62837100028992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77646780014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53786754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419121742249</t>
   </si>
   <si>
     <t xml:space="preserve">3.71887469291687</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">3.90810966491699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99861335754395</t>
+    <t xml:space="preserve">3.99861311912537</t>
   </si>
   <si>
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54986190795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54163455963135</t>
+    <t xml:space="preserve">4.54986238479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54163503646851</t>
   </si>
   <si>
     <t xml:space="preserve">4.53340673446655</t>
@@ -2318,70 +2318,70 @@
     <t xml:space="preserve">4.36885499954224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27835083007812</t>
+    <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
     <t xml:space="preserve">4.42644834518433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41822004318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46758604049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4017653465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91633677482605</t>
+    <t xml:space="preserve">4.41822052001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46758651733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40176486968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91633725166321</t>
   </si>
   <si>
     <t xml:space="preserve">3.98215794563293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02329540252686</t>
+    <t xml:space="preserve">4.02329587936401</t>
   </si>
   <si>
     <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88342595100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01918172836304</t>
+    <t xml:space="preserve">3.88342666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0191822052002</t>
   </si>
   <si>
     <t xml:space="preserve">4.06443405151367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99038577079773</t>
+    <t xml:space="preserve">3.99038553237915</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109543800354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05209302902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9369056224823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9286789894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17961978912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50872468948364</t>
+    <t xml:space="preserve">4.05209255218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93690586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92867875099182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17962026596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50872421264648</t>
   </si>
   <si>
     <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10968542098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15493774414062</t>
+    <t xml:space="preserve">4.10968494415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15493726730347</t>
   </si>
   <si>
     <t xml:space="preserve">4.23721361160278</t>
@@ -2393,160 +2393,160 @@
     <t xml:space="preserve">4.3523998260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21253108978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14670944213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13848257064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08088970184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25366926193237</t>
+    <t xml:space="preserve">4.21253061294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14670991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13848209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08088874816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25366878509521</t>
   </si>
   <si>
     <t xml:space="preserve">4.27012395858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22898530960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08500337600708</t>
+    <t xml:space="preserve">4.22898578643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
     <t xml:space="preserve">4.12202739715576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10557174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04797840118408</t>
+    <t xml:space="preserve">4.10557222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
     <t xml:space="preserve">4.05620574951172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01506805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07266092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09734439849854</t>
+    <t xml:space="preserve">4.01506853103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07266139984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09734392166138</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9657027721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9410195350647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279242515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677459716797</t>
+    <t xml:space="preserve">3.96570253372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94102025032043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449896812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677555084229</t>
   </si>
   <si>
     <t xml:space="preserve">4.16316509246826</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22075843811035</t>
+    <t xml:space="preserve">4.22075796127319</t>
   </si>
   <si>
     <t xml:space="preserve">4.1302547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94924807548523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513416290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583355903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85051655769348</t>
+    <t xml:space="preserve">3.94924736022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513392448425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82583332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8505163192749</t>
   </si>
   <si>
     <t xml:space="preserve">3.8464024066925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80937886238098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73944354057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74355745315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824021339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6612811088562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65305376052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191558837891</t>
+    <t xml:space="preserve">3.80937814712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73944401741028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7435576915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76824045181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66128134727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305399894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191534996033</t>
   </si>
   <si>
     <t xml:space="preserve">3.55432319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48027443885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672985076904</t>
+    <t xml:space="preserve">3.48027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672961235046</t>
   </si>
   <si>
     <t xml:space="preserve">3.57077813148499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59134674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780239105225</t>
+    <t xml:space="preserve">3.59134650230408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780262947083</t>
   </si>
   <si>
     <t xml:space="preserve">3.63659906387329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66539549827576</t>
+    <t xml:space="preserve">3.66539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.72710251808167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73121643066406</t>
+    <t xml:space="preserve">3.73121619224548</t>
   </si>
   <si>
     <t xml:space="preserve">3.67362284660339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68596458435059</t>
+    <t xml:space="preserve">3.68596482276917</t>
   </si>
   <si>
     <t xml:space="preserve">3.54609513282776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60368824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59546065330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63248491287231</t>
+    <t xml:space="preserve">3.60368776321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59546113014221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63248467445374</t>
   </si>
   <si>
     <t xml:space="preserve">3.6201434135437</t>
@@ -2555,22 +2555,22 @@
     <t xml:space="preserve">3.30749487876892</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36508822441101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33217787742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70241975784302</t>
+    <t xml:space="preserve">3.36508798599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33217763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241951942444</t>
   </si>
   <si>
     <t xml:space="preserve">3.70653367042542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71064710617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31126117706299</t>
+    <t xml:space="preserve">3.71064734458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31126165390015</t>
   </si>
   <si>
     <t xml:space="preserve">4.19607543945312</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">4.33594465255737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29480648040771</t>
+    <t xml:space="preserve">4.29480695724487</t>
   </si>
   <si>
     <t xml:space="preserve">4.26189613342285</t>
@@ -2591,19 +2591,19 @@
     <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45935916900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45113039016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61568307876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57454490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92833089828491</t>
+    <t xml:space="preserve">4.45935869216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45113086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61568355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57454442977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.99415302276611</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">5.06820058822632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96124219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97769737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00238037109375</t>
+    <t xml:space="preserve">4.96124267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97769784927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00237989425659</t>
   </si>
   <si>
     <t xml:space="preserve">5.01060819625854</t>
@@ -2657,25 +2657,25 @@
     <t xml:space="preserve">5.29857397079468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85804986953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96500968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87450504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90741634368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99791955947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97323703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94855403900146</t>
+    <t xml:space="preserve">5.85805034637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9650092124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87450551986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90741586685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99792003631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97323656082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94855356216431</t>
   </si>
   <si>
     <t xml:space="preserve">5.94032669067383</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">6.00614738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07196855545044</t>
+    <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
     <t xml:space="preserve">6.38461637496948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48334836959839</t>
+    <t xml:space="preserve">6.48334789276123</t>
   </si>
   <si>
     <t xml:space="preserve">6.45043802261353</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26943016052246</t>
+    <t xml:space="preserve">6.26943063735962</t>
   </si>
   <si>
     <t xml:space="preserve">6.33525085449219</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30119037628174</t>
+    <t xml:space="preserve">6.3011908531189</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
@@ -2720,13 +2720,13 @@
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397706985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57367372512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72694683074951</t>
+    <t xml:space="preserve">6.74397659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57367420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72694635391235</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991659164429</t>
@@ -2735,19 +2735,19 @@
     <t xml:space="preserve">6.76100730895996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30597448348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49330711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79985189437866</t>
+    <t xml:space="preserve">7.30597496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49330759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79985237121582</t>
   </si>
   <si>
     <t xml:space="preserve">8.39591026306152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22560882568359</t>
+    <t xml:space="preserve">8.22560787200928</t>
   </si>
   <si>
     <t xml:space="preserve">8.25966835021973</t>
@@ -2756,19 +2756,19 @@
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075859069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34482002258301</t>
+    <t xml:space="preserve">8.31075954437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34482097625732</t>
   </si>
   <si>
     <t xml:space="preserve">8.29372882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02602958679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06860542297363</t>
+    <t xml:space="preserve">9.02603054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06860446929932</t>
   </si>
   <si>
     <t xml:space="preserve">8.98345375061035</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">8.64284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41294097900391</t>
+    <t xml:space="preserve">8.41294002532959</t>
   </si>
   <si>
     <t xml:space="preserve">8.46403121948242</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">8.36184978485107</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76579093933105</t>
+    <t xml:space="preserve">7.76579141616821</t>
   </si>
   <si>
     <t xml:space="preserve">7.61251926422119</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">8.02124500274658</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93609285354614</t>
+    <t xml:space="preserve">7.93609380722046</t>
   </si>
   <si>
     <t xml:space="preserve">8.0723352432251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10639572143555</t>
+    <t xml:space="preserve">8.10639667510986</t>
   </si>
   <si>
     <t xml:space="preserve">8.14045715332031</t>
@@ -2819,22 +2819,22 @@
     <t xml:space="preserve">8.0042142868042</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83391237258911</t>
+    <t xml:space="preserve">7.83391141891479</t>
   </si>
   <si>
     <t xml:space="preserve">7.66360998153687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57845830917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270280838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59548902511597</t>
+    <t xml:space="preserve">7.57845878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033735275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59548950195312</t>
   </si>
   <si>
     <t xml:space="preserve">7.74876165390015</t>
@@ -2843,16 +2843,16 @@
     <t xml:space="preserve">8.0893669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98718500137329</t>
+    <t xml:space="preserve">7.98718547821045</t>
   </si>
   <si>
     <t xml:space="preserve">8.03827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90203332901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342643737793</t>
+    <t xml:space="preserve">7.90203380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342739105225</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94087791442871</t>
+    <t xml:space="preserve">8.94087886810303</t>
   </si>
   <si>
     <t xml:space="preserve">8.81315135955811</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51512336730957</t>
+    <t xml:space="preserve">8.51512241363525</t>
   </si>
   <si>
     <t xml:space="preserve">8.42997074127197</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">8.44700145721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49436092376709</t>
+    <t xml:space="preserve">9.49436187744141</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754154205322</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91154098510742</t>
+    <t xml:space="preserve">9.91154003143311</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
@@ -2912,19 +2912,19 @@
     <t xml:space="preserve">9.69225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95539665222168</t>
+    <t xml:space="preserve">9.955397605896</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0869665145874</t>
+    <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
     <t xml:space="preserve">10.0431089401245</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99925231933594</t>
+    <t xml:space="preserve">9.99925327301025</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
@@ -2933,10 +2933,10 @@
     <t xml:space="preserve">10.2185344696045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.130823135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3939609527588</t>
+    <t xml:space="preserve">10.1308221817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3939599990845</t>
   </si>
   <si>
     <t xml:space="preserve">9.7799711227417</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">9.47297668457031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60454559326172</t>
+    <t xml:space="preserve">9.60454654693604</t>
   </si>
   <si>
     <t xml:space="preserve">9.29755115509033</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">9.20983791351318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77127456665039</t>
+    <t xml:space="preserve">8.77127552032471</t>
   </si>
   <si>
     <t xml:space="preserve">9.0344123840332</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">9.64840221405029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42911911010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56068992614746</t>
+    <t xml:space="preserve">9.42912006378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
     <t xml:space="preserve">9.82382774353027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51683330535889</t>
+    <t xml:space="preserve">9.51683235168457</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2993,22 +2993,22 @@
     <t xml:space="preserve">8.94670009613037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16598224639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6133918762207</t>
+    <t xml:space="preserve">9.16598129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61339092254639</t>
   </si>
   <si>
     <t xml:space="preserve">8.71864604949951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7361888885498</t>
+    <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
     <t xml:space="preserve">8.0344877243042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20991230010986</t>
+    <t xml:space="preserve">8.20991325378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.05202960968018</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82397651672363</t>
+    <t xml:space="preserve">8.06957149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82397747039795</t>
   </si>
   <si>
     <t xml:space="preserve">8.28008270263672</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940204620361</t>
+    <t xml:space="preserve">7.99940252304077</t>
   </si>
   <si>
     <t xml:space="preserve">8.38533878326416</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">8.81513118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50813579559326</t>
+    <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70987606048584</t>
+    <t xml:space="preserve">8.70987510681152</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3068,19 +3068,19 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254081726074</t>
+    <t xml:space="preserve">8.26253986358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.07834434509277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35902500152588</t>
+    <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
     <t xml:space="preserve">8.20114135742188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1572847366333</t>
+    <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.30639743804932</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98185968399048</t>
+    <t xml:space="preserve">7.98186016082764</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">8.1835994720459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17482662200928</t>
+    <t xml:space="preserve">8.17482757568359</t>
   </si>
   <si>
     <t xml:space="preserve">8.21868419647217</t>
@@ -3972,6 +3972,9 @@
   </si>
   <si>
     <t xml:space="preserve">8.9399995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89999961853027</t>
   </si>
 </sst>
 </file>
@@ -26691,7 +26694,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26717,7 +26720,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G862" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26743,7 +26746,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G863" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26769,7 +26772,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26795,7 +26798,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G865" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26821,7 +26824,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G866" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26847,7 +26850,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G867" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26873,7 +26876,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26899,7 +26902,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G869" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26925,7 +26928,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G870" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26951,7 +26954,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G871" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26977,7 +26980,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G872" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27003,7 +27006,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27055,7 +27058,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G875" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27081,7 +27084,7 @@
         <v>6.75</v>
       </c>
       <c r="G876" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27107,7 +27110,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G877" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27133,7 +27136,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G878" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27159,7 +27162,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G879" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27185,7 +27188,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G880" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27211,7 +27214,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G881" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27237,7 +27240,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G882" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27263,7 +27266,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27289,7 +27292,7 @@
         <v>6.5</v>
       </c>
       <c r="G884" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27315,7 +27318,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>537</v>
+        <v>657</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27367,7 +27370,7 @@
         <v>6.5</v>
       </c>
       <c r="G887" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27783,7 +27786,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G903" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27861,7 +27864,7 @@
         <v>6.75</v>
       </c>
       <c r="G906" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27965,7 +27968,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G910" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28043,7 +28046,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G913" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28069,7 +28072,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G914" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28797,7 +28800,7 @@
         <v>6.75</v>
       </c>
       <c r="G942" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28849,7 +28852,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G944" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29031,7 +29034,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G951" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29057,7 +29060,7 @@
         <v>6.5</v>
       </c>
       <c r="G952" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29265,7 +29268,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G960" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29343,7 +29346,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G963" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29395,7 +29398,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G965" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30435,7 +30438,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30591,7 +30594,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1011" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30617,7 +30620,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1012" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30799,7 +30802,7 @@
         <v>6.75</v>
       </c>
       <c r="G1019" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30825,7 +30828,7 @@
         <v>6.75</v>
       </c>
       <c r="G1020" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30851,7 +30854,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30955,7 +30958,7 @@
         <v>6.75</v>
       </c>
       <c r="G1025" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30981,7 +30984,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1026" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31007,7 +31010,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1027" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31033,7 +31036,7 @@
         <v>6.75</v>
       </c>
       <c r="G1028" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31111,7 +31114,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1031" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31137,7 +31140,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1032" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31215,7 +31218,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1035" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31527,7 +31530,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31631,7 +31634,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1051" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -38079,7 +38082,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1299" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38105,7 +38108,7 @@
         <v>6.5</v>
       </c>
       <c r="G1300" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38131,7 +38134,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1301" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38157,7 +38160,7 @@
         <v>6.5</v>
       </c>
       <c r="G1302" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38625,7 +38628,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1320" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38651,7 +38654,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1321" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -60421,7 +60424,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6396064815</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>34360</v>
@@ -60442,6 +60445,32 @@
         <v>1313</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6493865741</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>4345</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1320">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25140881538391</t>
+    <t xml:space="preserve">1.25140869617462</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346646785736</t>
+    <t xml:space="preserve">1.27346658706665</t>
   </si>
   <si>
     <t xml:space="preserve">1.28596580028534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26611387729645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29258322715759</t>
+    <t xml:space="preserve">1.26611399650574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29258334636688</t>
   </si>
   <si>
     <t xml:space="preserve">1.31169986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32566976547241</t>
+    <t xml:space="preserve">1.3256698846817</t>
   </si>
   <si>
     <t xml:space="preserve">1.33596336841583</t>
@@ -80,34 +80,34 @@
     <t xml:space="preserve">1.23302745819092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25729072093964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30728828907013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29552435874939</t>
+    <t xml:space="preserve">1.25729084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30728840827942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2955242395401</t>
   </si>
   <si>
     <t xml:space="preserve">1.27493703365326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24111521244049</t>
+    <t xml:space="preserve">1.2411150932312</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817420005798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449790477753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18008875846863</t>
+    <t xml:space="preserve">1.23449778556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18008863925934</t>
   </si>
   <si>
     <t xml:space="preserve">1.18376505374908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15729570388794</t>
+    <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.13964951038361</t>
@@ -116,31 +116,31 @@
     <t xml:space="preserve">1.06612384319305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07568228244781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07053542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05141854286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07347655296326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09479880332947</t>
+    <t xml:space="preserve">1.07568216323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07053530216217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05141866207123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07347631454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09479868412018</t>
   </si>
   <si>
     <t xml:space="preserve">1.15067851543427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16832458972931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1653835773468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14700210094452</t>
+    <t xml:space="preserve">1.1683247089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16538369655609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14700198173523</t>
   </si>
   <si>
     <t xml:space="preserve">1.17641258239746</t>
@@ -149,28 +149,28 @@
     <t xml:space="preserve">1.18597078323364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21317541599274</t>
+    <t xml:space="preserve">1.21317553520203</t>
   </si>
   <si>
     <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18744158744812</t>
+    <t xml:space="preserve">1.18744134902954</t>
   </si>
   <si>
     <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18817675113678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347145080566</t>
+    <t xml:space="preserve">1.18817663192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347157001495</t>
   </si>
   <si>
     <t xml:space="preserve">1.20582282543182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23670375347137</t>
+    <t xml:space="preserve">1.23670363426208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">1.22861588001251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22052788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670120239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30655300617218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30214154720306</t>
+    <t xml:space="preserve">1.22052812576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670108318329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30655312538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30214166641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.26464354991913</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">1.28228950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30581796169281</t>
+    <t xml:space="preserve">1.30581784248352</t>
   </si>
   <si>
     <t xml:space="preserve">1.23008620738983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25067341327667</t>
+    <t xml:space="preserve">1.25067353248596</t>
   </si>
   <si>
     <t xml:space="preserve">1.25655555725098</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">1.29920053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29405379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876128673553</t>
+    <t xml:space="preserve">1.2940536737442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876140594482</t>
   </si>
   <si>
     <t xml:space="preserve">1.28523063659668</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">1.27861332893372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27934861183167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28964221477509</t>
+    <t xml:space="preserve">1.27934849262238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2896420955658</t>
   </si>
   <si>
     <t xml:space="preserve">1.27199602127075</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">1.28302490711212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35581541061401</t>
+    <t xml:space="preserve">1.35581529140472</t>
   </si>
   <si>
     <t xml:space="preserve">1.36022698879242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33816921710968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35066866874695</t>
+    <t xml:space="preserve">1.33816933631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35066843032837</t>
   </si>
   <si>
     <t xml:space="preserve">1.34478652477264</t>
@@ -278,64 +278,64 @@
     <t xml:space="preserve">1.21170485019684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19773483276367</t>
+    <t xml:space="preserve">1.19773495197296</t>
   </si>
   <si>
     <t xml:space="preserve">1.17420673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17567729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258809089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288181304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19847023487091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12494444847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.138179063797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11759185791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12347412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13597321510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023926734924</t>
+    <t xml:space="preserve">1.17567718029022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1925882101059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288169384003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1984703540802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12494432926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13817918300629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11759173870087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12347388267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13597333431244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13229691982269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023938655853</t>
   </si>
   <si>
     <t xml:space="preserve">1.15582525730133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15803122520447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920783042908</t>
+    <t xml:space="preserve">1.15803098678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920794963837</t>
   </si>
   <si>
     <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15361952781677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16758942604065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2139105796814</t>
+    <t xml:space="preserve">1.15361940860748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16758954524994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21391069889069</t>
   </si>
   <si>
     <t xml:space="preserve">1.41169500350952</t>
@@ -347,19 +347,19 @@
     <t xml:space="preserve">1.56168758869171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52345430850983</t>
+    <t xml:space="preserve">1.52345407009125</t>
   </si>
   <si>
     <t xml:space="preserve">1.48522078990936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52933597564697</t>
+    <t xml:space="preserve">1.52933609485626</t>
   </si>
   <si>
     <t xml:space="preserve">1.47051560878754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54257106781006</t>
+    <t xml:space="preserve">1.54257082939148</t>
   </si>
   <si>
     <t xml:space="preserve">1.508749127388</t>
@@ -368,121 +368,121 @@
     <t xml:space="preserve">1.49404394626617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5072785615921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4999258518219</t>
+    <t xml:space="preserve">1.50727844238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49992597103119</t>
   </si>
   <si>
     <t xml:space="preserve">1.48669147491455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49257338047028</t>
+    <t xml:space="preserve">1.49257326126099</t>
   </si>
   <si>
     <t xml:space="preserve">1.48816180229187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48080909252167</t>
+    <t xml:space="preserve">1.48080921173096</t>
   </si>
   <si>
     <t xml:space="preserve">1.49845540523529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55433511734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77785336971283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550223350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961267471313</t>
+    <t xml:space="preserve">1.5543349981308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77785360813141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961243629456</t>
   </si>
   <si>
     <t xml:space="preserve">1.93666911125183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88078904151917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931871414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020219326019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.816086769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138194561005</t>
+    <t xml:space="preserve">1.88078951835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931895256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8602020740509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81608688831329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138170719147</t>
   </si>
   <si>
     <t xml:space="preserve">1.87490737438202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93372774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608202457428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314101219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078672885895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92931652069092</t>
+    <t xml:space="preserve">1.93372797966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9160817861557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9131406545639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931663990021</t>
   </si>
   <si>
     <t xml:space="preserve">1.93519842624664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9204934835434</t>
+    <t xml:space="preserve">1.92049336433411</t>
   </si>
   <si>
     <t xml:space="preserve">1.90431761741638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91902315616608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90137660503387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92343461513519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961036205292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9616676568985</t>
+    <t xml:space="preserve">1.91902256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90137672424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92343425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961000442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96166777610779</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401440620422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489266395569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12930655479431</t>
+    <t xml:space="preserve">2.17489242553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12930631637573</t>
   </si>
   <si>
     <t xml:space="preserve">2.19106817245483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14107084274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09695553779602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077712059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11901307106018</t>
+    <t xml:space="preserve">2.14107060432434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09695506095886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1190128326416</t>
   </si>
   <si>
     <t xml:space="preserve">2.09842562675476</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">2.19695043563843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27782845497131</t>
+    <t xml:space="preserve">2.27782869338989</t>
   </si>
   <si>
     <t xml:space="preserve">2.26606440544128</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">2.08813214302063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97637319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06901550292969</t>
+    <t xml:space="preserve">1.97637295722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06901526451111</t>
   </si>
   <si>
     <t xml:space="preserve">2.04989886283875</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">2.11607217788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136675834656</t>
+    <t xml:space="preserve">2.10136699676514</t>
   </si>
   <si>
     <t xml:space="preserve">2.08225011825562</t>
@@ -524,37 +524,37 @@
     <t xml:space="preserve">2.0763680934906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03519368171692</t>
+    <t xml:space="preserve">2.03519344329834</t>
   </si>
   <si>
     <t xml:space="preserve">2.01460647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578587055206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019721031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196125984192</t>
+    <t xml:space="preserve">1.95578598976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019744873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97196173667908</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843339920044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784826755524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549481868744</t>
+    <t xml:space="preserve">1.87784838676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549469947815</t>
   </si>
   <si>
     <t xml:space="preserve">1.99696028232574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99254846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00431275367737</t>
+    <t xml:space="preserve">1.99254870414734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00431299209595</t>
   </si>
   <si>
     <t xml:space="preserve">2.09548473358154</t>
@@ -566,10 +566,10 @@
     <t xml:space="preserve">2.08372068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03813481330872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05431008338928</t>
+    <t xml:space="preserve">2.03813457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05431032180786</t>
   </si>
   <si>
     <t xml:space="preserve">2.05872178077698</t>
@@ -578,85 +578,85 @@
     <t xml:space="preserve">2.06019258499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06754469871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313323974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10283708572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17636346817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2719464302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23812484741211</t>
+    <t xml:space="preserve">2.06754493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313347816467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10283732414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17636322975159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694533348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27194666862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23812460899353</t>
   </si>
   <si>
     <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989156723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047853469849</t>
+    <t xml:space="preserve">2.1998918056488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047877311707</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842100143433</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988889694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23518371582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25430011749268</t>
+    <t xml:space="preserve">2.21753716468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988865852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23518347740173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25430035591125</t>
   </si>
   <si>
     <t xml:space="preserve">2.23959541320801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2469482421875</t>
+    <t xml:space="preserve">2.24694776535034</t>
   </si>
   <si>
     <t xml:space="preserve">2.25871229171753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24253630638123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606683731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136213302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2234194278717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20577359199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22194933891296</t>
+    <t xml:space="preserve">2.2425365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606707572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136189460754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22341966629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20577335357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22194910049438</t>
   </si>
   <si>
     <t xml:space="preserve">2.35282516479492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61163592338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61016535758972</t>
+    <t xml:space="preserve">2.61163568496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61016488075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
@@ -665,19 +665,19 @@
     <t xml:space="preserve">2.60575366020203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58663725852966</t>
+    <t xml:space="preserve">2.5866367816925</t>
   </si>
   <si>
     <t xml:space="preserve">2.52193427085876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64545798301697</t>
+    <t xml:space="preserve">2.64545774459839</t>
   </si>
   <si>
     <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58810758590698</t>
+    <t xml:space="preserve">2.5881073474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457901000977</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">2.5954601764679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78662729263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8528003692627</t>
+    <t xml:space="preserve">2.78662705421448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
     <t xml:space="preserve">2.83809494972229</t>
@@ -713,37 +713,37 @@
     <t xml:space="preserve">2.92632603645325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26454472541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983224868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129551887512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217353820801</t>
+    <t xml:space="preserve">3.26454496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983248710632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217377662659</t>
   </si>
   <si>
     <t xml:space="preserve">3.89318990707397</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75716757774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480854988098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.841721534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848544120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14685440063477</t>
+    <t xml:space="preserve">3.75716733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480902671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84172201156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848496437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039198875427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14685392379761</t>
   </si>
   <si>
     <t xml:space="preserve">4.26449537277222</t>
@@ -752,34 +752,34 @@
     <t xml:space="preserve">4.40051746368408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37478351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596374511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52183532714844</t>
+    <t xml:space="preserve">4.37478303909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596326828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5218358039856</t>
   </si>
   <si>
     <t xml:space="preserve">4.51815891265869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917528152466</t>
+    <t xml:space="preserve">4.77917575836182</t>
   </si>
   <si>
     <t xml:space="preserve">4.92990350723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77177429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02916288375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35267686843872</t>
+    <t xml:space="preserve">5.77177381515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0291633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35267734527588</t>
   </si>
   <si>
     <t xml:space="preserve">5.26444578170776</t>
@@ -788,28 +788,28 @@
     <t xml:space="preserve">5.71662998199463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71295309066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05852460861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71290349960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523725509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04377031326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389772415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310485839844</t>
+    <t xml:space="preserve">5.71295213699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05852365493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71290397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584024429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389677047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310390472412</t>
   </si>
   <si>
     <t xml:space="preserve">7.11926651000977</t>
@@ -818,25 +818,25 @@
     <t xml:space="preserve">6.6700644493103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85502910614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66629028320312</t>
+    <t xml:space="preserve">6.85503053665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66629076004028</t>
   </si>
   <si>
     <t xml:space="preserve">6.37185573577881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63609266281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688505172729</t>
+    <t xml:space="preserve">6.63609170913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688600540161</t>
   </si>
   <si>
     <t xml:space="preserve">6.83238172531128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71913719177246</t>
+    <t xml:space="preserve">6.7191367149353</t>
   </si>
   <si>
     <t xml:space="preserve">6.46245145797729</t>
@@ -848,25 +848,25 @@
     <t xml:space="preserve">6.68893909454346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79085779190063</t>
+    <t xml:space="preserve">6.79085826873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.63986682891846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23218870162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25483703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159393310547</t>
+    <t xml:space="preserve">6.45490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337919235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2321891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25483751296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159345626831</t>
   </si>
   <si>
     <t xml:space="preserve">6.1982159614563</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0359001159668</t>
+    <t xml:space="preserve">6.03589963912964</t>
   </si>
   <si>
     <t xml:space="preserve">5.97550249099731</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">5.63199615478516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11484861373901</t>
+    <t xml:space="preserve">5.11484909057617</t>
   </si>
   <si>
     <t xml:space="preserve">5.43570709228516</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">5.20921945571899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08465099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862421035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259695053101</t>
+    <t xml:space="preserve">5.08465051651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259647369385</t>
   </si>
   <si>
     <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16769695281982</t>
+    <t xml:space="preserve">5.16769647598267</t>
   </si>
   <si>
     <t xml:space="preserve">5.00538015365601</t>
@@ -929,28 +929,28 @@
     <t xml:space="preserve">5.06200170516968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73359489440918</t>
+    <t xml:space="preserve">4.77511692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73359441757202</t>
   </si>
   <si>
     <t xml:space="preserve">4.71472072601318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65809869766235</t>
+    <t xml:space="preserve">4.65809917449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.59770250320435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60147666931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68452262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28471517562866</t>
+    <t xml:space="preserve">4.60147619247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68452167510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2847146987915</t>
   </si>
   <si>
     <t xml:space="preserve">5.09597492218018</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">5.00160503387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91478538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723466873169</t>
+    <t xml:space="preserve">4.91478490829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723514556885</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81663990020752</t>
+    <t xml:space="preserve">4.81663942337036</t>
   </si>
   <si>
     <t xml:space="preserve">4.85816287994385</t>
@@ -980,34 +980,34 @@
     <t xml:space="preserve">4.89213562011719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90346097946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98273134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99405527114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19789409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06955146789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491327285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39795827865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36776065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45080614089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36021041870117</t>
+    <t xml:space="preserve">4.90346002578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98273181915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99405574798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19789457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06955099105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39795875549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.367760181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4508056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36020994186401</t>
   </si>
   <si>
     <t xml:space="preserve">5.17902040481567</t>
@@ -1037,31 +1037,31 @@
     <t xml:space="preserve">5.33001279830933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26584100723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20166969299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19034433364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49232912063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88490772247314</t>
+    <t xml:space="preserve">5.26584148406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20166873931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19034481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305780410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49232864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8849081993103</t>
   </si>
   <si>
     <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06232261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410835266113</t>
+    <t xml:space="preserve">6.06232309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410882949829</t>
   </si>
   <si>
     <t xml:space="preserve">6.24351358413696</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">6.84748077392578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38350105285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23628425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4665470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806205749512</t>
+    <t xml:space="preserve">7.38350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2362847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46654796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806301116943</t>
   </si>
   <si>
     <t xml:space="preserve">8.53103923797607</t>
@@ -1097,22 +1097,22 @@
     <t xml:space="preserve">8.85567092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39924335479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.754075050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7204208374023</t>
+    <t xml:space="preserve">9.39924240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75407314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.720419883728</t>
   </si>
   <si>
     <t xml:space="preserve">8.84057235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04441070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62918472290039</t>
+    <t xml:space="preserve">9.04441261291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62918376922607</t>
   </si>
   <si>
     <t xml:space="preserve">8.41024684906006</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">8.19130706787109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73487949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38759613037109</t>
+    <t xml:space="preserve">8.73487854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38759708404541</t>
   </si>
   <si>
     <t xml:space="preserve">8.50084114074707</t>
@@ -1139,25 +1139,25 @@
     <t xml:space="preserve">8.11581134796143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77608013153076</t>
+    <t xml:space="preserve">7.77608108520508</t>
   </si>
   <si>
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402704238892</t>
+    <t xml:space="preserve">7.84402799606323</t>
   </si>
   <si>
     <t xml:space="preserve">7.82137727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89687490463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343179702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428234100342</t>
+    <t xml:space="preserve">7.89687585830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75343322753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428329467773</t>
   </si>
   <si>
     <t xml:space="preserve">8.2290563583374</t>
@@ -1169,37 +1169,37 @@
     <t xml:space="preserve">8.23660564422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31965065002441</t>
+    <t xml:space="preserve">8.44044589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31965160369873</t>
   </si>
   <si>
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13091087341309</t>
+    <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
     <t xml:space="preserve">7.94972085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79117918014526</t>
+    <t xml:space="preserve">7.79117965698242</t>
   </si>
   <si>
     <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30800580978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224082946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31932973861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469249725342</t>
+    <t xml:space="preserve">7.30800676345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224225997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469202041626</t>
   </si>
   <si>
     <t xml:space="preserve">7.55714225769043</t>
@@ -1211,58 +1211,58 @@
     <t xml:space="preserve">8.0327672958374</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60998964309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243940353394</t>
+    <t xml:space="preserve">7.60999011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60243892669678</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204225540161</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522260665894</t>
+    <t xml:space="preserve">7.45522356033325</t>
   </si>
   <si>
     <t xml:space="preserve">7.35330247879028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24005937576294</t>
+    <t xml:space="preserve">7.24006032943726</t>
   </si>
   <si>
     <t xml:space="preserve">7.29668188095093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51184463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25893306732178</t>
+    <t xml:space="preserve">7.51184558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25893259048462</t>
   </si>
   <si>
     <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23251056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12304019927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045652389526</t>
+    <t xml:space="preserve">7.23250961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045557022095</t>
   </si>
   <si>
     <t xml:space="preserve">7.27780628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32687950134277</t>
+    <t xml:space="preserve">7.32687854766846</t>
   </si>
   <si>
     <t xml:space="preserve">7.5156192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49297094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3684024810791</t>
+    <t xml:space="preserve">7.49297046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840343475342</t>
   </si>
   <si>
     <t xml:space="preserve">7.70058441162109</t>
@@ -1277,19 +1277,19 @@
     <t xml:space="preserve">8.56123828887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30455207824707</t>
+    <t xml:space="preserve">8.30455112457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1988582611084</t>
+    <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.04786491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15356063842773</t>
+    <t xml:space="preserve">8.15355968475342</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766872406006</t>
@@ -1304,43 +1304,43 @@
     <t xml:space="preserve">7.12681531906128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08151865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277791976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96827411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973243713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072435379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317459106445</t>
+    <t xml:space="preserve">7.08151817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9682731628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973291397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317411422729</t>
   </si>
   <si>
     <t xml:space="preserve">6.88522815704346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93052625656128</t>
+    <t xml:space="preserve">6.93052577972412</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59834432601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50019836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900930404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801786422729</t>
+    <t xml:space="preserve">6.59834337234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50019884109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900882720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801691055298</t>
   </si>
   <si>
     <t xml:space="preserve">6.15291786193848</t>
@@ -1352,43 +1352,43 @@
     <t xml:space="preserve">6.57569456100464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7644362449646</t>
+    <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
     <t xml:space="preserve">6.78708362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00602149963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83993148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953290939331</t>
+    <t xml:space="preserve">7.00602197647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83993053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953386306763</t>
   </si>
   <si>
     <t xml:space="preserve">6.60589408874512</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40205430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4398021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086429595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22841358184814</t>
+    <t xml:space="preserve">6.40205383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43980264663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086381912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2284140586853</t>
   </si>
   <si>
     <t xml:space="preserve">6.18311595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0849723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616191864014</t>
+    <t xml:space="preserve">6.08497190475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616239547729</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
@@ -1397,130 +1397,130 @@
     <t xml:space="preserve">6.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4775505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4926495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059598922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62099361419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61344194412231</t>
+    <t xml:space="preserve">6.47755098342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265050888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039789199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42470407485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324480056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62099313735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61344337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119218826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91063451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69836330413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78484392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974382400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4782280921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961004257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2502326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23450803756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1558895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24237060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1323037147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87286043167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75493144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88072156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83355045318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09299468994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92003202438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07727003097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04582262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878480911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698230743408</t>
   </si>
   <si>
     <t xml:space="preserve">6.65119171142578</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91063499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69836330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78484344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974382400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981071472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822904586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960956573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2502326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2345085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1558895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24237060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13230419158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87285995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75493144989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88072204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83355093002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1794753074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09299468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9200325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07727098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1716136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878480911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698183059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119123458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61188077926636</t>
+    <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
     <t xml:space="preserve">6.43105745315552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36029958724976</t>
+    <t xml:space="preserve">6.36030006408691</t>
   </si>
   <si>
     <t xml:space="preserve">6.06154680252075</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361686706543</t>
+    <t xml:space="preserve">5.94361734390259</t>
   </si>
   <si>
     <t xml:space="preserve">5.84927415847778</t>
@@ -1541,19 +1541,19 @@
     <t xml:space="preserve">6.03796052932739</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06940793991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9043083190918</t>
+    <t xml:space="preserve">6.06940841674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934152603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90430784225464</t>
   </si>
   <si>
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575572967529</t>
+    <t xml:space="preserve">5.93575620651245</t>
   </si>
   <si>
     <t xml:space="preserve">5.81782674789429</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">5.85713624954224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77851724624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80996465682983</t>
+    <t xml:space="preserve">5.7785177230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80996513366699</t>
   </si>
   <si>
     <t xml:space="preserve">5.69989776611328</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">5.73920726776123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58196878433228</t>
+    <t xml:space="preserve">5.58196926116943</t>
   </si>
   <si>
     <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69203519821167</t>
+    <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279354095459</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">5.53479766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44045400619507</t>
+    <t xml:space="preserve">5.44045352935791</t>
   </si>
   <si>
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499834060669</t>
+    <t xml:space="preserve">5.86499881744385</t>
   </si>
   <si>
     <t xml:space="preserve">6.03009843826294</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">5.74706935882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47190189361572</t>
+    <t xml:space="preserve">5.47190237045288</t>
   </si>
   <si>
     <t xml:space="preserve">5.39328241348267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611129760742</t>
+    <t xml:space="preserve">5.34611082077026</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183500289917</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">5.32252502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30680084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26749134063721</t>
+    <t xml:space="preserve">5.30680131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26749181747437</t>
   </si>
   <si>
     <t xml:space="preserve">5.28321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17314910888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025285720825</t>
+    <t xml:space="preserve">5.17314863204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025333404541</t>
   </si>
   <si>
     <t xml:space="preserve">4.9687385559082</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">5.06308174133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12597703933716</t>
+    <t xml:space="preserve">5.1259765625</t>
   </si>
   <si>
     <t xml:space="preserve">4.9923243522644</t>
@@ -1670,31 +1670,31 @@
     <t xml:space="preserve">5.0945291519165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19673442840576</t>
+    <t xml:space="preserve">5.1967339515686</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38541984558105</t>
+    <t xml:space="preserve">5.33824872970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38542079925537</t>
   </si>
   <si>
     <t xml:space="preserve">6.52540016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56471061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3131275177002</t>
+    <t xml:space="preserve">6.56471014022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31312799453735</t>
   </si>
   <si>
     <t xml:space="preserve">6.40747117996216</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28954172134399</t>
+    <t xml:space="preserve">6.28954219818115</t>
   </si>
   <si>
     <t xml:space="preserve">5.29107713699341</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">5.18887281417847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24390649795532</t>
+    <t xml:space="preserve">5.24390602111816</t>
   </si>
   <si>
     <t xml:space="preserve">5.27535343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13383865356445</t>
+    <t xml:space="preserve">5.13383913040161</t>
   </si>
   <si>
     <t xml:space="preserve">5.29893922805786</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">5.20459651947021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0552191734314</t>
+    <t xml:space="preserve">5.05521965026855</t>
   </si>
   <si>
     <t xml:space="preserve">5.03163433074951</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">5.0709433555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2203197479248</t>
+    <t xml:space="preserve">5.22032022476196</t>
   </si>
   <si>
     <t xml:space="preserve">5.1495623588562</t>
@@ -1742,22 +1742,22 @@
     <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69357061386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48129892349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5992283821106</t>
+    <t xml:space="preserve">4.69357109069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48129844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59922790527344</t>
   </si>
   <si>
     <t xml:space="preserve">4.53633260726929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38695526123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37123155593872</t>
+    <t xml:space="preserve">4.38695573806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37123203277588</t>
   </si>
   <si>
     <t xml:space="preserve">4.51274633407593</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">4.68570899963379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67784690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.945152759552</t>
+    <t xml:space="preserve">4.67784738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94515228271484</t>
   </si>
   <si>
     <t xml:space="preserve">5.35397243499756</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">5.33038759231567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18101072311401</t>
+    <t xml:space="preserve">5.18101119995117</t>
   </si>
   <si>
     <t xml:space="preserve">5.25962972640991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50335025787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976350784302</t>
+    <t xml:space="preserve">5.50334930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976398468018</t>
   </si>
   <si>
     <t xml:space="preserve">5.51907348632812</t>
@@ -1799,150 +1799,153 @@
     <t xml:space="preserve">5.45617818832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36969661712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55052137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41686820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57410717010498</t>
+    <t xml:space="preserve">5.36969614028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55052089691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41686773300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57410669326782</t>
   </si>
   <si>
     <t xml:space="preserve">5.68417358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63700199127197</t>
+    <t xml:space="preserve">5.63700246810913</t>
   </si>
   <si>
     <t xml:space="preserve">5.71562194824219</t>
   </si>
   <si>
+    <t xml:space="preserve">5.66058778762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72348356246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18733739852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14802742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42319536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53326225280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1008563041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08513164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10871839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2030611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3288516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3052659034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21092319488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1244421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16375160217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678115844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32098960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671379089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437520980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27381801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97506523132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00651216506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078845977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77065515518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02223682403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82568883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74286413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56185722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73463678359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61944961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008457183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64413261413574</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.66058826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72348308563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631196975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18733692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1480278968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42319583892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53326225280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10085582733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08513212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.108717918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2030611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32885217666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2109227180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12444162368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16375160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174795150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678068161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32098960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671426773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27381801605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97506475448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0065131187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77065515518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73134565353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02223634719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82568883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74286413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56185722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7346363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61945009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64413261413574</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
@@ -1952,7 +1955,7 @@
     <t xml:space="preserve">5.54540157318115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51249074935913</t>
+    <t xml:space="preserve">5.51249122619629</t>
   </si>
   <si>
     <t xml:space="preserve">5.39730501174927</t>
@@ -1961,34 +1964,31 @@
     <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24920845031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42198801040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46312522888184</t>
+    <t xml:space="preserve">5.24920797348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42198848724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46312570571899</t>
   </si>
   <si>
     <t xml:space="preserve">5.60299444198608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55362892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37262201309204</t>
+    <t xml:space="preserve">5.55362939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3726224899292</t>
   </si>
   <si>
     <t xml:space="preserve">5.38907718658447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34793901443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30680131912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3643946647644</t>
+    <t xml:space="preserve">5.34793949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36439418792725</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
@@ -1997,46 +1997,46 @@
     <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7264084815979</t>
+    <t xml:space="preserve">5.72640895843506</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98969173431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9567813873291</t>
+    <t xml:space="preserve">5.98969221115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95678186416626</t>
   </si>
   <si>
     <t xml:space="preserve">5.9156436920166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8333683013916</t>
+    <t xml:space="preserve">5.83336782455444</t>
   </si>
   <si>
     <t xml:space="preserve">5.78400182723999</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75931978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75109195709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62767791748047</t>
+    <t xml:space="preserve">5.75931882858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75109148025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62767839431763</t>
   </si>
   <si>
     <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58654022216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45489835739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03529071807861</t>
+    <t xml:space="preserve">5.58653974533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4548978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03529024124146</t>
   </si>
   <si>
     <t xml:space="preserve">4.93655920028687</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">4.73909711837769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21629810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05997323989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8707389831543</t>
+    <t xml:space="preserve">5.21629858016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05997371673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87073850631714</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
@@ -2066,40 +2066,40 @@
     <t xml:space="preserve">4.86251068115234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87896633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82137250900269</t>
+    <t xml:space="preserve">4.87896585464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82137298583984</t>
   </si>
   <si>
     <t xml:space="preserve">4.85428333282471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91187620162964</t>
+    <t xml:space="preserve">4.9118766784668</t>
   </si>
   <si>
     <t xml:space="preserve">5.142249584198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48780918121338</t>
+    <t xml:space="preserve">5.48780870437622</t>
   </si>
   <si>
     <t xml:space="preserve">5.27389049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29034566879272</t>
+    <t xml:space="preserve">5.29034614562988</t>
   </si>
   <si>
     <t xml:space="preserve">5.40553283691406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47958040237427</t>
+    <t xml:space="preserve">5.47958087921143</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4137601852417</t>
+    <t xml:space="preserve">5.41375970840454</t>
   </si>
   <si>
     <t xml:space="preserve">5.33148384094238</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">5.26566362380981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3232569694519</t>
+    <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
     <t xml:space="preserve">5.33971166610718</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">5.44667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43844270706177</t>
+    <t xml:space="preserve">5.43844223022461</t>
   </si>
   <si>
     <t xml:space="preserve">5.80045747756958</t>
@@ -2129,37 +2129,37 @@
     <t xml:space="preserve">5.79223012924194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66881608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84159517288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70172595977783</t>
+    <t xml:space="preserve">5.66881561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84159564971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70172548294067</t>
   </si>
   <si>
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868482589722</t>
+    <t xml:space="preserve">5.80868434906006</t>
   </si>
   <si>
     <t xml:space="preserve">5.6852707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6934986114502</t>
+    <t xml:space="preserve">5.69349813461304</t>
   </si>
   <si>
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04728507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9238715171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70995378494263</t>
+    <t xml:space="preserve">6.04728555679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92387104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70995426177979</t>
   </si>
   <si>
     <t xml:space="preserve">5.67704343795776</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">5.61122274398804</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63590478897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49603605270386</t>
+    <t xml:space="preserve">5.63590574264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4960355758667</t>
   </si>
   <si>
     <t xml:space="preserve">5.22452545166016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07642841339111</t>
+    <t xml:space="preserve">5.07642889022827</t>
   </si>
   <si>
     <t xml:space="preserve">5.1340217590332</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16693210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11756610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23275327682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79668998718262</t>
+    <t xml:space="preserve">5.16693258285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11756658554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23275279998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79669046401978</t>
   </si>
   <si>
     <t xml:space="preserve">4.77200746536255</t>
@@ -2207,28 +2207,28 @@
     <t xml:space="preserve">4.80491828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60745525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3606276512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467617034912</t>
+    <t xml:space="preserve">4.60745573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36062717437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467569351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.31948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03152418136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81760573387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42268085479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45559144020081</t>
+    <t xml:space="preserve">4.03152370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81760621070862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42268109321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45559120178223</t>
   </si>
   <si>
     <t xml:space="preserve">3.48850178718567</t>
@@ -2237,37 +2237,37 @@
     <t xml:space="preserve">3.04421162605286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24990153312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20876383781433</t>
+    <t xml:space="preserve">3.24990177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20876359939575</t>
   </si>
   <si>
     <t xml:space="preserve">3.09357738494873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15117025375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29103946685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17996716499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37331533432007</t>
+    <t xml:space="preserve">3.15117049217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29103970527649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17996668815613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37331557273865</t>
   </si>
   <si>
     <t xml:space="preserve">3.41445350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38154339790344</t>
+    <t xml:space="preserve">3.38154315948486</t>
   </si>
   <si>
     <t xml:space="preserve">3.40211248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40622615814209</t>
+    <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
     <t xml:space="preserve">3.39799857139587</t>
@@ -2279,31 +2279,31 @@
     <t xml:space="preserve">3.50495743751526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62837100028992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77646780014038</t>
+    <t xml:space="preserve">3.62837147712708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77646803855896</t>
   </si>
   <si>
     <t xml:space="preserve">3.53786754608154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69419121742249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71887469291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810966491699</t>
+    <t xml:space="preserve">3.69419145584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71887516975403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810918807983</t>
   </si>
   <si>
     <t xml:space="preserve">3.99861311912537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11379957199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54986238479614</t>
+    <t xml:space="preserve">4.11379909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5498628616333</t>
   </si>
   <si>
     <t xml:space="preserve">4.54163503646851</t>
@@ -2315,10 +2315,10 @@
     <t xml:space="preserve">4.44290351867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36885499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27835130691528</t>
+    <t xml:space="preserve">4.36885452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27835083007812</t>
   </si>
   <si>
     <t xml:space="preserve">4.42644834518433</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">4.41822052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46758651733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40176486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91633725166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98215794563293</t>
+    <t xml:space="preserve">4.46758604049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4017653465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91633772850037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98215842247009</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
@@ -2372,19 +2372,19 @@
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30303430557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10968494415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15493726730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23721361160278</t>
+    <t xml:space="preserve">4.50872373580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30303382873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10968542098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15493774414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23721408843994</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417247772217</t>
@@ -2393,19 +2393,19 @@
     <t xml:space="preserve">4.3523998260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21253061294556</t>
+    <t xml:space="preserve">4.21253108978271</t>
   </si>
   <si>
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08088874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25366878509521</t>
+    <t xml:space="preserve">4.13848257064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0808892250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25366830825806</t>
   </si>
   <si>
     <t xml:space="preserve">4.27012395858765</t>
@@ -2417,19 +2417,19 @@
     <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12202739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10557222366333</t>
+    <t xml:space="preserve">4.1220269203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10557174682617</t>
   </si>
   <si>
     <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506853103638</t>
+    <t xml:space="preserve">4.05620622634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
     <t xml:space="preserve">4.07266139984131</t>
@@ -2438,31 +2438,31 @@
     <t xml:space="preserve">4.09734392166138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10145854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96570253372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94102025032043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449896812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677555084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16316509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22075796127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1302547454834</t>
+    <t xml:space="preserve">4.10145807266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94101929664612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279218673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449944496155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677507400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1631646156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22075843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13025522232056</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924736022949</t>
@@ -2471,10 +2471,10 @@
     <t xml:space="preserve">3.94513392448425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82583332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8505163192749</t>
+    <t xml:space="preserve">3.82583379745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">3.8464024066925</t>
@@ -2483,40 +2483,40 @@
     <t xml:space="preserve">3.80937814712524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73944401741028</t>
+    <t xml:space="preserve">3.7394437789917</t>
   </si>
   <si>
     <t xml:space="preserve">3.7435576915741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76824045181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65305399894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191534996033</t>
+    <t xml:space="preserve">3.76824021339417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66128158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305423736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191558837891</t>
   </si>
   <si>
     <t xml:space="preserve">3.55432319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672961235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57077813148499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59134650230408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780262947083</t>
+    <t xml:space="preserve">3.48027443885803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672937393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57077789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59134674072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780215263367</t>
   </si>
   <si>
     <t xml:space="preserve">3.63659906387329</t>
@@ -2531,25 +2531,25 @@
     <t xml:space="preserve">3.73121619224548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67362284660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68596482276917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54609513282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368776321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59546113014221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63248467445374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6201434135437</t>
+    <t xml:space="preserve">3.67362308502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68596410751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54609537124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368847846985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59546041488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63248491287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62014317512512</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749487876892</t>
@@ -2558,25 +2558,25 @@
     <t xml:space="preserve">3.36508798599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33217763900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70241951942444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70653367042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71064734458923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31126165390015</t>
+    <t xml:space="preserve">3.33217787742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241904258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70653319358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71064782142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3112621307373</t>
   </si>
   <si>
     <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40999317169189</t>
+    <t xml:space="preserve">4.40999269485474</t>
   </si>
   <si>
     <t xml:space="preserve">4.33594465255737</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50049638748169</t>
+    <t xml:space="preserve">4.50049686431885</t>
   </si>
   <si>
     <t xml:space="preserve">4.45935869216919</t>
@@ -2597,16 +2597,16 @@
     <t xml:space="preserve">4.45113086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61568355560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57454442977905</t>
+    <t xml:space="preserve">4.61568260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57454490661621</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99415302276611</t>
+    <t xml:space="preserve">4.99415254592896</t>
   </si>
   <si>
     <t xml:space="preserve">5.06820058822632</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">4.97769784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00237989425659</t>
+    <t xml:space="preserve">5.00238037109375</t>
   </si>
   <si>
     <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96947002410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92010450363159</t>
+    <t xml:space="preserve">4.96946954727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92010402679443</t>
   </si>
   <si>
     <t xml:space="preserve">5.04351806640625</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">5.19161462783813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10111141204834</t>
+    <t xml:space="preserve">5.10111093521118</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465576171875</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">5.15870475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18338775634766</t>
+    <t xml:space="preserve">5.1833872795105</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87450551986694</t>
+    <t xml:space="preserve">5.8745059967041</t>
   </si>
   <si>
     <t xml:space="preserve">5.90741586685181</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">5.99792003631592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97323656082153</t>
+    <t xml:space="preserve">5.97323703765869</t>
   </si>
   <si>
     <t xml:space="preserve">5.94855356216431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032669067383</t>
+    <t xml:space="preserve">5.94032621383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38461637496948</t>
+    <t xml:space="preserve">6.38461685180664</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334789276123</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">6.45043802261353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35170602798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26943063735962</t>
+    <t xml:space="preserve">6.35170650482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26943016052246</t>
   </si>
   <si>
     <t xml:space="preserve">6.33525085449219</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397659301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57367420196533</t>
+    <t xml:space="preserve">6.74397706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57367467880249</t>
   </si>
   <si>
     <t xml:space="preserve">6.72694635391235</t>
@@ -2735,16 +2735,16 @@
     <t xml:space="preserve">6.76100730895996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30597496032715</t>
+    <t xml:space="preserve">7.30597448348999</t>
   </si>
   <si>
     <t xml:space="preserve">7.49330759048462</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79985237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591026306152</t>
+    <t xml:space="preserve">7.7998514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591121673584</t>
   </si>
   <si>
     <t xml:space="preserve">8.22560787200928</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">8.31075954437256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34482097625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29372882843018</t>
+    <t xml:space="preserve">8.34482002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29372978210449</t>
   </si>
   <si>
     <t xml:space="preserve">9.02603054046631</t>
@@ -2774,16 +2774,16 @@
     <t xml:space="preserve">8.98345375061035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85572719573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60027313232422</t>
+    <t xml:space="preserve">8.85572624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60027408599854</t>
   </si>
   <si>
     <t xml:space="preserve">8.64284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41294002532959</t>
+    <t xml:space="preserve">8.41294097900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.46403121948242</t>
@@ -2795,22 +2795,22 @@
     <t xml:space="preserve">7.76579141616821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61251926422119</t>
+    <t xml:space="preserve">7.61251878738403</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02124500274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93609380722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0723352432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10639667510986</t>
+    <t xml:space="preserve">8.0212459564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93609285354614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07233619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10639762878418</t>
   </si>
   <si>
     <t xml:space="preserve">8.14045715332031</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">7.57845878601074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15270233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033735275269</t>
+    <t xml:space="preserve">7.15270185470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033782958984</t>
   </si>
   <si>
     <t xml:space="preserve">7.59548950195312</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">8.0893669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98718547821045</t>
+    <t xml:space="preserve">7.98718452453613</t>
   </si>
   <si>
     <t xml:space="preserve">8.03827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90203380584717</t>
+    <t xml:space="preserve">7.90203285217285</t>
   </si>
   <si>
     <t xml:space="preserve">8.12342739105225</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769824981689</t>
+    <t xml:space="preserve">8.55769920349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.40921115875244</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94087886810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81315135955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89830207824707</t>
+    <t xml:space="preserve">8.94087982177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81315231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89830303192139</t>
   </si>
   <si>
     <t xml:space="preserve">8.72800064086914</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51512241363525</t>
+    <t xml:space="preserve">8.51512145996094</t>
   </si>
   <si>
     <t xml:space="preserve">8.42997074127197</t>
@@ -2912,16 +2912,16 @@
     <t xml:space="preserve">9.69225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.955397605896</t>
+    <t xml:space="preserve">9.95539665222168</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0869655609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0431089401245</t>
+    <t xml:space="preserve">10.0869665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0431098937988</t>
   </si>
   <si>
     <t xml:space="preserve">9.99925327301025</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185344696045</t>
+    <t xml:space="preserve">10.2185354232788</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">10.3939599990845</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7799711227417</t>
+    <t xml:space="preserve">9.77997016906738</t>
   </si>
   <si>
     <t xml:space="preserve">9.73611545562744</t>
@@ -2948,22 +2948,22 @@
     <t xml:space="preserve">9.47297668457031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60454654693604</t>
+    <t xml:space="preserve">9.60454559326172</t>
   </si>
   <si>
     <t xml:space="preserve">9.29755115509033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20983791351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77127552032471</t>
+    <t xml:space="preserve">9.2098388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77127456665039</t>
   </si>
   <si>
     <t xml:space="preserve">9.0344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64840221405029</t>
+    <t xml:space="preserve">9.64840126037598</t>
   </si>
   <si>
     <t xml:space="preserve">9.42912006378174</t>
@@ -2972,28 +2972,28 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51683235168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38526344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34140682220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25369453430176</t>
+    <t xml:space="preserve">9.82382678985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51683330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38526439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34140777587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.99055671691895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94670009613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16598129272461</t>
+    <t xml:space="preserve">8.94669914245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.61339092254639</t>
@@ -3005,19 +3005,19 @@
     <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0344877243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20991325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05202960968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47312641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42049837112427</t>
+    <t xml:space="preserve">8.03448677062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20991230010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05203056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47312593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42049884796143</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">7.82397747039795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28008270263672</t>
+    <t xml:space="preserve">8.28008365631104</t>
   </si>
   <si>
     <t xml:space="preserve">8.19237041473389</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">7.99940252304077</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38533878326416</t>
+    <t xml:space="preserve">8.38533782958984</t>
   </si>
   <si>
     <t xml:space="preserve">8.49059391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43796539306641</t>
+    <t xml:space="preserve">8.43796634674072</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26253986358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07834434509277</t>
+    <t xml:space="preserve">8.26254081726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">8.21868419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01694583892822</t>
+    <t xml:space="preserve">8.01694488525391</t>
   </si>
   <si>
     <t xml:space="preserve">7.77899932861328</t>
@@ -3201,9 +3201,6 @@
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01694488525391</t>
   </si>
   <si>
     <t xml:space="preserve">8.07185554504395</t>
@@ -26694,7 +26691,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26720,7 +26717,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G862" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26746,7 +26743,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G863" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26772,7 +26769,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26798,7 +26795,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G865" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26824,7 +26821,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G866" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26850,7 +26847,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G867" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26876,7 +26873,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26902,7 +26899,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G869" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26928,7 +26925,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G870" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26954,7 +26951,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G871" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26980,7 +26977,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G872" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27006,7 +27003,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27058,7 +27055,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G875" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27084,7 +27081,7 @@
         <v>6.75</v>
       </c>
       <c r="G876" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27110,7 +27107,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G877" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27136,7 +27133,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G878" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27162,7 +27159,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G879" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27188,7 +27185,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G880" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27214,7 +27211,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G881" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27240,7 +27237,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G882" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27266,7 +27263,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27292,7 +27289,7 @@
         <v>6.5</v>
       </c>
       <c r="G884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27318,7 +27315,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>657</v>
+        <v>537</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27370,7 +27367,7 @@
         <v>6.5</v>
       </c>
       <c r="G887" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27786,7 +27783,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G903" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27864,7 +27861,7 @@
         <v>6.75</v>
       </c>
       <c r="G906" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27968,7 +27965,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G910" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28046,7 +28043,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G913" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28072,7 +28069,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G914" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28800,7 +28797,7 @@
         <v>6.75</v>
       </c>
       <c r="G942" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28852,7 +28849,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G944" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29034,7 +29031,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G951" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29060,7 +29057,7 @@
         <v>6.5</v>
       </c>
       <c r="G952" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29268,7 +29265,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G960" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29346,7 +29343,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G963" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29398,7 +29395,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G965" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30438,7 +30435,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30594,7 +30591,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1011" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30620,7 +30617,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1012" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30802,7 +30799,7 @@
         <v>6.75</v>
       </c>
       <c r="G1019" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30828,7 +30825,7 @@
         <v>6.75</v>
       </c>
       <c r="G1020" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30854,7 +30851,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30958,7 +30955,7 @@
         <v>6.75</v>
       </c>
       <c r="G1025" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30984,7 +30981,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1026" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31010,7 +31007,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1027" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31036,7 +31033,7 @@
         <v>6.75</v>
       </c>
       <c r="G1028" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31114,7 +31111,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1031" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31140,7 +31137,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1032" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31218,7 +31215,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1035" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31530,7 +31527,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31634,7 +31631,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1051" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -38082,7 +38079,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1299" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38108,7 +38105,7 @@
         <v>6.5</v>
       </c>
       <c r="G1300" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38134,7 +38131,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1301" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38160,7 +38157,7 @@
         <v>6.5</v>
       </c>
       <c r="G1302" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38628,7 +38625,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1320" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38654,7 +38651,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1321" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -47286,7 +47283,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1653" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47312,7 +47309,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1654" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47338,7 +47335,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G1655" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47364,7 +47361,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1656" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47390,7 +47387,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1657" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47416,7 +47413,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1658" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47442,7 +47439,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1659" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47468,7 +47465,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1660" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47494,7 +47491,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1661" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47520,7 +47517,7 @@
         <v>8.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47546,7 +47543,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1663" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47572,7 +47569,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1664" t="s">
-        <v>1063</v>
+        <v>1030</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47598,7 +47595,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1665" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47624,7 +47621,7 @@
         <v>8.75</v>
       </c>
       <c r="G1666" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47650,7 +47647,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1667" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47676,7 +47673,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1668" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47702,7 +47699,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1669" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47728,7 +47725,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1670" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47754,7 +47751,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1671" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47780,7 +47777,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1672" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47806,7 +47803,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1673" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47832,7 +47829,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1674" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47858,7 +47855,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1675" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47910,7 +47907,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1677" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47936,7 +47933,7 @@
         <v>10</v>
       </c>
       <c r="G1678" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47962,7 +47959,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1679" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47988,7 +47985,7 @@
         <v>9.75</v>
       </c>
       <c r="G1680" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48040,7 +48037,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1682" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48118,7 +48115,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G1685" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48144,7 +48141,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1686" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48196,7 +48193,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G1688" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48222,7 +48219,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1689" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48248,7 +48245,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1690" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48300,7 +48297,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1692" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48352,7 +48349,7 @@
         <v>9.19999980926514</v>
       </c>
       <c r="G1694" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48378,7 +48375,7 @@
         <v>9.05000019073486</v>
       </c>
       <c r="G1695" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48482,7 +48479,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1699" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48560,7 +48557,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1702" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48586,7 +48583,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1703" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48612,7 +48609,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G1704" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48638,7 +48635,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1705" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48664,7 +48661,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G1706" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48690,7 +48687,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48716,7 +48713,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G1708" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48742,7 +48739,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1709" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48768,7 +48765,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1710" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48794,7 +48791,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1711" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48820,7 +48817,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1712" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48846,7 +48843,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1713" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48872,7 +48869,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G1714" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48898,7 +48895,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48924,7 +48921,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1716" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48950,7 +48947,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1717" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48976,7 +48973,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1718" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49002,7 +48999,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G1719" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49028,7 +49025,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1720" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49080,7 +49077,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G1722" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49106,7 +49103,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1723" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49132,7 +49129,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1724" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49158,7 +49155,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1725" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49184,7 +49181,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G1726" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49210,7 +49207,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1727" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49236,7 +49233,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G1728" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49262,7 +49259,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G1729" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49288,7 +49285,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1730" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49314,7 +49311,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G1731" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49340,7 +49337,7 @@
         <v>8.56999969482422</v>
       </c>
       <c r="G1732" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49366,7 +49363,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1733" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49392,7 +49389,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1734" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49444,7 +49441,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1736" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49496,7 +49493,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G1738" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49574,7 +49571,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1741" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49600,7 +49597,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1742" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49626,7 +49623,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1743" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49652,7 +49649,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1744" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49678,7 +49675,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49704,7 +49701,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1746" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49730,7 +49727,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1747" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49782,7 +49779,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1749" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49860,7 +49857,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1752" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49886,7 +49883,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1753" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49912,7 +49909,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1754" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49938,7 +49935,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1755" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49964,7 +49961,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1756" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49990,7 +49987,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1757" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50016,7 +50013,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1758" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50042,7 +50039,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1759" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50068,7 +50065,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1760" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50094,7 +50091,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1761" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50120,7 +50117,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1762" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50146,7 +50143,7 @@
         <v>9.15999984741211</v>
       </c>
       <c r="G1763" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50172,7 +50169,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1764" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50198,7 +50195,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1765" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50224,7 +50221,7 @@
         <v>9</v>
       </c>
       <c r="G1766" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50302,7 +50299,7 @@
         <v>9</v>
       </c>
       <c r="G1769" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50328,7 +50325,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1770" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50380,7 +50377,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1772" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50406,7 +50403,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1773" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50432,7 +50429,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1774" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50458,7 +50455,7 @@
         <v>8.89000034332275</v>
       </c>
       <c r="G1775" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50484,7 +50481,7 @@
         <v>9</v>
       </c>
       <c r="G1776" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50510,7 +50507,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1777" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50614,7 +50611,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1781" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50640,7 +50637,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50666,7 +50663,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1783" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50692,7 +50689,7 @@
         <v>9.26000022888184</v>
       </c>
       <c r="G1784" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50718,7 +50715,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G1785" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50770,7 +50767,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1787" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50796,7 +50793,7 @@
         <v>9.47000026702881</v>
       </c>
       <c r="G1788" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50822,7 +50819,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1789" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50848,7 +50845,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1790" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50874,7 +50871,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1791" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50900,7 +50897,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1792" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50926,7 +50923,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1793" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50952,7 +50949,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1794" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50978,7 +50975,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1795" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51004,7 +51001,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G1796" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51056,7 +51053,7 @@
         <v>9.93000030517578</v>
       </c>
       <c r="G1798" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51082,7 +51079,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1799" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51134,7 +51131,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1801" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51160,7 +51157,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1802" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51186,7 +51183,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1803" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51264,7 +51261,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1806" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51290,7 +51287,7 @@
         <v>10</v>
       </c>
       <c r="G1807" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51316,7 +51313,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1808" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51342,7 +51339,7 @@
         <v>10</v>
       </c>
       <c r="G1809" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51368,7 +51365,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1810" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51394,7 +51391,7 @@
         <v>10.2399997711182</v>
       </c>
       <c r="G1811" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51446,7 +51443,7 @@
         <v>10</v>
       </c>
       <c r="G1813" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51472,7 +51469,7 @@
         <v>10</v>
       </c>
       <c r="G1814" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51498,7 +51495,7 @@
         <v>10</v>
       </c>
       <c r="G1815" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51524,7 +51521,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1816" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51550,7 +51547,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1817" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51576,7 +51573,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51602,7 +51599,7 @@
         <v>9.89000034332275</v>
       </c>
       <c r="G1819" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51628,7 +51625,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1820" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51654,7 +51651,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1821" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51680,7 +51677,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51758,7 +51755,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1825" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51784,7 +51781,7 @@
         <v>9.75</v>
       </c>
       <c r="G1826" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51810,7 +51807,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G1827" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51862,7 +51859,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1829" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51888,7 +51885,7 @@
         <v>10.5</v>
       </c>
       <c r="G1830" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51914,7 +51911,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51940,7 +51937,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1832" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51966,7 +51963,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1833" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51992,7 +51989,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1834" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52018,7 +52015,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1835" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52044,7 +52041,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1836" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52070,7 +52067,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1837" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52096,7 +52093,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1838" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52122,7 +52119,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1839" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52148,7 +52145,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="G1840" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52200,7 +52197,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1842" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52226,7 +52223,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1843" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52252,7 +52249,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1844" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52278,7 +52275,7 @@
         <v>10</v>
       </c>
       <c r="G1845" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52304,7 +52301,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1846" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52330,7 +52327,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52356,7 +52353,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1848" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52382,7 +52379,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1849" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52408,7 +52405,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G1850" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52434,7 +52431,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52460,7 +52457,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1852" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52486,7 +52483,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="G1853" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52512,7 +52509,7 @@
         <v>10.1800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52538,7 +52535,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1855" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52590,7 +52587,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1857" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52668,7 +52665,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1860" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52746,7 +52743,7 @@
         <v>9.9399995803833</v>
       </c>
       <c r="G1863" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52772,7 +52769,7 @@
         <v>10</v>
       </c>
       <c r="G1864" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52798,7 +52795,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1865" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52824,7 +52821,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1866" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52928,7 +52925,7 @@
         <v>9.8100004196167</v>
       </c>
       <c r="G1870" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52954,7 +52951,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1871" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52980,7 +52977,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1872" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53006,7 +53003,7 @@
         <v>9.71000003814697</v>
       </c>
       <c r="G1873" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53032,7 +53029,7 @@
         <v>9.75</v>
       </c>
       <c r="G1874" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53058,7 +53055,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1875" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53084,7 +53081,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1876" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53110,7 +53107,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1877" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53136,7 +53133,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1878" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53162,7 +53159,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1879" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53188,7 +53185,7 @@
         <v>9.5</v>
       </c>
       <c r="G1880" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53214,7 +53211,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1881" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53240,7 +53237,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1882" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53266,7 +53263,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1883" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53292,7 +53289,7 @@
         <v>9.5</v>
       </c>
       <c r="G1884" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53318,7 +53315,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1885" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53344,7 +53341,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1886" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53370,7 +53367,7 @@
         <v>9.5</v>
       </c>
       <c r="G1887" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53396,7 +53393,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1888" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53422,7 +53419,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1889" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53448,7 +53445,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53474,7 +53471,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53500,7 +53497,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1892" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53526,7 +53523,7 @@
         <v>9.5</v>
       </c>
       <c r="G1893" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53552,7 +53549,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1894" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53578,7 +53575,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1895" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53604,7 +53601,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1896" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53630,7 +53627,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1897" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53656,7 +53653,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1898" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53682,7 +53679,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1899" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53708,7 +53705,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1900" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53734,7 +53731,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1901" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53760,7 +53757,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1902" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53786,7 +53783,7 @@
         <v>8.93000030517578</v>
       </c>
       <c r="G1903" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -53812,7 +53809,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1904" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -53838,7 +53835,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1905" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -53864,7 +53861,7 @@
         <v>9</v>
       </c>
       <c r="G1906" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -53890,7 +53887,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53916,7 +53913,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1908" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53942,7 +53939,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1909" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53968,7 +53965,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1910" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53994,7 +53991,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1911" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54020,7 +54017,7 @@
         <v>8.92000007629395</v>
       </c>
       <c r="G1912" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54046,7 +54043,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1913" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54072,7 +54069,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1914" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54098,7 +54095,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1915" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54124,7 +54121,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1916" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54150,7 +54147,7 @@
         <v>9.13000011444092</v>
       </c>
       <c r="G1917" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54176,7 +54173,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1918" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54202,7 +54199,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1919" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54228,7 +54225,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G1920" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54254,7 +54251,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54280,7 +54277,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1922" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54306,7 +54303,7 @@
         <v>9.07999992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54332,7 +54329,7 @@
         <v>9</v>
       </c>
       <c r="G1924" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54358,7 +54355,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1925" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54384,7 +54381,7 @@
         <v>9</v>
       </c>
       <c r="G1926" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54410,7 +54407,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1927" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54436,7 +54433,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1928" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54462,7 +54459,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1929" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54488,7 +54485,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1930" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54514,7 +54511,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1931" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54540,7 +54537,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1932" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54566,7 +54563,7 @@
         <v>8.73999977111816</v>
       </c>
       <c r="G1933" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54592,7 +54589,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1934" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54618,7 +54615,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1935" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54644,7 +54641,7 @@
         <v>8.90999984741211</v>
       </c>
       <c r="G1936" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54670,7 +54667,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1937" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54696,7 +54693,7 @@
         <v>8.97000026702881</v>
       </c>
       <c r="G1938" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54722,7 +54719,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1939" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54748,7 +54745,7 @@
         <v>8.75</v>
       </c>
       <c r="G1940" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54774,7 +54771,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1941" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54800,7 +54797,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G1942" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -54826,7 +54823,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1943" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -54852,7 +54849,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1944" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -54878,7 +54875,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1945" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -54904,7 +54901,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G1946" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -54930,7 +54927,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1947" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54956,7 +54953,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G1948" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54982,7 +54979,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55008,7 +55005,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1950" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55034,7 +55031,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G1951" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55060,7 +55057,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1952" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55086,7 +55083,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1953" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55112,7 +55109,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1954" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55138,7 +55135,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55164,7 +55161,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1956" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55190,7 +55187,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1957" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55216,7 +55213,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1958" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55242,7 +55239,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1959" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55268,7 +55265,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G1960" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55294,7 +55291,7 @@
         <v>8.5</v>
       </c>
       <c r="G1961" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55320,7 +55317,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55346,7 +55343,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1963" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55372,7 +55369,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55398,7 +55395,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G1965" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55424,7 +55421,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1966" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55450,7 +55447,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1967" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55476,7 +55473,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55502,7 +55499,7 @@
         <v>8.5</v>
       </c>
       <c r="G1969" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55528,7 +55525,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55554,7 +55551,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1971" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55580,7 +55577,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1972" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55606,7 +55603,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1973" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55632,7 +55629,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1974" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55658,7 +55655,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G1975" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55684,7 +55681,7 @@
         <v>8.25</v>
       </c>
       <c r="G1976" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55710,7 +55707,7 @@
         <v>8.25</v>
       </c>
       <c r="G1977" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55736,7 +55733,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1978" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55762,7 +55759,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1979" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55788,7 +55785,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G1980" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -55814,7 +55811,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -55840,7 +55837,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1982" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -55866,7 +55863,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G1983" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -55892,7 +55889,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G1984" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -55918,7 +55915,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G1985" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -55944,7 +55941,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G1986" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55970,7 +55967,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1987" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55996,7 +55993,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1988" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56022,7 +56019,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1989" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56048,7 +56045,7 @@
         <v>7.5</v>
       </c>
       <c r="G1990" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56074,7 +56071,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1991" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56100,7 +56097,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1992" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56126,7 +56123,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1993" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56152,7 +56149,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1994" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56178,7 +56175,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G1995" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56204,7 +56201,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1996" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56230,7 +56227,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56256,7 +56253,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G1998" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56282,7 +56279,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56308,7 +56305,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G2000" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56334,7 +56331,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2001" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56360,7 +56357,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2002" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56386,7 +56383,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2003" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56412,7 +56409,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G2004" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56438,7 +56435,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G2005" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56464,7 +56461,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2006" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56490,7 +56487,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G2007" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56516,7 +56513,7 @@
         <v>7.25</v>
       </c>
       <c r="G2008" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56542,7 +56539,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G2009" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56568,7 +56565,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G2010" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56594,7 +56591,7 @@
         <v>8.10999965667725</v>
       </c>
       <c r="G2011" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56620,7 +56617,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2012" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56646,7 +56643,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2013" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56672,7 +56669,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2014" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56698,7 +56695,7 @@
         <v>8.5</v>
       </c>
       <c r="G2015" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56724,7 +56721,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2016" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56750,7 +56747,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56776,7 +56773,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2018" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -56802,7 +56799,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2019" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -56828,7 +56825,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2020" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -56854,7 +56851,7 @@
         <v>8.75</v>
       </c>
       <c r="G2021" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -56880,7 +56877,7 @@
         <v>8.63000011444092</v>
       </c>
       <c r="G2022" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -56906,7 +56903,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2023" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -56932,7 +56929,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2024" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56958,7 +56955,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2025" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56984,7 +56981,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2026" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57010,7 +57007,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2027" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57036,7 +57033,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2028" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57062,7 +57059,7 @@
         <v>8.39000034332275</v>
       </c>
       <c r="G2029" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57088,7 +57085,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G2030" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57114,7 +57111,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2031" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57140,7 +57137,7 @@
         <v>8.64000034332275</v>
       </c>
       <c r="G2032" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57166,7 +57163,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2033" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57192,7 +57189,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2034" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57218,7 +57215,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2035" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57244,7 +57241,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2036" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57270,7 +57267,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G2037" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57296,7 +57293,7 @@
         <v>8.60999965667725</v>
       </c>
       <c r="G2038" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57322,7 +57319,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G2039" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57348,7 +57345,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G2040" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57374,7 +57371,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57400,7 +57397,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2042" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57426,7 +57423,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2043" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57452,7 +57449,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2044" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57478,7 +57475,7 @@
         <v>8.6899995803833</v>
       </c>
       <c r="G2045" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57504,7 +57501,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2046" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57530,7 +57527,7 @@
         <v>8.5</v>
       </c>
       <c r="G2047" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57556,7 +57553,7 @@
         <v>8.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57582,7 +57579,7 @@
         <v>8.5</v>
       </c>
       <c r="G2049" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57608,7 +57605,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G2050" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57634,7 +57631,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G2051" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57660,7 +57657,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2052" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57686,7 +57683,7 @@
         <v>8.76000022888184</v>
       </c>
       <c r="G2053" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57712,7 +57709,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G2054" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57738,7 +57735,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2055" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57764,7 +57761,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G2056" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57790,7 +57787,7 @@
         <v>8.52000045776367</v>
       </c>
       <c r="G2057" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -57816,7 +57813,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -57842,7 +57839,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G2059" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -57868,7 +57865,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2060" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -57894,7 +57891,7 @@
         <v>8.48999977111816</v>
       </c>
       <c r="G2061" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -57920,7 +57917,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -57946,7 +57943,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G2063" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57972,7 +57969,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G2064" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57998,7 +57995,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58024,7 +58021,7 @@
         <v>8.25</v>
       </c>
       <c r="G2066" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58050,7 +58047,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2067" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58076,7 +58073,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2068" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58102,7 +58099,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G2069" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58128,7 +58125,7 @@
         <v>8.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58154,7 +58151,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2071" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58180,7 +58177,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2072" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58206,7 +58203,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2073" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58232,7 +58229,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2074" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58258,7 +58255,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2075" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58284,7 +58281,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2076" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58310,7 +58307,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G2077" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58336,7 +58333,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2078" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58362,7 +58359,7 @@
         <v>8</v>
       </c>
       <c r="G2079" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58388,7 +58385,7 @@
         <v>8</v>
       </c>
       <c r="G2080" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58414,7 +58411,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2081" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58440,7 +58437,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2082" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58466,7 +58463,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G2083" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58492,7 +58489,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2084" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58518,7 +58515,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G2085" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58544,7 +58541,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G2086" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58570,7 +58567,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2087" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58596,7 +58593,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2088" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58622,7 +58619,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2089" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58648,7 +58645,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2090" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58674,7 +58671,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58700,7 +58697,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58726,7 +58723,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2093" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58752,7 +58749,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G2094" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58778,7 +58775,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G2095" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58804,7 +58801,7 @@
         <v>8.25</v>
       </c>
       <c r="G2096" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58830,7 +58827,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58856,7 +58853,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G2098" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58882,7 +58879,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2099" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58908,7 +58905,7 @@
         <v>8.15999984741211</v>
       </c>
       <c r="G2100" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58934,7 +58931,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58960,7 +58957,7 @@
         <v>8.26000022888184</v>
       </c>
       <c r="G2102" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58986,7 +58983,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2103" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59012,7 +59009,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2104" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59038,7 +59035,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2105" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59064,7 +59061,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59090,7 +59087,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59116,7 +59113,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2108" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59142,7 +59139,7 @@
         <v>8</v>
       </c>
       <c r="G2109" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59168,7 +59165,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59194,7 +59191,7 @@
         <v>8</v>
       </c>
       <c r="G2111" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59220,7 +59217,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2112" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59246,7 +59243,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59272,7 +59269,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2114" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59298,7 +59295,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2115" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59324,7 +59321,7 @@
         <v>7.92000007629395</v>
       </c>
       <c r="G2116" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59350,7 +59347,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2117" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59376,7 +59373,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G2118" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59402,7 +59399,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G2119" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59428,7 +59425,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2120" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59454,7 +59451,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G2121" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59480,7 +59477,7 @@
         <v>8.97999954223633</v>
       </c>
       <c r="G2122" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59506,7 +59503,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2123" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59532,7 +59529,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2124" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59558,7 +59555,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2125" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59584,7 +59581,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2126" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59610,7 +59607,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2127" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59636,7 +59633,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59662,7 +59659,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2129" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59688,7 +59685,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2130" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59714,7 +59711,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G2131" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59740,7 +59737,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G2132" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59766,7 +59763,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G2133" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59792,7 +59789,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2134" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59818,7 +59815,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G2135" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59844,7 +59841,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2136" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59870,7 +59867,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2137" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59896,7 +59893,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2138" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59922,7 +59919,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2139" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59948,7 +59945,7 @@
         <v>8.34000015258789</v>
       </c>
       <c r="G2140" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59974,7 +59971,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2141" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60000,7 +59997,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2142" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60026,7 +60023,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G2143" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60052,7 +60049,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G2144" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60078,7 +60075,7 @@
         <v>8.5</v>
       </c>
       <c r="G2145" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60104,7 +60101,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G2146" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60130,7 +60127,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2147" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60156,7 +60153,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2148" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60182,7 +60179,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G2149" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60208,7 +60205,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2150" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60234,7 +60231,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2151" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60260,7 +60257,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2152" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60286,7 +60283,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G2153" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60312,7 +60309,7 @@
         <v>8.84000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60338,7 +60335,7 @@
         <v>8.81999969482422</v>
       </c>
       <c r="G2155" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60364,7 +60361,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2156" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60390,7 +60387,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G2157" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60416,7 +60413,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G2158" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60442,7 +60439,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G2159" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60450,7 +60447,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6493865741</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>4345</v>
@@ -60468,9 +60465,35 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G2160" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.649537037</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>5684</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>8.81999969482422</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25140869617462</t>
+    <t xml:space="preserve">1.25140881538391</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596580028534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611399650574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29258334636688</t>
+    <t xml:space="preserve">1.27346646785736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596591949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611387729645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29258322715759</t>
   </si>
   <si>
     <t xml:space="preserve">1.31169986724854</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">1.3256698846817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33596336841583</t>
+    <t xml:space="preserve">1.33596324920654</t>
   </si>
   <si>
     <t xml:space="preserve">1.32346415519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30875897407532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758444309235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25214397907257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302745819092</t>
+    <t xml:space="preserve">1.30875885486603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758456230164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25214409828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302757740021</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729084014893</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">1.2411150932312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23817420005798</t>
+    <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
     <t xml:space="preserve">1.23449778556824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18008863925934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376505374908</t>
+    <t xml:space="preserve">1.18008875846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376517295837</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729582309723</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">1.13964951038361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06612384319305</t>
+    <t xml:space="preserve">1.06612372398376</t>
   </si>
   <si>
     <t xml:space="preserve">1.07568216323853</t>
@@ -122,34 +122,34 @@
     <t xml:space="preserve">1.07053530216217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05141866207123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07347631454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09479868412018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15067851543427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1683247089386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16538369655609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14700198173523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17641258239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317553520203</t>
+    <t xml:space="preserve">1.05141878128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07347643375397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09479880332947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15067827701569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16832458972931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16538381576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14700210094452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17641246318817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597090244293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317541599274</t>
   </si>
   <si>
     <t xml:space="preserve">1.15435481071472</t>
@@ -161,10 +161,10 @@
     <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18817663192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347157001495</t>
+    <t xml:space="preserve">1.18817675113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347145080566</t>
   </si>
   <si>
     <t xml:space="preserve">1.20582282543182</t>
@@ -179,79 +179,79 @@
     <t xml:space="preserve">1.24258577823639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22861588001251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22052812576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670108318329</t>
+    <t xml:space="preserve">1.22861552238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22052800655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670132160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.30655312538147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30214166641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26464354991913</t>
+    <t xml:space="preserve">1.30214154720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26464343070984</t>
   </si>
   <si>
     <t xml:space="preserve">1.2499383687973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28743648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28228950500488</t>
+    <t xml:space="preserve">1.28743636608124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28228962421417</t>
   </si>
   <si>
     <t xml:space="preserve">1.30581784248352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23008620738983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25067353248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25655555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317298412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26243770122528</t>
+    <t xml:space="preserve">1.23008632659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25067341327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25655567646027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317286491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26243758201599</t>
   </si>
   <si>
     <t xml:space="preserve">1.29920053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2940536737442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28523063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861332893372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934849262238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2896420955658</t>
+    <t xml:space="preserve">1.29405379295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876128673553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28523075580597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861344814301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934861183167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28964197635651</t>
   </si>
   <si>
     <t xml:space="preserve">1.27199602127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28302490711212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35581529140472</t>
+    <t xml:space="preserve">1.28302478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
     <t xml:space="preserve">1.36022698879242</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">1.33816933631897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35066843032837</t>
+    <t xml:space="preserve">1.35066866874695</t>
   </si>
   <si>
     <t xml:space="preserve">1.34478652477264</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">1.30949425697327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2984653711319</t>
+    <t xml:space="preserve">1.29846549034119</t>
   </si>
   <si>
     <t xml:space="preserve">1.26831984519958</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">1.21170485019684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19773495197296</t>
+    <t xml:space="preserve">1.19773483276367</t>
   </si>
   <si>
     <t xml:space="preserve">1.17420673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17567718029022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1925882101059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288169384003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1984703540802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12494432926178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13817918300629</t>
+    <t xml:space="preserve">1.17567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19258809089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288181304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19847011566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12494421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759173870087</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">1.12347388267517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13597333431244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229691982269</t>
+    <t xml:space="preserve">1.13597321510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13229703903198</t>
   </si>
   <si>
     <t xml:space="preserve">1.11023938655853</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">1.15582525730133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15803098678589</t>
+    <t xml:space="preserve">1.15803110599518</t>
   </si>
   <si>
     <t xml:space="preserve">1.14920794963837</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15361940860748</t>
+    <t xml:space="preserve">1.15361952781677</t>
   </si>
   <si>
     <t xml:space="preserve">1.16758954524994</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">1.52345407009125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48522078990936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52933609485626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47051560878754</t>
+    <t xml:space="preserve">1.48522067070007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52933621406555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47051584720612</t>
   </si>
   <si>
     <t xml:space="preserve">1.54257082939148</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">1.508749127388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49404394626617</t>
+    <t xml:space="preserve">1.49404382705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49992597103119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48669147491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49257326126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48816180229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48080921173096</t>
+    <t xml:space="preserve">1.4999258518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48669135570526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49257338047028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48816192150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48080909252167</t>
   </si>
   <si>
     <t xml:space="preserve">1.49845540523529</t>
@@ -392,52 +392,52 @@
     <t xml:space="preserve">1.5543349981308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785360813141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550247192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961243629456</t>
+    <t xml:space="preserve">1.77785336971283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550211429596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961267471313</t>
   </si>
   <si>
     <t xml:space="preserve">1.93666911125183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88078951835632</t>
+    <t xml:space="preserve">1.88078963756561</t>
   </si>
   <si>
     <t xml:space="preserve">1.87931895256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8602020740509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81608688831329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138170719147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490737438202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372797966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9160817861557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9131406545639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92931663990021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519842624664</t>
+    <t xml:space="preserve">1.86020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81608700752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138158798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608202457428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91314089298248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078684806824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9293167591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519854545593</t>
   </si>
   <si>
     <t xml:space="preserve">1.92049336433411</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">1.90431761741638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91902256011963</t>
+    <t xml:space="preserve">1.91902279853821</t>
   </si>
   <si>
     <t xml:space="preserve">1.90137672424316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92343425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961000442505</t>
+    <t xml:space="preserve">1.92343437671661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961036205292</t>
   </si>
   <si>
     <t xml:space="preserve">1.96166777610779</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">2.17489242553711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12930631637573</t>
+    <t xml:space="preserve">2.12930655479431</t>
   </si>
   <si>
     <t xml:space="preserve">2.19106817245483</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">2.14107060432434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09695506095886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842562675476</t>
+    <t xml:space="preserve">2.09695529937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077712059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842586517334</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
@@ -497,28 +497,28 @@
     <t xml:space="preserve">2.27782869338989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26606440544128</t>
+    <t xml:space="preserve">2.26606464385986</t>
   </si>
   <si>
     <t xml:space="preserve">2.08813214302063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97637295722961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06901526451111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04989886283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11607217788696</t>
+    <t xml:space="preserve">1.9763730764389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06901550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04989910125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.10136699676514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08225011825562</t>
+    <t xml:space="preserve">2.08225059509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763680934906</t>
@@ -533,40 +533,40 @@
     <t xml:space="preserve">1.95578598976135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96019744873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196173667908</t>
+    <t xml:space="preserve">1.96019732952118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97196161746979</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843339920044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784838676453</t>
+    <t xml:space="preserve">1.87784862518311</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549469947815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99696028232574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99254870414734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00431299209595</t>
+    <t xml:space="preserve">1.99696016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99254882335663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00431275367737</t>
   </si>
   <si>
     <t xml:space="preserve">2.09548473358154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08666181564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08372068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813457489014</t>
+    <t xml:space="preserve">2.08666157722473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08372092247009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813481330872</t>
   </si>
   <si>
     <t xml:space="preserve">2.05431032180786</t>
@@ -578,43 +578,43 @@
     <t xml:space="preserve">2.06019258499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06754493713379</t>
+    <t xml:space="preserve">2.06754517555237</t>
   </si>
   <si>
     <t xml:space="preserve">2.06313347816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10283732414246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17636322975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694533348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27194666862488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23812460899353</t>
+    <t xml:space="preserve">2.10283756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17636299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2719464302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23812508583069</t>
   </si>
   <si>
     <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1998918056488</t>
+    <t xml:space="preserve">2.19989132881165</t>
   </si>
   <si>
     <t xml:space="preserve">2.22047877311707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19842100143433</t>
+    <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
     <t xml:space="preserve">2.21753716468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24988865852356</t>
+    <t xml:space="preserve">2.24988842010498</t>
   </si>
   <si>
     <t xml:space="preserve">2.23518347740173</t>
@@ -629,34 +629,34 @@
     <t xml:space="preserve">2.24694776535034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25871229171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2425365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606707572937</t>
+    <t xml:space="preserve">2.25871205329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253582954407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606683731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.20136189460754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22341966629028</t>
+    <t xml:space="preserve">2.2234194278717</t>
   </si>
   <si>
     <t xml:space="preserve">2.20577335357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22194910049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35282516479492</t>
+    <t xml:space="preserve">2.22194933891296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35282492637634</t>
   </si>
   <si>
     <t xml:space="preserve">2.61163568496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61016488075256</t>
+    <t xml:space="preserve">2.61016511917114</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5881073474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56457901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56016755104065</t>
+    <t xml:space="preserve">2.58810758590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56457924842834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56016778945923</t>
   </si>
   <si>
     <t xml:space="preserve">2.59840106964111</t>
@@ -692,40 +692,40 @@
     <t xml:space="preserve">2.57634329795837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61751794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5954601764679</t>
+    <t xml:space="preserve">2.61751770973206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59545993804932</t>
   </si>
   <si>
     <t xml:space="preserve">2.78662705421448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85280060768127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83809494972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808789253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632603645325</t>
+    <t xml:space="preserve">2.8528003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83809518814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632627487183</t>
   </si>
   <si>
     <t xml:space="preserve">3.26454496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39983248710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129528045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217377662659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89318990707397</t>
+    <t xml:space="preserve">3.39983201026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129551887512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217401504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">3.75716733932495</t>
@@ -734,31 +734,31 @@
     <t xml:space="preserve">3.87480902671814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84172201156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848496437073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039198875427</t>
+    <t xml:space="preserve">3.84172248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848472595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039246559143</t>
   </si>
   <si>
     <t xml:space="preserve">4.14685392379761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26449537277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40051746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37478303909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596326828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140907287598</t>
+    <t xml:space="preserve">4.26449489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40051698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37478399276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596279144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140859603882</t>
   </si>
   <si>
     <t xml:space="preserve">4.5218358039856</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">4.77917575836182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92990350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177381515503</t>
+    <t xml:space="preserve">4.92990303039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177333831787</t>
   </si>
   <si>
     <t xml:space="preserve">5.0291633605957</t>
@@ -785,55 +785,55 @@
     <t xml:space="preserve">5.26444578170776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71662998199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71295213699341</t>
+    <t xml:space="preserve">5.71662950515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71295404434204</t>
   </si>
   <si>
     <t xml:space="preserve">6.05852365493774</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71290397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523773193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584024429321</t>
+    <t xml:space="preserve">6.71290349960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523820877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584119796753</t>
   </si>
   <si>
     <t xml:space="preserve">7.04376983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44389677047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310390472412</t>
+    <t xml:space="preserve">7.44389867782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310485839844</t>
   </si>
   <si>
     <t xml:space="preserve">7.11926651000977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6700644493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85503053665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66629076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37185573577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63609170913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83238172531128</t>
+    <t xml:space="preserve">6.67006492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85502958297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66629028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37185621261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6360912322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238124847412</t>
   </si>
   <si>
     <t xml:space="preserve">6.7191367149353</t>
@@ -845,28 +845,28 @@
     <t xml:space="preserve">6.50397443771362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68893909454346</t>
+    <t xml:space="preserve">6.68893957138062</t>
   </si>
   <si>
     <t xml:space="preserve">6.79085826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63986682891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490121841431</t>
+    <t xml:space="preserve">6.6398663520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490217208862</t>
   </si>
   <si>
     <t xml:space="preserve">6.41337919235229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2321891784668</t>
+    <t xml:space="preserve">6.23218822479248</t>
   </si>
   <si>
     <t xml:space="preserve">6.25483751296997</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14159345626831</t>
+    <t xml:space="preserve">6.14159393310547</t>
   </si>
   <si>
     <t xml:space="preserve">6.1982159614563</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03589963912964</t>
+    <t xml:space="preserve">6.0359001159668</t>
   </si>
   <si>
     <t xml:space="preserve">5.97550249099731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98305225372314</t>
+    <t xml:space="preserve">5.9830527305603</t>
   </si>
   <si>
     <t xml:space="preserve">5.63199615478516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11484909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43570709228516</t>
+    <t xml:space="preserve">5.11484956741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.435706615448</t>
   </si>
   <si>
     <t xml:space="preserve">5.22431802749634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20921945571899</t>
+    <t xml:space="preserve">5.20921850204468</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465051651001</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">5.00538015365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92233467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836097717285</t>
+    <t xml:space="preserve">4.92233419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836145401001</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855907440186</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">5.06200170516968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77511692047119</t>
+    <t xml:space="preserve">4.77511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.73359441757202</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">4.59770250320435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60147619247437</t>
+    <t xml:space="preserve">4.60147666931152</t>
   </si>
   <si>
     <t xml:space="preserve">4.68452167510986</t>
@@ -953,49 +953,49 @@
     <t xml:space="preserve">5.2847146987915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09597492218018</t>
+    <t xml:space="preserve">5.09597444534302</t>
   </si>
   <si>
     <t xml:space="preserve">5.04690265655518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00160503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723514556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83173942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81663942337036</t>
+    <t xml:space="preserve">5.00160551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723419189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83173990249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81664037704468</t>
   </si>
   <si>
     <t xml:space="preserve">4.85816287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89213562011719</t>
+    <t xml:space="preserve">4.89213609695435</t>
   </si>
   <si>
     <t xml:space="preserve">4.90346002578735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98273181915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99405574798584</t>
+    <t xml:space="preserve">4.98273038864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99405479431152</t>
   </si>
   <si>
     <t xml:space="preserve">5.19789457321167</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06955099105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491279602051</t>
+    <t xml:space="preserve">5.06955146789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
     <t xml:space="preserve">5.39795875549316</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">5.4508056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36020994186401</t>
+    <t xml:space="preserve">5.36021089553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.17902040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99028062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24319219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882230758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05822658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372325897217</t>
+    <t xml:space="preserve">4.9902811050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24319267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822706222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372373580933</t>
   </si>
   <si>
     <t xml:space="preserve">5.30358934402466</t>
@@ -1037,31 +1037,31 @@
     <t xml:space="preserve">5.33001279830933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26584148406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20166873931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19034481048584</t>
+    <t xml:space="preserve">5.26584053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20166921615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.190345287323</t>
   </si>
   <si>
     <t xml:space="preserve">5.41305780410767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8849081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19066572189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06232309341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410882949829</t>
+    <t xml:space="preserve">5.49232912063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88490772247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19066619873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06232261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410835266113</t>
   </si>
   <si>
     <t xml:space="preserve">6.24351358413696</t>
@@ -1070,31 +1070,31 @@
     <t xml:space="preserve">6.48509979248047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51529836654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84748077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38350200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2362847328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46654796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806301116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53103923797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85567092895508</t>
+    <t xml:space="preserve">6.51529884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84747982025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38350105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23628425598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46654748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919582366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53104019165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85567188262939</t>
   </si>
   <si>
     <t xml:space="preserve">9.39924240112305</t>
@@ -1103,22 +1103,22 @@
     <t xml:space="preserve">9.75407314300537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.720419883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84057235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04441261291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62918376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41024684906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19130706787109</t>
+    <t xml:space="preserve">10.7204217910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84057331085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04441165924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62918472290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41024589538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19130897521973</t>
   </si>
   <si>
     <t xml:space="preserve">8.73487854003906</t>
@@ -1130,37 +1130,37 @@
     <t xml:space="preserve">8.50084114074707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38004875183105</t>
+    <t xml:space="preserve">8.38004779815674</t>
   </si>
   <si>
     <t xml:space="preserve">8.27435398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11581134796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77608108520508</t>
+    <t xml:space="preserve">8.11581230163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77608060836792</t>
   </si>
   <si>
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402799606323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137727737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687585830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343322753906</t>
+    <t xml:space="preserve">7.84402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687395095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7534327507019</t>
   </si>
   <si>
     <t xml:space="preserve">8.64428329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2290563583374</t>
+    <t xml:space="preserve">8.22905540466309</t>
   </si>
   <si>
     <t xml:space="preserve">8.34984970092773</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">8.23660564422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044589996338</t>
+    <t xml:space="preserve">8.44044494628906</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
@@ -1178,139 +1178,139 @@
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1309118270874</t>
+    <t xml:space="preserve">8.13091087341309</t>
   </si>
   <si>
     <t xml:space="preserve">7.94972085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79117965698242</t>
+    <t xml:space="preserve">7.79118013381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30800676345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224225997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933069229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469202041626</t>
+    <t xml:space="preserve">7.30800580978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224130630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31932926177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469106674194</t>
   </si>
   <si>
     <t xml:space="preserve">7.55714225769043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92707204818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0327672958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60999011993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243892669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54204225540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522356033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330247879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24006032943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668188095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51184558868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25893259048462</t>
+    <t xml:space="preserve">7.92707252502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03276634216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60998964309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60243988037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54204320907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522260665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668140411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51184368133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25893211364746</t>
   </si>
   <si>
     <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23250961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32687854766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5156192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49297046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36840343475342</t>
+    <t xml:space="preserve">7.23250913619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304162979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045700073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32687902450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51561880111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49297142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840295791626</t>
   </si>
   <si>
     <t xml:space="preserve">7.70058441162109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21395683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693305969238</t>
+    <t xml:space="preserve">8.21395778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693115234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123828887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30455112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945255279541</t>
+    <t xml:space="preserve">8.30455207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945064544678</t>
   </si>
   <si>
     <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04786491394043</t>
+    <t xml:space="preserve">8.04786586761475</t>
   </si>
   <si>
     <t xml:space="preserve">8.15355968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766872406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16865825653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85157585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681531906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9682731628418</t>
+    <t xml:space="preserve">8.01766586303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16866016387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8515772819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681579589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151721954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277791976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">6.80973291397095</t>
@@ -1319,97 +1319,97 @@
     <t xml:space="preserve">6.96072483062744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95317411422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88522815704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93052577972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87767887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59834337234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50019884109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801691055298</t>
+    <t xml:space="preserve">6.95317506790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88522863388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93052625656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87767791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59834384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50019931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900835037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801738739014</t>
   </si>
   <si>
     <t xml:space="preserve">6.15291786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56814622879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57569456100464</t>
+    <t xml:space="preserve">6.56814575195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57569551467896</t>
   </si>
   <si>
     <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78708362579346</t>
+    <t xml:space="preserve">6.7870831489563</t>
   </si>
   <si>
     <t xml:space="preserve">7.00602197647095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953386306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60589408874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43980264663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086381912231</t>
+    <t xml:space="preserve">6.83993196487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953290939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6058931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4398021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086429595947</t>
   </si>
   <si>
     <t xml:space="preserve">6.2284140586853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18311595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08497190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616239547729</t>
+    <t xml:space="preserve">6.18311548233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0849723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616191864014</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28881072998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47755098342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49265050888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059551239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039789199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470407485962</t>
+    <t xml:space="preserve">6.28881025314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47754955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4926495552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059598922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42470359802246</t>
   </si>
   <si>
     <t xml:space="preserve">6.58324480056763</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">6.62099313735962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61344337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119218826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91063451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69836330413818</t>
+    <t xml:space="preserve">6.61344242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91063404083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
     <t xml:space="preserve">6.78484392166138</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">6.61974382400513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91849613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981071472168</t>
+    <t xml:space="preserve">6.91849660873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981023788452</t>
   </si>
   <si>
     <t xml:space="preserve">6.4782280921936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39961004257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519901275635</t>
+    <t xml:space="preserve">6.39960861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519948959351</t>
   </si>
   <si>
     <t xml:space="preserve">6.2502326965332</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">6.1323037147522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87286043167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75493144989014</t>
+    <t xml:space="preserve">5.87285995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75493097305298</t>
   </si>
   <si>
     <t xml:space="preserve">5.88072156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83355045318604</t>
+    <t xml:space="preserve">5.83354997634888</t>
   </si>
   <si>
     <t xml:space="preserve">6.1794753074646</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">6.09299468994141</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92003202438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07727003097534</t>
+    <t xml:space="preserve">5.92003154754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0772705078125</t>
   </si>
   <si>
     <t xml:space="preserve">6.04582262039185</t>
@@ -1499,31 +1499,31 @@
     <t xml:space="preserve">6.1716136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21878480911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918615341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119171142578</t>
+    <t xml:space="preserve">6.21878433227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698183059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119123458862</t>
   </si>
   <si>
     <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43105745315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36030006408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06154680252075</t>
+    <t xml:space="preserve">6.43105697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36029958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06154632568359</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368423461914</t>
@@ -1532,28 +1532,28 @@
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361734390259</t>
+    <t xml:space="preserve">5.94361782073975</t>
   </si>
   <si>
     <t xml:space="preserve">5.84927415847778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03796052932739</t>
+    <t xml:space="preserve">6.03796100616455</t>
   </si>
   <si>
     <t xml:space="preserve">6.06940841674805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95934152603149</t>
+    <t xml:space="preserve">5.95934104919434</t>
   </si>
   <si>
     <t xml:space="preserve">5.90430784225464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89644575119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93575620651245</t>
+    <t xml:space="preserve">5.89644622802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93575572967529</t>
   </si>
   <si>
     <t xml:space="preserve">5.81782674789429</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">5.85713624954224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7785177230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80996513366699</t>
+    <t xml:space="preserve">5.77851676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80996465682983</t>
   </si>
   <si>
     <t xml:space="preserve">5.69989776611328</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">5.73920726776123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58196926116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54265928268433</t>
+    <t xml:space="preserve">5.58196878433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54265975952148</t>
   </si>
   <si>
     <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78637933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62914037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53479766845703</t>
+    <t xml:space="preserve">5.76279306411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78637886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62914085388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53479719161987</t>
   </si>
   <si>
     <t xml:space="preserve">5.44045352935791</t>
@@ -1601,22 +1601,22 @@
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499881744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03009843826294</t>
+    <t xml:space="preserve">5.86499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0300989151001</t>
   </si>
   <si>
     <t xml:space="preserve">5.74706935882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47190237045288</t>
+    <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
     <t xml:space="preserve">5.39328241348267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611082077026</t>
+    <t xml:space="preserve">5.34611129760742</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183500289917</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">5.32252502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30680131912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321552276611</t>
+    <t xml:space="preserve">5.30680084228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26749134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321504592896</t>
   </si>
   <si>
     <t xml:space="preserve">5.17314863204956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11811494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025333404541</t>
+    <t xml:space="preserve">5.11811542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025285720825</t>
   </si>
   <si>
     <t xml:space="preserve">4.9687385559082</t>
@@ -1664,37 +1664,37 @@
     <t xml:space="preserve">5.15742492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14170074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0945291519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1967339515686</t>
+    <t xml:space="preserve">5.14170122146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09452867507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19673490524292</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824872970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38542079925537</t>
+    <t xml:space="preserve">5.33824920654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38542032241821</t>
   </si>
   <si>
     <t xml:space="preserve">6.52540016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56471014022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31312799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40747117996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28954219818115</t>
+    <t xml:space="preserve">6.56470966339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3131275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.407470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28954267501831</t>
   </si>
   <si>
     <t xml:space="preserve">5.29107713699341</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">5.22818231582642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18887281417847</t>
+    <t xml:space="preserve">5.18887233734131</t>
   </si>
   <si>
     <t xml:space="preserve">5.24390602111816</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">5.27535343170166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13383913040161</t>
+    <t xml:space="preserve">5.13383865356445</t>
   </si>
   <si>
     <t xml:space="preserve">5.29893922805786</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">5.22032022476196</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1495623588562</t>
+    <t xml:space="preserve">5.14956378936768</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69357109069824</t>
+    <t xml:space="preserve">4.69357061386108</t>
   </si>
   <si>
     <t xml:space="preserve">4.48129844665527</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">4.59922790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53633260726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695573806763</t>
+    <t xml:space="preserve">4.53633213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695526123047</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123203277588</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">4.52847051620483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68570899963379</t>
+    <t xml:space="preserve">4.68570947647095</t>
   </si>
   <si>
     <t xml:space="preserve">4.67784738540649</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">4.94515228271484</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35397243499756</t>
+    <t xml:space="preserve">5.35397291183472</t>
   </si>
   <si>
     <t xml:space="preserve">5.33038759231567</t>
@@ -1784,31 +1784,31 @@
     <t xml:space="preserve">5.18101119995117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25962972640991</t>
+    <t xml:space="preserve">5.25962924957275</t>
   </si>
   <si>
     <t xml:space="preserve">5.50334930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47976398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51907348632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45617818832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36969614028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55052089691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41686773300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57410669326782</t>
+    <t xml:space="preserve">5.47976350784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51907300949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45617771148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36969661712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55052137374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41686820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57410717010498</t>
   </si>
   <si>
     <t xml:space="preserve">5.68417358398438</t>
@@ -1823,16 +1823,16 @@
     <t xml:space="preserve">5.66058778762817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72348356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631149291992</t>
+    <t xml:space="preserve">5.72348403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631196975708</t>
   </si>
   <si>
     <t xml:space="preserve">6.18733739852905</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14802742004395</t>
+    <t xml:space="preserve">6.1480278968811</t>
   </si>
   <si>
     <t xml:space="preserve">6.42319536209106</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">6.1008563041687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29740428924561</t>
+    <t xml:space="preserve">6.29740476608276</t>
   </si>
   <si>
     <t xml:space="preserve">6.08513164520264</t>
@@ -1859,55 +1859,55 @@
     <t xml:space="preserve">6.3288516998291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3052659034729</t>
+    <t xml:space="preserve">6.30526638031006</t>
   </si>
   <si>
     <t xml:space="preserve">6.21092319488525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1244421005249</t>
+    <t xml:space="preserve">6.12444257736206</t>
   </si>
   <si>
     <t xml:space="preserve">6.16375160217285</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26595687866211</t>
+    <t xml:space="preserve">6.26595640182495</t>
   </si>
   <si>
     <t xml:space="preserve">6.51753854751587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39174747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44678115844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32098960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671379089355</t>
+    <t xml:space="preserve">6.39174699783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44678068161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457540512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32099008560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671474456787</t>
   </si>
   <si>
     <t xml:space="preserve">6.01437520980835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27381801605225</t>
+    <t xml:space="preserve">6.27381896972656</t>
   </si>
   <si>
     <t xml:space="preserve">5.97506523132324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00651216506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99078845977783</t>
+    <t xml:space="preserve">6.00651264190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99078893661499</t>
   </si>
   <si>
     <t xml:space="preserve">5.77065515518188</t>
@@ -1916,40 +1916,40 @@
     <t xml:space="preserve">5.73134565353394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02223682403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82568883895874</t>
+    <t xml:space="preserve">6.0222373008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82568836212158</t>
   </si>
   <si>
     <t xml:space="preserve">5.74286413192749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56185722351074</t>
+    <t xml:space="preserve">5.56185674667358</t>
   </si>
   <si>
     <t xml:space="preserve">5.59476709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73463678359985</t>
+    <t xml:space="preserve">5.7346363067627</t>
   </si>
   <si>
     <t xml:space="preserve">5.61944961547852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57008457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64413261413574</t>
+    <t xml:space="preserve">5.57008409500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6441330909729</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50426387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52894639968872</t>
+    <t xml:space="preserve">5.50426435470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52894687652588</t>
   </si>
   <si>
     <t xml:space="preserve">5.54540157318115</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">5.24920797348022</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42198848724365</t>
+    <t xml:space="preserve">5.42198801040649</t>
   </si>
   <si>
     <t xml:space="preserve">5.46312570571899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60299444198608</t>
+    <t xml:space="preserve">5.60299491882324</t>
   </si>
   <si>
     <t xml:space="preserve">5.55362939834595</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">5.36439418792725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43021535873413</t>
+    <t xml:space="preserve">5.43021488189697</t>
   </si>
   <si>
     <t xml:space="preserve">5.71818113327026</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">5.72640895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89096069335938</t>
+    <t xml:space="preserve">5.89096021652222</t>
   </si>
   <si>
     <t xml:space="preserve">5.98969221115112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95678186416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9156436920166</t>
+    <t xml:space="preserve">5.9567813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91564321517944</t>
   </si>
   <si>
     <t xml:space="preserve">5.83336782455444</t>
@@ -2024,22 +2024,22 @@
     <t xml:space="preserve">5.75109148025513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62767839431763</t>
+    <t xml:space="preserve">5.62767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58653974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4548978805542</t>
+    <t xml:space="preserve">5.58653926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45489835739136</t>
   </si>
   <si>
     <t xml:space="preserve">5.03529024124146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93655920028687</t>
+    <t xml:space="preserve">4.93655872344971</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530143737793</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">4.73909711837769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21629858016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05997371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87073850631714</t>
+    <t xml:space="preserve">5.21629810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05997323989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8707389831543</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">4.86251068115234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87896585464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82137298583984</t>
+    <t xml:space="preserve">4.87896633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.821373462677</t>
   </si>
   <si>
     <t xml:space="preserve">4.85428333282471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9118766784668</t>
+    <t xml:space="preserve">4.91187620162964</t>
   </si>
   <si>
     <t xml:space="preserve">5.142249584198</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">5.29034614562988</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40553283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47958087921143</t>
+    <t xml:space="preserve">5.4055323600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47958135604858</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">5.33148384094238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38084983825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26566362380981</t>
+    <t xml:space="preserve">5.38084936141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26566314697266</t>
   </si>
   <si>
     <t xml:space="preserve">5.32325649261475</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">5.44667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43844223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80045747756958</t>
+    <t xml:space="preserve">5.43844270706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80045795440674</t>
   </si>
   <si>
     <t xml:space="preserve">5.79223012924194</t>
@@ -2135,31 +2135,31 @@
     <t xml:space="preserve">5.84159564971924</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70172548294067</t>
+    <t xml:space="preserve">5.70172595977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868434906006</t>
+    <t xml:space="preserve">5.80868482589722</t>
   </si>
   <si>
     <t xml:space="preserve">5.6852707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69349813461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12956094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04728555679321</t>
+    <t xml:space="preserve">5.6934986114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04728507995605</t>
   </si>
   <si>
     <t xml:space="preserve">5.92387104034424</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70995426177979</t>
+    <t xml:space="preserve">5.70995378494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.67704343795776</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">5.65236043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61122274398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63590574264526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4960355758667</t>
+    <t xml:space="preserve">5.61122226715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63590526580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49603605270386</t>
   </si>
   <si>
     <t xml:space="preserve">5.22452545166016</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">5.16693258285522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11756658554077</t>
+    <t xml:space="preserve">5.11756610870361</t>
   </si>
   <si>
     <t xml:space="preserve">5.23275279998779</t>
@@ -2204,34 +2204,34 @@
     <t xml:space="preserve">4.77200746536255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80491828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60745573043823</t>
+    <t xml:space="preserve">4.80491781234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60745525360107</t>
   </si>
   <si>
     <t xml:space="preserve">4.36062717437744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43467569351196</t>
+    <t xml:space="preserve">4.4346752166748</t>
   </si>
   <si>
     <t xml:space="preserve">4.31948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03152370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81760621070862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42268109321594</t>
+    <t xml:space="preserve">4.03152322769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81760597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42268085479736</t>
   </si>
   <si>
     <t xml:space="preserve">3.45559120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48850178718567</t>
+    <t xml:space="preserve">3.48850202560425</t>
   </si>
   <si>
     <t xml:space="preserve">3.04421162605286</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">3.20876359939575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09357738494873</t>
+    <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117049217224</t>
@@ -2264,25 +2264,25 @@
     <t xml:space="preserve">3.38154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40211248397827</t>
+    <t xml:space="preserve">3.40211272239685</t>
   </si>
   <si>
     <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39799857139587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375387191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495743751526</t>
+    <t xml:space="preserve">3.39799880981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375363349915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495719909668</t>
   </si>
   <si>
     <t xml:space="preserve">3.62837147712708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646803855896</t>
+    <t xml:space="preserve">3.7764675617218</t>
   </si>
   <si>
     <t xml:space="preserve">3.53786754608154</t>
@@ -2291,37 +2291,37 @@
     <t xml:space="preserve">3.69419145584106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71887516975403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810918807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99861311912537</t>
+    <t xml:space="preserve">3.71887493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810942649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99861335754395</t>
   </si>
   <si>
     <t xml:space="preserve">4.11379909515381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5498628616333</t>
+    <t xml:space="preserve">4.54986333847046</t>
   </si>
   <si>
     <t xml:space="preserve">4.54163503646851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53340673446655</t>
+    <t xml:space="preserve">4.53340721130371</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36885452270508</t>
+    <t xml:space="preserve">4.36885499954224</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835083007812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42644834518433</t>
+    <t xml:space="preserve">4.42644786834717</t>
   </si>
   <si>
     <t xml:space="preserve">4.41822052001953</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">3.91633772850037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98215842247009</t>
+    <t xml:space="preserve">3.98215770721436</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
@@ -2354,10 +2354,10 @@
     <t xml:space="preserve">4.06443405151367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99038553237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0109543800354</t>
+    <t xml:space="preserve">3.99038505554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01095485687256</t>
   </si>
   <si>
     <t xml:space="preserve">4.05209255218506</t>
@@ -2366,13 +2366,13 @@
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92867875099182</t>
+    <t xml:space="preserve">3.92867851257324</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872373580933</t>
+    <t xml:space="preserve">4.50872421264648</t>
   </si>
   <si>
     <t xml:space="preserve">4.30303382873535</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">4.34417247772217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3523998260498</t>
+    <t xml:space="preserve">4.35239934921265</t>
   </si>
   <si>
     <t xml:space="preserve">4.21253108978271</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">4.0808892250061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25366830825806</t>
+    <t xml:space="preserve">4.25366878509521</t>
   </si>
   <si>
     <t xml:space="preserve">4.27012395858765</t>
@@ -2420,10 +2420,10 @@
     <t xml:space="preserve">4.1220269203186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10557174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04797887802124</t>
+    <t xml:space="preserve">4.10557126998901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0479793548584</t>
   </si>
   <si>
     <t xml:space="preserve">4.05620622634888</t>
@@ -2441,13 +2441,13 @@
     <t xml:space="preserve">4.10145807266235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96570301055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94101929664612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279218673706</t>
+    <t xml:space="preserve">3.9657027721405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94101977348328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279242515564</t>
   </si>
   <si>
     <t xml:space="preserve">3.99449944496155</t>
@@ -2456,34 +2456,34 @@
     <t xml:space="preserve">4.07677507400513</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1631646156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22075843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13025522232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924736022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513392448425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583379745483</t>
+    <t xml:space="preserve">4.16316509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22075891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1302547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924807548523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513368606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82583332061768</t>
   </si>
   <si>
     <t xml:space="preserve">3.85051584243774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8464024066925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80937814712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7394437789917</t>
+    <t xml:space="preserve">3.84640264511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80937838554382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73944354057312</t>
   </si>
   <si>
     <t xml:space="preserve">3.7435576915741</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">3.76824021339417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66128158569336</t>
+    <t xml:space="preserve">3.66128134727478</t>
   </si>
   <si>
     <t xml:space="preserve">3.65305423736572</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">3.59134674072266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60780215263367</t>
+    <t xml:space="preserve">3.60780191421509</t>
   </si>
   <si>
     <t xml:space="preserve">3.63659906387329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66539525985718</t>
+    <t xml:space="preserve">3.66539549827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.72710251808167</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">3.67362308502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68596410751343</t>
+    <t xml:space="preserve">3.68596434593201</t>
   </si>
   <si>
     <t xml:space="preserve">3.54609537124634</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">3.60368847846985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59546041488647</t>
+    <t xml:space="preserve">3.5954601764679</t>
   </si>
   <si>
     <t xml:space="preserve">3.63248491287231</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">3.62014317512512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30749487876892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36508798599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33217787742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70241904258728</t>
+    <t xml:space="preserve">3.30749464035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36508822441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33217763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241928100586</t>
   </si>
   <si>
     <t xml:space="preserve">3.70653319358826</t>
@@ -2570,19 +2570,19 @@
     <t xml:space="preserve">3.71064782142639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3112621307373</t>
+    <t xml:space="preserve">4.31126165390015</t>
   </si>
   <si>
     <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40999269485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33594465255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29480695724487</t>
+    <t xml:space="preserve">4.40999317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33594417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
     <t xml:space="preserve">4.26189613342285</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">4.61568260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454490661621</t>
+    <t xml:space="preserve">4.57454538345337</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
@@ -2612,16 +2612,16 @@
     <t xml:space="preserve">5.06820058822632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96124267578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97769784927368</t>
+    <t xml:space="preserve">4.96124219894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97769737243652</t>
   </si>
   <si>
     <t xml:space="preserve">5.00238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01060819625854</t>
+    <t xml:space="preserve">5.01060771942139</t>
   </si>
   <si>
     <t xml:space="preserve">4.96946954727173</t>
@@ -2630,16 +2630,16 @@
     <t xml:space="preserve">4.92010402679443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04351806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24098062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161462783813</t>
+    <t xml:space="preserve">5.04351854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2574348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161510467529</t>
   </si>
   <si>
     <t xml:space="preserve">5.10111093521118</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">5.15870475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1833872795105</t>
+    <t xml:space="preserve">5.18338775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
@@ -2663,22 +2663,22 @@
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8745059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90741586685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99792003631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97323703765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94855356216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94032621383667</t>
+    <t xml:space="preserve">5.87450551986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90741539001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99791955947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97323751449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94855403900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94032573699951</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2690,13 +2690,13 @@
     <t xml:space="preserve">6.38461685180664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48334789276123</t>
+    <t xml:space="preserve">6.48334836959839</t>
   </si>
   <si>
     <t xml:space="preserve">6.45043802261353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35170650482178</t>
+    <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
     <t xml:space="preserve">6.26943016052246</t>
@@ -2708,31 +2708,31 @@
     <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3011908531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42040205001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81209802627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77803754806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74397706985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57367467880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72694635391235</t>
+    <t xml:space="preserve">6.30119037628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42040252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81209754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77803802490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74397659301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72694683074951</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76100730895996</t>
+    <t xml:space="preserve">6.7610068321228</t>
   </si>
   <si>
     <t xml:space="preserve">7.30597448348999</t>
@@ -2741,16 +2741,16 @@
     <t xml:space="preserve">7.49330759048462</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7998514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591121673584</t>
+    <t xml:space="preserve">7.79985237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591026306152</t>
   </si>
   <si>
     <t xml:space="preserve">8.22560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25966835021973</t>
+    <t xml:space="preserve">8.25966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">8.34482002258301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29372978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02603054046631</t>
+    <t xml:space="preserve">8.29372882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02602958679199</t>
   </si>
   <si>
     <t xml:space="preserve">9.06860446929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98345375061035</t>
+    <t xml:space="preserve">8.98345470428467</t>
   </si>
   <si>
     <t xml:space="preserve">8.85572624206543</t>
@@ -2786,16 +2786,16 @@
     <t xml:space="preserve">8.41294097900391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46403121948242</t>
+    <t xml:space="preserve">8.46403217315674</t>
   </si>
   <si>
     <t xml:space="preserve">8.36184978485107</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76579141616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251878738403</t>
+    <t xml:space="preserve">7.76579189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251831054688</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
@@ -2804,28 +2804,28 @@
     <t xml:space="preserve">8.0212459564209</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93609285354614</t>
+    <t xml:space="preserve">7.93609380722046</t>
   </si>
   <si>
     <t xml:space="preserve">8.07233619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10639762878418</t>
+    <t xml:space="preserve">8.10639667510986</t>
   </si>
   <si>
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0042142868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391141891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66360998153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57845878601074</t>
+    <t xml:space="preserve">8.00421524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66360950469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5784592628479</t>
   </si>
   <si>
     <t xml:space="preserve">7.15270185470581</t>
@@ -2834,46 +2834,46 @@
     <t xml:space="preserve">7.51033782958984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59548950195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74876165390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0893669128418</t>
+    <t xml:space="preserve">7.59548854827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7487621307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08936595916748</t>
   </si>
   <si>
     <t xml:space="preserve">7.98718452453613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03827476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90203285217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342739105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77057552337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55769920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40921115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28148365020752</t>
+    <t xml:space="preserve">8.03827571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90203380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77057647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55769824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40921020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2814826965332</t>
   </si>
   <si>
     <t xml:space="preserve">9.19633197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94087982177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81315231323242</t>
+    <t xml:space="preserve">8.94087886810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81315135955811</t>
   </si>
   <si>
     <t xml:space="preserve">8.89830303192139</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51512145996094</t>
+    <t xml:space="preserve">8.51512241363525</t>
   </si>
   <si>
     <t xml:space="preserve">8.42997074127197</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">9.49436187744141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87754154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62208843231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91154003143311</t>
+    <t xml:space="preserve">9.87754249572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62208938598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91154098510742</t>
   </si>
   <si>
     <t xml:space="preserve">9.86768436431885</t>
@@ -2915,16 +2915,16 @@
     <t xml:space="preserve">9.95539665222168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2623910903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0869665145874</t>
+    <t xml:space="preserve">10.2623920440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
     <t xml:space="preserve">10.0431098937988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99925327301025</t>
+    <t xml:space="preserve">9.99925231933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">10.3939599990845</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77997016906738</t>
+    <t xml:space="preserve">9.7799711227417</t>
   </si>
   <si>
     <t xml:space="preserve">9.73611545562744</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">8.77127456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0344123840332</t>
+    <t xml:space="preserve">9.03441333770752</t>
   </si>
   <si>
     <t xml:space="preserve">9.64840126037598</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">9.82382678985596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51683330535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38526439666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34140777587891</t>
+    <t xml:space="preserve">9.5168342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38526344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34140682220459</t>
   </si>
   <si>
     <t xml:space="preserve">9.25369548797607</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">8.61339092254639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71864604949951</t>
+    <t xml:space="preserve">8.71864700317383</t>
   </si>
   <si>
     <t xml:space="preserve">8.73618984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03448677062988</t>
+    <t xml:space="preserve">8.0344877243042</t>
   </si>
   <si>
     <t xml:space="preserve">8.20991230010986</t>
@@ -3014,19 +3014,19 @@
     <t xml:space="preserve">8.05203056335449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47312593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42049884796143</t>
+    <t xml:space="preserve">7.47312641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42049837112427</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06957149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82397747039795</t>
+    <t xml:space="preserve">8.06957244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82397651672363</t>
   </si>
   <si>
     <t xml:space="preserve">8.28008365631104</t>
@@ -3038,10 +3038,10 @@
     <t xml:space="preserve">7.99940252304077</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38533782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059391021729</t>
+    <t xml:space="preserve">8.38533878326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4905948638916</t>
   </si>
   <si>
     <t xml:space="preserve">8.43796634674072</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">8.9028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70987510681152</t>
+    <t xml:space="preserve">8.70987606048584</t>
   </si>
   <si>
     <t xml:space="preserve">8.76250267028809</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">8.65724849700928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26254081726074</t>
+    <t xml:space="preserve">8.26254177093506</t>
   </si>
   <si>
     <t xml:space="preserve">8.07834339141846</t>
@@ -3077,19 +3077,19 @@
     <t xml:space="preserve">8.35902404785156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20114135742188</t>
+    <t xml:space="preserve">8.20114231109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30639743804932</t>
+    <t xml:space="preserve">8.30639839172363</t>
   </si>
   <si>
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98186016082764</t>
+    <t xml:space="preserve">7.98186063766479</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">8.21868419647217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01694488525391</t>
+    <t xml:space="preserve">8.01694583892822</t>
   </si>
   <si>
     <t xml:space="preserve">7.77899932861328</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">8.64841651916504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62096118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69417572021484</t>
+    <t xml:space="preserve">8.62096214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69417476654053</t>
   </si>
   <si>
     <t xml:space="preserve">8.7307825088501</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">8.79484462738037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60265731811523</t>
+    <t xml:space="preserve">8.60265827178955</t>
   </si>
   <si>
     <t xml:space="preserve">8.91381740570068</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">9.10600471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96872901916504</t>
+    <t xml:space="preserve">8.96872806549072</t>
   </si>
   <si>
     <t xml:space="preserve">9.17006778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01448822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06939697265625</t>
+    <t xml:space="preserve">9.01448726654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06939792633057</t>
   </si>
   <si>
     <t xml:space="preserve">9.06024551391602</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">8.87721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57520198822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944278717041</t>
+    <t xml:space="preserve">8.57520294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944374084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.32810497283936</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">8.17252445220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03524780273438</t>
+    <t xml:space="preserve">8.03524875640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.14506912231445</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">8.08100700378418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9711856842041</t>
+    <t xml:space="preserve">7.97118616104126</t>
   </si>
   <si>
     <t xml:space="preserve">7.83390998840332</t>
@@ -3218,28 +3218,28 @@
     <t xml:space="preserve">7.91627502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11761474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87051725387573</t>
+    <t xml:space="preserve">8.11761379241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87051677703857</t>
   </si>
   <si>
     <t xml:space="preserve">8.00779342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92542695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81560564041138</t>
+    <t xml:space="preserve">7.92542743682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81560611724854</t>
   </si>
   <si>
     <t xml:space="preserve">7.90712451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8888201713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87966775894165</t>
+    <t xml:space="preserve">7.88882064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87966823577881</t>
   </si>
   <si>
     <t xml:space="preserve">7.94373083114624</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">9.15176391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90466594696045</t>
+    <t xml:space="preserve">8.90466499328613</t>
   </si>
   <si>
     <t xml:space="preserve">8.92296981811523</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">8.41962242126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78569412231445</t>
+    <t xml:space="preserve">8.78569316864014</t>
   </si>
   <si>
     <t xml:space="preserve">8.28234577178955</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">8.06270408630371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69663286209106</t>
+    <t xml:space="preserve">7.69663333892822</t>
   </si>
   <si>
     <t xml:space="preserve">7.52274990081787</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">7.44953584671021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41292905807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64172315597534</t>
+    <t xml:space="preserve">7.41292858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64172267913818</t>
   </si>
   <si>
     <t xml:space="preserve">7.48614311218262</t>
@@ -3335,40 +3335,40 @@
     <t xml:space="preserve">7.21158981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13591861724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80645418167114</t>
+    <t xml:space="preserve">8.13591766357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80645370483398</t>
   </si>
   <si>
     <t xml:space="preserve">7.79730319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136484146118</t>
+    <t xml:space="preserve">7.86136531829834</t>
   </si>
   <si>
     <t xml:space="preserve">7.63257074356079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76069498062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154447555542</t>
+    <t xml:space="preserve">7.7606954574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154399871826</t>
   </si>
   <si>
     <t xml:space="preserve">7.71493721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67832946777344</t>
+    <t xml:space="preserve">7.6783299446106</t>
   </si>
   <si>
     <t xml:space="preserve">7.84306144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65087413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68748140335083</t>
+    <t xml:space="preserve">7.65087366104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68748092651367</t>
   </si>
   <si>
     <t xml:space="preserve">7.6691780090332</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">7.78815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82475805282593</t>
+    <t xml:space="preserve">7.82475852966309</t>
   </si>
   <si>
     <t xml:space="preserve">7.73324012756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24573993682861</t>
+    <t xml:space="preserve">8.2457389831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.4287748336792</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">8.50198841094971</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55689907073975</t>
+    <t xml:space="preserve">8.55690002441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.4562292098999</t>
@@ -3401,16 +3401,16 @@
     <t xml:space="preserve">8.49283695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40131855010986</t>
+    <t xml:space="preserve">8.40131950378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.48368549346924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51113986968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.474534034729</t>
+    <t xml:space="preserve">8.51114082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47453308105469</t>
   </si>
   <si>
     <t xml:space="preserve">8.43792629241943</t>
@@ -3452,19 +3452,19 @@
     <t xml:space="preserve">9.38970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31649589538574</t>
+    <t xml:space="preserve">9.31649494171143</t>
   </si>
   <si>
     <t xml:space="preserve">9.33479881286621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07855033874512</t>
+    <t xml:space="preserve">9.0785493850708</t>
   </si>
   <si>
     <t xml:space="preserve">9.08770179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22497749328613</t>
+    <t xml:space="preserve">9.22497844696045</t>
   </si>
   <si>
     <t xml:space="preserve">9.13346004486084</t>
@@ -3476,10 +3476,10 @@
     <t xml:space="preserve">9.29819107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37140655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109405517578</t>
+    <t xml:space="preserve">9.37140560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">8.98703193664551</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">8.88636207580566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11515617370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60935115814209</t>
+    <t xml:space="preserve">9.11515712738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60935211181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.4263162612915</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">9.40801239013672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44462013244629</t>
+    <t xml:space="preserve">9.44461917877197</t>
   </si>
   <si>
     <t xml:space="preserve">9.2615852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27988910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24328136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09685230255127</t>
+    <t xml:space="preserve">9.27988815307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24328231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09685325622559</t>
   </si>
   <si>
     <t xml:space="preserve">9.35118103027344</t>
@@ -60473,7 +60473,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.649537037</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>5684</v>
@@ -60494,6 +60494,32 @@
         <v>1313</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6419907407</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>511</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>8.77999973297119</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346646785736</t>
+    <t xml:space="preserve">1.27346658706665</t>
   </si>
   <si>
     <t xml:space="preserve">1.28596591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26611387729645</t>
+    <t xml:space="preserve">1.26611399650574</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258322715759</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">1.31169986724854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3256698846817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33596324920654</t>
+    <t xml:space="preserve">1.32566976547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33596336841583</t>
   </si>
   <si>
     <t xml:space="preserve">1.32346415519714</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">1.30875885486603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26758456230164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25214409828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302757740021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729084014893</t>
+    <t xml:space="preserve">1.26758432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25214397907257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302745819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729095935822</t>
   </si>
   <si>
     <t xml:space="preserve">1.30728840827942</t>
@@ -92,37 +92,37 @@
     <t xml:space="preserve">1.27493703365326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411150932312</t>
+    <t xml:space="preserve">1.24111521244049</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817408084869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23449778556824</t>
+    <t xml:space="preserve">1.23449802398682</t>
   </si>
   <si>
     <t xml:space="preserve">1.18008875846863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18376517295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15729582309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13964951038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612372398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07568216323853</t>
+    <t xml:space="preserve">1.18376505374908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15729570388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1396496295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612384319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07568228244781</t>
   </si>
   <si>
     <t xml:space="preserve">1.07053530216217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05141878128052</t>
+    <t xml:space="preserve">1.05141866207123</t>
   </si>
   <si>
     <t xml:space="preserve">1.07347643375397</t>
@@ -131,37 +131,37 @@
     <t xml:space="preserve">1.09479880332947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15067827701569</t>
+    <t xml:space="preserve">1.15067863464355</t>
   </si>
   <si>
     <t xml:space="preserve">1.16832458972931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16538381576538</t>
+    <t xml:space="preserve">1.1653835773468</t>
   </si>
   <si>
     <t xml:space="preserve">1.14700210094452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17641246318817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317541599274</t>
+    <t xml:space="preserve">1.17641258239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317529678345</t>
   </si>
   <si>
     <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18744134902954</t>
+    <t xml:space="preserve">1.18744122982025</t>
   </si>
   <si>
     <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18817675113678</t>
+    <t xml:space="preserve">1.1881765127182</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347145080566</t>
@@ -176,28 +176,28 @@
     <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24258577823639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22861552238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22052800655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670132160187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30655312538147</t>
+    <t xml:space="preserve">1.2425856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22861576080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22052812576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670120239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30655300617218</t>
   </si>
   <si>
     <t xml:space="preserve">1.30214154720306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26464343070984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2499383687973</t>
+    <t xml:space="preserve">1.26464354991913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24993824958801</t>
   </si>
   <si>
     <t xml:space="preserve">1.28743636608124</t>
@@ -212,52 +212,52 @@
     <t xml:space="preserve">1.23008632659912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25067341327667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25655567646027</t>
+    <t xml:space="preserve">1.25067353248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2565553188324</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317286491394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26243758201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29920053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29405379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876128673553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28523075580597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861344814301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934861183167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28964197635651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27199602127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28302478790283</t>
+    <t xml:space="preserve">1.26243770122528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29920041561127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2940536737442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876152515411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28523051738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861332893372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934849262238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28964233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27199614048004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28302502632141</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36022698879242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33816933631897</t>
+    <t xml:space="preserve">1.36022686958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33816921710968</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
@@ -269,73 +269,73 @@
     <t xml:space="preserve">1.30949425697327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29846549034119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26831984519958</t>
+    <t xml:space="preserve">1.29846525192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2683197259903</t>
   </si>
   <si>
     <t xml:space="preserve">1.21170485019684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19773483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17420673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17567729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258809089661</t>
+    <t xml:space="preserve">1.19773495197296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17420649528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17567718029022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1925882101059</t>
   </si>
   <si>
     <t xml:space="preserve">1.20288181304932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19847011566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12494421005249</t>
+    <t xml:space="preserve">1.19847023487091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12494444847107</t>
   </si>
   <si>
     <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11759173870087</t>
+    <t xml:space="preserve">1.11759185791016</t>
   </si>
   <si>
     <t xml:space="preserve">1.12347388267517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13597321510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023938655853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15582525730133</t>
+    <t xml:space="preserve">1.13597333431244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1322968006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023926734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15582537651062</t>
   </si>
   <si>
     <t xml:space="preserve">1.15803110599518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14920794963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17494201660156</t>
+    <t xml:space="preserve">1.14920783042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17494213581085</t>
   </si>
   <si>
     <t xml:space="preserve">1.15361952781677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16758954524994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21391069889069</t>
+    <t xml:space="preserve">1.16758930683136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21391081809998</t>
   </si>
   <si>
     <t xml:space="preserve">1.41169500350952</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">1.56021702289581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56168758869171</t>
+    <t xml:space="preserve">1.561687707901</t>
   </si>
   <si>
     <t xml:space="preserve">1.52345407009125</t>
@@ -353,115 +353,115 @@
     <t xml:space="preserve">1.48522067070007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52933621406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47051584720612</t>
+    <t xml:space="preserve">1.52933597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47051560878754</t>
   </si>
   <si>
     <t xml:space="preserve">1.54257082939148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.508749127388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49404382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50727844238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4999258518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48669135570526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49257338047028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48816192150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48080909252167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49845540523529</t>
+    <t xml:space="preserve">1.50874900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49404418468475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50727832317352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49992597103119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48669123649597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49257326126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48816168308258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48080933094025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49845552444458</t>
   </si>
   <si>
     <t xml:space="preserve">1.5543349981308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785336971283</t>
+    <t xml:space="preserve">1.77785313129425</t>
   </si>
   <si>
     <t xml:space="preserve">1.74550211429596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88961267471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666911125183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078963756561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931895256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81608700752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138158798218</t>
+    <t xml:space="preserve">1.88961255550385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666923046112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078951835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931883335114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8602020740509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.816086769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138170719147</t>
   </si>
   <si>
     <t xml:space="preserve">1.87490749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93372821807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608202457428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314089298248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078684806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9293167591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519854545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92049336433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431761741638</t>
+    <t xml:space="preserve">1.93372797966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608166694641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9131406545639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931640148163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519866466522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9204934835434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431749820709</t>
   </si>
   <si>
     <t xml:space="preserve">1.91902279853821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90137672424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92343437671661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961036205292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96166777610779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09401440620422</t>
+    <t xml:space="preserve">1.90137660503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92343461513519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961012363434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9616676568985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09401392936707</t>
   </si>
   <si>
     <t xml:space="preserve">2.17489242553711</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">2.12930655479431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19106817245483</t>
+    <t xml:space="preserve">2.19106841087341</t>
   </si>
   <si>
     <t xml:space="preserve">2.14107060432434</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">2.09695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13077712059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11901307106018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11166048049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19695043563843</t>
+    <t xml:space="preserve">2.13077735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11901330947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842538833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11166024208069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19695019721985</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782869338989</t>
@@ -500,58 +500,58 @@
     <t xml:space="preserve">2.26606464385986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08813214302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9763730764389</t>
+    <t xml:space="preserve">2.08813190460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97637295722961</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901550292969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04989910125732</t>
+    <t xml:space="preserve">2.04989886283875</t>
   </si>
   <si>
     <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08225059509277</t>
+    <t xml:space="preserve">2.10136675834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08225011825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763680934906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03519344329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01460647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95578598976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019732952118</t>
+    <t xml:space="preserve">2.0351939201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0146062374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95578587055206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019721031189</t>
   </si>
   <si>
     <t xml:space="preserve">1.97196161746979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94843339920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87784862518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549469947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99254882335663</t>
+    <t xml:space="preserve">1.94843327999115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87784802913666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549493789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696004390717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431275367737</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">2.08372092247009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03813481330872</t>
+    <t xml:space="preserve">2.03813457489014</t>
   </si>
   <si>
     <t xml:space="preserve">2.05431032180786</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">2.05872178077698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06019258499146</t>
+    <t xml:space="preserve">2.06019234657288</t>
   </si>
   <si>
     <t xml:space="preserve">2.06754517555237</t>
@@ -584,46 +584,46 @@
     <t xml:space="preserve">2.06313347816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10283756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694557189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2719464302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23812508583069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16606950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19989132881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047877311707</t>
+    <t xml:space="preserve">2.10283732414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17636322975159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694533348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27194666862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23812460899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1660692691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19989156723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047853469849</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753716468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988842010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23518347740173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25430035591125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23959541320801</t>
+    <t xml:space="preserve">2.21753787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23518371582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25430059432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23959517478943</t>
   </si>
   <si>
     <t xml:space="preserve">2.24694776535034</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">2.25871205329895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24253582954407</t>
+    <t xml:space="preserve">2.24253630638123</t>
   </si>
   <si>
     <t xml:space="preserve">2.21606683731079</t>
@@ -644,19 +644,19 @@
     <t xml:space="preserve">2.2234194278717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20577335357666</t>
+    <t xml:space="preserve">2.20577383041382</t>
   </si>
   <si>
     <t xml:space="preserve">2.22194933891296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35282492637634</t>
+    <t xml:space="preserve">2.35282516479492</t>
   </si>
   <si>
     <t xml:space="preserve">2.61163568496704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61016511917114</t>
+    <t xml:space="preserve">2.61016488075256</t>
   </si>
   <si>
     <t xml:space="preserve">2.61604738235474</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">2.52193427085876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64545774459839</t>
+    <t xml:space="preserve">2.64545750617981</t>
   </si>
   <si>
     <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58810758590698</t>
+    <t xml:space="preserve">2.5881073474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457924842834</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">2.56016778945923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59840106964111</t>
+    <t xml:space="preserve">2.59840083122253</t>
   </si>
   <si>
     <t xml:space="preserve">2.57634329795837</t>
@@ -698,127 +698,127 @@
     <t xml:space="preserve">2.59545993804932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78662705421448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8528003692627</t>
+    <t xml:space="preserve">2.7866268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
     <t xml:space="preserve">2.83809518814087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98808765411377</t>
+    <t xml:space="preserve">2.98808836936951</t>
   </si>
   <si>
     <t xml:space="preserve">2.92632627487183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26454496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983201026917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129551887512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217401504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89319038391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716733932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480902671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84172248840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039246559143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14685392379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40051698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37478399276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596279144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140859603882</t>
+    <t xml:space="preserve">3.26454520225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983248710632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89318990707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716781616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480878829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84172201156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848496437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14685440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449537277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40051794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37478351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596326828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140907287598</t>
   </si>
   <si>
     <t xml:space="preserve">4.5218358039856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51815891265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77917575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990303039551</t>
+    <t xml:space="preserve">4.51815938949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77917528152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990398406982</t>
   </si>
   <si>
     <t xml:space="preserve">5.77177333831787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0291633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35267734527588</t>
+    <t xml:space="preserve">5.02916383743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35267686843872</t>
   </si>
   <si>
     <t xml:space="preserve">5.26444578170776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71662950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71295404434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05852365493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71290349960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523820877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389867782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310485839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926651000977</t>
+    <t xml:space="preserve">5.71662998199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71295309066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0585241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71290397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523677825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81583976745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376935958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389772415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310438156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926507949829</t>
   </si>
   <si>
     <t xml:space="preserve">6.67006492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85502958297729</t>
+    <t xml:space="preserve">6.85503005981445</t>
   </si>
   <si>
     <t xml:space="preserve">6.66629028320312</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">6.37185621261597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6360912322998</t>
+    <t xml:space="preserve">6.63609170913696</t>
   </si>
   <si>
     <t xml:space="preserve">6.75688552856445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83238124847412</t>
+    <t xml:space="preserve">6.83238172531128</t>
   </si>
   <si>
     <t xml:space="preserve">6.7191367149353</t>
@@ -842,46 +842,46 @@
     <t xml:space="preserve">6.46245145797729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50397443771362</t>
+    <t xml:space="preserve">6.50397396087646</t>
   </si>
   <si>
     <t xml:space="preserve">6.68893957138062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79085826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6398663520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337919235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23218822479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25483751296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159393310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1982159614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18689107894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0359001159668</t>
+    <t xml:space="preserve">6.79085874557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63986682891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337871551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2321891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25483703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19821548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18689060211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03589916229248</t>
   </si>
   <si>
     <t xml:space="preserve">5.97550249099731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9830527305603</t>
+    <t xml:space="preserve">5.98305225372314</t>
   </si>
   <si>
     <t xml:space="preserve">5.63199615478516</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">5.11484956741333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.435706615448</t>
+    <t xml:space="preserve">5.43570709228516</t>
   </si>
   <si>
     <t xml:space="preserve">5.22431802749634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20921850204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465051651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862373352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259647369385</t>
+    <t xml:space="preserve">5.20921945571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862421035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259695053101</t>
   </si>
   <si>
     <t xml:space="preserve">4.93365859985352</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">5.16769647598267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00538015365601</t>
+    <t xml:space="preserve">5.00537967681885</t>
   </si>
   <si>
     <t xml:space="preserve">4.92233419418335</t>
@@ -926,19 +926,19 @@
     <t xml:space="preserve">4.91855907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06200170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77511739730835</t>
+    <t xml:space="preserve">5.06200122833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77511692047119</t>
   </si>
   <si>
     <t xml:space="preserve">4.73359441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71472072601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65809917449951</t>
+    <t xml:space="preserve">4.71472024917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">4.59770250320435</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">4.68452167510986</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2847146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09597444534302</t>
+    <t xml:space="preserve">5.28471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
     <t xml:space="preserve">5.04690265655518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00160551071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723419189453</t>
+    <t xml:space="preserve">5.00160503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478490829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723514556885</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173990249634</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81664037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85816287994385</t>
+    <t xml:space="preserve">4.81663990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85816335678101</t>
   </si>
   <si>
     <t xml:space="preserve">4.89213609695435</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">4.90346002578735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98273038864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99405479431152</t>
+    <t xml:space="preserve">4.98273134231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99405527114868</t>
   </si>
   <si>
     <t xml:space="preserve">5.19789457321167</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39795875549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.367760181427</t>
+    <t xml:space="preserve">5.39795923233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36776065826416</t>
   </si>
   <si>
     <t xml:space="preserve">5.4508056640625</t>
@@ -1013,40 +1013,40 @@
     <t xml:space="preserve">5.17902040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24319267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392230987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05822706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372373580933</t>
+    <t xml:space="preserve">4.99028062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24319219589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882230758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372325897217</t>
   </si>
   <si>
     <t xml:space="preserve">5.30358934402466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33001279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584053039551</t>
+    <t xml:space="preserve">5.33001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584100723267</t>
   </si>
   <si>
     <t xml:space="preserve">5.20166921615601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.190345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305780410767</t>
+    <t xml:space="preserve">5.19034481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305732727051</t>
   </si>
   <si>
     <t xml:space="preserve">5.49232912063599</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">5.88490772247314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19066619873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06232261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410835266113</t>
+    <t xml:space="preserve">6.19066572189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06232309341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410882949829</t>
   </si>
   <si>
     <t xml:space="preserve">6.24351358413696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48509979248047</t>
+    <t xml:space="preserve">6.48510026931763</t>
   </si>
   <si>
     <t xml:space="preserve">6.51529884338379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84747982025146</t>
+    <t xml:space="preserve">6.84748077392578</t>
   </si>
   <si>
     <t xml:space="preserve">7.38350105285645</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">7.23628425598145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46654748916626</t>
+    <t xml:space="preserve">7.46654844284058</t>
   </si>
   <si>
     <t xml:space="preserve">7.48919582366943</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">8.62918472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19130897521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487854003906</t>
+    <t xml:space="preserve">8.41024684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19130706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487758636475</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137775421143</t>
+    <t xml:space="preserve">7.84402751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137823104858</t>
   </si>
   <si>
     <t xml:space="preserve">7.89687395095825</t>
@@ -1157,19 +1157,19 @@
     <t xml:space="preserve">7.7534327507019</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64428329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22905540466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34984970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23660564422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44044494628906</t>
+    <t xml:space="preserve">8.64428424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2290563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34984874725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23660469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44044589996338</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
@@ -1178,85 +1178,85 @@
     <t xml:space="preserve">8.24415493011475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13091087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94972085952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79118013381958</t>
+    <t xml:space="preserve">8.1309118270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94971990585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117870330811</t>
   </si>
   <si>
     <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30800580978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31932926177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469106674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714225769043</t>
+    <t xml:space="preserve">7.30800533294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224035263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3193302154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56469202041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714178085327</t>
   </si>
   <si>
     <t xml:space="preserve">7.92707252502441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03276634216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60998964309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243988037109</t>
+    <t xml:space="preserve">8.03276824951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60999011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60244035720825</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204320907593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522260665894</t>
+    <t xml:space="preserve">7.45522212982178</t>
   </si>
   <si>
     <t xml:space="preserve">7.35330295562744</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24005937576294</t>
+    <t xml:space="preserve">7.24005889892578</t>
   </si>
   <si>
     <t xml:space="preserve">7.29668140411377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51184368133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25893211364746</t>
+    <t xml:space="preserve">7.51184415817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25893306732178</t>
   </si>
   <si>
     <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23250913619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12304162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045700073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780675888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32687902450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51561880111694</t>
+    <t xml:space="preserve">7.23251008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304067611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045652389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780771255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32687997817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51561975479126</t>
   </si>
   <si>
     <t xml:space="preserve">7.49297142028809</t>
@@ -1265,58 +1265,58 @@
     <t xml:space="preserve">7.36840295791626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70058441162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693115234375</t>
+    <t xml:space="preserve">7.70058536529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21395587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693210601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123828887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30455207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28945064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04786586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15355968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01766586303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16866016387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8515772819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151721954346</t>
+    <t xml:space="preserve">8.30455303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28945255279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19885635375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04786491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15356063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01766777038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16865921020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85157632827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681436538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151817321777</t>
   </si>
   <si>
     <t xml:space="preserve">6.89277791976929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96827411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973291397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072483062744</t>
+    <t xml:space="preserve">6.9682731628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9607253074646</t>
   </si>
   <si>
     <t xml:space="preserve">6.95317506790161</t>
@@ -1325,88 +1325,88 @@
     <t xml:space="preserve">6.88522863388062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93052625656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87767791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59834384918213</t>
+    <t xml:space="preserve">6.93052673339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87767839431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59834432601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.50019931793213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900835037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801738739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15291786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814575195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57569551467896</t>
+    <t xml:space="preserve">6.31900882720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801691055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15291738510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814527511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57569456100464</t>
   </si>
   <si>
     <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7870831489563</t>
+    <t xml:space="preserve">6.78708362579346</t>
   </si>
   <si>
     <t xml:space="preserve">7.00602197647095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993196487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953290939331</t>
+    <t xml:space="preserve">6.83993053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953386306763</t>
   </si>
   <si>
     <t xml:space="preserve">6.6058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40205478668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4398021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086429595947</t>
+    <t xml:space="preserve">6.40205430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43980264663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086381912231</t>
   </si>
   <si>
     <t xml:space="preserve">6.2284140586853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18311548233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0849723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616191864014</t>
+    <t xml:space="preserve">6.18311595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08497190475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616239547729</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28881025314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47754955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4926495552063</t>
+    <t xml:space="preserve">6.28881072998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4775505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265050888062</t>
   </si>
   <si>
     <t xml:space="preserve">6.56059598922729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53039693832397</t>
+    <t xml:space="preserve">6.53039789199829</t>
   </si>
   <si>
     <t xml:space="preserve">6.42470359802246</t>
@@ -1421,52 +1421,52 @@
     <t xml:space="preserve">6.61344242095947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65119075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91063404083252</t>
+    <t xml:space="preserve">6.65119171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91063499450684</t>
   </si>
   <si>
     <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974382400513</t>
+    <t xml:space="preserve">6.78484344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974334716797</t>
   </si>
   <si>
     <t xml:space="preserve">6.91849660873413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72981023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4782280921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519948959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2502326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23450803756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1558895111084</t>
+    <t xml:space="preserve">6.72981071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822856903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960956573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25023221969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2345085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15588998794556</t>
   </si>
   <si>
     <t xml:space="preserve">6.24237060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1323037147522</t>
+    <t xml:space="preserve">6.13230419158936</t>
   </si>
   <si>
     <t xml:space="preserve">5.87285995483398</t>
@@ -1475,40 +1475,40 @@
     <t xml:space="preserve">5.75493097305298</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88072156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83354997634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1794753074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09299468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92003154754639</t>
+    <t xml:space="preserve">5.88072204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83355045318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17947578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09299373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92003202438354</t>
   </si>
   <si>
     <t xml:space="preserve">6.0772705078125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1716136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878433227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332962036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698183059692</t>
+    <t xml:space="preserve">6.04582214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17161321640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878480911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698135375977</t>
   </si>
   <si>
     <t xml:space="preserve">6.65119123458862</t>
@@ -1517,67 +1517,67 @@
     <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43105697631836</t>
+    <t xml:space="preserve">6.4310564994812</t>
   </si>
   <si>
     <t xml:space="preserve">6.36029958724976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06154632568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05368423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98292684555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94361782073975</t>
+    <t xml:space="preserve">6.06154584884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05368375778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9829273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94361734390259</t>
   </si>
   <si>
     <t xml:space="preserve">5.84927415847778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03796100616455</t>
+    <t xml:space="preserve">6.03796052932739</t>
   </si>
   <si>
     <t xml:space="preserve">6.06940841674805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95934104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90430784225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89644622802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93575572967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85713624954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80996465682983</t>
+    <t xml:space="preserve">5.95934152603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89644527435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93575620651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85713577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851724624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80996417999268</t>
   </si>
   <si>
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920726776123</t>
+    <t xml:space="preserve">5.73920774459839</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54265975952148</t>
+    <t xml:space="preserve">5.54265928268433</t>
   </si>
   <si>
     <t xml:space="preserve">5.69203567504883</t>
@@ -1586,61 +1586,61 @@
     <t xml:space="preserve">5.76279306411743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78637886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62914085388184</t>
+    <t xml:space="preserve">5.78637933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62914037704468</t>
   </si>
   <si>
     <t xml:space="preserve">5.53479719161987</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44045352935791</t>
+    <t xml:space="preserve">5.44045400619507</t>
   </si>
   <si>
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499786376953</t>
+    <t xml:space="preserve">5.86499834060669</t>
   </si>
   <si>
     <t xml:space="preserve">6.0300989151001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74706935882568</t>
+    <t xml:space="preserve">5.74706983566284</t>
   </si>
   <si>
     <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39328241348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34611129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36183500289917</t>
+    <t xml:space="preserve">5.39328289031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34611082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36183452606201</t>
   </si>
   <si>
     <t xml:space="preserve">5.32252502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30680084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26749134063721</t>
+    <t xml:space="preserve">5.30680131912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26749181747437</t>
   </si>
   <si>
     <t xml:space="preserve">5.28321504592896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17314863204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025285720825</t>
+    <t xml:space="preserve">5.1731481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025333404541</t>
   </si>
   <si>
     <t xml:space="preserve">4.9687385559082</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">5.1259765625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9923243522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1023907661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15742492675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14170122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09452867507935</t>
+    <t xml:space="preserve">4.99232387542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10239124298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15742444992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14170074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09452962875366</t>
   </si>
   <si>
     <t xml:space="preserve">5.19673490524292</t>
@@ -1679,16 +1679,16 @@
     <t xml:space="preserve">5.33824920654297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38542032241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52540016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56470966339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3131275177002</t>
+    <t xml:space="preserve">5.38542079925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52539968490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56471014022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31312799453735</t>
   </si>
   <si>
     <t xml:space="preserve">6.407470703125</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">5.29107713699341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22818231582642</t>
+    <t xml:space="preserve">5.22818183898926</t>
   </si>
   <si>
     <t xml:space="preserve">5.18887233734131</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">5.05521965026855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03163433074951</t>
+    <t xml:space="preserve">5.03163385391235</t>
   </si>
   <si>
     <t xml:space="preserve">5.0237717628479</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">5.0709433555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22032022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14956378936768</t>
+    <t xml:space="preserve">5.2203197479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956283569336</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">4.69357061386108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48129844665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922790527344</t>
+    <t xml:space="preserve">4.48129940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59922742843628</t>
   </si>
   <si>
     <t xml:space="preserve">4.53633213043213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38695526123047</t>
+    <t xml:space="preserve">4.38695573806763</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123203277588</t>
@@ -1763,40 +1763,40 @@
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847051620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570947647095</t>
+    <t xml:space="preserve">4.52847099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570899963379</t>
   </si>
   <si>
     <t xml:space="preserve">4.67784738540649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94515228271484</t>
+    <t xml:space="preserve">4.945152759552</t>
   </si>
   <si>
     <t xml:space="preserve">5.35397291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33038759231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18101119995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25962924957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976350784302</t>
+    <t xml:space="preserve">5.33038711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18101024627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25963020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50334978103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976398468018</t>
   </si>
   <si>
     <t xml:space="preserve">5.51907300949097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45617771148682</t>
+    <t xml:space="preserve">5.45617818832397</t>
   </si>
   <si>
     <t xml:space="preserve">5.36969661712646</t>
@@ -1817,70 +1817,70 @@
     <t xml:space="preserve">5.63700246810913</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71562194824219</t>
+    <t xml:space="preserve">5.71562147140503</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058778762817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72348403930664</t>
+    <t xml:space="preserve">5.72348356246948</t>
   </si>
   <si>
     <t xml:space="preserve">5.67631196975708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18733739852905</t>
+    <t xml:space="preserve">6.18733692169189</t>
   </si>
   <si>
     <t xml:space="preserve">6.1480278968811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42319536209106</t>
+    <t xml:space="preserve">6.42319488525391</t>
   </si>
   <si>
     <t xml:space="preserve">6.53326225280762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1008563041687</t>
+    <t xml:space="preserve">6.10085582733154</t>
   </si>
   <si>
     <t xml:space="preserve">6.29740476608276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08513164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10871839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2030611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3288516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30526638031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21092319488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12444257736206</t>
+    <t xml:space="preserve">6.08513259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.108717918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20306062698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32885217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30526685714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2109227180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1244421005249</t>
   </si>
   <si>
     <t xml:space="preserve">6.16375160217285</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753854751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174699783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464324951172</t>
+    <t xml:space="preserve">6.26595592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45464277267456</t>
   </si>
   <si>
     <t xml:space="preserve">6.44678068161011</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">6.32099008560181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33671474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27381896972656</t>
+    <t xml:space="preserve">6.33671426773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27381801605225</t>
   </si>
   <si>
     <t xml:space="preserve">5.97506523132324</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">5.99078893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77065515518188</t>
+    <t xml:space="preserve">5.77065563201904</t>
   </si>
   <si>
     <t xml:space="preserve">5.73134565353394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0222373008728</t>
+    <t xml:space="preserve">6.02223682403564</t>
   </si>
   <si>
     <t xml:space="preserve">5.82568836212158</t>
@@ -1925,31 +1925,31 @@
     <t xml:space="preserve">5.74286413192749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56185674667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7346363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008409500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6441330909729</t>
+    <t xml:space="preserve">5.56185722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73463678359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61945009231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008457183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64413261413574</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058826446533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50426435470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52894687652588</t>
+    <t xml:space="preserve">5.50426387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52894639968872</t>
   </si>
   <si>
     <t xml:space="preserve">5.54540157318115</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24920797348022</t>
+    <t xml:space="preserve">5.24920845031738</t>
   </si>
   <si>
     <t xml:space="preserve">5.42198801040649</t>
@@ -1976,22 +1976,22 @@
     <t xml:space="preserve">5.60299491882324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55362939834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3726224899292</t>
+    <t xml:space="preserve">5.55362892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37262201309204</t>
   </si>
   <si>
     <t xml:space="preserve">5.38907718658447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34793949127197</t>
+    <t xml:space="preserve">5.34793901443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.36439418792725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43021488189697</t>
+    <t xml:space="preserve">5.43021535873413</t>
   </si>
   <si>
     <t xml:space="preserve">5.71818113327026</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">5.72640895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89096021652222</t>
+    <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
     <t xml:space="preserve">5.98969221115112</t>
@@ -2009,16 +2009,16 @@
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91564321517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83336782455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78400182723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75931882858276</t>
+    <t xml:space="preserve">5.9156436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83336734771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78400230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
     <t xml:space="preserve">5.75109148025513</t>
@@ -2030,31 +2030,31 @@
     <t xml:space="preserve">5.57831239700317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58653926849365</t>
+    <t xml:space="preserve">5.58654022216797</t>
   </si>
   <si>
     <t xml:space="preserve">5.45489835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03529024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93655872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9530143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909711837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21629810333252</t>
+    <t xml:space="preserve">5.0352897644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93655920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95301485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21629762649536</t>
   </si>
   <si>
     <t xml:space="preserve">5.05997323989868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8707389831543</t>
+    <t xml:space="preserve">4.87073802947998</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.903648853302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86251068115234</t>
+    <t xml:space="preserve">4.8625111579895</t>
   </si>
   <si>
     <t xml:space="preserve">4.87896633148193</t>
@@ -2078,37 +2078,37 @@
     <t xml:space="preserve">4.91187620162964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.142249584198</t>
+    <t xml:space="preserve">5.14224910736084</t>
   </si>
   <si>
     <t xml:space="preserve">5.48780870437622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27389049530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29034614562988</t>
+    <t xml:space="preserve">5.27389097213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29034566879272</t>
   </si>
   <si>
     <t xml:space="preserve">5.4055323600769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47958135604858</t>
+    <t xml:space="preserve">5.47958040237427</t>
   </si>
   <si>
     <t xml:space="preserve">5.47135353088379</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41375970840454</t>
+    <t xml:space="preserve">5.4137601852417</t>
   </si>
   <si>
     <t xml:space="preserve">5.33148384094238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38084936141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26566314697266</t>
+    <t xml:space="preserve">5.38084983825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26566362380981</t>
   </si>
   <si>
     <t xml:space="preserve">5.32325649261475</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">5.43844270706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80045795440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79223012924194</t>
+    <t xml:space="preserve">5.80045747756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79222917556763</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84159564971924</t>
+    <t xml:space="preserve">5.84159517288208</t>
   </si>
   <si>
     <t xml:space="preserve">5.70172595977783</t>
@@ -2144,22 +2144,22 @@
     <t xml:space="preserve">5.80868482589722</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6852707862854</t>
+    <t xml:space="preserve">5.68527030944824</t>
   </si>
   <si>
     <t xml:space="preserve">5.6934986114502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04728507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70995378494263</t>
+    <t xml:space="preserve">6.12956094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04728555679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9238715171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70995330810547</t>
   </si>
   <si>
     <t xml:space="preserve">5.67704343795776</t>
@@ -2168,19 +2168,19 @@
     <t xml:space="preserve">5.65236043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61122226715088</t>
+    <t xml:space="preserve">5.61122274398804</t>
   </si>
   <si>
     <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49603605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22452545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07642889022827</t>
+    <t xml:space="preserve">5.4960355758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.224524974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07642841339111</t>
   </si>
   <si>
     <t xml:space="preserve">5.1340217590332</t>
@@ -2189,73 +2189,73 @@
     <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16693258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11756610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23275279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79669046401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77200746536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80491781234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60745525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36062717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4346752166748</t>
+    <t xml:space="preserve">5.16693162918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11756658554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23275327682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79668998718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77200794219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60745573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3606276512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467569351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.31948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03152322769165</t>
+    <t xml:space="preserve">4.03152370452881</t>
   </si>
   <si>
     <t xml:space="preserve">3.81760597229004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42268085479736</t>
+    <t xml:space="preserve">3.42268133163452</t>
   </si>
   <si>
     <t xml:space="preserve">3.45559120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48850202560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421162605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24990177154541</t>
+    <t xml:space="preserve">3.48850154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24990129470825</t>
   </si>
   <si>
     <t xml:space="preserve">3.20876359939575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09357714653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15117049217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29103970527649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17996668815613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37331557273865</t>
+    <t xml:space="preserve">3.09357690811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15117025375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29103946685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17996716499329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37331533432007</t>
   </si>
   <si>
     <t xml:space="preserve">3.41445350646973</t>
@@ -2264,49 +2264,49 @@
     <t xml:space="preserve">3.38154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40211272239685</t>
+    <t xml:space="preserve">3.40211248397827</t>
   </si>
   <si>
     <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39799880981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53375363349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62837147712708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7764675617218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53786754608154</t>
+    <t xml:space="preserve">3.39799833297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375387191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495743751526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6283712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77646803855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53786778450012</t>
   </si>
   <si>
     <t xml:space="preserve">3.69419145584106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71887493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810942649841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99861335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11379909515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54986333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54163503646851</t>
+    <t xml:space="preserve">3.71887469291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99861311912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11379957199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54986238479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54163455963135</t>
   </si>
   <si>
     <t xml:space="preserve">4.53340721130371</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">4.36885499954224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27835083007812</t>
+    <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
     <t xml:space="preserve">4.42644786834717</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91633772850037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98215770721436</t>
+    <t xml:space="preserve">3.91633749008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98215818405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88342666625977</t>
+    <t xml:space="preserve">3.88342642784119</t>
   </si>
   <si>
     <t xml:space="preserve">4.0191822052002</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">3.99038505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01095485687256</t>
+    <t xml:space="preserve">4.0109543800354</t>
   </si>
   <si>
     <t xml:space="preserve">4.05209255218506</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92867851257324</t>
+    <t xml:space="preserve">3.92867875099182</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30303382873535</t>
+    <t xml:space="preserve">4.50872468948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
     <t xml:space="preserve">4.10968542098999</t>
@@ -2384,22 +2384,22 @@
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721408843994</t>
+    <t xml:space="preserve">4.23721361160278</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417247772217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35239934921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21253108978271</t>
+    <t xml:space="preserve">4.3523998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21253061294556</t>
   </si>
   <si>
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848257064819</t>
+    <t xml:space="preserve">4.13848209381104</t>
   </si>
   <si>
     <t xml:space="preserve">4.0808892250061</t>
@@ -2411,19 +2411,19 @@
     <t xml:space="preserve">4.27012395858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22898578643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08500289916992</t>
+    <t xml:space="preserve">4.22898626327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08500337600708</t>
   </si>
   <si>
     <t xml:space="preserve">4.1220269203186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10557126998901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0479793548584</t>
+    <t xml:space="preserve">4.10557174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
     <t xml:space="preserve">4.05620622634888</t>
@@ -2438,55 +2438,55 @@
     <t xml:space="preserve">4.09734392166138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10145807266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9657027721405</t>
+    <t xml:space="preserve">4.1014575958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570301055908</t>
   </si>
   <si>
     <t xml:space="preserve">3.94101977348328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93279242515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449944496155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677507400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16316509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22075891494751</t>
+    <t xml:space="preserve">3.93279218673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449920654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677555084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1631646156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22075843811035</t>
   </si>
   <si>
     <t xml:space="preserve">4.1302547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94924807548523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513368606567</t>
+    <t xml:space="preserve">3.94924783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513344764709</t>
   </si>
   <si>
     <t xml:space="preserve">3.82583332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85051584243774</t>
+    <t xml:space="preserve">3.85051608085632</t>
   </si>
   <si>
     <t xml:space="preserve">3.84640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80937838554382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73944354057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7435576915741</t>
+    <t xml:space="preserve">3.80937814712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7394437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74355792999268</t>
   </si>
   <si>
     <t xml:space="preserve">3.76824021339417</t>
@@ -2495,79 +2495,79 @@
     <t xml:space="preserve">3.66128134727478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65305423736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191558837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432319641113</t>
+    <t xml:space="preserve">3.6530544757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191582679749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432295799255</t>
   </si>
   <si>
     <t xml:space="preserve">3.48027443885803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49672937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57077789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59134674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780191421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659906387329</t>
+    <t xml:space="preserve">3.49672961235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57077813148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59134697914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780262947083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659882545471</t>
   </si>
   <si>
     <t xml:space="preserve">3.66539549827576</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72710251808167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73121619224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67362308502197</t>
+    <t xml:space="preserve">3.72710299491882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7312159538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67362284660339</t>
   </si>
   <si>
     <t xml:space="preserve">3.68596434593201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54609537124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368847846985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5954601764679</t>
+    <t xml:space="preserve">3.54609513282776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368800163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59546065330505</t>
   </si>
   <si>
     <t xml:space="preserve">3.63248491287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62014317512512</t>
+    <t xml:space="preserve">3.6201434135437</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36508822441101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33217763900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70241928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70653319358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71064782142639</t>
+    <t xml:space="preserve">3.36508798599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33217787742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241975784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70653343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71064734458923</t>
   </si>
   <si>
     <t xml:space="preserve">4.31126165390015</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40999317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33594417572021</t>
+    <t xml:space="preserve">4.40999269485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33594465255737</t>
   </si>
   <si>
     <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26189613342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50049686431885</t>
+    <t xml:space="preserve">4.26189565658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
     <t xml:space="preserve">4.45935869216919</t>
@@ -2597,19 +2597,19 @@
     <t xml:space="preserve">4.45113086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61568260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57454538345337</t>
+    <t xml:space="preserve">4.61568307876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57454442977905</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99415254592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06820058822632</t>
+    <t xml:space="preserve">4.99415302276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06820106506348</t>
   </si>
   <si>
     <t xml:space="preserve">4.96124219894409</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">5.00238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01060771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96946954727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92010402679443</t>
+    <t xml:space="preserve">5.01060819625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947002410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92010450363159</t>
   </si>
   <si>
     <t xml:space="preserve">5.04351854324341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2574348449707</t>
+    <t xml:space="preserve">5.25743532180786</t>
   </si>
   <si>
     <t xml:space="preserve">5.24098014831543</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">5.19161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10111093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15870475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18338775634766</t>
+    <t xml:space="preserve">5.10111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15870523452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18338680267334</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
@@ -2666,19 +2666,19 @@
     <t xml:space="preserve">5.87450551986694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90741539001465</t>
+    <t xml:space="preserve">5.90741586685181</t>
   </si>
   <si>
     <t xml:space="preserve">5.99791955947876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97323751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94855403900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94032573699951</t>
+    <t xml:space="preserve">5.97323703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94855356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94032669067383</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2687,70 +2687,70 @@
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38461685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45043802261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35170602798462</t>
+    <t xml:space="preserve">6.38461780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45043754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35170555114746</t>
   </si>
   <si>
     <t xml:space="preserve">6.26943016052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33525085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45446252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30119037628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42040252685547</t>
+    <t xml:space="preserve">6.33525037765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45446300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3011908531189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42040205001831</t>
   </si>
   <si>
     <t xml:space="preserve">6.81209754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77803802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74397659301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57367372512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72694683074951</t>
+    <t xml:space="preserve">6.77803754806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74397754669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57367420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72694635391235</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7610068321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30597448348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49330759048462</t>
+    <t xml:space="preserve">6.76100778579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30597543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49330711364746</t>
   </si>
   <si>
     <t xml:space="preserve">7.79985237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39591026306152</t>
+    <t xml:space="preserve">8.39591121673584</t>
   </si>
   <si>
     <t xml:space="preserve">8.22560787200928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25966930389404</t>
+    <t xml:space="preserve">8.25966835021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
@@ -2759,43 +2759,43 @@
     <t xml:space="preserve">8.31075954437256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34482002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29372882843018</t>
+    <t xml:space="preserve">8.34481906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29372978210449</t>
   </si>
   <si>
     <t xml:space="preserve">9.02602958679199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06860446929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98345470428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85572624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60027408599854</t>
+    <t xml:space="preserve">9.068603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98345375061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85572719573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60027503967285</t>
   </si>
   <si>
     <t xml:space="preserve">8.64284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41294097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46403217315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36184978485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76579189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251831054688</t>
+    <t xml:space="preserve">8.41294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46403121948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36185073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76579093933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251878738403</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
@@ -2816,28 +2816,28 @@
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00421524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66360950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5784592628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270185470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59548854827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7487621307373</t>
+    <t xml:space="preserve">8.0042142868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66360998153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57845783233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270233154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51033735275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59548950195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74876165390015</t>
   </si>
   <si>
     <t xml:space="preserve">8.08936595916748</t>
@@ -2849,40 +2849,40 @@
     <t xml:space="preserve">8.03827571868896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90203380584717</t>
+    <t xml:space="preserve">7.90203332901001</t>
   </si>
   <si>
     <t xml:space="preserve">8.12342643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77057647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55769824981689</t>
+    <t xml:space="preserve">8.77057552337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55769920349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.40921020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2814826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19633197784424</t>
+    <t xml:space="preserve">9.28148365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19633293151855</t>
   </si>
   <si>
     <t xml:space="preserve">8.94087886810303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81315135955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89830303192139</t>
+    <t xml:space="preserve">8.81315231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8983039855957</t>
   </si>
   <si>
     <t xml:space="preserve">8.72800064086914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4810619354248</t>
+    <t xml:space="preserve">8.48106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">8.44700145721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49436187744141</t>
+    <t xml:space="preserve">9.49436092376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754249572754</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225883483887</t>
+    <t xml:space="preserve">9.69225788116455</t>
   </si>
   <si>
     <t xml:space="preserve">9.95539665222168</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0431098937988</t>
+    <t xml:space="preserve">10.0431089401245</t>
   </si>
   <si>
     <t xml:space="preserve">9.99925231933594</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185354232788</t>
+    <t xml:space="preserve">10.2185344696045</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">9.7799711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73611545562744</t>
+    <t xml:space="preserve">9.73611450195312</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">9.60454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29755115509033</t>
+    <t xml:space="preserve">9.29755020141602</t>
   </si>
   <si>
     <t xml:space="preserve">9.2098388671875</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">8.77127456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03441333770752</t>
+    <t xml:space="preserve">9.0344123840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.64840126037598</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">9.42912006378174</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56068897247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82382678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5168342590332</t>
+    <t xml:space="preserve">9.56068992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82382774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51683330535889</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2987,16 +2987,16 @@
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055671691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94669914245605</t>
+    <t xml:space="preserve">8.99055576324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94670009613037</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61339092254639</t>
+    <t xml:space="preserve">8.6133918762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.71864700317383</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">7.47312641143799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42049837112427</t>
+    <t xml:space="preserve">7.42049789428711</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
@@ -3026,25 +3026,25 @@
     <t xml:space="preserve">8.06957244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82397651672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28008365631104</t>
+    <t xml:space="preserve">7.82397747039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28008270263672</t>
   </si>
   <si>
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940252304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38533878326416</t>
+    <t xml:space="preserve">7.99940156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38533973693848</t>
   </si>
   <si>
     <t xml:space="preserve">8.4905948638916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43796634674072</t>
+    <t xml:space="preserve">8.43796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9028434753418</t>
+    <t xml:space="preserve">8.90284442901611</t>
   </si>
   <si>
     <t xml:space="preserve">8.70987606048584</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">8.26254177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07834339141846</t>
+    <t xml:space="preserve">8.07834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">7.98186063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28885459899902</t>
+    <t xml:space="preserve">8.28885364532471</t>
   </si>
   <si>
     <t xml:space="preserve">8.1835994720459</t>
@@ -60499,7 +60499,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6419907407</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>511</v>
@@ -60520,6 +60520,32 @@
         <v>1313</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6427314815</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>8.89999961853027</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">1.27346658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28596591949463</t>
+    <t xml:space="preserve">1.28596580028534</t>
   </si>
   <si>
     <t xml:space="preserve">1.26611399650574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29258322715759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31169986724854</t>
+    <t xml:space="preserve">1.29258334636688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31169998645782</t>
   </si>
   <si>
     <t xml:space="preserve">1.32566976547241</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">1.33596336841583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32346415519714</t>
+    <t xml:space="preserve">1.32346403598785</t>
   </si>
   <si>
     <t xml:space="preserve">1.30875885486603</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">1.26758432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25214397907257</t>
+    <t xml:space="preserve">1.25214409828186</t>
   </si>
   <si>
     <t xml:space="preserve">1.23302745819092</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">1.24111521244049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23817408084869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23449802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18008875846863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376505374908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15729570388794</t>
+    <t xml:space="preserve">1.23817420005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23449790477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18008887767792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376493453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.1396496295929</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">1.07568228244781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07053530216217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05141866207123</t>
+    <t xml:space="preserve">1.07053542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05141854286194</t>
   </si>
   <si>
     <t xml:space="preserve">1.07347643375397</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">1.09479880332947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15067863464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16832458972931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1653835773468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14700210094452</t>
+    <t xml:space="preserve">1.15067851543427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1683247089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16538345813751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14700198173523</t>
   </si>
   <si>
     <t xml:space="preserve">1.17641258239746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18597078323364</t>
+    <t xml:space="preserve">1.18597090244293</t>
   </si>
   <si>
     <t xml:space="preserve">1.21317529678345</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18744122982025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16170740127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1881765127182</t>
+    <t xml:space="preserve">1.18744134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16170752048492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18817663192749</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347145080566</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">1.20582282543182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23670363426208</t>
+    <t xml:space="preserve">1.23670375347137</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2425856590271</t>
+    <t xml:space="preserve">1.24258553981781</t>
   </si>
   <si>
     <t xml:space="preserve">1.22861576080322</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">1.30214154720306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26464354991913</t>
+    <t xml:space="preserve">1.26464343070984</t>
   </si>
   <si>
     <t xml:space="preserve">1.24993824958801</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">1.28228962421417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30581784248352</t>
+    <t xml:space="preserve">1.30581796169281</t>
   </si>
   <si>
     <t xml:space="preserve">1.23008632659912</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">1.25067353248596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2565553188324</t>
+    <t xml:space="preserve">1.25655543804169</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317286491394</t>
@@ -227,19 +227,19 @@
     <t xml:space="preserve">1.29920041561127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2940536737442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876152515411</t>
+    <t xml:space="preserve">1.29405379295349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876128673553</t>
   </si>
   <si>
     <t xml:space="preserve">1.28523051738739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27861332893372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934849262238</t>
+    <t xml:space="preserve">1.27861320972443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934861183167</t>
   </si>
   <si>
     <t xml:space="preserve">1.28964233398438</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">1.27199614048004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28302502632141</t>
+    <t xml:space="preserve">1.28302490711212</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36022686958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33816921710968</t>
+    <t xml:space="preserve">1.36022698879242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33816933631897</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
@@ -266,28 +266,28 @@
     <t xml:space="preserve">1.34478652477264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30949425697327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29846525192261</t>
+    <t xml:space="preserve">1.30949413776398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29846549034119</t>
   </si>
   <si>
     <t xml:space="preserve">1.2683197259903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21170485019684</t>
+    <t xml:space="preserve">1.21170473098755</t>
   </si>
   <si>
     <t xml:space="preserve">1.19773495197296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17420649528503</t>
+    <t xml:space="preserve">1.17420661449432</t>
   </si>
   <si>
     <t xml:space="preserve">1.17567718029022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1925882101059</t>
+    <t xml:space="preserve">1.19258809089661</t>
   </si>
   <si>
     <t xml:space="preserve">1.20288181304932</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.13597333431244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1322968006134</t>
+    <t xml:space="preserve">1.13229691982269</t>
   </si>
   <si>
     <t xml:space="preserve">1.11023926734924</t>
@@ -326,37 +326,37 @@
     <t xml:space="preserve">1.14920783042908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17494213581085</t>
+    <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
     <t xml:space="preserve">1.15361952781677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16758930683136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21391081809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56021702289581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.561687707901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52345407009125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48522067070007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52933597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47051560878754</t>
+    <t xml:space="preserve">1.16758942604065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21391069889069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169512271881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5602171421051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168782711029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52345418930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48522078990936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52933609485626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47051548957825</t>
   </si>
   <si>
     <t xml:space="preserve">1.54257082939148</t>
@@ -365,43 +365,43 @@
     <t xml:space="preserve">1.50874900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49404418468475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50727832317352</t>
+    <t xml:space="preserve">1.49404406547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
     <t xml:space="preserve">1.49992597103119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48669123649597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49257326126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48816168308258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48080933094025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49845552444458</t>
+    <t xml:space="preserve">1.48669135570526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49257338047028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48816180229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48080921173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49845564365387</t>
   </si>
   <si>
     <t xml:space="preserve">1.5543349981308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77785313129425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550211429596</t>
+    <t xml:space="preserve">1.77785336971283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550187587738</t>
   </si>
   <si>
     <t xml:space="preserve">1.88961255550385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93666923046112</t>
+    <t xml:space="preserve">1.93666899204254</t>
   </si>
   <si>
     <t xml:space="preserve">1.88078951835632</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1.91608166694641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9131406545639</t>
+    <t xml:space="preserve">1.91314089298248</t>
   </si>
   <si>
     <t xml:space="preserve">1.93078708648682</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">1.93519866466522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9204934835434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431749820709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902279853821</t>
+    <t xml:space="preserve">1.92049324512482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431773662567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91902256011963</t>
   </si>
   <si>
     <t xml:space="preserve">1.90137660503387</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">1.93961012363434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9616676568985</t>
+    <t xml:space="preserve">1.96166741847992</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401392936707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489242553711</t>
+    <t xml:space="preserve">2.17489218711853</t>
   </si>
   <si>
     <t xml:space="preserve">2.12930655479431</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">2.19106841087341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14107060432434</t>
+    <t xml:space="preserve">2.14107084274292</t>
   </si>
   <si>
     <t xml:space="preserve">2.09695529937744</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">2.13077735900879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11901330947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842538833618</t>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842562675476</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166024208069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19695019721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27782869338989</t>
+    <t xml:space="preserve">2.19694995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27782845497131</t>
   </si>
   <si>
     <t xml:space="preserve">2.26606464385986</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136675834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08225011825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0763680934906</t>
+    <t xml:space="preserve">2.10136699676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08224987983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07636833190918</t>
   </si>
   <si>
     <t xml:space="preserve">2.0351939201355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0146062374115</t>
+    <t xml:space="preserve">2.01460647583008</t>
   </si>
   <si>
     <t xml:space="preserve">1.95578587055206</t>
@@ -542,19 +542,19 @@
     <t xml:space="preserve">1.94843327999115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784802913666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549493789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696004390717</t>
+    <t xml:space="preserve">1.87784826755524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549446105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696028232574</t>
   </si>
   <si>
     <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431275367737</t>
+    <t xml:space="preserve">2.00431299209595</t>
   </si>
   <si>
     <t xml:space="preserve">2.09548473358154</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">2.08372092247009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03813457489014</t>
+    <t xml:space="preserve">2.03813481330872</t>
   </si>
   <si>
     <t xml:space="preserve">2.05431032180786</t>
@@ -575,22 +575,22 @@
     <t xml:space="preserve">2.05872178077698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06019234657288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06754517555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313347816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10283732414246</t>
+    <t xml:space="preserve">2.06019258499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06754541397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10283708572388</t>
   </si>
   <si>
     <t xml:space="preserve">2.17636322975159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29694533348083</t>
+    <t xml:space="preserve">2.29694557189941</t>
   </si>
   <si>
     <t xml:space="preserve">2.27194666862488</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">2.23812460899353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1660692691803</t>
+    <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
     <t xml:space="preserve">2.19989156723022</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753787994385</t>
+    <t xml:space="preserve">2.21753740310669</t>
   </si>
   <si>
     <t xml:space="preserve">2.24988889694214</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">2.23518371582031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25430059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23959517478943</t>
+    <t xml:space="preserve">2.25430083274841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23959541320801</t>
   </si>
   <si>
     <t xml:space="preserve">2.24694776535034</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">2.25871205329895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24253630638123</t>
+    <t xml:space="preserve">2.2425365447998</t>
   </si>
   <si>
     <t xml:space="preserve">2.21606683731079</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">2.20577383041382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22194933891296</t>
+    <t xml:space="preserve">2.22194957733154</t>
   </si>
   <si>
     <t xml:space="preserve">2.35282516479492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61163568496704</t>
+    <t xml:space="preserve">2.61163592338562</t>
   </si>
   <si>
     <t xml:space="preserve">2.61016488075256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61604738235474</t>
+    <t xml:space="preserve">2.61604762077332</t>
   </si>
   <si>
     <t xml:space="preserve">2.60575366020203</t>
@@ -677,55 +677,55 @@
     <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5881073474884</t>
+    <t xml:space="preserve">2.58810758590698</t>
   </si>
   <si>
     <t xml:space="preserve">2.56457924842834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56016778945923</t>
+    <t xml:space="preserve">2.56016802787781</t>
   </si>
   <si>
     <t xml:space="preserve">2.59840083122253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57634329795837</t>
+    <t xml:space="preserve">2.57634353637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.61751770973206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59545993804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7866268157959</t>
+    <t xml:space="preserve">2.5954601764679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78662705421448</t>
   </si>
   <si>
     <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83809518814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808836936951</t>
+    <t xml:space="preserve">2.83809494972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808813095093</t>
   </si>
   <si>
     <t xml:space="preserve">2.92632627487183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26454520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983248710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129528045654</t>
+    <t xml:space="preserve">3.26454496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3998327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129504203796</t>
   </si>
   <si>
     <t xml:space="preserve">3.63217353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89318990707397</t>
+    <t xml:space="preserve">3.89319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">3.75716781616211</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">3.87480878829956</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84172201156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848496437073</t>
+    <t xml:space="preserve">3.84172248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848448753357</t>
   </si>
   <si>
     <t xml:space="preserve">3.97039222717285</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">4.37478351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31596326828003</t>
+    <t xml:space="preserve">4.31596374511719</t>
   </si>
   <si>
     <t xml:space="preserve">4.23140907287598</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">4.51815938949585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77917528152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990398406982</t>
+    <t xml:space="preserve">4.77917623519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990350723267</t>
   </si>
   <si>
     <t xml:space="preserve">5.77177333831787</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">5.02916383743286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35267686843872</t>
+    <t xml:space="preserve">5.35267734527588</t>
   </si>
   <si>
     <t xml:space="preserve">5.26444578170776</t>
@@ -791,40 +791,40 @@
     <t xml:space="preserve">5.71295309066772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0585241317749</t>
+    <t xml:space="preserve">6.05852460861206</t>
   </si>
   <si>
     <t xml:space="preserve">6.71290397644043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09523677825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81583976745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376935958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389772415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310438156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926507949829</t>
+    <t xml:space="preserve">7.09523773193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584024429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389867782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310485839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926603317261</t>
   </si>
   <si>
     <t xml:space="preserve">6.67006492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85503005981445</t>
+    <t xml:space="preserve">6.85503053665161</t>
   </si>
   <si>
     <t xml:space="preserve">6.66629028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37185621261597</t>
+    <t xml:space="preserve">6.37185573577881</t>
   </si>
   <si>
     <t xml:space="preserve">6.63609170913696</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">6.75688552856445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83238172531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7191367149353</t>
+    <t xml:space="preserve">6.83238220214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71913719177246</t>
   </si>
   <si>
     <t xml:space="preserve">6.46245145797729</t>
@@ -845,67 +845,67 @@
     <t xml:space="preserve">6.50397396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68893957138062</t>
+    <t xml:space="preserve">6.68893909454346</t>
   </si>
   <si>
     <t xml:space="preserve">6.79085874557495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63986682891846</t>
+    <t xml:space="preserve">6.63986730575562</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490169525146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41337871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2321891784668</t>
+    <t xml:space="preserve">6.41337919235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
     <t xml:space="preserve">6.25483703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14159345626831</t>
+    <t xml:space="preserve">6.14159297943115</t>
   </si>
   <si>
     <t xml:space="preserve">6.19821548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18689060211182</t>
+    <t xml:space="preserve">6.18689107894897</t>
   </si>
   <si>
     <t xml:space="preserve">6.03589916229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97550249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98305225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63199615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11484956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43570709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22431802749634</t>
+    <t xml:space="preserve">5.97550201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9830527305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.631995677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11484909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.435706615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2243185043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.20921945571899</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08465099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11862421035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15259695053101</t>
+    <t xml:space="preserve">5.08465051651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11862373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15259647369385</t>
   </si>
   <si>
     <t xml:space="preserve">4.93365859985352</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">4.92233419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88836145401001</t>
+    <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855907440186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06200122833252</t>
+    <t xml:space="preserve">5.06200170516968</t>
   </si>
   <si>
     <t xml:space="preserve">4.77511692047119</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">4.73359441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71472024917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6580982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59770250320435</t>
+    <t xml:space="preserve">4.71472072601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65809869766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59770202636719</t>
   </si>
   <si>
     <t xml:space="preserve">4.60147666931152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68452167510986</t>
+    <t xml:space="preserve">4.68452119827271</t>
   </si>
   <si>
     <t xml:space="preserve">5.28471517562866</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">5.09597492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04690265655518</t>
+    <t xml:space="preserve">5.04690313339233</t>
   </si>
   <si>
     <t xml:space="preserve">5.00160503387451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91478490829468</t>
+    <t xml:space="preserve">4.91478538513184</t>
   </si>
   <si>
     <t xml:space="preserve">4.90723514556885</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">4.85816335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89213609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90346002578735</t>
+    <t xml:space="preserve">4.89213562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90346097946167</t>
   </si>
   <si>
     <t xml:space="preserve">4.98273134231567</t>
@@ -989,25 +989,25 @@
     <t xml:space="preserve">4.99405527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19789457321167</t>
+    <t xml:space="preserve">5.19789409637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.06955146789551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31491327285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39795923233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36776065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4508056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36021089553833</t>
+    <t xml:space="preserve">5.31491279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39795875549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.367760181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45080614089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36021041870117</t>
   </si>
   <si>
     <t xml:space="preserve">5.17902040481567</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">5.05822658538818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13372325897217</t>
+    <t xml:space="preserve">5.13372278213501</t>
   </si>
   <si>
     <t xml:space="preserve">5.30358934402466</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">5.26584100723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20166921615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19034481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305732727051</t>
+    <t xml:space="preserve">5.20166873931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.190345287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305828094482</t>
   </si>
   <si>
     <t xml:space="preserve">5.49232912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88490772247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19066572189331</t>
+    <t xml:space="preserve">5.8849081993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19066619873047</t>
   </si>
   <si>
     <t xml:space="preserve">6.06232309341431</t>
@@ -1064,19 +1064,19 @@
     <t xml:space="preserve">6.33410882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24351358413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48510026931763</t>
+    <t xml:space="preserve">6.24351406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48509979248047</t>
   </si>
   <si>
     <t xml:space="preserve">6.51529884338379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84748077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38350105285645</t>
+    <t xml:space="preserve">6.84748125076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3835015296936</t>
   </si>
   <si>
     <t xml:space="preserve">7.23628425598145</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">9.39924240112305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75407314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7204217910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84057331085205</t>
+    <t xml:space="preserve">9.75407409667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7204208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84057235717773</t>
   </si>
   <si>
     <t xml:space="preserve">9.04441165924072</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">8.62918472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41024684906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19130706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487758636475</t>
+    <t xml:space="preserve">8.41024780273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19130611419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487949371338</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">8.50084114074707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38004779815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581230163574</t>
+    <t xml:space="preserve">8.38004684448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27435302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581134796143</t>
   </si>
   <si>
     <t xml:space="preserve">7.77608060836792</t>
@@ -1169,52 +1169,52 @@
     <t xml:space="preserve">8.23660469055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31965160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24415493011475</t>
+    <t xml:space="preserve">8.44044494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31965255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24415588378906</t>
   </si>
   <si>
     <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94971990585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79117870330811</t>
+    <t xml:space="preserve">7.94972085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117965698242</t>
   </si>
   <si>
     <t xml:space="preserve">7.5495924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30800533294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224035263062</t>
+    <t xml:space="preserve">7.30800628662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224130630493</t>
   </si>
   <si>
     <t xml:space="preserve">7.3193302154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714178085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92707252502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03276824951172</t>
+    <t xml:space="preserve">7.5646915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714273452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9270715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0327672958374</t>
   </si>
   <si>
     <t xml:space="preserve">7.60999011993408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60244035720825</t>
+    <t xml:space="preserve">7.60243940353394</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204320907593</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">7.45522212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35330295562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24005889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29668140411377</t>
+    <t xml:space="preserve">7.35330247879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29668092727661</t>
   </si>
   <si>
     <t xml:space="preserve">7.51184415817261</t>
@@ -1241,16 +1241,16 @@
     <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23251008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12304067611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045652389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780771255493</t>
+    <t xml:space="preserve">7.23250961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045604705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780723571777</t>
   </si>
   <si>
     <t xml:space="preserve">7.32687997817993</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">7.51561975479126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49297142028809</t>
+    <t xml:space="preserve">7.49297046661377</t>
   </si>
   <si>
     <t xml:space="preserve">7.36840295791626</t>
@@ -1268,28 +1268,28 @@
     <t xml:space="preserve">7.70058536529541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21395587921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693210601807</t>
+    <t xml:space="preserve">8.21395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693115234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123828887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30455303192139</t>
+    <t xml:space="preserve">8.30455112457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19885635375977</t>
+    <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.04786491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15356063842773</t>
+    <t xml:space="preserve">8.15355968475342</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766777038574</t>
@@ -1298,25 +1298,25 @@
     <t xml:space="preserve">8.16865921020508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85157632827759</t>
+    <t xml:space="preserve">7.85157537460327</t>
   </si>
   <si>
     <t xml:space="preserve">7.12681436538696</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277791976929</t>
+    <t xml:space="preserve">7.08151865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277744293213</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682731628418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80973339080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9607253074646</t>
+    <t xml:space="preserve">6.80973291397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072483062744</t>
   </si>
   <si>
     <t xml:space="preserve">6.95317506790161</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">6.93052673339844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87767839431763</t>
+    <t xml:space="preserve">6.87767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">6.59834432601929</t>
@@ -1337,40 +1337,40 @@
     <t xml:space="preserve">6.50019931793213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801691055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15291738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814527511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57569456100464</t>
+    <t xml:space="preserve">6.31900930404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15291786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814575195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5756950378418</t>
   </si>
   <si>
     <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78708362579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00602197647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83993053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953386306763</t>
+    <t xml:space="preserve">6.78708410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00602245330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83993101119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953338623047</t>
   </si>
   <si>
     <t xml:space="preserve">6.6058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40205430984497</t>
+    <t xml:space="preserve">6.40205383300781</t>
   </si>
   <si>
     <t xml:space="preserve">6.43980264663696</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">6.18311595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08497190475464</t>
+    <t xml:space="preserve">6.0849723815918</t>
   </si>
   <si>
     <t xml:space="preserve">6.26616239547729</t>
@@ -1397,34 +1397,34 @@
     <t xml:space="preserve">6.28881072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4775505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49265050888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059598922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53039789199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62099313735962</t>
+    <t xml:space="preserve">6.47755098342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265003204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53039741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4247031211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62099361419678</t>
   </si>
   <si>
     <t xml:space="preserve">6.61344242095947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65119171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91063499450684</t>
+    <t xml:space="preserve">6.65119123458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91063404083252</t>
   </si>
   <si>
     <t xml:space="preserve">6.69836282730103</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">6.66691446304321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61974334716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91849660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981071472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822856903076</t>
+    <t xml:space="preserve">6.61974287033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91849708557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822904586792</t>
   </si>
   <si>
     <t xml:space="preserve">6.39960956573486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19519901275635</t>
+    <t xml:space="preserve">6.19519948959351</t>
   </si>
   <si>
     <t xml:space="preserve">6.25023221969604</t>
@@ -1460,25 +1460,25 @@
     <t xml:space="preserve">6.2345085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15588998794556</t>
+    <t xml:space="preserve">6.1558895111084</t>
   </si>
   <si>
     <t xml:space="preserve">6.24237060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13230419158936</t>
+    <t xml:space="preserve">6.1323037147522</t>
   </si>
   <si>
     <t xml:space="preserve">5.87285995483398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75493097305298</t>
+    <t xml:space="preserve">5.75493144989014</t>
   </si>
   <si>
     <t xml:space="preserve">5.88072204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83355045318604</t>
+    <t xml:space="preserve">5.83354997634888</t>
   </si>
   <si>
     <t xml:space="preserve">6.17947578430176</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">5.92003202438354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0772705078125</t>
+    <t xml:space="preserve">6.07727003097534</t>
   </si>
   <si>
     <t xml:space="preserve">6.04582214355469</t>
@@ -1505,73 +1505,73 @@
     <t xml:space="preserve">6.64332914352417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87918615341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77698135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119123458862</t>
+    <t xml:space="preserve">6.87918663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77698230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119075775146</t>
   </si>
   <si>
     <t xml:space="preserve">6.61188125610352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4310564994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36029958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06154584884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05368375778198</t>
+    <t xml:space="preserve">6.43105697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36030006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06154632568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05368423461914</t>
   </si>
   <si>
     <t xml:space="preserve">5.9829273223877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361734390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84927415847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03796052932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940841674805</t>
+    <t xml:space="preserve">5.94361782073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84927463531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03796005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940793991089</t>
   </si>
   <si>
     <t xml:space="preserve">5.95934152603149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90430736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89644527435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93575620651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81782722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85713577270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851724624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80996417999268</t>
+    <t xml:space="preserve">5.90430784225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89644575119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93575572967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81782674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85713624954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80996465682983</t>
   </si>
   <si>
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920774459839</t>
+    <t xml:space="preserve">5.73920726776123</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">5.76279306411743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78637933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62914037704468</t>
+    <t xml:space="preserve">5.78637886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62913990020752</t>
   </si>
   <si>
     <t xml:space="preserve">5.53479719161987</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44045400619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46403980255127</t>
+    <t xml:space="preserve">5.44045448303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46404027938843</t>
   </si>
   <si>
     <t xml:space="preserve">5.86499834060669</t>
@@ -1613,31 +1613,31 @@
     <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39328289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34611082077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36183452606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32252502441406</t>
+    <t xml:space="preserve">5.39328336715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34611129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36183500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32252550125122</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321504592896</t>
+    <t xml:space="preserve">5.26749229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321552276611</t>
   </si>
   <si>
     <t xml:space="preserve">5.1731481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11811494827271</t>
+    <t xml:space="preserve">5.11811542510986</t>
   </si>
   <si>
     <t xml:space="preserve">5.11025333404541</t>
@@ -1652,22 +1652,22 @@
     <t xml:space="preserve">5.06308174133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99232387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10239124298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15742444992065</t>
+    <t xml:space="preserve">5.12597703933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99232339859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1023907661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1574239730835</t>
   </si>
   <si>
     <t xml:space="preserve">5.14170074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09452962875366</t>
+    <t xml:space="preserve">5.0945291519165</t>
   </si>
   <si>
     <t xml:space="preserve">5.19673490524292</t>
@@ -1685,22 +1685,22 @@
     <t xml:space="preserve">6.52539968490601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56471014022827</t>
+    <t xml:space="preserve">6.56470966339111</t>
   </si>
   <si>
     <t xml:space="preserve">6.31312799453735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.407470703125</t>
+    <t xml:space="preserve">6.40747117996216</t>
   </si>
   <si>
     <t xml:space="preserve">6.28954267501831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22818183898926</t>
+    <t xml:space="preserve">5.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22818231582642</t>
   </si>
   <si>
     <t xml:space="preserve">5.18887233734131</t>
@@ -1709,19 +1709,19 @@
     <t xml:space="preserve">5.24390602111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27535343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13383865356445</t>
+    <t xml:space="preserve">5.27535390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13383913040161</t>
   </si>
   <si>
     <t xml:space="preserve">5.29893922805786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20459651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05521965026855</t>
+    <t xml:space="preserve">5.20459604263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0552191734314</t>
   </si>
   <si>
     <t xml:space="preserve">5.03163385391235</t>
@@ -1733,28 +1733,28 @@
     <t xml:space="preserve">5.0709433555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2203197479248</t>
+    <t xml:space="preserve">5.22032022476196</t>
   </si>
   <si>
     <t xml:space="preserve">5.14956283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00018644332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69357061386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48129940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695573806763</t>
+    <t xml:space="preserve">5.0001859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69357109069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48129892349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633260726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695621490479</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123203277588</t>
@@ -1763,31 +1763,31 @@
     <t xml:space="preserve">4.51274633407593</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52847099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68570899963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67784738540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.945152759552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35397291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18101024627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25963020324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50334978103638</t>
+    <t xml:space="preserve">4.52847051620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68570947647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67784690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94515228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35397243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33038759231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18101072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25962972640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.47976398468018</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">5.55052137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41686820983887</t>
+    <t xml:space="preserve">5.41686868667603</t>
   </si>
   <si>
     <t xml:space="preserve">5.57410717010498</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">5.68417358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63700246810913</t>
+    <t xml:space="preserve">5.63700199127197</t>
   </si>
   <si>
     <t xml:space="preserve">5.71562147140503</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">5.66058778762817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72348356246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67631196975708</t>
+    <t xml:space="preserve">5.72348308563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67631149291992</t>
   </si>
   <si>
     <t xml:space="preserve">6.18733692169189</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">6.1480278968811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42319488525391</t>
+    <t xml:space="preserve">6.42319536209106</t>
   </si>
   <si>
     <t xml:space="preserve">6.53326225280762</t>
@@ -1847,58 +1847,58 @@
     <t xml:space="preserve">6.29740476608276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08513259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.108717918396</t>
+    <t xml:space="preserve">6.08513164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10871839523315</t>
   </si>
   <si>
     <t xml:space="preserve">6.20306062698364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32885217666626</t>
+    <t xml:space="preserve">6.32885265350342</t>
   </si>
   <si>
     <t xml:space="preserve">6.30526685714722</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2109227180481</t>
+    <t xml:space="preserve">6.21092319488525</t>
   </si>
   <si>
     <t xml:space="preserve">6.1244421005249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16375160217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26595592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45464277267456</t>
+    <t xml:space="preserve">6.16375207901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26595640182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174795150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4546422958374</t>
   </si>
   <si>
     <t xml:space="preserve">6.44678068161011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34457540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32099008560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33671426773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01437473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27381801605225</t>
+    <t xml:space="preserve">6.34457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32099056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33671474456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01437520980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2738184928894</t>
   </si>
   <si>
     <t xml:space="preserve">5.97506523132324</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">5.99078893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77065563201904</t>
+    <t xml:space="preserve">5.77065515518188</t>
   </si>
   <si>
     <t xml:space="preserve">5.73134565353394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02223682403564</t>
+    <t xml:space="preserve">6.02223634719849</t>
   </si>
   <si>
     <t xml:space="preserve">5.82568836212158</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">5.74286413192749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56185722351074</t>
+    <t xml:space="preserve">5.56185674667358</t>
   </si>
   <si>
     <t xml:space="preserve">5.59476757049561</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">5.61945009231567</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57008457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64413261413574</t>
+    <t xml:space="preserve">5.57008504867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6441330909729</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058826446533</t>
@@ -1949,13 +1949,13 @@
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52894639968872</t>
+    <t xml:space="preserve">5.52894687652588</t>
   </si>
   <si>
     <t xml:space="preserve">5.54540157318115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51249122619629</t>
+    <t xml:space="preserve">5.51249170303345</t>
   </si>
   <si>
     <t xml:space="preserve">5.39730501174927</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24920845031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42198801040649</t>
+    <t xml:space="preserve">5.24920797348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42198848724365</t>
   </si>
   <si>
     <t xml:space="preserve">5.46312570571899</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">5.38907718658447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34793901443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36439418792725</t>
+    <t xml:space="preserve">5.34793949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3643946647644</t>
   </si>
   <si>
     <t xml:space="preserve">5.43021535873413</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71818113327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72640895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89096069335938</t>
+    <t xml:space="preserve">5.71818161010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7264084815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89096021652222</t>
   </si>
   <si>
     <t xml:space="preserve">5.98969221115112</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9156436920166</t>
+    <t xml:space="preserve">5.91564321517944</t>
   </si>
   <si>
     <t xml:space="preserve">5.83336734771729</t>
@@ -2033,34 +2033,34 @@
     <t xml:space="preserve">5.58654022216797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45489835739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0352897644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93655920028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95301485061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21629762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05997323989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87073802947998</t>
+    <t xml:space="preserve">5.4548978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03529024124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93655967712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9530143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21629810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05997276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87073850631714</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.903648853302</t>
+    <t xml:space="preserve">4.90364933013916</t>
   </si>
   <si>
     <t xml:space="preserve">4.8625111579895</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">4.85428333282471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91187620162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14224910736084</t>
+    <t xml:space="preserve">4.9118766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.142249584198</t>
   </si>
   <si>
     <t xml:space="preserve">5.48780870437622</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">5.29034566879272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4055323600769</t>
+    <t xml:space="preserve">5.40553283691406</t>
   </si>
   <si>
     <t xml:space="preserve">5.47958040237427</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">5.38084983825684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26566362380981</t>
+    <t xml:space="preserve">5.26566314697266</t>
   </si>
   <si>
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971166610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44667053222656</t>
+    <t xml:space="preserve">5.33971118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4466700553894</t>
   </si>
   <si>
     <t xml:space="preserve">5.43844270706177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80045747756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79222917556763</t>
+    <t xml:space="preserve">5.80045795440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79223012924194</t>
   </si>
   <si>
     <t xml:space="preserve">5.66881561279297</t>
@@ -2141,25 +2141,25 @@
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868482589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68527030944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6934986114502</t>
+    <t xml:space="preserve">5.80868530273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6852707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69349908828735</t>
   </si>
   <si>
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04728555679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9238715171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70995330810547</t>
+    <t xml:space="preserve">6.04728507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92387104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70995378494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.67704343795776</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">5.63590526580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4960355758667</t>
+    <t xml:space="preserve">5.49603605270386</t>
   </si>
   <si>
     <t xml:space="preserve">5.224524974823</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">5.16693162918091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11756658554077</t>
+    <t xml:space="preserve">5.11756610870361</t>
   </si>
   <si>
     <t xml:space="preserve">5.23275327682495</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">3.81760597229004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42268133163452</t>
+    <t xml:space="preserve">3.42268109321594</t>
   </si>
   <si>
     <t xml:space="preserve">3.45559120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48850154876709</t>
+    <t xml:space="preserve">3.48850178718567</t>
   </si>
   <si>
     <t xml:space="preserve">3.04421186447144</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">3.20876359939575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09357690811157</t>
+    <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
     <t xml:space="preserve">3.15117025375366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29103946685791</t>
+    <t xml:space="preserve">3.29103970527649</t>
   </si>
   <si>
     <t xml:space="preserve">3.17996716499329</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">3.38154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40211248397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40622591972351</t>
+    <t xml:space="preserve">3.40211224555969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40622568130493</t>
   </si>
   <si>
     <t xml:space="preserve">3.39799833297729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53375387191772</t>
+    <t xml:space="preserve">3.53375363349915</t>
   </si>
   <si>
     <t xml:space="preserve">3.50495743751526</t>
@@ -2282,28 +2282,28 @@
     <t xml:space="preserve">3.6283712387085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77646803855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53786778450012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419145584106</t>
+    <t xml:space="preserve">3.77646851539612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53786730766296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419193267822</t>
   </si>
   <si>
     <t xml:space="preserve">3.71887469291687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90810966491699</t>
+    <t xml:space="preserve">3.90810918807983</t>
   </si>
   <si>
     <t xml:space="preserve">3.99861311912537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11379957199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54986238479614</t>
+    <t xml:space="preserve">4.11379909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5498628616333</t>
   </si>
   <si>
     <t xml:space="preserve">4.54163455963135</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42644786834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41822052001953</t>
+    <t xml:space="preserve">4.42644834518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41822099685669</t>
   </si>
   <si>
     <t xml:space="preserve">4.46758604049683</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">3.91633749008179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98215818405151</t>
+    <t xml:space="preserve">3.98215866088867</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88342642784119</t>
+    <t xml:space="preserve">3.88342690467834</t>
   </si>
   <si>
     <t xml:space="preserve">4.0191822052002</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">4.06443405151367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99038505554199</t>
+    <t xml:space="preserve">3.99038553237915</t>
   </si>
   <si>
     <t xml:space="preserve">4.0109543800354</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92867875099182</t>
+    <t xml:space="preserve">3.92867827415466</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872468948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30303430557251</t>
+    <t xml:space="preserve">4.50872421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30303382873535</t>
   </si>
   <si>
     <t xml:space="preserve">4.10968542098999</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721361160278</t>
+    <t xml:space="preserve">4.23721313476562</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417247772217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3523998260498</t>
+    <t xml:space="preserve">4.35239934921265</t>
   </si>
   <si>
     <t xml:space="preserve">4.21253061294556</t>
@@ -2402,16 +2402,16 @@
     <t xml:space="preserve">4.13848209381104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0808892250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25366878509521</t>
+    <t xml:space="preserve">4.08088874816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25366926193237</t>
   </si>
   <si>
     <t xml:space="preserve">4.27012395858765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22898626327515</t>
+    <t xml:space="preserve">4.22898578643799</t>
   </si>
   <si>
     <t xml:space="preserve">4.08500337600708</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">4.04797887802124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05620622634888</t>
+    <t xml:space="preserve">4.05620574951172</t>
   </si>
   <si>
     <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07266139984131</t>
+    <t xml:space="preserve">4.07266092300415</t>
   </si>
   <si>
     <t xml:space="preserve">4.09734392166138</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">3.96570301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94101977348328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93279218673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449920654297</t>
+    <t xml:space="preserve">3.94102025032043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93279266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449872970581</t>
   </si>
   <si>
     <t xml:space="preserve">4.07677555084229</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">4.1631646156311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22075843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1302547454834</t>
+    <t xml:space="preserve">4.22075796127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13025426864624</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924783706665</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">3.94513344764709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82583332061768</t>
+    <t xml:space="preserve">3.82583355903625</t>
   </si>
   <si>
     <t xml:space="preserve">3.85051608085632</t>
@@ -2486,16 +2486,16 @@
     <t xml:space="preserve">3.7394437789917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74355792999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824021339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6530544757843</t>
+    <t xml:space="preserve">3.7435576915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76824045181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66128158569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305423736572</t>
   </si>
   <si>
     <t xml:space="preserve">3.61191582679749</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">3.55432295799255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48027443885803</t>
+    <t xml:space="preserve">3.48027420043945</t>
   </si>
   <si>
     <t xml:space="preserve">3.49672961235046</t>
@@ -2516,16 +2516,16 @@
     <t xml:space="preserve">3.59134697914124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60780262947083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659882545471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66539549827576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72710299491882</t>
+    <t xml:space="preserve">3.60780215263367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6653950214386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72710251808167</t>
   </si>
   <si>
     <t xml:space="preserve">3.7312159538269</t>
@@ -2540,19 +2540,19 @@
     <t xml:space="preserve">3.54609513282776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60368800163269</t>
+    <t xml:space="preserve">3.60368847846985</t>
   </si>
   <si>
     <t xml:space="preserve">3.59546065330505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63248491287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6201434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30749464035034</t>
+    <t xml:space="preserve">3.63248467445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62014365196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30749487876892</t>
   </si>
   <si>
     <t xml:space="preserve">3.36508798599243</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">3.70241975784302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70653343200684</t>
+    <t xml:space="preserve">3.70653295516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.71064734458923</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">4.33594465255737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29480648040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26189565658569</t>
+    <t xml:space="preserve">4.29480600357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
     <t xml:space="preserve">4.50049638748169</t>
@@ -2603,31 +2603,31 @@
     <t xml:space="preserve">4.57454442977905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92833137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99415302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06820106506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96124219894409</t>
+    <t xml:space="preserve">4.92833185195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99415254592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06820058822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96124172210693</t>
   </si>
   <si>
     <t xml:space="preserve">4.97769737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01060819625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947002410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92010450363159</t>
+    <t xml:space="preserve">5.00237989425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01060771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96946954727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92010498046875</t>
   </si>
   <si>
     <t xml:space="preserve">5.04351854324341</t>
@@ -2642,13 +2642,13 @@
     <t xml:space="preserve">5.19161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10111141204834</t>
+    <t xml:space="preserve">5.10111093521118</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465623855591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15870523452759</t>
+    <t xml:space="preserve">5.15870428085327</t>
   </si>
   <si>
     <t xml:space="preserve">5.18338680267334</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87450551986694</t>
+    <t xml:space="preserve">5.87450504302979</t>
   </si>
   <si>
     <t xml:space="preserve">5.90741586685181</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">5.94855356216431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94032669067383</t>
+    <t xml:space="preserve">5.94032621383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.00614738464355</t>
@@ -2687,28 +2687,28 @@
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38461780548096</t>
+    <t xml:space="preserve">6.3846173286438</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334789276123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45043754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35170555114746</t>
+    <t xml:space="preserve">6.45043802261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
     <t xml:space="preserve">6.26943016052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33525037765503</t>
+    <t xml:space="preserve">6.33525085449219</t>
   </si>
   <si>
     <t xml:space="preserve">6.45446300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3011908531189</t>
+    <t xml:space="preserve">6.30119037628174</t>
   </si>
   <si>
     <t xml:space="preserve">6.42040205001831</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">6.74397754669189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57367420196533</t>
+    <t xml:space="preserve">6.57367467880249</t>
   </si>
   <si>
     <t xml:space="preserve">6.72694635391235</t>
@@ -2732,37 +2732,37 @@
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76100778579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30597543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49330711364746</t>
+    <t xml:space="preserve">6.76100730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30597496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49330806732178</t>
   </si>
   <si>
     <t xml:space="preserve">7.79985237121582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39591121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25966835021973</t>
+    <t xml:space="preserve">8.39591026306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22560691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31075954437256</t>
+    <t xml:space="preserve">8.31075859069824</t>
   </si>
   <si>
     <t xml:space="preserve">8.34481906890869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29372978210449</t>
+    <t xml:space="preserve">8.29372882843018</t>
   </si>
   <si>
     <t xml:space="preserve">9.02602958679199</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">8.64284896850586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41294002532959</t>
+    <t xml:space="preserve">8.41294097900391</t>
   </si>
   <si>
     <t xml:space="preserve">8.46403121948242</t>
@@ -2816,19 +2816,19 @@
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0042142868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66360998153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57845783233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270233154297</t>
+    <t xml:space="preserve">8.00421524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66361093521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57845878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270280838013</t>
   </si>
   <si>
     <t xml:space="preserve">7.51033735275269</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769920349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40921020507812</t>
+    <t xml:space="preserve">8.55769824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40920925140381</t>
   </si>
   <si>
     <t xml:space="preserve">9.28148365020752</t>
@@ -2873,16 +2873,16 @@
     <t xml:space="preserve">8.94087886810303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81315231323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8983039855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72800064086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48106288909912</t>
+    <t xml:space="preserve">8.81315135955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89830303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72799968719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4810619354248</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">8.42997074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44700145721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49436092376709</t>
+    <t xml:space="preserve">8.44700050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49436187744141</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754249572754</t>
@@ -60525,7 +60525,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6427314815</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>1003</v>
@@ -60546,6 +60546,32 @@
         <v>1312</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.5737152778</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>11444</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>8.73999977111816</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>8.85999965667725</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25140881538391</t>
+    <t xml:space="preserve">1.25140869617462</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26611375808716</t>
+    <t xml:space="preserve">1.27346634864807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596580028534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26611387729645</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258322715759</t>
@@ -62,58 +62,58 @@
     <t xml:space="preserve">1.3256698846817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33596336841583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32346403598785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30875885486603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758456230164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25214409828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729095935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30728840827942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2955242395401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27493691444397</t>
+    <t xml:space="preserve">1.33596348762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32346415519714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30875873565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25214385986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302733898163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729072093964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30728816986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29552412033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27493703365326</t>
   </si>
   <si>
     <t xml:space="preserve">1.2411150932312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2381739616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23449778556824</t>
+    <t xml:space="preserve">1.23817420005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23449790477753</t>
   </si>
   <si>
     <t xml:space="preserve">1.18008875846863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18376517295837</t>
+    <t xml:space="preserve">1.18376493453979</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729582309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13964951038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612396240234</t>
+    <t xml:space="preserve">1.1396496295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612372398376</t>
   </si>
   <si>
     <t xml:space="preserve">1.07568216323853</t>
@@ -128,37 +128,37 @@
     <t xml:space="preserve">1.07347643375397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09479892253876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15067863464355</t>
+    <t xml:space="preserve">1.09479880332947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15067851543427</t>
   </si>
   <si>
     <t xml:space="preserve">1.16832458972931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16538369655609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14700210094452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17641270160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597078323364</t>
+    <t xml:space="preserve">1.1653835773468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14700198173523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17641246318817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597090244293</t>
   </si>
   <si>
     <t xml:space="preserve">1.21317529678345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15435481071472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18744146823883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16170728206635</t>
+    <t xml:space="preserve">1.15435469150543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18744122982025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
     <t xml:space="preserve">1.18817663192749</t>
@@ -167,34 +167,34 @@
     <t xml:space="preserve">1.17347145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20582282543182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23670375347137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22788059711456</t>
+    <t xml:space="preserve">1.20582270622253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2367035150528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
     <t xml:space="preserve">1.2425856590271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22861588001251</t>
+    <t xml:space="preserve">1.22861576080322</t>
   </si>
   <si>
     <t xml:space="preserve">1.22052788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28670108318329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30655312538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30214178562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26464331150055</t>
+    <t xml:space="preserve">1.28670120239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30655300617218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30214154720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26464343070984</t>
   </si>
   <si>
     <t xml:space="preserve">1.2499383687973</t>
@@ -203,34 +203,34 @@
     <t xml:space="preserve">1.28743636608124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28228962421417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30581772327423</t>
+    <t xml:space="preserve">1.28228950500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30581796169281</t>
   </si>
   <si>
     <t xml:space="preserve">1.23008632659912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25067341327667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25655555725098</t>
+    <t xml:space="preserve">1.25067353248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25655543804169</t>
   </si>
   <si>
     <t xml:space="preserve">1.26317286491394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26243770122528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29920053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29405379295349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25876140594482</t>
+    <t xml:space="preserve">1.2624374628067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29920041561127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2940536737442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25876128673553</t>
   </si>
   <si>
     <t xml:space="preserve">1.28523063659668</t>
@@ -242,79 +242,79 @@
     <t xml:space="preserve">1.27934861183167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28964197635651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27199614048004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28302490711212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3558155298233</t>
+    <t xml:space="preserve">1.28964221477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27199590206146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28302478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
     <t xml:space="preserve">1.36022710800171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33816933631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35066854953766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34478640556335</t>
+    <t xml:space="preserve">1.33816921710968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35066866874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34478652477264</t>
   </si>
   <si>
     <t xml:space="preserve">1.30949425697327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29846525192261</t>
+    <t xml:space="preserve">1.2984653711319</t>
   </si>
   <si>
     <t xml:space="preserve">1.26831960678101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21170496940613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19773507118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17420673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17567729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258809089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288169384003</t>
+    <t xml:space="preserve">1.21170485019684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19773495197296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17420649528503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17567718029022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1925882101059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288181304932</t>
   </si>
   <si>
     <t xml:space="preserve">1.19847023487091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12494444847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13817894458771</t>
+    <t xml:space="preserve">1.12494432926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13817918300629</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759173870087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12347400188446</t>
+    <t xml:space="preserve">1.12347376346588</t>
   </si>
   <si>
     <t xml:space="preserve">1.13597321510315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13229703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023926734924</t>
+    <t xml:space="preserve">1.13229691982269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023938655853</t>
   </si>
   <si>
     <t xml:space="preserve">1.15582537651062</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">1.14920794963837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17494189739227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15361964702606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16758954524994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21391046047211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56021702289581</t>
+    <t xml:space="preserve">1.17494213581085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15361952781677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16758942604065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2139105796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169512271881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5602171421051</t>
   </si>
   <si>
     <t xml:space="preserve">1.56168758869171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52345407009125</t>
+    <t xml:space="preserve">1.52345418930054</t>
   </si>
   <si>
     <t xml:space="preserve">1.48522078990936</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">1.52933621406555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47051560878754</t>
+    <t xml:space="preserve">1.47051572799683</t>
   </si>
   <si>
     <t xml:space="preserve">1.54257094860077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50874900817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49404394626617</t>
+    <t xml:space="preserve">1.50874924659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49404406547546</t>
   </si>
   <si>
     <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49992597103119</t>
+    <t xml:space="preserve">1.49992609024048</t>
   </si>
   <si>
     <t xml:space="preserve">1.48669135570526</t>
@@ -389,88 +389,88 @@
     <t xml:space="preserve">1.49845540523529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55433487892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77785360813141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550187587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961279392242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078951835632</t>
+    <t xml:space="preserve">1.55433511734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77785348892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550223350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961243629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666923046112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078987598419</t>
   </si>
   <si>
     <t xml:space="preserve">1.87931907176971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86020219326019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81608712673187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138146877289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490713596344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372821807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608190536499</t>
+    <t xml:space="preserve">1.86020243167877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.816086769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138194561005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490737438202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372797966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608214378357</t>
   </si>
   <si>
     <t xml:space="preserve">1.91314077377319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93078684806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92931663990021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92049372196198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9043173789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9190229177475</t>
+    <t xml:space="preserve">1.93078696727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931640148163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92049360275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431773662567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91902267932892</t>
   </si>
   <si>
     <t xml:space="preserve">1.90137672424316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92343425750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961036205292</t>
+    <t xml:space="preserve">1.9234344959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93961000442505</t>
   </si>
   <si>
     <t xml:space="preserve">1.96166777610779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09401440620422</t>
+    <t xml:space="preserve">2.09401416778564</t>
   </si>
   <si>
     <t xml:space="preserve">2.17489242553711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12930655479431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19106841087341</t>
+    <t xml:space="preserve">2.12930679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19106817245483</t>
   </si>
   <si>
     <t xml:space="preserve">2.14107084274292</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">2.09695529937744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13077712059021</t>
+    <t xml:space="preserve">2.13077735900879</t>
   </si>
   <si>
     <t xml:space="preserve">2.11901307106018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09842610359192</t>
+    <t xml:space="preserve">2.09842562675476</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19695019721985</t>
+    <t xml:space="preserve">2.19695043563843</t>
   </si>
   <si>
     <t xml:space="preserve">2.27782869338989</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">2.26606440544128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08813238143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97637295722961</t>
+    <t xml:space="preserve">2.08813214302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97637283802032</t>
   </si>
   <si>
     <t xml:space="preserve">2.06901526451111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0498993396759</t>
+    <t xml:space="preserve">2.04989910125732</t>
   </si>
   <si>
     <t xml:space="preserve">2.11607193946838</t>
@@ -524,43 +524,43 @@
     <t xml:space="preserve">2.07636785507202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03519320487976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0146062374115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95578575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019697189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9719614982605</t>
+    <t xml:space="preserve">2.03519344329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01460647583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95578598976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019756793976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97196161746979</t>
   </si>
   <si>
     <t xml:space="preserve">1.94843339920044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87784826755524</t>
+    <t xml:space="preserve">1.87784850597382</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549469947815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99696028232574</t>
+    <t xml:space="preserve">1.99696016311646</t>
   </si>
   <si>
     <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431251525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09548449516296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08666157722473</t>
+    <t xml:space="preserve">2.00431275367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09548497200012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08666133880615</t>
   </si>
   <si>
     <t xml:space="preserve">2.08372068405151</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">2.03813481330872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05431056022644</t>
+    <t xml:space="preserve">2.05431008338928</t>
   </si>
   <si>
     <t xml:space="preserve">2.05872178077698</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">2.06019258499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06754493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313323974609</t>
+    <t xml:space="preserve">2.06754469871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313347816467</t>
   </si>
   <si>
     <t xml:space="preserve">2.10283732414246</t>
@@ -590,31 +590,31 @@
     <t xml:space="preserve">2.17636299133301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29694557189941</t>
+    <t xml:space="preserve">2.29694533348083</t>
   </si>
   <si>
     <t xml:space="preserve">2.2719464302063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23812460899353</t>
+    <t xml:space="preserve">2.23812484741211</t>
   </si>
   <si>
     <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989132881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047853469849</t>
+    <t xml:space="preserve">2.1998918056488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047877311707</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988889694214</t>
+    <t xml:space="preserve">2.21753764152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988865852356</t>
   </si>
   <si>
     <t xml:space="preserve">2.23518347740173</t>
@@ -623,49 +623,49 @@
     <t xml:space="preserve">2.25430035591125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23959517478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24694800376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25871205329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2425365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606683731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136213302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22341966629028</t>
+    <t xml:space="preserve">2.23959541320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24694752693176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25871181488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253606796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606707572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136189460754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2234194278717</t>
   </si>
   <si>
     <t xml:space="preserve">2.20577335357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22194933891296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3528254032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61163544654846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61016511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61604762077332</t>
+    <t xml:space="preserve">2.22194957733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35282492637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61163592338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61016488075256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61604714393616</t>
   </si>
   <si>
     <t xml:space="preserve">2.60575342178345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58663702011108</t>
+    <t xml:space="preserve">2.5866367816925</t>
   </si>
   <si>
     <t xml:space="preserve">2.52193427085876</t>
@@ -677,55 +677,55 @@
     <t xml:space="preserve">2.60281252861023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58810758590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56457924842834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56016802787781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59840106964111</t>
+    <t xml:space="preserve">2.5881073474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56457901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56016778945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59840083122253</t>
   </si>
   <si>
     <t xml:space="preserve">2.57634329795837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61751770973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5954601764679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78662729263306</t>
+    <t xml:space="preserve">2.61751747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59545969963074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7866268157959</t>
   </si>
   <si>
     <t xml:space="preserve">2.8528003692627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83809494972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808789253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632603645325</t>
+    <t xml:space="preserve">2.83809518814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808813095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632627487183</t>
   </si>
   <si>
     <t xml:space="preserve">3.26454520225525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39983224868774</t>
+    <t xml:space="preserve">3.39983248710632</t>
   </si>
   <si>
     <t xml:space="preserve">3.55129551887512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63217425346375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89319062232971</t>
+    <t xml:space="preserve">3.63217353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">3.75716757774353</t>
@@ -734,37 +734,37 @@
     <t xml:space="preserve">3.8748083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84172224998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848520278931</t>
+    <t xml:space="preserve">3.841721534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848496437073</t>
   </si>
   <si>
     <t xml:space="preserve">3.97039198875427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14685344696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26449584960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40051746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37478399276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596374511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140859603882</t>
+    <t xml:space="preserve">4.14685392379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26449489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40051794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37478351593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596326828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140907287598</t>
   </si>
   <si>
     <t xml:space="preserve">4.5218358039856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51815938949585</t>
+    <t xml:space="preserve">4.51815986633301</t>
   </si>
   <si>
     <t xml:space="preserve">4.77917575836182</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">4.92990350723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77177476882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02916383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35267734527588</t>
+    <t xml:space="preserve">5.77177381515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02916288375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35267686843872</t>
   </si>
   <si>
     <t xml:space="preserve">5.26444578170776</t>
@@ -788,79 +788,79 @@
     <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71295309066772</t>
+    <t xml:space="preserve">5.71295261383057</t>
   </si>
   <si>
     <t xml:space="preserve">6.0585241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71290302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09523773193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81584024429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376935958862</t>
+    <t xml:space="preserve">6.71290445327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09523820877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81584072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376983642578</t>
   </si>
   <si>
     <t xml:space="preserve">7.44389820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3231053352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11926651000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67006492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85503053665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66629076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37185573577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6360912322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688505172729</t>
+    <t xml:space="preserve">7.32310438156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11926698684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67006540298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85503005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66629028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37185621261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63609266281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688600540161</t>
   </si>
   <si>
     <t xml:space="preserve">6.83238172531128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71913766860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245098114014</t>
+    <t xml:space="preserve">6.71913719177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245145797729</t>
   </si>
   <si>
     <t xml:space="preserve">6.50397396087646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68893909454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085826873779</t>
+    <t xml:space="preserve">6.68893957138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085922241211</t>
   </si>
   <si>
     <t xml:space="preserve">6.63986682891846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2321891784668</t>
+    <t xml:space="preserve">6.45490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337919235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
     <t xml:space="preserve">6.25483751296997</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">6.14159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19821548461914</t>
+    <t xml:space="preserve">6.19821643829346</t>
   </si>
   <si>
     <t xml:space="preserve">6.18689107894897</t>
@@ -878,28 +878,28 @@
     <t xml:space="preserve">6.03589963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97550249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98305225372314</t>
+    <t xml:space="preserve">5.97550344467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9830527305603</t>
   </si>
   <si>
     <t xml:space="preserve">5.63199615478516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11484909057617</t>
+    <t xml:space="preserve">5.11484956741333</t>
   </si>
   <si>
     <t xml:space="preserve">5.435706615448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2243185043335</t>
+    <t xml:space="preserve">5.22431802749634</t>
   </si>
   <si>
     <t xml:space="preserve">5.20921850204468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08465051651001</t>
+    <t xml:space="preserve">5.08465099334717</t>
   </si>
   <si>
     <t xml:space="preserve">5.11862373352051</t>
@@ -908,70 +908,70 @@
     <t xml:space="preserve">5.15259695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93365859985352</t>
+    <t xml:space="preserve">4.93365812301636</t>
   </si>
   <si>
     <t xml:space="preserve">5.16769599914551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00537967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836097717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91855907440186</t>
+    <t xml:space="preserve">5.00538015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91855955123901</t>
   </si>
   <si>
     <t xml:space="preserve">5.06200170516968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77511739730835</t>
+    <t xml:space="preserve">4.77511692047119</t>
   </si>
   <si>
     <t xml:space="preserve">4.73359489440918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71472072601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65809869766235</t>
+    <t xml:space="preserve">4.71471977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">4.59770202636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60147666931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68452215194702</t>
+    <t xml:space="preserve">4.60147619247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68452167510986</t>
   </si>
   <si>
     <t xml:space="preserve">5.2847146987915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04690265655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00160503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478443145752</t>
+    <t xml:space="preserve">5.09597444534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04690217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00160551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478490829468</t>
   </si>
   <si>
     <t xml:space="preserve">4.90723514556885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83173990249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81663942337036</t>
+    <t xml:space="preserve">4.83173942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81664037704468</t>
   </si>
   <si>
     <t xml:space="preserve">4.85816287994385</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">4.89213609695435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90346002578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98273086547852</t>
+    <t xml:space="preserve">4.90346050262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98273038864136</t>
   </si>
   <si>
     <t xml:space="preserve">4.99405527114868</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">5.31491327285767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39795875549316</t>
+    <t xml:space="preserve">5.39795923233032</t>
   </si>
   <si>
     <t xml:space="preserve">5.367760181427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4508056640625</t>
+    <t xml:space="preserve">5.45080614089966</t>
   </si>
   <si>
     <t xml:space="preserve">5.36021041870117</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">5.17902040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9902811050415</t>
+    <t xml:space="preserve">4.99028062820435</t>
   </si>
   <si>
     <t xml:space="preserve">5.24319219589233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14882230758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392183303833</t>
+    <t xml:space="preserve">5.14882135391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392087936401</t>
   </si>
   <si>
     <t xml:space="preserve">5.05822706222534</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">5.13372325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30358839035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33001279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584100723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20166921615601</t>
+    <t xml:space="preserve">5.3035888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33001184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20166873931885</t>
   </si>
   <si>
     <t xml:space="preserve">5.19034481048584</t>
@@ -1049,58 +1049,58 @@
     <t xml:space="preserve">5.41305780410767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49232912063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88490772247314</t>
+    <t xml:space="preserve">5.49232864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88490724563599</t>
   </si>
   <si>
     <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06232213973999</t>
+    <t xml:space="preserve">6.06232309341431</t>
   </si>
   <si>
     <t xml:space="preserve">6.33410882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2435131072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48509979248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84748029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3835015296936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23628425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4665470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07806396484375</t>
+    <t xml:space="preserve">6.24351406097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48510026931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84748125076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2362847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46654796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919630050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07806301116943</t>
   </si>
   <si>
     <t xml:space="preserve">8.53104019165039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85567283630371</t>
+    <t xml:space="preserve">8.85567188262939</t>
   </si>
   <si>
     <t xml:space="preserve">9.39924240112305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75407409667969</t>
+    <t xml:space="preserve">9.75407314300537</t>
   </si>
   <si>
     <t xml:space="preserve">10.7204208374023</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">8.84057235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04441261291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62918376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41024684906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19130897521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73487758636475</t>
+    <t xml:space="preserve">9.04441165924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62918472290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41024589538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19130802154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73487854003906</t>
   </si>
   <si>
     <t xml:space="preserve">8.38759708404541</t>
@@ -1136,97 +1136,97 @@
     <t xml:space="preserve">8.27435302734375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11581134796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77608108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91952133178711</t>
+    <t xml:space="preserve">8.11581230163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77608060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
     <t xml:space="preserve">7.84402704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82137632369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687442779541</t>
+    <t xml:space="preserve">7.82137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687490463257</t>
   </si>
   <si>
     <t xml:space="preserve">7.75343227386475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64428424835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22905540466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34985065460205</t>
+    <t xml:space="preserve">8.64428329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2290563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34984874725342</t>
   </si>
   <si>
     <t xml:space="preserve">8.23660564422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044399261475</t>
+    <t xml:space="preserve">8.44044494628906</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24415493011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1309118270874</t>
+    <t xml:space="preserve">8.24415397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13091087341309</t>
   </si>
   <si>
     <t xml:space="preserve">7.94972085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79117965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54959344863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30800533294678</t>
+    <t xml:space="preserve">7.79117918014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5495924949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30800628662109</t>
   </si>
   <si>
     <t xml:space="preserve">7.57224178314209</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3193302154541</t>
+    <t xml:space="preserve">7.31932973861694</t>
   </si>
   <si>
     <t xml:space="preserve">7.56469202041626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55714273452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92707204818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03276634216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60998916625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60243940353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54204273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522260665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3533034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24005889892578</t>
+    <t xml:space="preserve">7.55714225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92707252502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0327672958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60999011993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60244035720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54204320907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330295562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24005937576294</t>
   </si>
   <si>
     <t xml:space="preserve">7.29668092727661</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">7.51184463500977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25893211364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19476127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23250913619995</t>
+    <t xml:space="preserve">7.25893354415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19476222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23251056671143</t>
   </si>
   <si>
     <t xml:space="preserve">7.12304162979126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30045700073242</t>
+    <t xml:space="preserve">7.30045604705811</t>
   </si>
   <si>
     <t xml:space="preserve">7.27780818939209</t>
@@ -1256,37 +1256,37 @@
     <t xml:space="preserve">7.32687997817993</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51561832427979</t>
+    <t xml:space="preserve">7.5156192779541</t>
   </si>
   <si>
     <t xml:space="preserve">7.49297094345093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3684024810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058345794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21395778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66693210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56123924255371</t>
+    <t xml:space="preserve">7.36840295791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21395683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66693115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56123828887939</t>
   </si>
   <si>
     <t xml:space="preserve">8.30455207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28945159912109</t>
+    <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
     <t xml:space="preserve">8.1988582611084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04786586761475</t>
+    <t xml:space="preserve">8.04786491394043</t>
   </si>
   <si>
     <t xml:space="preserve">8.15355968475342</t>
@@ -1298,79 +1298,79 @@
     <t xml:space="preserve">8.16865921020508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85157632827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681531906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277744293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96827411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973339080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072435379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317411422729</t>
+    <t xml:space="preserve">7.85157537460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681484222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9682731628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973243713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317554473877</t>
   </si>
   <si>
     <t xml:space="preserve">6.88522911071777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9305272102356</t>
+    <t xml:space="preserve">6.93052625656128</t>
   </si>
   <si>
     <t xml:space="preserve">6.87767887115479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59834337234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50019931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900930404663</t>
+    <t xml:space="preserve">6.59834432601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50019884109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900882720947</t>
   </si>
   <si>
     <t xml:space="preserve">6.16801691055298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15291786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814527511597</t>
+    <t xml:space="preserve">6.15291690826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814622879028</t>
   </si>
   <si>
     <t xml:space="preserve">6.57569551467896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76443433761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7870831489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00602149963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83993101119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205383300781</t>
+    <t xml:space="preserve">6.76443529129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78708362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00602245330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83993148803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953433990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60589361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205430984497</t>
   </si>
   <si>
     <t xml:space="preserve">6.43980264663696</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">6.22086429595947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22841358184814</t>
+    <t xml:space="preserve">6.2284140586853</t>
   </si>
   <si>
     <t xml:space="preserve">6.18311595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0849723815918</t>
+    <t xml:space="preserve">6.08497190475464</t>
   </si>
   <si>
     <t xml:space="preserve">6.26616191864014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31145858764648</t>
+    <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
     <t xml:space="preserve">6.28881072998047</t>
@@ -1400,64 +1400,64 @@
     <t xml:space="preserve">6.47755002975464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4926495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059551239014</t>
+    <t xml:space="preserve">6.49265050888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059503555298</t>
   </si>
   <si>
     <t xml:space="preserve">6.53039789199829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42470359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324480056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62099313735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61344289779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119123458862</t>
+    <t xml:space="preserve">6.42470407485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62099361419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61344337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6511926651001</t>
   </si>
   <si>
     <t xml:space="preserve">6.91063451766968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69836330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78484439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974334716797</t>
+    <t xml:space="preserve">6.69836282730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78484296798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974382400513</t>
   </si>
   <si>
     <t xml:space="preserve">6.91849660873413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72981023788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822856903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960908889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19519901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25023317337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23450803756714</t>
+    <t xml:space="preserve">6.72981071472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822904586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39960956573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19519948959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2502326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23450899124146</t>
   </si>
   <si>
     <t xml:space="preserve">6.1558895111084</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">6.13230419158936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87286043167114</t>
+    <t xml:space="preserve">5.87285947799683</t>
   </si>
   <si>
     <t xml:space="preserve">5.75493097305298</t>
@@ -1478,55 +1478,58 @@
     <t xml:space="preserve">5.88072204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83355093002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17947578430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09299468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92003202438354</t>
+    <t xml:space="preserve">5.83354997634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1794753074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09299421310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92003154754639</t>
   </si>
   <si>
     <t xml:space="preserve">6.07727003097534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.045823097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1716136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64332914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918663024902</t>
+    <t xml:space="preserve">6.04582262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17161321640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878433227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64332866668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918710708618</t>
   </si>
   <si>
     <t xml:space="preserve">6.77698230743408</t>
   </si>
   <si>
+    <t xml:space="preserve">6.65119171142578</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.61188173294067</t>
   </si>
   <si>
     <t xml:space="preserve">6.43105697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36029958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06154632568359</t>
+    <t xml:space="preserve">6.36030006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06154680252075</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368423461914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9829273223877</t>
+    <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
     <t xml:space="preserve">5.94361782073975</t>
@@ -1535,13 +1538,13 @@
     <t xml:space="preserve">5.84927415847778</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03796100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934152603149</t>
+    <t xml:space="preserve">6.03796052932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934057235718</t>
   </si>
   <si>
     <t xml:space="preserve">5.90430784225464</t>
@@ -1556,73 +1559,73 @@
     <t xml:space="preserve">5.81782674789429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85713577270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77851724624634</t>
+    <t xml:space="preserve">5.85713624954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77851676940918</t>
   </si>
   <si>
     <t xml:space="preserve">5.80996465682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69989824295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73920726776123</t>
+    <t xml:space="preserve">5.69989776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73920774459839</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54265928268433</t>
+    <t xml:space="preserve">5.54265880584717</t>
   </si>
   <si>
     <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78637933731079</t>
+    <t xml:space="preserve">5.76279354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78637886047363</t>
   </si>
   <si>
     <t xml:space="preserve">5.62914037704468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53479719161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44045400619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46403980255127</t>
+    <t xml:space="preserve">5.53479671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44045448303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46403932571411</t>
   </si>
   <si>
     <t xml:space="preserve">5.86499834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0300989151001</t>
+    <t xml:space="preserve">6.03009939193726</t>
   </si>
   <si>
     <t xml:space="preserve">5.74706935882568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47190237045288</t>
+    <t xml:space="preserve">5.47190189361572</t>
   </si>
   <si>
     <t xml:space="preserve">5.39328289031982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36183452606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32252502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30680179595947</t>
+    <t xml:space="preserve">5.34611082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36183500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32252550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
     <t xml:space="preserve">5.26749181747437</t>
@@ -1631,16 +1634,16 @@
     <t xml:space="preserve">5.28321504592896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1731481552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811494827271</t>
+    <t xml:space="preserve">5.17314863204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811542510986</t>
   </si>
   <si>
     <t xml:space="preserve">5.11025285720825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9687385559082</t>
+    <t xml:space="preserve">4.96873903274536</t>
   </si>
   <si>
     <t xml:space="preserve">5.00804805755615</t>
@@ -1649,10 +1652,10 @@
     <t xml:space="preserve">5.06308174133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9923243522644</t>
+    <t xml:space="preserve">5.12597703933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99232339859009</t>
   </si>
   <si>
     <t xml:space="preserve">5.1023907661438</t>
@@ -1664,10 +1667,10 @@
     <t xml:space="preserve">5.14170122146606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09452962875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1967339515686</t>
+    <t xml:space="preserve">5.0945291519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19673442840576</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
@@ -1679,7 +1682,7 @@
     <t xml:space="preserve">5.38542079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52540016174316</t>
+    <t xml:space="preserve">6.52540063858032</t>
   </si>
   <si>
     <t xml:space="preserve">6.56471014022827</t>
@@ -1688,16 +1691,16 @@
     <t xml:space="preserve">6.31312799453735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40747117996216</t>
+    <t xml:space="preserve">6.407470703125</t>
   </si>
   <si>
     <t xml:space="preserve">6.28954219818115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29107713699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22818231582642</t>
+    <t xml:space="preserve">5.29107761383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22818183898926</t>
   </si>
   <si>
     <t xml:space="preserve">5.18887233734131</t>
@@ -1706,7 +1709,7 @@
     <t xml:space="preserve">5.24390602111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27535343170166</t>
+    <t xml:space="preserve">5.27535390853882</t>
   </si>
   <si>
     <t xml:space="preserve">5.13383913040161</t>
@@ -1715,10 +1718,10 @@
     <t xml:space="preserve">5.29893970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20459604263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05521965026855</t>
+    <t xml:space="preserve">5.20459651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0552191734314</t>
   </si>
   <si>
     <t xml:space="preserve">5.03163385391235</t>
@@ -1730,70 +1733,70 @@
     <t xml:space="preserve">5.07094287872314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22032022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14956283569336</t>
+    <t xml:space="preserve">5.22032070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956331253052</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69357109069824</t>
+    <t xml:space="preserve">4.69357061386108</t>
   </si>
   <si>
     <t xml:space="preserve">4.48129892349243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5992283821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53633213043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38695621490479</t>
+    <t xml:space="preserve">4.59922790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53633260726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38695573806763</t>
   </si>
   <si>
     <t xml:space="preserve">4.37123155593872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51274633407593</t>
+    <t xml:space="preserve">4.51274585723877</t>
   </si>
   <si>
     <t xml:space="preserve">4.52847051620483</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68570947647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67784690856934</t>
+    <t xml:space="preserve">4.68570899963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67784738540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.945152759552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35397338867188</t>
+    <t xml:space="preserve">5.35397291183472</t>
   </si>
   <si>
     <t xml:space="preserve">5.33038711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18101072311401</t>
+    <t xml:space="preserve">5.18101119995117</t>
   </si>
   <si>
     <t xml:space="preserve">5.25963020324707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50334978103638</t>
+    <t xml:space="preserve">5.50334930419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.47976350784302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51907348632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45617818832397</t>
+    <t xml:space="preserve">5.51907300949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45617771148682</t>
   </si>
   <si>
     <t xml:space="preserve">5.36969661712646</t>
@@ -1802,22 +1805,22 @@
     <t xml:space="preserve">5.55052089691162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41686820983887</t>
+    <t xml:space="preserve">5.41686773300171</t>
   </si>
   <si>
     <t xml:space="preserve">5.57410717010498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68417406082153</t>
+    <t xml:space="preserve">5.68417453765869</t>
   </si>
   <si>
     <t xml:space="preserve">5.63700246810913</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71562194824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66058826446533</t>
+    <t xml:space="preserve">5.71562099456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66058778762817</t>
   </si>
   <si>
     <t xml:space="preserve">5.72348403930664</t>
@@ -1826,34 +1829,34 @@
     <t xml:space="preserve">5.67631196975708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18733644485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14802742004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42319536209106</t>
+    <t xml:space="preserve">6.18733787536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14802837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42319488525391</t>
   </si>
   <si>
     <t xml:space="preserve">6.53326225280762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10085582733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740476608276</t>
+    <t xml:space="preserve">6.1008563041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740428924561</t>
   </si>
   <si>
     <t xml:space="preserve">6.08513212203979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.108717918396</t>
+    <t xml:space="preserve">6.10871839523315</t>
   </si>
   <si>
     <t xml:space="preserve">6.2030611038208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3288516998291</t>
+    <t xml:space="preserve">6.32885217666626</t>
   </si>
   <si>
     <t xml:space="preserve">6.30526638031006</t>
@@ -1868,28 +1871,28 @@
     <t xml:space="preserve">6.16375160217285</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26595687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51753807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39174747467041</t>
+    <t xml:space="preserve">6.26595640182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51753854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39174699783325</t>
   </si>
   <si>
     <t xml:space="preserve">6.45464277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44678020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34457588195801</t>
+    <t xml:space="preserve">6.44678068161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34457540512085</t>
   </si>
   <si>
     <t xml:space="preserve">6.32098960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33671426773071</t>
+    <t xml:space="preserve">6.33671379089355</t>
   </si>
   <si>
     <t xml:space="preserve">6.01437520980835</t>
@@ -1898,7 +1901,7 @@
     <t xml:space="preserve">6.2738184928894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97506475448608</t>
+    <t xml:space="preserve">5.97506523132324</t>
   </si>
   <si>
     <t xml:space="preserve">6.0065131187439</t>
@@ -1919,22 +1922,22 @@
     <t xml:space="preserve">5.82568883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74286413192749</t>
+    <t xml:space="preserve">5.74286365509033</t>
   </si>
   <si>
     <t xml:space="preserve">5.56185674667358</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59476757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7346363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61944961547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008409500122</t>
+    <t xml:space="preserve">5.59476709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73463582992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61945009231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008457183838</t>
   </si>
   <si>
     <t xml:space="preserve">5.6441330909729</t>
@@ -1943,13 +1946,13 @@
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52894592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54540157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249122619629</t>
+    <t xml:space="preserve">5.52894639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54540109634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249170303345</t>
   </si>
   <si>
     <t xml:space="preserve">5.39730501174927</t>
@@ -1958,7 +1961,7 @@
     <t xml:space="preserve">5.31502914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24920845031738</t>
+    <t xml:space="preserve">5.24920797348022</t>
   </si>
   <si>
     <t xml:space="preserve">5.42198801040649</t>
@@ -1970,7 +1973,7 @@
     <t xml:space="preserve">5.60299491882324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55362939834595</t>
+    <t xml:space="preserve">5.55362892150879</t>
   </si>
   <si>
     <t xml:space="preserve">5.3726224899292</t>
@@ -1982,55 +1985,52 @@
     <t xml:space="preserve">5.34793901443481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30680084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36439418792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43021535873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71818161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72640943527222</t>
+    <t xml:space="preserve">5.3643946647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43021488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71818113327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7264084815979</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98969268798828</t>
+    <t xml:space="preserve">5.98969221115112</t>
   </si>
   <si>
     <t xml:space="preserve">5.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91564321517944</t>
+    <t xml:space="preserve">5.9156436920166</t>
   </si>
   <si>
     <t xml:space="preserve">5.83336782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78400182723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75931978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75109148025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62767791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57831192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58653926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4548978805542</t>
+    <t xml:space="preserve">5.78400230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75931930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75109100341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62767744064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57831239700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58653974533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45489835739136</t>
   </si>
   <si>
     <t xml:space="preserve">5.03529071807861</t>
@@ -2039,25 +2039,25 @@
     <t xml:space="preserve">4.93655967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9530143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909664154053</t>
+    <t xml:space="preserve">4.95301389694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909711837769</t>
   </si>
   <si>
     <t xml:space="preserve">5.21629762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05997371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87073850631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94478750228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90364933013916</t>
+    <t xml:space="preserve">5.05997323989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8707389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94478702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.903648853302</t>
   </si>
   <si>
     <t xml:space="preserve">4.86251068115234</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">4.85428333282471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9118766784668</t>
+    <t xml:space="preserve">4.91187620162964</t>
   </si>
   <si>
     <t xml:space="preserve">5.14224910736084</t>
@@ -2081,19 +2081,19 @@
     <t xml:space="preserve">5.48780870437622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27389097213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29034662246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40553283691406</t>
+    <t xml:space="preserve">5.27389049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29034566879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4055323600769</t>
   </si>
   <si>
     <t xml:space="preserve">5.47958087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47135353088379</t>
+    <t xml:space="preserve">5.47135305404663</t>
   </si>
   <si>
     <t xml:space="preserve">5.41375970840454</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">5.33148431777954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38085031509399</t>
+    <t xml:space="preserve">5.38084936141968</t>
   </si>
   <si>
     <t xml:space="preserve">5.26566362380981</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971166610718</t>
+    <t xml:space="preserve">5.33971118927002</t>
   </si>
   <si>
     <t xml:space="preserve">5.4466700553894</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">5.6852707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69349813461304</t>
+    <t xml:space="preserve">5.69349908828735</t>
   </si>
   <si>
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04728507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70995426177979</t>
+    <t xml:space="preserve">6.0472846031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92387056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70995378494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.67704343795776</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">5.65236043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61122226715088</t>
+    <t xml:space="preserve">5.61122274398804</t>
   </si>
   <si>
     <t xml:space="preserve">5.63590526580811</t>
@@ -2174,31 +2174,31 @@
     <t xml:space="preserve">5.49603605270386</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22452545166016</t>
+    <t xml:space="preserve">5.224524974823</t>
   </si>
   <si>
     <t xml:space="preserve">5.07642841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13402128219604</t>
+    <t xml:space="preserve">5.1340217590332</t>
   </si>
   <si>
     <t xml:space="preserve">5.10933876037598</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16693258285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11756610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23275327682495</t>
+    <t xml:space="preserve">5.16693210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11756658554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23275279998779</t>
   </si>
   <si>
     <t xml:space="preserve">4.79668998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77200746536255</t>
+    <t xml:space="preserve">4.77200698852539</t>
   </si>
   <si>
     <t xml:space="preserve">4.80491781234741</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">4.60745525360107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36062717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467617034912</t>
+    <t xml:space="preserve">4.3606276512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467569351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.31948947906494</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">4.03152370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81760597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42268085479736</t>
+    <t xml:space="preserve">3.81760549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42268061637878</t>
   </si>
   <si>
     <t xml:space="preserve">3.45559120178223</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">3.04421162605286</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24990177154541</t>
+    <t xml:space="preserve">3.24990153312683</t>
   </si>
   <si>
     <t xml:space="preserve">3.20876359939575</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">3.09357714653015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15117025375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29103946685791</t>
+    <t xml:space="preserve">3.15117049217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29103970527649</t>
   </si>
   <si>
     <t xml:space="preserve">3.17996668815613</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">3.37331533432007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41445350646973</t>
+    <t xml:space="preserve">3.41445374488831</t>
   </si>
   <si>
     <t xml:space="preserve">3.38154339790344</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">3.39799857139587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53375363349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50495743751526</t>
+    <t xml:space="preserve">3.5337541103363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50495719909668</t>
   </si>
   <si>
     <t xml:space="preserve">3.62837100028992</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">3.77646803855896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53786754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419145584106</t>
+    <t xml:space="preserve">3.5378680229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419169425964</t>
   </si>
   <si>
     <t xml:space="preserve">3.71887493133545</t>
@@ -2294,37 +2294,37 @@
     <t xml:space="preserve">3.90810942649841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99861359596252</t>
+    <t xml:space="preserve">3.99861288070679</t>
   </si>
   <si>
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5498628616333</t>
+    <t xml:space="preserve">4.54986238479614</t>
   </si>
   <si>
     <t xml:space="preserve">4.54163503646851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53340721130371</t>
+    <t xml:space="preserve">4.53340768814087</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36885452270508</t>
+    <t xml:space="preserve">4.36885499954224</t>
   </si>
   <si>
     <t xml:space="preserve">4.27835083007812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42644882202148</t>
+    <t xml:space="preserve">4.42644834518433</t>
   </si>
   <si>
     <t xml:space="preserve">4.41822052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46758651733398</t>
+    <t xml:space="preserve">4.46758556365967</t>
   </si>
   <si>
     <t xml:space="preserve">4.4017653465271</t>
@@ -2333,40 +2333,40 @@
     <t xml:space="preserve">3.91633725166321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98215842247009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02329540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03563690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88342690467834</t>
+    <t xml:space="preserve">3.98215770721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02329587936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03563737869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88342618942261</t>
   </si>
   <si>
     <t xml:space="preserve">4.0191822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06443405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99038577079773</t>
+    <t xml:space="preserve">4.06443357467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99038553237915</t>
   </si>
   <si>
     <t xml:space="preserve">4.01095485687256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05209255218506</t>
+    <t xml:space="preserve">4.05209302902222</t>
   </si>
   <si>
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92867851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17961978912354</t>
+    <t xml:space="preserve">3.9286789894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872421264648</t>
@@ -2375,28 +2375,28 @@
     <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10968542098999</t>
+    <t xml:space="preserve">4.10968589782715</t>
   </si>
   <si>
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721361160278</t>
+    <t xml:space="preserve">4.23721408843994</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417247772217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35239934921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21253108978271</t>
+    <t xml:space="preserve">4.3523998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21253061294556</t>
   </si>
   <si>
     <t xml:space="preserve">4.14670991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13848209381104</t>
+    <t xml:space="preserve">4.13848257064819</t>
   </si>
   <si>
     <t xml:space="preserve">4.0808892250061</t>
@@ -2408,34 +2408,34 @@
     <t xml:space="preserve">4.27012348175049</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22898578643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08500289916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12202739715576</t>
+    <t xml:space="preserve">4.22898626327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08500337600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1220269203186</t>
   </si>
   <si>
     <t xml:space="preserve">4.10557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04797887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05620622634888</t>
+    <t xml:space="preserve">4.0479793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05620670318604</t>
   </si>
   <si>
     <t xml:space="preserve">4.01506853103638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07266139984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09734439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10145807266235</t>
+    <t xml:space="preserve">4.07266092300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09734392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10145854949951</t>
   </si>
   <si>
     <t xml:space="preserve">3.9657027721405</t>
@@ -2447,106 +2447,106 @@
     <t xml:space="preserve">3.93279242515564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99449920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07677507400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16316509246826</t>
+    <t xml:space="preserve">3.99449944496155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07677555084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1631646156311</t>
   </si>
   <si>
     <t xml:space="preserve">4.22075843811035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13025522232056</t>
+    <t xml:space="preserve">4.13025426864624</t>
   </si>
   <si>
     <t xml:space="preserve">3.94924759864807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94513320922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583355903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85051584243774</t>
+    <t xml:space="preserve">3.94513368606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82583332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8505163192749</t>
   </si>
   <si>
     <t xml:space="preserve">3.84640264511108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80937814712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7394437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74355792999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824045181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128182411194</t>
+    <t xml:space="preserve">3.80937838554382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73944354057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7435576915741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76824021339417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66128134727478</t>
   </si>
   <si>
     <t xml:space="preserve">3.65305399894714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61191558837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027443885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672961235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57077813148499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59134650230408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60780215263367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63659906387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66539573669434</t>
+    <t xml:space="preserve">3.61191534996033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027467727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672937393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57077789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59134697914124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60780239105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63659882545471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.72710275650024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73121619224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67362284660339</t>
+    <t xml:space="preserve">3.7312159538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67362308502197</t>
   </si>
   <si>
     <t xml:space="preserve">3.68596434593201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54609537124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60368824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59546041488647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63248515129089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6201434135437</t>
+    <t xml:space="preserve">3.54609513282776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60368847846985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59546065330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63248491287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62014365196228</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749464035034</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">3.36508798599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33217787742615</t>
+    <t xml:space="preserve">3.33217763900757</t>
   </si>
   <si>
     <t xml:space="preserve">3.70241928100586</t>
@@ -2564,13 +2564,13 @@
     <t xml:space="preserve">3.70653319358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71064734458923</t>
+    <t xml:space="preserve">3.71064758300781</t>
   </si>
   <si>
     <t xml:space="preserve">4.31126165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19607496261597</t>
+    <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
     <t xml:space="preserve">4.40999317169189</t>
@@ -2582,25 +2582,25 @@
     <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26189613342285</t>
+    <t xml:space="preserve">4.26189565658569</t>
   </si>
   <si>
     <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45935916900635</t>
+    <t xml:space="preserve">4.45935821533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.45113086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61568260192871</t>
+    <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
     <t xml:space="preserve">4.57454490661621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92833185195923</t>
+    <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.99415302276611</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">4.97769737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00237989425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01060771942139</t>
+    <t xml:space="preserve">5.00238037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01060819625854</t>
   </si>
   <si>
     <t xml:space="preserve">4.96946954727173</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">4.92010402679443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04351854324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25743579864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24098062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19161415100098</t>
+    <t xml:space="preserve">5.04351806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25743532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19161510467529</t>
   </si>
   <si>
     <t xml:space="preserve">5.10111093521118</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">5.08465576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15870475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18338680267334</t>
+    <t xml:space="preserve">5.15870428085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18338775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
@@ -2660,16 +2660,16 @@
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8745059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90741586685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9979190826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97323703765869</t>
+    <t xml:space="preserve">5.87450551986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90741634368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99792003631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.94855403900146</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">5.94032621383667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0061469078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07196855545044</t>
+    <t xml:space="preserve">6.00614786148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
     <t xml:space="preserve">6.38461685180664</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">6.45043754577637</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35170555114746</t>
+    <t xml:space="preserve">6.35170602798462</t>
   </si>
   <si>
     <t xml:space="preserve">6.26943016052246</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">6.33525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45446252822876</t>
+    <t xml:space="preserve">6.45446300506592</t>
   </si>
   <si>
     <t xml:space="preserve">6.30119037628174</t>
@@ -2711,16 +2711,16 @@
     <t xml:space="preserve">6.42040252685547</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81209754943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77803802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74397659301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57367372512817</t>
+    <t xml:space="preserve">6.81209802627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77803754806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74397706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57367420196533</t>
   </si>
   <si>
     <t xml:space="preserve">6.72694683074951</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7610068321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30597448348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49330759048462</t>
+    <t xml:space="preserve">6.76100730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30597496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49330854415894</t>
   </si>
   <si>
     <t xml:space="preserve">7.79985237121582</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">8.39591026306152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22560787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25966930389404</t>
+    <t xml:space="preserve">8.22560691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25966835021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.17451763153076</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">8.85572624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60027408599854</t>
+    <t xml:space="preserve">8.60027503967285</t>
   </si>
   <si>
     <t xml:space="preserve">8.64284896850586</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">8.46403217315674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36184978485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76579189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61251831054688</t>
+    <t xml:space="preserve">8.36185073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76579141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61251878738403</t>
   </si>
   <si>
     <t xml:space="preserve">7.85094308853149</t>
@@ -2813,19 +2813,19 @@
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00421524047852</t>
+    <t xml:space="preserve">8.00421619415283</t>
   </si>
   <si>
     <t xml:space="preserve">7.83391237258911</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66360950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5784592628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270185470581</t>
+    <t xml:space="preserve">7.66361045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57845830917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270233154297</t>
   </si>
   <si>
     <t xml:space="preserve">7.51033782958984</t>
@@ -2834,13 +2834,13 @@
     <t xml:space="preserve">7.59548854827881</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7487621307373</t>
+    <t xml:space="preserve">7.74876117706299</t>
   </si>
   <si>
     <t xml:space="preserve">8.08936595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98718452453613</t>
+    <t xml:space="preserve">7.98718547821045</t>
   </si>
   <si>
     <t xml:space="preserve">8.03827571868896</t>
@@ -2852,13 +2852,13 @@
     <t xml:space="preserve">8.12342643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77057647705078</t>
+    <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
     <t xml:space="preserve">8.55769824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40921020507812</t>
+    <t xml:space="preserve">9.40920925140381</t>
   </si>
   <si>
     <t xml:space="preserve">9.2814826965332</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">8.89830303192139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72800064086914</t>
+    <t xml:space="preserve">8.72799968719482</t>
   </si>
   <si>
     <t xml:space="preserve">8.4810619354248</t>
@@ -2906,40 +2906,40 @@
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95539665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623920440674</t>
+    <t xml:space="preserve">9.69225788116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.955397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623910903931</t>
   </si>
   <si>
     <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0431098937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99925231933594</t>
+    <t xml:space="preserve">10.0431089401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99925327301025</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185354232788</t>
+    <t xml:space="preserve">10.2185344696045</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939599990845</t>
+    <t xml:space="preserve">10.3939609527588</t>
   </si>
   <si>
     <t xml:space="preserve">9.7799711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73611545562744</t>
+    <t xml:space="preserve">9.73611450195312</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.77127456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03441333770752</t>
+    <t xml:space="preserve">9.0344123840332</t>
   </si>
   <si>
     <t xml:space="preserve">9.64840126037598</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5168342590332</t>
+    <t xml:space="preserve">9.82382774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51683330535889</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055671691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94669914245605</t>
+    <t xml:space="preserve">8.99055576324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94670009613037</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61339092254639</t>
+    <t xml:space="preserve">8.6133918762207</t>
   </si>
   <si>
     <t xml:space="preserve">8.71864700317383</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">7.47312641143799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42049837112427</t>
+    <t xml:space="preserve">7.42049789428711</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940252304077</t>
+    <t xml:space="preserve">7.99940204620361</t>
   </si>
   <si>
     <t xml:space="preserve">8.38533878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4905948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43796634674072</t>
+    <t xml:space="preserve">8.49059391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43796539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">8.81513118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50813674926758</t>
+    <t xml:space="preserve">8.50813579559326</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028434753418</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">8.26254177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07834339141846</t>
+    <t xml:space="preserve">8.07834434509277</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
@@ -3080,19 +3080,19 @@
     <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30639839172363</t>
+    <t xml:space="preserve">8.30639743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98186063766479</t>
+    <t xml:space="preserve">7.98185968399048</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1835994720459</t>
+    <t xml:space="preserve">8.18359851837158</t>
   </si>
   <si>
     <t xml:space="preserve">8.17482757568359</t>
@@ -20659,7 +20659,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20685,7 +20685,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G630" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20711,7 +20711,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G631" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20737,7 +20737,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G632" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20763,7 +20763,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20789,7 +20789,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G634" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20815,7 +20815,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G635" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20867,7 +20867,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G637" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20893,7 +20893,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G638" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20919,7 +20919,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G639" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20945,7 +20945,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G640" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20971,7 +20971,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G641" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20997,7 +20997,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21023,7 +21023,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21049,7 +21049,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G644" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21075,7 +21075,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G645" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21101,7 +21101,7 @@
         <v>7.5</v>
       </c>
       <c r="G646" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>7.5</v>
       </c>
       <c r="G647" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21153,7 +21153,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G648" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21205,7 +21205,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21231,7 +21231,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G651" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21257,7 +21257,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G652" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21283,7 +21283,7 @@
         <v>7.25</v>
       </c>
       <c r="G653" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21309,7 +21309,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21335,7 +21335,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21361,7 +21361,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21387,7 +21387,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G657" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21413,7 +21413,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21439,7 +21439,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G659" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21491,7 +21491,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G661" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21517,7 +21517,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G662" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21543,7 +21543,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G663" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21569,7 +21569,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G664" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21595,7 +21595,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21621,7 +21621,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G666" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21647,7 +21647,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21673,7 +21673,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G668" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21699,7 +21699,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G669" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21725,7 +21725,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G670" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21751,7 +21751,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G671" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21777,7 +21777,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21803,7 +21803,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21829,7 +21829,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G674" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21855,7 +21855,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G675" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21881,7 +21881,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21907,7 +21907,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21933,7 +21933,7 @@
         <v>6.75</v>
       </c>
       <c r="G678" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21959,7 +21959,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G679" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21985,7 +21985,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G680" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22011,7 +22011,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22037,7 +22037,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G682" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22063,7 +22063,7 @@
         <v>6.5</v>
       </c>
       <c r="G683" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22089,7 +22089,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G684" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22115,7 +22115,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G685" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22141,7 +22141,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G687" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22193,7 +22193,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G688" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22219,7 +22219,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G689" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22245,7 +22245,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G690" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22271,7 +22271,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G691" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22297,7 +22297,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22323,7 +22323,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22349,7 +22349,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G694" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G695" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22401,7 +22401,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G696" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G697" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22453,7 +22453,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G698" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22479,7 +22479,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22505,7 +22505,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G700" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22531,7 +22531,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G701" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22557,7 +22557,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G702" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22583,7 +22583,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G703" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
         <v>8</v>
       </c>
       <c r="G704" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G706" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G707" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22713,7 +22713,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G710" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22791,7 +22791,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G711" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22817,7 +22817,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22843,7 +22843,7 @@
         <v>6.75</v>
       </c>
       <c r="G713" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G714" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22895,7 +22895,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G715" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G716" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22947,7 +22947,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G717" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22973,7 +22973,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G718" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22999,7 +22999,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G719" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23025,7 +23025,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G720" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23051,7 +23051,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G721" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23077,7 +23077,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G722" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23103,7 +23103,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G723" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23129,7 +23129,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G724" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23155,7 +23155,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G725" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23181,7 +23181,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G726" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23207,7 +23207,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G727" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23233,7 +23233,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23259,7 +23259,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G729" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23311,7 +23311,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23337,7 +23337,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G732" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23363,7 +23363,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G733" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23389,7 +23389,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G734" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23415,7 +23415,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G735" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23441,7 +23441,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G736" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23467,7 +23467,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23493,7 +23493,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G738" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23519,7 +23519,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G739" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23545,7 +23545,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G740" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23571,7 +23571,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G741" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23597,7 +23597,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23623,7 +23623,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G743" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23649,7 +23649,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G744" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23675,7 +23675,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23701,7 +23701,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G746" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23727,7 +23727,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G747" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23753,7 +23753,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G748" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23779,7 +23779,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G749" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23805,7 +23805,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G750" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23831,7 +23831,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23857,7 +23857,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G752" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23883,7 +23883,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G753" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23909,7 +23909,7 @@
         <v>7</v>
       </c>
       <c r="G754" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23935,7 +23935,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G755" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23961,7 +23961,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23987,7 +23987,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G757" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24013,7 +24013,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24039,7 +24039,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G759" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24065,7 +24065,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G760" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24091,7 +24091,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G761" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24117,7 +24117,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G762" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24143,7 +24143,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24169,7 +24169,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G764" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24195,7 +24195,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G765" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24221,7 +24221,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24247,7 +24247,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G767" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24273,7 +24273,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G768" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24299,7 +24299,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24325,7 +24325,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24351,7 +24351,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G771" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24377,7 +24377,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24403,7 +24403,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G773" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24429,7 +24429,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G774" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24455,7 +24455,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G775" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24481,7 +24481,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G776" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24507,7 +24507,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G777" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24533,7 +24533,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G778" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24559,7 +24559,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24585,7 +24585,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G780" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24689,7 +24689,7 @@
         <v>8</v>
       </c>
       <c r="G784" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24741,7 +24741,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G786" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24767,7 +24767,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G787" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24793,7 +24793,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24819,7 +24819,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G789" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24871,7 +24871,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G791" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24897,7 +24897,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24923,7 +24923,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G793" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24975,7 +24975,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G795" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25001,7 +25001,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G796" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25027,7 +25027,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G797" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25079,7 +25079,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G799" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25157,7 +25157,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G802" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25183,7 +25183,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25235,7 +25235,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25261,7 +25261,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G806" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25287,7 +25287,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G807" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25313,7 +25313,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G808" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25365,7 +25365,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25391,7 +25391,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G811" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25417,7 +25417,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25443,7 +25443,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G813" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25469,7 +25469,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G814" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25521,7 +25521,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G816" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G817" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25573,7 +25573,7 @@
         <v>8</v>
       </c>
       <c r="G818" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25599,7 +25599,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G819" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25703,7 +25703,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G823" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25729,7 +25729,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25755,7 +25755,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25781,7 +25781,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G826" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25859,7 +25859,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25911,7 +25911,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G831" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25937,7 +25937,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25963,7 +25963,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G833" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25989,7 +25989,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G834" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26015,7 +26015,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G835" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26067,7 +26067,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26093,7 +26093,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G838" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26119,7 +26119,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G839" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26145,7 +26145,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26171,7 +26171,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26197,7 +26197,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G842" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26223,7 +26223,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G843" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26249,7 +26249,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G844" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26275,7 +26275,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G845" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26301,7 +26301,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G846" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26327,7 +26327,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G847" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26353,7 +26353,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G848" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26379,7 +26379,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G849" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26405,7 +26405,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26431,7 +26431,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26457,7 +26457,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G852" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26483,7 +26483,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G853" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26509,7 +26509,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26535,7 +26535,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G855" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26561,7 +26561,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G856" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26587,7 +26587,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G857" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26613,7 +26613,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G858" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26639,7 +26639,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G859" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26665,7 +26665,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G860" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26691,7 +26691,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26717,7 +26717,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G862" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26743,7 +26743,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G863" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26769,7 +26769,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G864" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26795,7 +26795,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G865" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26821,7 +26821,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G866" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26847,7 +26847,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G867" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26873,7 +26873,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G868" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26899,7 +26899,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G869" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26925,7 +26925,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G870" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26951,7 +26951,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G871" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26977,7 +26977,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G872" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27003,7 +27003,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G873" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27029,7 +27029,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G874" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27055,7 +27055,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G875" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27081,7 +27081,7 @@
         <v>6.75</v>
       </c>
       <c r="G876" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27107,7 +27107,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G877" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27133,7 +27133,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G878" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27159,7 +27159,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G879" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27185,7 +27185,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G880" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27211,7 +27211,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G881" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27237,7 +27237,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G882" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27263,7 +27263,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27289,7 +27289,7 @@
         <v>6.5</v>
       </c>
       <c r="G884" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27315,7 +27315,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>656</v>
+        <v>537</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27367,7 +27367,7 @@
         <v>6.5</v>
       </c>
       <c r="G887" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27419,7 +27419,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27705,7 +27705,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27783,7 +27783,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G903" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27809,7 +27809,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G904" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27861,7 +27861,7 @@
         <v>6.75</v>
       </c>
       <c r="G906" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27939,7 +27939,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G909" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27965,7 +27965,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G910" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28017,7 +28017,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G912" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28043,7 +28043,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G913" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28069,7 +28069,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G914" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28797,7 +28797,7 @@
         <v>6.75</v>
       </c>
       <c r="G942" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28849,7 +28849,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G944" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29031,7 +29031,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G951" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29057,7 +29057,7 @@
         <v>6.5</v>
       </c>
       <c r="G952" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29265,7 +29265,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G960" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29343,7 +29343,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G963" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29395,7 +29395,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G965" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30435,7 +30435,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30513,7 +30513,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1008" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30591,7 +30591,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1011" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30617,7 +30617,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1012" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30747,7 +30747,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1017" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30799,7 +30799,7 @@
         <v>6.75</v>
       </c>
       <c r="G1019" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30825,7 +30825,7 @@
         <v>6.75</v>
       </c>
       <c r="G1020" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30851,7 +30851,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30903,7 +30903,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30929,7 +30929,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1024" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30955,7 +30955,7 @@
         <v>6.75</v>
       </c>
       <c r="G1025" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30981,7 +30981,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1026" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31007,7 +31007,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1027" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31033,7 +31033,7 @@
         <v>6.75</v>
       </c>
       <c r="G1028" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31111,7 +31111,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1031" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31137,7 +31137,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G1032" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31215,7 +31215,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1035" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31527,7 +31527,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31631,7 +31631,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1051" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -38079,7 +38079,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1299" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38105,7 +38105,7 @@
         <v>6.5</v>
       </c>
       <c r="G1300" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38131,7 +38131,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1301" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38157,7 +38157,7 @@
         <v>6.5</v>
       </c>
       <c r="G1302" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38625,7 +38625,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1320" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38651,7 +38651,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1321" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39275,7 +39275,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1345" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -60603,7 +60603,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6430555556</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>8383</v>
@@ -60624,6 +60624,32 @@
         <v>1319</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6136342593</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>7855</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>8.64000034332275</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>8.68000030517578</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25140869617462</t>
+    <t xml:space="preserve">1.2514089345932</t>
   </si>
   <si>
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346634864807</t>
+    <t xml:space="preserve">1.27346646785736</t>
   </si>
   <si>
     <t xml:space="preserve">1.28596580028534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26611387729645</t>
+    <t xml:space="preserve">1.26611411571503</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258322715759</t>
@@ -59,40 +59,40 @@
     <t xml:space="preserve">1.31169998645782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3256698846817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33596348762512</t>
+    <t xml:space="preserve">1.32566964626312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33596360683441</t>
   </si>
   <si>
     <t xml:space="preserve">1.32346415519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30875873565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25214385986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302733898163</t>
+    <t xml:space="preserve">1.30875897407532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758444309235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25214409828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302745819092</t>
   </si>
   <si>
     <t xml:space="preserve">1.25729072093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30728816986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29552412033081</t>
+    <t xml:space="preserve">1.307288646698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29552435874939</t>
   </si>
   <si>
     <t xml:space="preserve">1.27493703365326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2411150932312</t>
+    <t xml:space="preserve">1.24111521244049</t>
   </si>
   <si>
     <t xml:space="preserve">1.23817420005798</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">1.23449790477753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18008875846863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376493453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15729582309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1396496295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06612372398376</t>
+    <t xml:space="preserve">1.18008887767792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376505374908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15729570388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13964951038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06612384319305</t>
   </si>
   <si>
     <t xml:space="preserve">1.07568216323853</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">1.07347643375397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09479880332947</t>
+    <t xml:space="preserve">1.09479904174805</t>
   </si>
   <si>
     <t xml:space="preserve">1.15067851543427</t>
@@ -140,43 +140,43 @@
     <t xml:space="preserve">1.1653835773468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14700198173523</t>
+    <t xml:space="preserve">1.14700210094452</t>
   </si>
   <si>
     <t xml:space="preserve">1.17641246318817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18597090244293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21317529678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15435469150543</t>
+    <t xml:space="preserve">1.18597078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21317541599274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
     <t xml:space="preserve">1.18744122982025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16170740127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18817663192749</t>
+    <t xml:space="preserve">1.16170728206635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18817675113678</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20582270622253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2367035150528</t>
+    <t xml:space="preserve">1.20582294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23670363426208</t>
   </si>
   <si>
     <t xml:space="preserve">1.22788047790527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2425856590271</t>
+    <t xml:space="preserve">1.24258577823639</t>
   </si>
   <si>
     <t xml:space="preserve">1.22861576080322</t>
@@ -185,25 +185,25 @@
     <t xml:space="preserve">1.22052788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28670120239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30655300617218</t>
+    <t xml:space="preserve">1.28670108318329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30655312538147</t>
   </si>
   <si>
     <t xml:space="preserve">1.30214154720306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26464343070984</t>
+    <t xml:space="preserve">1.26464354991913</t>
   </si>
   <si>
     <t xml:space="preserve">1.2499383687973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28743636608124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28228950500488</t>
+    <t xml:space="preserve">1.28743648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28228974342346</t>
   </si>
   <si>
     <t xml:space="preserve">1.30581796169281</t>
@@ -215,64 +215,64 @@
     <t xml:space="preserve">1.25067353248596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25655543804169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317286491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2624374628067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29920041561127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2940536737442</t>
+    <t xml:space="preserve">1.25655555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317298412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26243770122528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29920053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29405379295349</t>
   </si>
   <si>
     <t xml:space="preserve">1.25876128673553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28523063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27861344814301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27934861183167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28964221477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27199590206146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28302478790283</t>
+    <t xml:space="preserve">1.28523051738739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27861332893372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27934873104095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2896420955658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27199602127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28302502632141</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581541061401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36022710800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33816921710968</t>
+    <t xml:space="preserve">1.36022698879242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33816909790039</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34478652477264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949425697327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2984653711319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26831960678101</t>
+    <t xml:space="preserve">1.34478640556335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949413776398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29846525192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2683197259903</t>
   </si>
   <si>
     <t xml:space="preserve">1.21170485019684</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">1.19773495197296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17420649528503</t>
+    <t xml:space="preserve">1.1742068529129</t>
   </si>
   <si>
     <t xml:space="preserve">1.17567718029022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1925882101059</t>
+    <t xml:space="preserve">1.19258809089661</t>
   </si>
   <si>
     <t xml:space="preserve">1.20288181304932</t>
@@ -296,37 +296,37 @@
     <t xml:space="preserve">1.19847023487091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12494432926178</t>
+    <t xml:space="preserve">1.12494444847107</t>
   </si>
   <si>
     <t xml:space="preserve">1.13817918300629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11759173870087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12347376346588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13597321510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13229691982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023938655853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15582537651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15803098678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920794963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17494213581085</t>
+    <t xml:space="preserve">1.11759185791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12347400188446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13597333431244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1322968006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023950576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15582525730133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15803110599518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920806884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17494201660156</t>
   </si>
   <si>
     <t xml:space="preserve">1.15361952781677</t>
@@ -335,34 +335,34 @@
     <t xml:space="preserve">1.16758942604065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2139105796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169512271881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5602171421051</t>
+    <t xml:space="preserve">1.21391069889069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169500350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56021702289581</t>
   </si>
   <si>
     <t xml:space="preserve">1.56168758869171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52345418930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48522078990936</t>
+    <t xml:space="preserve">1.52345430850983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48522067070007</t>
   </si>
   <si>
     <t xml:space="preserve">1.52933621406555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47051572799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54257094860077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50874924659729</t>
+    <t xml:space="preserve">1.47051560878754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54257082939148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50874900817871</t>
   </si>
   <si>
     <t xml:space="preserve">1.49404406547546</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49992609024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48669135570526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49257326126099</t>
+    <t xml:space="preserve">1.49992597103119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48669123649597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49257338047028</t>
   </si>
   <si>
     <t xml:space="preserve">1.48816180229187</t>
@@ -386,88 +386,88 @@
     <t xml:space="preserve">1.48080921173096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49845540523529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55433511734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77785348892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550223350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961243629456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666923046112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078987598419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931907176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020243167877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.816086769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80138194561005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490737438202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372797966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608214378357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314077377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078696727753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92931640148163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93519878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92049360275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90431773662567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91902267932892</t>
+    <t xml:space="preserve">1.49845552444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5543349981308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77785336971283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550199508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961255550385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666899204254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078939914703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931871414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020219326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81608688831329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80138170719147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490773200989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372774124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608190536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91314089298248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92931663990021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93519842624664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92049324512482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90431761741638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9190229177475</t>
   </si>
   <si>
     <t xml:space="preserve">1.90137672424316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9234344959259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93961000442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96166777610779</t>
+    <t xml:space="preserve">1.92343437671661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93960988521576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9616676568985</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401416778564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489242553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12930679321289</t>
+    <t xml:space="preserve">2.17489218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12930655479431</t>
   </si>
   <si>
     <t xml:space="preserve">2.19106817245483</t>
@@ -476,37 +476,37 @@
     <t xml:space="preserve">2.14107084274292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13077735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11901307106018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842562675476</t>
+    <t xml:space="preserve">2.09695506095886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13077712059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1190128326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842586517334</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19695043563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27782869338989</t>
+    <t xml:space="preserve">2.19694995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27782893180847</t>
   </si>
   <si>
     <t xml:space="preserve">2.26606440544128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08813214302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97637283802032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06901526451111</t>
+    <t xml:space="preserve">2.08813190460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97637295722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06901550292969</t>
   </si>
   <si>
     <t xml:space="preserve">2.04989910125732</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136699676514</t>
+    <t xml:space="preserve">2.10136675834656</t>
   </si>
   <si>
     <t xml:space="preserve">2.08225011825562</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">2.01460647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578598976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019756793976</t>
+    <t xml:space="preserve">1.95578587055206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019744873047</t>
   </si>
   <si>
     <t xml:space="preserve">1.97196161746979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94843339920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87784850597382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549469947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696016311646</t>
+    <t xml:space="preserve">1.94843327999115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87784814834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549458026886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696004390717</t>
   </si>
   <si>
     <t xml:space="preserve">1.99254870414734</t>
@@ -557,97 +557,97 @@
     <t xml:space="preserve">2.00431275367737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09548497200012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08666133880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08372068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813481330872</t>
+    <t xml:space="preserve">2.09548449516296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08666205406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08372116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813457489014</t>
   </si>
   <si>
     <t xml:space="preserve">2.05431008338928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05872178077698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06019258499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06754469871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06313347816467</t>
+    <t xml:space="preserve">2.05872201919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06019234657288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06754493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06313300132751</t>
   </si>
   <si>
     <t xml:space="preserve">2.10283732414246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17636299133301</t>
+    <t xml:space="preserve">2.17636322975159</t>
   </si>
   <si>
     <t xml:space="preserve">2.29694533348083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2719464302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23812484741211</t>
+    <t xml:space="preserve">2.27194666862488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23812437057495</t>
   </si>
   <si>
     <t xml:space="preserve">2.16606950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1998918056488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047877311707</t>
+    <t xml:space="preserve">2.19989132881165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047901153564</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753764152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988865852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23518347740173</t>
+    <t xml:space="preserve">2.21753787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23518371582031</t>
   </si>
   <si>
     <t xml:space="preserve">2.25430035591125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23959541320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24694752693176</t>
+    <t xml:space="preserve">2.23959517478943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
     <t xml:space="preserve">2.25871181488037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24253606796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606707572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20136189460754</t>
+    <t xml:space="preserve">2.2425365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606683731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20136165618896</t>
   </si>
   <si>
     <t xml:space="preserve">2.2234194278717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20577335357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22194957733154</t>
+    <t xml:space="preserve">2.20577359199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22194910049438</t>
   </si>
   <si>
     <t xml:space="preserve">2.35282492637634</t>
@@ -656,166 +656,166 @@
     <t xml:space="preserve">2.61163592338562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61016488075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61604714393616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60575342178345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5866367816925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52193427085876</t>
+    <t xml:space="preserve">2.61016511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61604738235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60575366020203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58663702011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52193403244019</t>
   </si>
   <si>
     <t xml:space="preserve">2.64545774459839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60281252861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5881073474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56457901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56016778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59840083122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57634329795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61751747131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59545969963074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7866268157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8528003692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83809518814087</t>
+    <t xml:space="preserve">2.60281276702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58810758590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56457948684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56016802787781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59840106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57634305953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61751794815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5954601764679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78662729263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85280060768127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83809471130371</t>
   </si>
   <si>
     <t xml:space="preserve">2.98808813095093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92632627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39983248710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55129551887512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217353820801</t>
+    <t xml:space="preserve">2.92632651329041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454472541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39983224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55129528045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217377662659</t>
   </si>
   <si>
     <t xml:space="preserve">3.89319038391113</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75716757774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8748083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.841721534729</t>
+    <t xml:space="preserve">3.75716781616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480878829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84172201156616</t>
   </si>
   <si>
     <t xml:space="preserve">3.87848496437073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97039198875427</t>
+    <t xml:space="preserve">3.97039222717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.14685392379761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26449489593506</t>
+    <t xml:space="preserve">4.26449537277222</t>
   </si>
   <si>
     <t xml:space="preserve">4.40051794052124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37478351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31596326828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23140907287598</t>
+    <t xml:space="preserve">4.37478399276733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31596374511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23140859603882</t>
   </si>
   <si>
     <t xml:space="preserve">4.5218358039856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51815986633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77917575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92990350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177381515503</t>
+    <t xml:space="preserve">4.51815891265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77917623519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92990303039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177333831787</t>
   </si>
   <si>
     <t xml:space="preserve">5.02916288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35267686843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26444578170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71662950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71295261383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0585241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71290445327759</t>
+    <t xml:space="preserve">5.35267639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26444482803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71662998199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71295309066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05852365493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71290397644043</t>
   </si>
   <si>
     <t xml:space="preserve">7.09523820877075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81584072113037</t>
+    <t xml:space="preserve">6.81583976745605</t>
   </si>
   <si>
     <t xml:space="preserve">7.04376983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44389820098877</t>
+    <t xml:space="preserve">7.44389867782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.32310438156128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11926698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67006540298462</t>
+    <t xml:space="preserve">7.11926603317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67006587982178</t>
   </si>
   <si>
     <t xml:space="preserve">6.85503005981445</t>
@@ -824,73 +824,73 @@
     <t xml:space="preserve">6.66629028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37185621261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63609266281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83238172531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71913719177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245145797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397396087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68893957138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085922241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63986682891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337919235229</t>
+    <t xml:space="preserve">6.37185573577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63609218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238124847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7191367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245241165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397348403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68893909454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085874557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6398663520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337871551514</t>
   </si>
   <si>
     <t xml:space="preserve">6.23218870162964</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25483751296997</t>
+    <t xml:space="preserve">6.25483703613281</t>
   </si>
   <si>
     <t xml:space="preserve">6.14159393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19821643829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18689107894897</t>
+    <t xml:space="preserve">6.1982159614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18689060211182</t>
   </si>
   <si>
     <t xml:space="preserve">6.03589963912964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97550344467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9830527305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63199615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11484956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.435706615448</t>
+    <t xml:space="preserve">5.97550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98305177688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63199663162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11484909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43570613861084</t>
   </si>
   <si>
     <t xml:space="preserve">5.22431802749634</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">5.20921850204468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08465099334717</t>
+    <t xml:space="preserve">5.08465051651001</t>
   </si>
   <si>
     <t xml:space="preserve">5.11862373352051</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">5.15259695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93365812301636</t>
+    <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
     <t xml:space="preserve">5.16769599914551</t>
@@ -917,46 +917,46 @@
     <t xml:space="preserve">5.00538015365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92233467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836145401001</t>
+    <t xml:space="preserve">4.92233419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836097717285</t>
   </si>
   <si>
     <t xml:space="preserve">4.91855955123901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06200170516968</t>
+    <t xml:space="preserve">5.06200122833252</t>
   </si>
   <si>
     <t xml:space="preserve">4.77511692047119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73359489440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71471977233887</t>
+    <t xml:space="preserve">4.73359441757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71472072601318</t>
   </si>
   <si>
     <t xml:space="preserve">4.6580982208252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59770202636719</t>
+    <t xml:space="preserve">4.59770250320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.60147619247437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68452167510986</t>
+    <t xml:space="preserve">4.68452119827271</t>
   </si>
   <si>
     <t xml:space="preserve">5.2847146987915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09597444534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04690217971802</t>
+    <t xml:space="preserve">5.09597492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04690313339233</t>
   </si>
   <si>
     <t xml:space="preserve">5.00160551071167</t>
@@ -977,37 +977,37 @@
     <t xml:space="preserve">4.85816287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89213609695435</t>
+    <t xml:space="preserve">4.89213562011719</t>
   </si>
   <si>
     <t xml:space="preserve">4.90346050262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98273038864136</t>
+    <t xml:space="preserve">4.98273134231567</t>
   </si>
   <si>
     <t xml:space="preserve">4.99405527114868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19789457321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06955146789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31491327285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39795923233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.367760181427</t>
+    <t xml:space="preserve">5.19789409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06955194473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31491279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39795875549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36776065826416</t>
   </si>
   <si>
     <t xml:space="preserve">5.45080614089966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36021041870117</t>
+    <t xml:space="preserve">5.36021089553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.17902040481567</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">5.24319219589233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14882135391235</t>
+    <t xml:space="preserve">5.14882230758667</t>
   </si>
   <si>
     <t xml:space="preserve">5.16392087936401</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">5.13372325897217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3035888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33001184463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26584053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20166873931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19034481048584</t>
+    <t xml:space="preserve">5.30358839035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33001232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26584100723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20166921615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.190345287323</t>
   </si>
   <si>
     <t xml:space="preserve">5.41305780410767</t>
@@ -1058,10 +1058,10 @@
     <t xml:space="preserve">6.19066572189331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06232309341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33410882949829</t>
+    <t xml:space="preserve">6.06232261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33410835266113</t>
   </si>
   <si>
     <t xml:space="preserve">6.24351406097412</t>
@@ -1070,139 +1070,139 @@
     <t xml:space="preserve">6.48510026931763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84748125076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38350200653076</t>
+    <t xml:space="preserve">6.51529884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84747982025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38350105285645</t>
   </si>
   <si>
     <t xml:space="preserve">7.2362847328186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46654796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48919630050659</t>
+    <t xml:space="preserve">7.46654748916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48919582366943</t>
   </si>
   <si>
     <t xml:space="preserve">8.07806301116943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53104019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85567188262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39924240112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75407314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7204208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84057235717773</t>
+    <t xml:space="preserve">8.53103923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85567092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39924430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75407218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7204217910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84057331085205</t>
   </si>
   <si>
     <t xml:space="preserve">9.04441165924072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62918472290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41024589538574</t>
+    <t xml:space="preserve">8.62918376922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41024684906006</t>
   </si>
   <si>
     <t xml:space="preserve">8.19130802154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73487854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50084114074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38004875183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27435302734375</t>
+    <t xml:space="preserve">8.73487949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38759613037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50084209442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38004779815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27435398101807</t>
   </si>
   <si>
     <t xml:space="preserve">8.11581230163574</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77608060836792</t>
+    <t xml:space="preserve">7.7760796546936</t>
   </si>
   <si>
     <t xml:space="preserve">7.91952228546143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82137775421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687490463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64428329467773</t>
+    <t xml:space="preserve">7.84402656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82137727737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687395095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75343179702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64428424835205</t>
   </si>
   <si>
     <t xml:space="preserve">8.2290563583374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34984874725342</t>
+    <t xml:space="preserve">8.34984970092773</t>
   </si>
   <si>
     <t xml:space="preserve">8.23660564422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44044494628906</t>
+    <t xml:space="preserve">8.44044399261475</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24415397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13091087341309</t>
+    <t xml:space="preserve">8.24415493011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
     <t xml:space="preserve">7.94972085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79117918014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5495924949646</t>
+    <t xml:space="preserve">7.79118061065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54959297180176</t>
   </si>
   <si>
     <t xml:space="preserve">7.30800628662109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57224178314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31932973861694</t>
+    <t xml:space="preserve">7.57224082946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3193302154541</t>
   </si>
   <si>
     <t xml:space="preserve">7.56469202041626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55714225769043</t>
+    <t xml:space="preserve">7.55714273452759</t>
   </si>
   <si>
     <t xml:space="preserve">7.92707252502441</t>
@@ -1211,67 +1211,67 @@
     <t xml:space="preserve">8.0327672958374</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60999011993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60244035720825</t>
+    <t xml:space="preserve">7.60998868942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60243892669678</t>
   </si>
   <si>
     <t xml:space="preserve">7.54204320907593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45522212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330295562744</t>
+    <t xml:space="preserve">7.45522308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330390930176</t>
   </si>
   <si>
     <t xml:space="preserve">7.24005937576294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29668092727661</t>
+    <t xml:space="preserve">7.29668045043945</t>
   </si>
   <si>
     <t xml:space="preserve">7.51184463500977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25893354415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19476222991943</t>
+    <t xml:space="preserve">7.25893306732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19476127624512</t>
   </si>
   <si>
     <t xml:space="preserve">7.23251056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12304162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045604705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780818939209</t>
+    <t xml:space="preserve">7.1230411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045557022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780771255493</t>
   </si>
   <si>
     <t xml:space="preserve">7.32687997817993</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5156192779541</t>
+    <t xml:space="preserve">7.51562023162842</t>
   </si>
   <si>
     <t xml:space="preserve">7.49297094345093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36840295791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058441162109</t>
+    <t xml:space="preserve">7.3684024810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058536529541</t>
   </si>
   <si>
     <t xml:space="preserve">8.21395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66693115234375</t>
+    <t xml:space="preserve">8.66693210601807</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123828887939</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">8.28945255279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1988582611084</t>
+    <t xml:space="preserve">8.19885730743408</t>
   </si>
   <si>
     <t xml:space="preserve">8.04786491394043</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">8.15355968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01766681671143</t>
+    <t xml:space="preserve">8.01766777038574</t>
   </si>
   <si>
     <t xml:space="preserve">8.16865921020508</t>
@@ -1301,127 +1301,127 @@
     <t xml:space="preserve">7.85157537460327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12681484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89277839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9682731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973243713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88522911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93052625656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87767887115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59834432601929</t>
+    <t xml:space="preserve">7.12681531906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151721954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89277791976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96827363967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317459106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88522863388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93052673339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87767839431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
     <t xml:space="preserve">6.50019884109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900882720947</t>
+    <t xml:space="preserve">6.31900930404663</t>
   </si>
   <si>
     <t xml:space="preserve">6.16801691055298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15291690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814622879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57569551467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76443529129028</t>
+    <t xml:space="preserve">6.15291786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814575195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5756950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
     <t xml:space="preserve">6.78708362579346</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00602245330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83993148803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953433990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60589361190796</t>
+    <t xml:space="preserve">7.00602149963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83993101119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953290939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6058931350708</t>
   </si>
   <si>
     <t xml:space="preserve">6.40205430984497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43980264663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22086429595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2284140586853</t>
+    <t xml:space="preserve">6.4398021697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22086381912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22841358184814</t>
   </si>
   <si>
     <t xml:space="preserve">6.18311595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08497190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26616191864014</t>
+    <t xml:space="preserve">6.0849723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26616144180298</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28881072998047</t>
+    <t xml:space="preserve">6.28881120681763</t>
   </si>
   <si>
     <t xml:space="preserve">6.47755002975464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49265050888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56059503555298</t>
+    <t xml:space="preserve">6.49265003204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56059551239014</t>
   </si>
   <si>
     <t xml:space="preserve">6.53039789199829</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42470407485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324432373047</t>
+    <t xml:space="preserve">6.42470359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324480056763</t>
   </si>
   <si>
     <t xml:space="preserve">6.62099361419678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61344337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6511926651001</t>
+    <t xml:space="preserve">6.61344289779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119075775146</t>
   </si>
   <si>
     <t xml:space="preserve">6.91063451766968</t>
@@ -1430,37 +1430,37 @@
     <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484296798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66691398620605</t>
+    <t xml:space="preserve">6.78484392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6669135093689</t>
   </si>
   <si>
     <t xml:space="preserve">6.61974382400513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91849660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72981071472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47822904586792</t>
+    <t xml:space="preserve">6.91849613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72981119155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4782280921936</t>
   </si>
   <si>
     <t xml:space="preserve">6.39960956573486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19519948959351</t>
+    <t xml:space="preserve">6.19519901275635</t>
   </si>
   <si>
     <t xml:space="preserve">6.2502326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23450899124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1558895111084</t>
+    <t xml:space="preserve">6.2345085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15588998794556</t>
   </si>
   <si>
     <t xml:space="preserve">6.24237060546875</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">6.13230419158936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87285947799683</t>
+    <t xml:space="preserve">5.87285995483398</t>
   </si>
   <si>
     <t xml:space="preserve">5.75493097305298</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">5.88072204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83354997634888</t>
+    <t xml:space="preserve">5.83355093002319</t>
   </si>
   <si>
     <t xml:space="preserve">6.1794753074646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09299421310425</t>
+    <t xml:space="preserve">6.09299373626709</t>
   </si>
   <si>
     <t xml:space="preserve">5.92003154754639</t>
@@ -1496,34 +1496,31 @@
     <t xml:space="preserve">6.04582262039185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17161321640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21878433227539</t>
+    <t xml:space="preserve">6.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21878480911255</t>
   </si>
   <si>
     <t xml:space="preserve">6.64332866668701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87918710708618</t>
+    <t xml:space="preserve">6.87918663024902</t>
   </si>
   <si>
     <t xml:space="preserve">6.77698230743408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65119171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61188173294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43105697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36030006408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06154680252075</t>
+    <t xml:space="preserve">6.61188125610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43105745315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36029958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06154632568359</t>
   </si>
   <si>
     <t xml:space="preserve">6.05368423461914</t>
@@ -1532,19 +1529,19 @@
     <t xml:space="preserve">5.98292684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94361782073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84927415847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03796052932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940889358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934057235718</t>
+    <t xml:space="preserve">5.94361734390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84927463531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03796005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940793991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934152603149</t>
   </si>
   <si>
     <t xml:space="preserve">5.90430784225464</t>
@@ -1553,7 +1550,7 @@
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575572967529</t>
+    <t xml:space="preserve">5.93575525283813</t>
   </si>
   <si>
     <t xml:space="preserve">5.81782674789429</t>
@@ -1565,49 +1562,49 @@
     <t xml:space="preserve">5.77851676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80996465682983</t>
+    <t xml:space="preserve">5.80996417999268</t>
   </si>
   <si>
     <t xml:space="preserve">5.69989776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73920774459839</t>
+    <t xml:space="preserve">5.73920726776123</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54265880584717</t>
+    <t xml:space="preserve">5.54265975952148</t>
   </si>
   <si>
     <t xml:space="preserve">5.69203567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76279354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78637886047363</t>
+    <t xml:space="preserve">5.76279306411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78637933731079</t>
   </si>
   <si>
     <t xml:space="preserve">5.62914037704468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53479671478271</t>
+    <t xml:space="preserve">5.53479719161987</t>
   </si>
   <si>
     <t xml:space="preserve">5.44045448303223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46403932571411</t>
+    <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
     <t xml:space="preserve">5.86499834060669</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03009939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74706935882568</t>
+    <t xml:space="preserve">6.0300989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74706983566284</t>
   </si>
   <si>
     <t xml:space="preserve">5.47190189361572</t>
@@ -1616,13 +1613,13 @@
     <t xml:space="preserve">5.39328289031982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34611082077026</t>
+    <t xml:space="preserve">5.34611129760742</t>
   </si>
   <si>
     <t xml:space="preserve">5.36183500289917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32252550125122</t>
+    <t xml:space="preserve">5.32252502441406</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
@@ -1631,19 +1628,19 @@
     <t xml:space="preserve">5.26749181747437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28321504592896</t>
+    <t xml:space="preserve">5.28321552276611</t>
   </si>
   <si>
     <t xml:space="preserve">5.17314863204956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11025285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96873903274536</t>
+    <t xml:space="preserve">5.11811590194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11025333404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9687385559082</t>
   </si>
   <si>
     <t xml:space="preserve">5.00804805755615</t>
@@ -1655,7 +1652,7 @@
     <t xml:space="preserve">5.12597703933716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99232339859009</t>
+    <t xml:space="preserve">4.99232387542725</t>
   </si>
   <si>
     <t xml:space="preserve">5.1023907661438</t>
@@ -1664,10 +1661,10 @@
     <t xml:space="preserve">5.15742492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14170122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0945291519165</t>
+    <t xml:space="preserve">5.14170074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09452867507935</t>
   </si>
   <si>
     <t xml:space="preserve">5.19673442840576</t>
@@ -1676,13 +1673,13 @@
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824872970581</t>
+    <t xml:space="preserve">5.33824920654297</t>
   </si>
   <si>
     <t xml:space="preserve">5.38542079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52540063858032</t>
+    <t xml:space="preserve">6.52539920806885</t>
   </si>
   <si>
     <t xml:space="preserve">6.56471014022827</t>
@@ -1694,7 +1691,7 @@
     <t xml:space="preserve">6.407470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28954219818115</t>
+    <t xml:space="preserve">6.28954267501831</t>
   </si>
   <si>
     <t xml:space="preserve">5.29107761383057</t>
@@ -1715,13 +1712,13 @@
     <t xml:space="preserve">5.13383913040161</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29893970489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20459651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0552191734314</t>
+    <t xml:space="preserve">5.29893922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20459604263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05521965026855</t>
   </si>
   <si>
     <t xml:space="preserve">5.03163385391235</t>
@@ -1730,25 +1727,25 @@
     <t xml:space="preserve">5.0237717628479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07094287872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22032070159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14956331253052</t>
+    <t xml:space="preserve">5.0709433555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22032022476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14956283569336</t>
   </si>
   <si>
     <t xml:space="preserve">5.00018644332886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69357061386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48129892349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59922790527344</t>
+    <t xml:space="preserve">4.69357109069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48129844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59922742843628</t>
   </si>
   <si>
     <t xml:space="preserve">4.53633260726929</t>
@@ -1760,10 +1757,10 @@
     <t xml:space="preserve">4.37123155593872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51274585723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52847051620483</t>
+    <t xml:space="preserve">4.51274633407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52847003936768</t>
   </si>
   <si>
     <t xml:space="preserve">4.68570899963379</t>
@@ -1775,22 +1772,22 @@
     <t xml:space="preserve">4.945152759552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35397291183472</t>
+    <t xml:space="preserve">5.35397243499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.33038711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18101119995117</t>
+    <t xml:space="preserve">5.18101072311401</t>
   </si>
   <si>
     <t xml:space="preserve">5.25963020324707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50334930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47976350784302</t>
+    <t xml:space="preserve">5.50334978103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47976398468018</t>
   </si>
   <si>
     <t xml:space="preserve">5.51907300949097</t>
@@ -1799,25 +1796,25 @@
     <t xml:space="preserve">5.45617771148682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36969661712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55052089691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41686773300171</t>
+    <t xml:space="preserve">5.36969614028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55052137374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41686820983887</t>
   </si>
   <si>
     <t xml:space="preserve">5.57410717010498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68417453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63700246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71562099456787</t>
+    <t xml:space="preserve">5.68417406082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71562194824219</t>
   </si>
   <si>
     <t xml:space="preserve">5.66058778762817</t>
@@ -1829,10 +1826,10 @@
     <t xml:space="preserve">5.67631196975708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18733787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14802837371826</t>
+    <t xml:space="preserve">6.18733739852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1480278968811</t>
   </si>
   <si>
     <t xml:space="preserve">6.42319488525391</t>
@@ -1841,19 +1838,19 @@
     <t xml:space="preserve">6.53326225280762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1008563041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29740428924561</t>
+    <t xml:space="preserve">6.10085582733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29740476608276</t>
   </si>
   <si>
     <t xml:space="preserve">6.08513212203979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10871839523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2030611038208</t>
+    <t xml:space="preserve">6.108717918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20306062698364</t>
   </si>
   <si>
     <t xml:space="preserve">6.32885217666626</t>
@@ -1862,10 +1859,10 @@
     <t xml:space="preserve">6.30526638031006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21092319488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1244421005249</t>
+    <t xml:space="preserve">6.2109227180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12444162368774</t>
   </si>
   <si>
     <t xml:space="preserve">6.16375160217285</t>
@@ -1877,7 +1874,7 @@
     <t xml:space="preserve">6.51753854751587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39174699783325</t>
+    <t xml:space="preserve">6.39174747467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.45464277267456</t>
@@ -1892,13 +1889,13 @@
     <t xml:space="preserve">6.32098960876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33671379089355</t>
+    <t xml:space="preserve">6.33671426773071</t>
   </si>
   <si>
     <t xml:space="preserve">6.01437520980835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2738184928894</t>
+    <t xml:space="preserve">6.27381896972656</t>
   </si>
   <si>
     <t xml:space="preserve">5.97506523132324</t>
@@ -1913,7 +1910,7 @@
     <t xml:space="preserve">5.77065515518188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73134517669678</t>
+    <t xml:space="preserve">5.73134565353394</t>
   </si>
   <si>
     <t xml:space="preserve">6.02223634719849</t>
@@ -1925,43 +1922,46 @@
     <t xml:space="preserve">5.74286365509033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56185674667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59476709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73463582992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61945009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57008457183838</t>
+    <t xml:space="preserve">5.56185722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59476757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7346363067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61944961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57008409500122</t>
   </si>
   <si>
     <t xml:space="preserve">5.6441330909729</t>
   </si>
   <si>
+    <t xml:space="preserve">5.66058826446533</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.50426387786865</t>
   </si>
   <si>
     <t xml:space="preserve">5.52894639968872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54540109634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51249170303345</t>
+    <t xml:space="preserve">5.54540157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51249122619629</t>
   </si>
   <si>
     <t xml:space="preserve">5.39730501174927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31502914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24920797348022</t>
+    <t xml:space="preserve">5.31502866744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24920845031738</t>
   </si>
   <si>
     <t xml:space="preserve">5.42198801040649</t>
@@ -1976,25 +1976,25 @@
     <t xml:space="preserve">5.55362892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3726224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38907766342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34793901443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3643946647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43021488189697</t>
+    <t xml:space="preserve">5.37262201309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38907718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34793949127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36439418792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43021535873413</t>
   </si>
   <si>
     <t xml:space="preserve">5.71818113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7264084815979</t>
+    <t xml:space="preserve">5.72640895843506</t>
   </si>
   <si>
     <t xml:space="preserve">5.89096069335938</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">5.98969221115112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9567813873291</t>
+    <t xml:space="preserve">5.95678186416626</t>
   </si>
   <si>
     <t xml:space="preserve">5.9156436920166</t>
@@ -2012,46 +2012,46 @@
     <t xml:space="preserve">5.83336782455444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78400230407715</t>
+    <t xml:space="preserve">5.78400182723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.75931930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75109100341797</t>
+    <t xml:space="preserve">5.75109195709229</t>
   </si>
   <si>
     <t xml:space="preserve">5.62767744064331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57831239700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58653974533081</t>
+    <t xml:space="preserve">5.57831192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58654022216797</t>
   </si>
   <si>
     <t xml:space="preserve">5.45489835739136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03529071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93655967712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95301389694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73909711837769</t>
+    <t xml:space="preserve">5.0352897644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93655920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95301485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73909664154053</t>
   </si>
   <si>
     <t xml:space="preserve">5.21629762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05997323989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8707389831543</t>
+    <t xml:space="preserve">5.05997371673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87073802947998</t>
   </si>
   <si>
     <t xml:space="preserve">4.94478702545166</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">4.87896633148193</t>
   </si>
   <si>
-    <t xml:space="preserve">4.821373462677</t>
+    <t xml:space="preserve">4.82137298583984</t>
   </si>
   <si>
     <t xml:space="preserve">4.85428333282471</t>
@@ -2084,25 +2084,25 @@
     <t xml:space="preserve">5.27389049530029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29034566879272</t>
+    <t xml:space="preserve">5.29034614562988</t>
   </si>
   <si>
     <t xml:space="preserve">5.4055323600769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47958087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47135305404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41375970840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33148431777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38084936141968</t>
+    <t xml:space="preserve">5.47958040237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47135353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4137601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33148384094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38084983825684</t>
   </si>
   <si>
     <t xml:space="preserve">5.26566362380981</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">5.32325649261475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33971118927002</t>
+    <t xml:space="preserve">5.33971166610718</t>
   </si>
   <si>
     <t xml:space="preserve">5.4466700553894</t>
@@ -2138,22 +2138,22 @@
     <t xml:space="preserve">5.77577447891235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80868482589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6852707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69349908828735</t>
+    <t xml:space="preserve">5.80868530273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68527030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6934986114502</t>
   </si>
   <si>
     <t xml:space="preserve">6.12956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0472846031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92387056350708</t>
+    <t xml:space="preserve">6.04728555679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9238715171814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70995378494263</t>
@@ -2165,10 +2165,10 @@
     <t xml:space="preserve">5.65236043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61122274398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63590526580811</t>
+    <t xml:space="preserve">5.61122226715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63590574264526</t>
   </si>
   <si>
     <t xml:space="preserve">5.49603605270386</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">5.1340217590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10933876037598</t>
+    <t xml:space="preserve">5.10933828353882</t>
   </si>
   <si>
     <t xml:space="preserve">5.16693210601807</t>
@@ -2192,25 +2192,25 @@
     <t xml:space="preserve">5.11756658554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23275279998779</t>
+    <t xml:space="preserve">5.23275327682495</t>
   </si>
   <si>
     <t xml:space="preserve">4.79668998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77200698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80491781234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60745525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3606276512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43467569351196</t>
+    <t xml:space="preserve">4.77200794219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80491828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60745573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36062717437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43467617034912</t>
   </si>
   <si>
     <t xml:space="preserve">4.31948947906494</t>
@@ -2219,94 +2219,94 @@
     <t xml:space="preserve">4.03152370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81760549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42268061637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45559120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48850178718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04421162605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24990153312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20876359939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09357714653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15117049217224</t>
+    <t xml:space="preserve">3.81760597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42268109321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45559144020081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48850154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04421186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24990129470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20876383781433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09357690811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15117025375366</t>
   </si>
   <si>
     <t xml:space="preserve">3.29103970527649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17996668815613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37331533432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41445374488831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38154339790344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40211224555969</t>
+    <t xml:space="preserve">3.17996692657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37331557273865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41445350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38154315948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40211248397827</t>
   </si>
   <si>
     <t xml:space="preserve">3.40622591972351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39799857139587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5337541103363</t>
+    <t xml:space="preserve">3.39799833297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53375387191772</t>
   </si>
   <si>
     <t xml:space="preserve">3.50495719909668</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62837100028992</t>
+    <t xml:space="preserve">3.6283712387085</t>
   </si>
   <si>
     <t xml:space="preserve">3.77646803855896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5378680229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69419169425964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71887493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90810942649841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99861288070679</t>
+    <t xml:space="preserve">3.53786778450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69419145584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71887445449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90810966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99861311912537</t>
   </si>
   <si>
     <t xml:space="preserve">4.11379957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54986238479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54163503646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53340768814087</t>
+    <t xml:space="preserve">4.5498628616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54163455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53340721130371</t>
   </si>
   <si>
     <t xml:space="preserve">4.44290351867676</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">4.36885499954224</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27835083007812</t>
+    <t xml:space="preserve">4.27835130691528</t>
   </si>
   <si>
     <t xml:space="preserve">4.42644834518433</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">4.41822052001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46758556365967</t>
+    <t xml:space="preserve">4.46758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">4.4017653465271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91633725166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98215770721436</t>
+    <t xml:space="preserve">3.91633701324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98215818405151</t>
   </si>
   <si>
     <t xml:space="preserve">4.02329587936401</t>
@@ -2342,46 +2342,46 @@
     <t xml:space="preserve">4.03563737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88342618942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0191822052002</t>
+    <t xml:space="preserve">3.88342642784119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01918268203735</t>
   </si>
   <si>
     <t xml:space="preserve">4.06443357467651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99038553237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01095485687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05209302902222</t>
+    <t xml:space="preserve">3.99038505554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0109543800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05209255218506</t>
   </si>
   <si>
     <t xml:space="preserve">3.93690586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9286789894104</t>
+    <t xml:space="preserve">3.92867875099182</t>
   </si>
   <si>
     <t xml:space="preserve">4.17962026596069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50872421264648</t>
+    <t xml:space="preserve">4.50872468948364</t>
   </si>
   <si>
     <t xml:space="preserve">4.30303430557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10968589782715</t>
+    <t xml:space="preserve">4.10968542098999</t>
   </si>
   <si>
     <t xml:space="preserve">4.15493774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23721408843994</t>
+    <t xml:space="preserve">4.23721313476562</t>
   </si>
   <si>
     <t xml:space="preserve">4.34417247772217</t>
@@ -2402,16 +2402,16 @@
     <t xml:space="preserve">4.0808892250061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25366878509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27012348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22898626327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08500337600708</t>
+    <t xml:space="preserve">4.25366926193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27012395858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22898578643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08500289916992</t>
   </si>
   <si>
     <t xml:space="preserve">4.1220269203186</t>
@@ -2420,34 +2420,34 @@
     <t xml:space="preserve">4.10557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0479793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05620670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01506853103638</t>
+    <t xml:space="preserve">4.04797887802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05620622634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01506805419922</t>
   </si>
   <si>
     <t xml:space="preserve">4.07266092300415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09734392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10145854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9657027721405</t>
+    <t xml:space="preserve">4.09734439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10145807266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96570348739624</t>
   </si>
   <si>
     <t xml:space="preserve">3.94101977348328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93279242515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99449944496155</t>
+    <t xml:space="preserve">3.93279218673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99449920654297</t>
   </si>
   <si>
     <t xml:space="preserve">4.07677555084229</t>
@@ -2459,85 +2459,85 @@
     <t xml:space="preserve">4.22075843811035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94924759864807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94513368606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82583332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8505163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84640264511108</t>
+    <t xml:space="preserve">4.1302547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94924783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94513344764709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8258330821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85051655769348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84640312194824</t>
   </si>
   <si>
     <t xml:space="preserve">3.80937838554382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73944354057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7435576915741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76824021339417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66128134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65305399894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61191534996033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55432271957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48027467727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49672937393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57077789306641</t>
+    <t xml:space="preserve">3.7394437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74355792999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76823997497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6612811088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65305423736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61191582679749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55432295799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48027443885803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49672961235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57077813148499</t>
   </si>
   <si>
     <t xml:space="preserve">3.59134697914124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60780239105225</t>
+    <t xml:space="preserve">3.60780262947083</t>
   </si>
   <si>
     <t xml:space="preserve">3.63659882545471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66539525985718</t>
+    <t xml:space="preserve">3.66539549827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.72710275650024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7312159538269</t>
+    <t xml:space="preserve">3.73121619224548</t>
   </si>
   <si>
     <t xml:space="preserve">3.67362308502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68596434593201</t>
+    <t xml:space="preserve">3.68596458435059</t>
   </si>
   <si>
     <t xml:space="preserve">3.54609513282776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60368847846985</t>
+    <t xml:space="preserve">3.60368824005127</t>
   </si>
   <si>
     <t xml:space="preserve">3.59546065330505</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">3.63248491287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62014365196228</t>
+    <t xml:space="preserve">3.6201434135437</t>
   </si>
   <si>
     <t xml:space="preserve">3.30749464035034</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">3.36508798599243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33217763900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70241928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70653319358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71064758300781</t>
+    <t xml:space="preserve">3.33217787742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70241951942444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70653343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71064734458923</t>
   </si>
   <si>
     <t xml:space="preserve">4.31126165390015</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">4.19607543945312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40999317169189</t>
+    <t xml:space="preserve">4.40999269485474</t>
   </si>
   <si>
     <t xml:space="preserve">4.33594465255737</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">4.29480648040771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26189565658569</t>
+    <t xml:space="preserve">4.26189613342285</t>
   </si>
   <si>
     <t xml:space="preserve">4.50049638748169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45935821533203</t>
+    <t xml:space="preserve">4.45935869216919</t>
   </si>
   <si>
     <t xml:space="preserve">4.45113086700439</t>
@@ -2597,16 +2597,16 @@
     <t xml:space="preserve">4.61568307876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57454490661621</t>
+    <t xml:space="preserve">4.57454442977905</t>
   </si>
   <si>
     <t xml:space="preserve">4.92833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99415302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06820058822632</t>
+    <t xml:space="preserve">4.99415254592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06820106506348</t>
   </si>
   <si>
     <t xml:space="preserve">4.96124219894409</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">5.00238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01060819625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96946954727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92010402679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04351806640625</t>
+    <t xml:space="preserve">5.0106086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947002410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92010450363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04351854324341</t>
   </si>
   <si>
     <t xml:space="preserve">5.25743532180786</t>
@@ -2639,112 +2639,112 @@
     <t xml:space="preserve">5.19161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10111093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08465576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15870428085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18338775634766</t>
+    <t xml:space="preserve">5.10111141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08465671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15870475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1833872795105</t>
   </si>
   <si>
     <t xml:space="preserve">5.29857397079468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85805034637451</t>
+    <t xml:space="preserve">5.85804986953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.9650092124939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87450551986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90741634368896</t>
+    <t xml:space="preserve">5.8745059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90741539001465</t>
   </si>
   <si>
     <t xml:space="preserve">5.99792003631592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97323751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94855403900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94032621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00614786148071</t>
+    <t xml:space="preserve">5.97323703765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94855356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94032669067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00614738464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.07196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38461685180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48334836959839</t>
+    <t xml:space="preserve">6.3846173286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48334741592407</t>
   </si>
   <si>
     <t xml:space="preserve">6.45043754577637</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35170602798462</t>
+    <t xml:space="preserve">6.35170555114746</t>
   </si>
   <si>
     <t xml:space="preserve">6.26943016052246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33525133132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45446300506592</t>
+    <t xml:space="preserve">6.33525085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45446252822876</t>
   </si>
   <si>
     <t xml:space="preserve">6.30119037628174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42040252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81209802627563</t>
+    <t xml:space="preserve">6.42040205001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81209754943848</t>
   </si>
   <si>
     <t xml:space="preserve">6.77803754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74397706985474</t>
+    <t xml:space="preserve">6.74397754669189</t>
   </si>
   <si>
     <t xml:space="preserve">6.57367420196533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72694683074951</t>
+    <t xml:space="preserve">6.72694635391235</t>
   </si>
   <si>
     <t xml:space="preserve">6.70991659164429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76100730895996</t>
+    <t xml:space="preserve">6.76100778579712</t>
   </si>
   <si>
     <t xml:space="preserve">7.30597496032715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49330854415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79985237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39591026306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22560691833496</t>
+    <t xml:space="preserve">7.49330759048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7998514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39591121673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22560787200928</t>
   </si>
   <si>
     <t xml:space="preserve">8.25966835021973</t>
@@ -2762,34 +2762,34 @@
     <t xml:space="preserve">8.29372882843018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02602958679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06860446929932</t>
+    <t xml:space="preserve">9.02603054046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.068603515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.98345470428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85572624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60027503967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64284896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41294097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46403217315674</t>
+    <t xml:space="preserve">8.85572719573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60027408599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64284801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46403121948242</t>
   </si>
   <si>
     <t xml:space="preserve">8.36185073852539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76579141616821</t>
+    <t xml:space="preserve">7.76579189300537</t>
   </si>
   <si>
     <t xml:space="preserve">7.61251878738403</t>
@@ -2798,13 +2798,13 @@
     <t xml:space="preserve">7.85094308853149</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0212459564209</t>
+    <t xml:space="preserve">8.02124500274658</t>
   </si>
   <si>
     <t xml:space="preserve">7.93609380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07233619689941</t>
+    <t xml:space="preserve">8.0723352432251</t>
   </si>
   <si>
     <t xml:space="preserve">8.10639667510986</t>
@@ -2813,73 +2813,73 @@
     <t xml:space="preserve">8.14045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00421619415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83391237258911</t>
+    <t xml:space="preserve">8.00421524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83391189575195</t>
   </si>
   <si>
     <t xml:space="preserve">7.66361045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57845830917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15270233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51033782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59548854827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74876117706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08936595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98718547821045</t>
+    <t xml:space="preserve">7.57845878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15270280838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.510338306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59548902511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74876165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98718452453613</t>
   </si>
   <si>
     <t xml:space="preserve">8.03827571868896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90203380584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12342643737793</t>
+    <t xml:space="preserve">7.90203332901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12342739105225</t>
   </si>
   <si>
     <t xml:space="preserve">8.77057552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55769824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40920925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2814826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19633197784424</t>
+    <t xml:space="preserve">8.55769920349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40921115875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28148365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19633293151855</t>
   </si>
   <si>
     <t xml:space="preserve">8.94087886810303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81315135955811</t>
+    <t xml:space="preserve">8.81315231323242</t>
   </si>
   <si>
     <t xml:space="preserve">8.89830303192139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72799968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4810619354248</t>
+    <t xml:space="preserve">8.72800064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48106288909912</t>
   </si>
   <si>
     <t xml:space="preserve">8.51512241363525</t>
@@ -2891,13 +2891,13 @@
     <t xml:space="preserve">8.44700145721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49436187744141</t>
+    <t xml:space="preserve">9.49436092376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.87754249572754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62208938598633</t>
+    <t xml:space="preserve">9.62208843231201</t>
   </si>
   <si>
     <t xml:space="preserve">9.91154098510742</t>
@@ -2906,40 +2906,40 @@
     <t xml:space="preserve">9.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69225788116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.955397605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623910903931</t>
+    <t xml:space="preserve">9.69225883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95539665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623920440674</t>
   </si>
   <si>
     <t xml:space="preserve">10.0869655609131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0431089401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99925327301025</t>
+    <t xml:space="preserve">10.0431098937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99925231933594</t>
   </si>
   <si>
     <t xml:space="preserve">10.1746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185344696045</t>
+    <t xml:space="preserve">10.2185354232788</t>
   </si>
   <si>
     <t xml:space="preserve">10.1308221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939609527588</t>
+    <t xml:space="preserve">10.3939599990845</t>
   </si>
   <si>
     <t xml:space="preserve">9.7799711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73611450195312</t>
+    <t xml:space="preserve">9.73611545562744</t>
   </si>
   <si>
     <t xml:space="preserve">9.47297668457031</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.77127456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0344123840332</t>
+    <t xml:space="preserve">9.03441333770752</t>
   </si>
   <si>
     <t xml:space="preserve">9.64840126037598</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">9.56068897247314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82382774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51683330535889</t>
+    <t xml:space="preserve">9.82382678985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5168342590332</t>
   </si>
   <si>
     <t xml:space="preserve">9.38526344299316</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">9.25369548797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99055576324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94670009613037</t>
+    <t xml:space="preserve">8.99055671691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94669914245605</t>
   </si>
   <si>
     <t xml:space="preserve">9.16598224639893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6133918762207</t>
+    <t xml:space="preserve">8.61339092254639</t>
   </si>
   <si>
     <t xml:space="preserve">8.71864700317383</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">7.47312641143799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42049789428711</t>
+    <t xml:space="preserve">7.42049837112427</t>
   </si>
   <si>
     <t xml:space="preserve">7.4555835723877</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">8.19237041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99940204620361</t>
+    <t xml:space="preserve">7.99940252304077</t>
   </si>
   <si>
     <t xml:space="preserve">8.38533878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49059391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43796539306641</t>
+    <t xml:space="preserve">8.4905948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43796634674072</t>
   </si>
   <si>
     <t xml:space="preserve">8.68356132507324</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">8.81513118743896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50813579559326</t>
+    <t xml:space="preserve">8.50813674926758</t>
   </si>
   <si>
     <t xml:space="preserve">8.9028434753418</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">8.26254177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07834434509277</t>
+    <t xml:space="preserve">8.07834339141846</t>
   </si>
   <si>
     <t xml:space="preserve">8.35902404785156</t>
@@ -3080,19 +3080,19 @@
     <t xml:space="preserve">8.15728569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30639743804932</t>
+    <t xml:space="preserve">8.30639839172363</t>
   </si>
   <si>
     <t xml:space="preserve">8.16605663299561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98185968399048</t>
+    <t xml:space="preserve">7.98186063766479</t>
   </si>
   <si>
     <t xml:space="preserve">8.28885459899902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18359851837158</t>
+    <t xml:space="preserve">8.1835994720459</t>
   </si>
   <si>
     <t xml:space="preserve">8.17482757568359</t>
@@ -20659,7 +20659,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20685,7 +20685,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G630" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20711,7 +20711,7 @@
         <v>8.18000030517578</v>
       </c>
       <c r="G631" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20737,7 +20737,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G632" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20763,7 +20763,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20789,7 +20789,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G634" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20815,7 +20815,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G635" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20867,7 +20867,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G637" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20893,7 +20893,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G638" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20919,7 +20919,7 @@
         <v>7.6100001335144</v>
       </c>
       <c r="G639" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20945,7 +20945,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G640" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20971,7 +20971,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G641" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20997,7 +20997,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21023,7 +21023,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G643" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21049,7 +21049,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G644" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21075,7 +21075,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G645" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21101,7 +21101,7 @@
         <v>7.5</v>
       </c>
       <c r="G646" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>7.5</v>
       </c>
       <c r="G647" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21153,7 +21153,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G648" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21205,7 +21205,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G650" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21231,7 +21231,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G651" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21257,7 +21257,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G652" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21283,7 +21283,7 @@
         <v>7.25</v>
       </c>
       <c r="G653" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21309,7 +21309,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G654" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21335,7 +21335,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21361,7 +21361,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G656" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21387,7 +21387,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G657" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21413,7 +21413,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21439,7 +21439,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G659" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21491,7 +21491,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G661" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21517,7 +21517,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G662" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21543,7 +21543,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G663" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21569,7 +21569,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G664" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21595,7 +21595,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G665" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21621,7 +21621,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G666" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21647,7 +21647,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G667" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21673,7 +21673,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G668" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21699,7 +21699,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G669" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21725,7 +21725,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G670" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21751,7 +21751,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G671" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21777,7 +21777,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G672" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21803,7 +21803,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21829,7 +21829,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G674" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21855,7 +21855,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G675" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21881,7 +21881,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G676" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21907,7 +21907,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G677" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21933,7 +21933,7 @@
         <v>6.75</v>
       </c>
       <c r="G678" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21959,7 +21959,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G679" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21985,7 +21985,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G680" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22011,7 +22011,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22037,7 +22037,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G682" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22063,7 +22063,7 @@
         <v>6.5</v>
       </c>
       <c r="G683" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22089,7 +22089,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G684" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22115,7 +22115,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G685" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22141,7 +22141,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G687" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22193,7 +22193,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G688" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22219,7 +22219,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G689" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22245,7 +22245,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G690" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22271,7 +22271,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G691" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22297,7 +22297,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22323,7 +22323,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22349,7 +22349,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G694" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G695" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22401,7 +22401,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G696" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G697" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22453,7 +22453,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G698" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22479,7 +22479,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G699" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22505,7 +22505,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G700" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22531,7 +22531,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G701" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22557,7 +22557,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G702" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22583,7 +22583,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G703" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
         <v>8</v>
       </c>
       <c r="G704" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G706" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G707" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22713,7 +22713,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G708" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G710" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22791,7 +22791,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G711" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22817,7 +22817,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G712" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22843,7 +22843,7 @@
         <v>6.75</v>
       </c>
       <c r="G713" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G714" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22895,7 +22895,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G715" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G716" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22947,7 +22947,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G717" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22973,7 +22973,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G718" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22999,7 +22999,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G719" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23025,7 +23025,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G720" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23051,7 +23051,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G721" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23077,7 +23077,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G722" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23103,7 +23103,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G723" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23129,7 +23129,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G724" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23155,7 +23155,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G725" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23181,7 +23181,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G726" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23207,7 +23207,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G727" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23233,7 +23233,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23259,7 +23259,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G729" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23311,7 +23311,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23337,7 +23337,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G732" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23363,7 +23363,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G733" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23389,7 +23389,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G734" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23415,7 +23415,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G735" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23441,7 +23441,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G736" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23467,7 +23467,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G737" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23493,7 +23493,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G738" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23519,7 +23519,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G739" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23545,7 +23545,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G740" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23571,7 +23571,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G741" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23597,7 +23597,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G742" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23623,7 +23623,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G743" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23649,7 +23649,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G744" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23675,7 +23675,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G745" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23701,7 +23701,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G746" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23727,7 +23727,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G747" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23753,7 +23753,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G748" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23779,7 +23779,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G749" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23805,7 +23805,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G750" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23831,7 +23831,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23857,7 +23857,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G752" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23883,7 +23883,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G753" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23909,7 +23909,7 @@
         <v>7</v>
       </c>
       <c r="G754" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23935,7 +23935,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G755" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23961,7 +23961,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23987,7 +23987,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G757" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24013,7 +24013,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24039,7 +24039,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G759" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24065,7 +24065,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G760" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24091,7 +24091,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G761" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24117,7 +24117,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G762" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24143,7 +24143,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24169,7 +24169,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G764" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24195,7 +24195,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G765" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24221,7 +24221,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24247,7 +24247,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G767" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24273,7 +24273,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G768" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24299,7 +24299,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24325,7 +24325,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G770" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24351,7 +24351,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G771" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24377,7 +24377,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24403,7 +24403,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G773" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24429,7 +24429,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G774" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24455,7 +24455,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G775" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24481,7 +24481,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G776" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24507,7 +24507,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G777" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24533,7 +24533,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G778" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24559,7 +24559,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24585,7 +24585,7 @@
         <v>8.3100004196167</v>
       </c>
       <c r="G780" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24689,7 +24689,7 @@
         <v>8</v>
       </c>
       <c r="G784" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24741,7 +24741,7 @@
         <v>7.76000022888184</v>
       </c>
       <c r="G786" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24767,7 +24767,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G787" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24793,7 +24793,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24819,7 +24819,7 @@
         <v>8.01000022888184</v>
       </c>
       <c r="G789" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24871,7 +24871,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G791" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24897,7 +24897,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G792" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24923,7 +24923,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G793" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24975,7 +24975,7 @@
         <v>8.14999961853027</v>
       </c>
       <c r="G795" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25001,7 +25001,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G796" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25027,7 +25027,7 @@
         <v>8.02000045776367</v>
       </c>
       <c r="G797" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25079,7 +25079,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G799" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25157,7 +25157,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G802" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25183,7 +25183,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25235,7 +25235,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G805" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25261,7 +25261,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G806" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25287,7 +25287,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G807" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25313,7 +25313,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="G808" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25365,7 +25365,7 @@
         <v>8.28999996185303</v>
       </c>
       <c r="G810" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25391,7 +25391,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G811" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25417,7 +25417,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25443,7 +25443,7 @@
         <v>8.19999980926514</v>
       </c>
       <c r="G813" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25469,7 +25469,7 @@
         <v>8.06999969482422</v>
       </c>
       <c r="G814" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25521,7 +25521,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G816" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25547,7 +25547,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G817" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25573,7 +25573,7 @@
         <v>8</v>
       </c>
       <c r="G818" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25599,7 +25599,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G819" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25703,7 +25703,7 @@
         <v>7.67999982833862</v>
       </c>
       <c r="G823" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25729,7 +25729,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25755,7 +25755,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G825" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25781,7 +25781,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="G826" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25859,7 +25859,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G829" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25911,7 +25911,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G831" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25937,7 +25937,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25963,7 +25963,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G833" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25989,7 +25989,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G834" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26015,7 +26015,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G835" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26067,7 +26067,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26093,7 +26093,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G838" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26119,7 +26119,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G839" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26145,7 +26145,7 @@
         <v>7.57999992370605</v>
       </c>
       <c r="G840" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26171,7 +26171,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26197,7 +26197,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G842" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26223,7 +26223,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G843" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26249,7 +26249,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G844" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26275,7 +26275,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G845" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26301,7 +26301,7 @@
         <v>7.65999984741211</v>
       </c>
       <c r="G846" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26327,7 +26327,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G847" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26353,7 +26353,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G848" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26379,7 +26379,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G849" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26405,7 +26405,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G850" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26431,7 +26431,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26457,7 +26457,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G852" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26483,7 +26483,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G853" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26509,7 +26509,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26535,7 +26535,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G855" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26561,7 +26561,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G856" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26587,7 +26587,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G857" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26613,7 +26613,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G858" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26639,7 +26639,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G859" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26665,7 +26665,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G860" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26691,7 +26691,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G861" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27029,7 +27029,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G874" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27315,7 +27315,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G885" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27419,7 +27419,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27705,7 +27705,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27809,7 +27809,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G904" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27939,7 +27939,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G909" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28017,7 +28017,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G912" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -30435,7 +30435,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1005" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30513,7 +30513,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1008" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30747,7 +30747,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1017" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30851,7 +30851,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1021" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30903,7 +30903,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30929,7 +30929,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1024" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -39275,7 +39275,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1345" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -60629,7 +60629,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6136342593</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>7855</v>
@@ -60650,6 +60650,32 @@
         <v>1311</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6494560185</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>8.73999977111816</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>8.80000019073486</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GE.MI.xlsx
+++ b/data/GE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">GE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27346646785736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28596580028534</t>
+    <t xml:space="preserve">1.27346658706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28596591949463</t>
   </si>
   <si>
     <t xml:space="preserve">1.26611411571503</t>
@@ -56,34 +56,34 @@
     <t xml:space="preserve">1.29258322715759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31169998645782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32566964626312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33596360683441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32346415519714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30875897407532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26758444309235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25214409828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729072093964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.307288646698</t>
+    <t xml:space="preserve">1.31169986724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3256698846817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33596348762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32346391677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30875873565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26758420467377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25214397907257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23302721977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30728852748871</t>
   </si>
   <si>
     <t xml:space="preserve">1.29552435874939</t>
@@ -92,19 +92,19 @@
     <t xml:space="preserve">1.27493703365326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24111521244049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23817420005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23449790477753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18008887767792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18376505374908</t>
+    <t xml:space="preserve">1.2411150932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23817408084869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23449802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18008863925934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18376517295837</t>
   </si>
   <si>
     <t xml:space="preserve">1.15729570388794</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">1.06612384319305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07568216323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07053542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05141866207123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07347643375397</t>
+    <t xml:space="preserve">1.07568204402924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07053530216217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05141842365265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07347631454468</t>
   </si>
   <si>
     <t xml:space="preserve">1.09479904174805</t>
@@ -137,16 +137,16 @@
     <t xml:space="preserve">1.16832458972931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1653835773468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14700210094452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17641246318817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18597078323364</t>
+    <t xml:space="preserve">1.16538369655609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14700222015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17641270160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18597090244293</t>
   </si>
   <si>
     <t xml:space="preserve">1.21317541599274</t>
@@ -155,25 +155,25 @@
     <t xml:space="preserve">1.15435481071472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18744122982025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16170728206635</t>
+    <t xml:space="preserve">1.18744146823883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16170740127563</t>
   </si>
   <si>
     <t xml:space="preserve">1.18817675113678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20582294464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23670363426208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22788047790527</t>
+    <t xml:space="preserve">1.17347157001495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20582282543182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23670375347137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22788059711456</t>
   </si>
   <si>
     <t xml:space="preserve">1.24258577823639</t>
@@ -182,28 +182,28 @@
     <t xml:space="preserve">1.22861576080322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22052788734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28670108318329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30655312538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30214154720306</t>
+    <t xml:space="preserve">1.22052800655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28670132160187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30655300617218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30214166641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.26464354991913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2499383687973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28743648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28228974342346</t>
+    <t xml:space="preserve">1.24993813037872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28743660449982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28228950500488</t>
   </si>
   <si>
     <t xml:space="preserve">1.30581796169281</t>
@@ -212,34 +212,34 @@
     <t xml:space="preserve">1.23008632659912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25067353248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25655555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26317298412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26243770122528</t>
+    <t xml:space="preserve">1.25067341327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25655567646027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26317310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26243758201599</t>
   </si>
   <si>
     <t xml:space="preserve">1.29920053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29405379295349</t>
+    <t xml:space="preserve">1.2940536737442</t>
   </si>
   <si>
     <t xml:space="preserve">1.25876128673553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28523051738739</t>
+    <t xml:space="preserve">1.28523063659668</t>
   </si>
   <si>
     <t xml:space="preserve">1.27861332893372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27934873104095</t>
+    <t xml:space="preserve">1.27934837341309</t>
   </si>
   <si>
     <t xml:space="preserve">1.2896420955658</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">1.27199602127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28302502632141</t>
+    <t xml:space="preserve">1.28302490711212</t>
   </si>
   <si>
     <t xml:space="preserve">1.35581541061401</t>
@@ -257,19 +257,19 @@
     <t xml:space="preserve">1.36022698879242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33816909790039</t>
+    <t xml:space="preserve">1.33816921710968</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066866874695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34478640556335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30949413776398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29846525192261</t>
+    <t xml:space="preserve">1.34478652477264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30949425697327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2984653711319</t>
   </si>
   <si>
     <t xml:space="preserve">1.2683197259903</t>
@@ -281,25 +281,25 @@
     <t xml:space="preserve">1.19773495197296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1742068529129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17567718029022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258809089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20288181304932</t>
+    <t xml:space="preserve">1.17420661449432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17567729949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1925882101059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20288193225861</t>
   </si>
   <si>
     <t xml:space="preserve">1.19847023487091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12494444847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13817918300629</t>
+    <t xml:space="preserve">1.12494432926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.138179063797</t>
   </si>
   <si>
     <t xml:space="preserve">1.11759185791016</t>
@@ -311,67 +311,67 @@
     <t xml:space="preserve">1.13597333431244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1322968006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11023950576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15582525730133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15803110599518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14920806884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17494201660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15361952781677</t>
+    <t xml:space="preserve">1.13229703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11023914813995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15582537651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15803122520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14920794963837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17494189739227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15361940860748</t>
   </si>
   <si>
     <t xml:space="preserve">1.16758942604065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21391069889069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169500350952</t>
+    <t xml:space="preserve">1.2139105796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169488430023</t>
   </si>
   <si>
     <t xml:space="preserve">1.56021702289581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56168758869171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52345430850983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48522067070007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52933621406555</t>
+    <t xml:space="preserve">1.56168782711029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52345407009125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48522078990936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52933609485626</t>
   </si>
   <si>
     <t xml:space="preserve">1.47051560878754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54257082939148</t>
+    <t xml:space="preserve">1.54257094860077</t>
   </si>
   <si>
     <t xml:space="preserve">1.50874900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49404406547546</t>
+    <t xml:space="preserve">1.49404382705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.50727844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49992597103119</t>
+    <t xml:space="preserve">1.4999258518219</t>
   </si>
   <si>
     <t xml:space="preserve">1.48669123649597</t>
@@ -380,70 +380,70 @@
     <t xml:space="preserve">1.49257338047028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48816180229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48080921173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49845552444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5543349981308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77785336971283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74550199508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88961255550385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93666899204254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88078939914703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87931871414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86020219326019</t>
+    <t xml:space="preserve">1.48816156387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48080909252167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49845540523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55433511734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77785360813141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74550187587738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88961243629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93666911125183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88078951835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87931907176971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86020243167877</t>
   </si>
   <si>
     <t xml:space="preserve">1.81608688831329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80138170719147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87490773200989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372774124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608190536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91314089298248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93078708648682</t>
+    <t xml:space="preserve">1.80138146877289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87490749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93372821807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608202457428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91314101219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93078696727753</t>
   </si>
   <si>
     <t xml:space="preserve">1.92931663990021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93519842624664</t>
+    <t xml:space="preserve">1.93519878387451</t>
   </si>
   <si>
     <t xml:space="preserve">1.92049324512482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90431761741638</t>
+    <t xml:space="preserve">1.90431749820709</t>
   </si>
   <si>
     <t xml:space="preserve">1.9190229177475</t>
@@ -452,127 +452,127 @@
     <t xml:space="preserve">1.90137672424316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92343437671661</t>
+    <t xml:space="preserve">1.92343425750732</t>
   </si>
   <si>
     <t xml:space="preserve">1.93960988521576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9616676568985</t>
+    <t xml:space="preserve">1.96166777610779</t>
   </si>
   <si>
     <t xml:space="preserve">2.09401416778564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17489218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12930655479431</t>
+    <t xml:space="preserve">2.17489242553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12930679321289</t>
   </si>
   <si>
     <t xml:space="preserve">2.19106817245483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14107084274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09695506095886</t>
+    <t xml:space="preserve">2.14107060432434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09695529937744</t>
   </si>
   <si>
     <t xml:space="preserve">2.13077712059021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1190128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09842586517334</t>
+    <t xml:space="preserve">2.11901307106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09842562675476</t>
   </si>
   <si>
     <t xml:space="preserve">2.11166048049927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19694995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27782893180847</t>
+    <t xml:space="preserve">2.19695043563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27782845497131</t>
   </si>
   <si>
     <t xml:space="preserve">2.26606440544128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08813190460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97637295722961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06901550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04989910125732</t>
+    <t xml:space="preserve">2.08813214302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97637283802032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06901502609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04989886283875</t>
   </si>
   <si>
     <t xml:space="preserve">2.11607193946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10136675834656</t>
+    <t xml:space="preserve">2.10136699676514</t>
   </si>
   <si>
     <t xml:space="preserve">2.08225011825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07636785507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03519344329834</t>
+    <t xml:space="preserve">2.0763680934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03519368171692</t>
   </si>
   <si>
     <t xml:space="preserve">2.01460647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95578587055206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96019744873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97196161746979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94843327999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87784814834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549458026886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99696004390717</t>
+    <t xml:space="preserve">1.95578563213348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96019721031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9719614982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94843339920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8778487443924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549481868744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99696016311646</t>
   </si>
   <si>
     <t xml:space="preserve">1.99254870414734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431275367737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09548449516296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08666205406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08372116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03813457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05431008338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05872201919556</t>
+    <t xml:space="preserve">2.00431299209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09548497200012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08666181564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08372068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03813481330872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05431032180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05872178077698</t>
   </si>
   <si>
     <t xml:space="preserve">2.06019234657288</t>
@@ -581,76 +581,76 @@
     <t xml:space="preserve">2.06754493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06313300132751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10283732414246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17636322975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29694533348083</t>
+    <t xml:space="preserve">2.06313323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1028368473053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17636346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29694557189941</t>
   </si>
   <si>
     <t xml:space="preserve">2.27194666862488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23812437057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16606950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19989132881165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22047901153564</t>
+    <t xml:space="preserve">2.23812460899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16606974601746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19989156723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22047829627991</t>
   </si>
   <si>
     <t xml:space="preserve">2.19842076301575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21753787994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24988889694214</t>
+    <t xml:space="preserve">2.21753764152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24988865852356</t>
   </si>
   <si>
     <t xml:space="preserve">2.23518371582031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25430035591125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23959517478943</t>
+    <t xml:space="preserve">2.25430011749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23959493637085</t>
   </si>
   <si>
     <t xml:space="preserve">2.24694800376892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25871181488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2425365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21606683731079</t>
+    <t xml:space="preserve">2.25871205329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253606796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21606707572937</t>
   </si>
   <si>
     <t xml:space="preserve">2.20136165618896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2234194278717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20577359199524</t>
+    <t xml:space="preserve">2.22341966629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20577311515808</t>
   </si>
   <si>
     <t xml:space="preserve">2.22194910049438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35282492637634</t>
+    <t xml:space="preserve">2.3528254032135</t>
   </si>
   <si>
     <t xml:space="preserve">2.61163592338562</t>
@@ -662,85 +662,85 @@
     <t xml:space="preserve">2.61604738235474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60575366020203</t>
+    <t xml:space="preserve">2.60575342178345</t>
   </si>
   <si>
     <t xml:space="preserve">2.58663702011108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52193403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64545774459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60281276702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58810758590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56457948684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56016802787781</t>
+    <t xml:space="preserve">2.52193427085876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64545798301697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60281229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5881073474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56457901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56016778945923</t>
   </si>
   <si>
     <t xml:space="preserve">2.59840106964111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57634305953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61751794815063</t>
+    <t xml:space="preserve">2.57634329795837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61751747131348</t>
   </si>
   <si>
     <t xml:space="preserve">2.5954601764679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78662729263306</t>
+    <t xml:space="preserve">2.7866268157959</t>
   </si>
   <si>
     <t xml:space="preserve">2.85280060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83809471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98808813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92632651329041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26454472541809</t>
+    <t xml:space="preserve">2.83809518814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98808765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92632627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26454520225525</t>
   </si>
   <si>
     <t xml:space="preserve">3.39983224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55129528045654</t>
+    <t xml:space="preserve">3.55129504203796</t>
   </si>
   <si>
     <t xml:space="preserve">3.63217377662659</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89319038391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75716781616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87480878829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84172201156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87848496437073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97039222717285</t>
+    <t xml:space="preserve">3.89319014549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75716710090637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87480854988098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84172248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87848472595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97039175033569</t>
   </si>
   <si>
     <t xml:space="preserve">4.14685392379761</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">4.26449537277222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40051794052124</t>
+    <t xml:space="preserve">4.4005184173584</t>
   </si>
   <si>
     <t xml:space="preserve">4.37478399276733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31596374511719</t>
+    <t xml:space="preserve">4.31596326828003</t>
   </si>
   <si>
     <t xml:space="preserve">4.23140859603882</t>
@@ -764,145 +764,145 @@
     <t xml:space="preserve">4.5218358039856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51815891265869</t>
+    <t xml:space="preserve">4.51815938949585</t>
   </si>
   <si>
     <t xml:space="preserve">4.77917623519897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92990303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77177333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02916288375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35267639160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26444482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71662998199463</t>
+    <t xml:space="preserve">4.92990398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77177381515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0291633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35267686843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26444625854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71662950515747</t>
   </si>
   <si>
     <t xml:space="preserve">5.71295309066772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05852365493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71290397644043</t>
+    <t xml:space="preserve">6.05852460861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71290349960327</t>
   </si>
   <si>
     <t xml:space="preserve">7.09523820877075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81583976745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04376983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44389867782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32310438156128</t>
+    <t xml:space="preserve">6.81584024429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04376888275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44389963150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32310485839844</t>
   </si>
   <si>
     <t xml:space="preserve">7.11926603317261</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67006587982178</t>
+    <t xml:space="preserve">6.67006540298462</t>
   </si>
   <si>
     <t xml:space="preserve">6.85503005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66629028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37185573577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63609218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75688552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83238124847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7191367149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46245241165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50397348403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68893909454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79085874557495</t>
+    <t xml:space="preserve">6.66628980636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37185621261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63609170913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75688457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83238172531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71913766860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46245193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50397396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6889386177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79085826873779</t>
   </si>
   <si>
     <t xml:space="preserve">6.6398663520813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45490217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41337871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23218870162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25483703613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14159393310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1982159614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18689060211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03589963912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97550296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98305177688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63199663162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11484909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43570613861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22431802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20921850204468</t>
+    <t xml:space="preserve">6.45490169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41337823867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23218822479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25483798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14159345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19821500778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18689155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03589868545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97550249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98305225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.631995677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11484956741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.435706615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2243185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20921897888184</t>
   </si>
   <si>
     <t xml:space="preserve">5.08465051651001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11862373352051</t>
+    <t xml:space="preserve">5.11862421035767</t>
   </si>
   <si>
     <t xml:space="preserve">5.15259695053101</t>
@@ -911,61 +911,61 @@
     <t xml:space="preserve">4.93365859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16769599914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00538015365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92233419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88836097717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91855955123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06200122833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77511692047119</t>
+    <t xml:space="preserve">5.16769552230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00537967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92233467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88836145401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91855907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06200218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.73359441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71472072601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6580982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59770250320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60147619247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68452119827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2847146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09597492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04690313339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00160551071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91478490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90723514556885</t>
+    <t xml:space="preserve">4.71472024917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65809917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59770202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60147666931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68452262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09597539901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04690265655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00160598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91478538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90723562240601</t>
   </si>
   <si>
     <t xml:space="preserve">4.83173942565918</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">4.85816287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89213562011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90346050262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98273134231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99405527114868</t>
+    <t xml:space="preserve">4.89213609695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90346002578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98273086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99405574798584</t>
   </si>
   <si>
     <t xml:space="preserve">5.19789409637451</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">5.31491279602051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39795875549316</t>
+    <t xml:space="preserve">5.39795923233032</t>
   </si>
   <si>
     <t xml:space="preserve">5.36776065826416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45080614089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36021089553833</t>
+    <t xml:space="preserve">5.45080518722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36021137237549</t>
   </si>
   <si>
     <t xml:space="preserve">5.17902040481567</t>
@@ -1016,61 +1016,61 @@
     <t xml:space="preserve">4.99028062820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24319219589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14882230758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16392087936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05822706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13372325897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30358839035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33001232147217</t>
+    <t xml:space="preserve">5.24319267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14882278442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16392183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05822658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13372278213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30358934402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33001184463501</t>
   </si>
   <si>
     <t xml:space="preserve">5.26584100723267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20166921615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.190345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41305780410767</t>
+    <t xml:space="preserve">5.20166873931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19034481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41305828094482</t>
   </si>
   <si>
     <t xml:space="preserve">5.49232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88490724563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19066572189331</t>
+    <t xml:space="preserve">5.88490772247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19066524505615</t>
   </si>
   <si>
     <t xml:space="preserve">6.06232261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33410835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24351406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48510026931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51529884338379</t>
+    <t xml:space="preserve">6.33410882949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24351358413696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48510122299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51529836654663</t>
   </si>
   <si>
     <t xml:space="preserve">6.84747982025146</t>
@@ -1079,31 +1079,31 @@
     <t xml:space="preserve">7.38350105285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2362847328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46654748916626</t>
+    <t xml:space="preserve">7.23628425598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4665470123291</t>
   </si>
   <si>
     <t xml:space="preserve">7.48919582366943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07806301116943</t>
+    <t xml:space="preserve">8.07806396484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.53103923797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85567092895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39924430847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75407218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7204217910767</t>
+    <t xml:space="preserve">8.85567188262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39924240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75407314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.720422744751</t>
   </si>
   <si>
     <t xml:space="preserve">8.84057331085205</t>
@@ -1112,19 +1112,19 @@
     <t xml:space="preserve">9.04441165924072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62918376922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41024684906006</t>
+    <t xml:space="preserve">8.62918472290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41024589538574</t>
   </si>
   <si>
     <t xml:space="preserve">8.19130802154541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73487949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38759613037109</t>
+    <t xml:space="preserve">8.73487854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38759708404541</t>
   </si>
   <si>
     <t xml:space="preserve">8.50084209442139</t>
@@ -1133,13 +1133,13 @@
     <t xml:space="preserve">8.38004779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11581230163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7760796546936</t>
+    <t xml:space="preserve">8.27435207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11581325531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77608013153076</t>
   </si>
   <si>
     <t xml:space="preserve">7.91952228546143</t>
@@ -1148,88 +1148,88 @@
     <t xml:space="preserve">7.84402656555176</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82137727737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89687395095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75343179702759</t>
+    <t xml:space="preserve">7.82137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89687347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7534327507019</t>
   </si>
   <si>
     <t xml:space="preserve">8.64428424835205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2290563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34984970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23660564422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44044399261475</t>
+    <t xml:space="preserve">8.22905540466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34985065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23660659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44044589996338</t>
   </si>
   <si>
     <t xml:space="preserve">8.31965160369873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24415493011475</t>
+    <t xml:space="preserve">8.24415588378906</t>
   </si>
   <si>
     <t xml:space="preserve">8.1309118270874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94972085952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79118061065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54959297180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30800628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57224082946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3193302154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56469202041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55714273452759</t>
+    <t xml:space="preserve">7.94971990585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79117918014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54959344863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30800676345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57224130630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31932973861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5646915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55714225769043</t>
   </si>
   <si>
     <t xml:space="preserve">7.92707252502441</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0327672958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60998868942261</t>
+    <t xml:space="preserve">8.03276634216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60998964309692</t>
   </si>
   <si>
     <t xml:space="preserve">7.60243892669678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54204320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45522308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35330390930176</t>
+    <t xml:space="preserve">7.54204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45522212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35330295562744</t>
   </si>
   <si>
     <t xml:space="preserve">7.24005937576294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29668045043945</t>
+    <t xml:space="preserve">7.29668140411377</t>
   </si>
   <si>
     <t xml:space="preserve">7.51184463500977</t>
@@ -1238,40 +1238,40 @@
     <t xml:space="preserve">7.25893306732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19476127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23251056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30045557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27780771255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32687997817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51562023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49297094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3684024810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70058536529541</t>
+    <t xml:space="preserve">7.19476175308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23250865936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12304019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30045509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27780723571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32687950134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5156192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49297142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36840200424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70058441162109</t>
   </si>
   <si>
     <t xml:space="preserve">8.21395683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66693210601807</t>
+    <t xml:space="preserve">8.66693115234375</t>
   </si>
   <si>
     <t xml:space="preserve">8.56123828887939</t>
@@ -1280,106 +1280,106 @@
     <t xml:space="preserve">8.30455207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28945255279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04786491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15355968475342</t>
+    <t xml:space="preserve">8.28945159912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1988582611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04786682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1535587310791</t>
   </si>
   <si>
     <t xml:space="preserve">8.01766777038574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16865921020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85157537460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12681531906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08151721954346</t>
+    <t xml:space="preserve">8.16866016387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85157585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12681484222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08151865005493</t>
   </si>
   <si>
     <t xml:space="preserve">6.89277791976929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96827363967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80973339080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96072435379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95317459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88522863388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93052673339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87767839431763</t>
+    <t xml:space="preserve">6.96827411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80973291397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9607253074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95317506790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88522815704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9305272102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87767887115479</t>
   </si>
   <si>
     <t xml:space="preserve">6.59834384918213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50019884109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900930404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16801691055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15291786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56814575195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5756950378418</t>
+    <t xml:space="preserve">6.50019931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900882720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16801738739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15291738510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56814527511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57569456100464</t>
   </si>
   <si>
     <t xml:space="preserve">6.76443481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78708362579346</t>
+    <t xml:space="preserve">6.78708410263062</t>
   </si>
   <si>
     <t xml:space="preserve">7.00602149963379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83993101119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77953290939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40205430984497</t>
+    <t xml:space="preserve">6.83993148803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60589408874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40205335617065</t>
   </si>
   <si>
     <t xml:space="preserve">6.4398021697998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22086381912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22841358184814</t>
+    <t xml:space="preserve">6.22086429595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2284140586853</t>
   </si>
   <si>
     <t xml:space="preserve">6.18311595916748</t>
@@ -1388,40 +1388,40 @@
     <t xml:space="preserve">6.0849723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26616144180298</t>
+    <t xml:space="preserve">6.26616191864014</t>
   </si>
   <si>
     <t xml:space="preserve">6.31145906448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28881120681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47755002975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49265003204346</t>
+    <t xml:space="preserve">6.28881072998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47755098342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49265050888062</t>
   </si>
   <si>
     <t xml:space="preserve">6.56059551239014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53039789199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42470359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58324480056763</t>
+    <t xml:space="preserve">6.53039693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4247031211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58324527740479</t>
   </si>
   <si>
     <t xml:space="preserve">6.62099361419678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61344289779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65119075775146</t>
+    <t xml:space="preserve">6.61344385147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65119123458862</t>
   </si>
   <si>
     <t xml:space="preserve">6.91063451766968</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">6.69836282730103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78484392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6669135093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61974382400513</t>
+    <t xml:space="preserve">6.78484296798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66691398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61974334716797</t>
   </si>
   <si>
     <t xml:space="preserve">6.91849613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72981119155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4782280921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39960956573486</t>
+    <t xml:space="preserve">6.72981023788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47822904586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961004257202</t>
   </si>
   <si>
     <t xml:space="preserve">6.19519901275635</t>
@@ -1460,34 +1460,34 @@
     <t xml:space="preserve">6.2345085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15588998794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24237060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13230419158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87285995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75493097305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88072204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83355093002319</t>
+    <t xml:space="preserve">6.1558895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24237108230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1323037147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8728609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75493144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8807225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83355045318604</t>
   </si>
   <si>
     <t xml:space="preserve">6.1794753074646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09299373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92003154754639</t>
+    <t xml:space="preserve">6.09299421310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92003202438354</t>
   </si>
   <si>
     <t xml:space="preserve">6.07727003097534</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">6.21878480911255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64332866668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87918663024902</t>
+    <t xml:space="preserve">6.64332962036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87918758392334</t>
   </si>
   <si>
     <t xml:space="preserve">6.77698230743408</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">6.43105745315552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36029958724976</t>
+    <t xml:space="preserve">6.36030006408691</t>
   </si>
   <si>
     <t xml:space="preserve">6.06154632568359</t>
@@ -1526,31 +1526,31 @@
     <t xml:space="preserve">6.05368423461914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98292684555054</t>
+    <t xml:space="preserve">5.9829273223877</t>
   </si>
   <si>
     <t xml:space="preserve">5.94361734390259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84927463531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03796005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06940793991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95934152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90430784225464</t>
+    <t xml:space="preserve">5.84927415847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03796052932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06940889358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95934057235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90430736541748</t>
   </si>
   <si>
     <t xml:space="preserve">5.89644575119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93575525283813</t>
+    <t xml:space="preserve">5.93575572967529</t>
   </si>
   <si>
     <t xml:space="preserve">5.81782674789429</t>
@@ -1562,28 +1562,28 @@
     <t xml:space="preserve">5.77851676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80996417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69989776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73920726776123</t>
+    <t xml:space="preserve">5.80996513366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69989824295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73920774459839</t>
   </si>
   <si>
     <t xml:space="preserve">5.58196878433228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54265975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69203567504883</t>
+    <t xml:space="preserve">5.54265880584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69203615188599</t>
   </si>
   <si>
     <t xml:space="preserve">5.76279306411743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78637933731079</t>
+    <t xml:space="preserve">5.78637886047363</t>
   </si>
   <si>
     <t xml:space="preserve">5.62914037704468</t>
@@ -1592,55 +1592,55 @@
     <t xml:space="preserve">5.53479719161987</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44045448303223</t>
+    <t xml:space="preserve">5.44045400619507</t>
   </si>
   <si>
     <t xml:space="preserve">5.46403980255127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86499834060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0300989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74706983566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47190189361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39328289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34611129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36183500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32252502441406</t>
+    <t xml:space="preserve">5.86499786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03009843826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74706935882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47190141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39328241348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34611082077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36183452606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32252550125122</t>
   </si>
   <si>
     <t xml:space="preserve">5.30680131912231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17314863204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11811590194702</t>
+    <t xml:space="preserve">5.26749134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28321504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1731481552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11811494827271</t>
   </si>
   <si>
     <t xml:space="preserve">5.11025333404541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9687385559082</t>
+    <t xml:space="preserve">4.96873903274536</t>
   </si>
   <si>
     <t xml:space="preserve">5.00804805755615</t>
@@ -1661,31 +1661,31 @@
     <t xml:space="preserve">5.15742492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14170074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09452867507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19673442840576</t>
+    <t xml:space="preserve">5.14170122146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09452962875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1967339515686</t>
   </si>
   <si>
     <t xml:space="preserve">5.42473030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33824920654297</t>
+    <t xml:space="preserve">5.33824968338013</t>
   </si>
   <si>
     <t xml:space="preserve">5.38542079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52539920806885</t>
+    <t xml:space="preserve">6.52540063858032</t>
   </si>
   <si>
     <t xml:space="preserve">6.56471014022827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31312799453735</t>
+    <t xml:space="preserve"